--- a/database/industries/ravankar/shaspa/product/monthly.xlsx
+++ b/database/industries/ravankar/shaspa/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\shaspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3EA1CC-D846-4CC6-A9E6-38BCDD4542C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -288,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,7 +482,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -493,7 +494,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -540,6 +541,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -575,6 +593,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,19 +761,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -793,7 +826,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -850,7 +883,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -907,7 +940,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -962,7 +995,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1052,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1109,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1131,7 +1164,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1343,7 +1376,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1433,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1559,7 +1592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1718,7 +1751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1877,7 +1910,7 @@
         <v>23593</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -2036,7 +2069,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2195,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2354,7 +2387,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2513,7 +2546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2672,7 +2705,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2831,7 +2864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2990,7 +3023,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3149,7 +3182,7 @@
         <v>7551</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3308,7 +3341,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3467,7 +3500,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3626,7 +3659,7 @@
         <v>19684</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3785,7 +3818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
@@ -3842,7 +3875,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
@@ -3999,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>74</v>
       </c>
@@ -4156,7 +4189,7 @@
         <v>64595</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4211,7 +4244,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4266,7 +4299,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4321,7 +4354,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
@@ -4478,7 +4511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4533,7 +4566,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
@@ -4590,7 +4623,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -4749,7 +4782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>58</v>
       </c>
@@ -4908,7 +4941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>59</v>
       </c>
@@ -5067,7 +5100,7 @@
         <v>16430</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
@@ -5226,7 +5259,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
@@ -5385,7 +5418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5544,7 +5577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>63</v>
       </c>
@@ -5703,7 +5736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5862,7 +5895,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -6021,7 +6054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>66</v>
       </c>
@@ -6180,7 +6213,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>67</v>
       </c>
@@ -6339,7 +6372,7 @@
         <v>5515</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>68</v>
       </c>
@@ -6498,7 +6531,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>69</v>
       </c>
@@ -6657,7 +6690,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
@@ -6816,7 +6849,7 @@
         <v>17372</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>71</v>
       </c>
@@ -6975,7 +7008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>72</v>
       </c>
@@ -7032,7 +7065,7 @@
       <c r="BA50" s="15"/>
       <c r="BB50" s="15"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>73</v>
       </c>
@@ -7189,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
@@ -7246,7 +7279,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>77</v>
       </c>
@@ -7405,7 +7438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>63</v>
       </c>
@@ -7564,7 +7597,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>78</v>
       </c>
@@ -7721,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
         <v>74</v>
       </c>
@@ -7878,7 +7911,7 @@
         <v>50671</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7933,7 +7966,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -7988,7 +8021,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -8043,7 +8076,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>79</v>
       </c>
@@ -8200,7 +8233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8255,7 +8288,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>79</v>
       </c>
@@ -8312,7 +8345,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>55</v>
       </c>
@@ -8471,7 +8504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>58</v>
       </c>
@@ -8630,7 +8663,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>59</v>
       </c>
@@ -8789,7 +8822,7 @@
         <v>4342306</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>60</v>
       </c>
@@ -8948,7 +8981,7 @@
         <v>412887</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>61</v>
       </c>
@@ -9107,7 +9140,7 @@
         <v>6157</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>62</v>
       </c>
@@ -9266,7 +9299,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>63</v>
       </c>
@@ -9425,7 +9458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>64</v>
       </c>
@@ -9584,7 +9617,7 @@
         <v>678171</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>65</v>
       </c>
@@ -9743,7 +9776,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>66</v>
       </c>
@@ -9902,7 +9935,7 @@
         <v>1659096</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>67</v>
       </c>
@@ -10061,7 +10094,7 @@
         <v>2494805</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>68</v>
       </c>
@@ -10220,7 +10253,7 @@
         <v>560827</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>69</v>
       </c>
@@ -10379,7 +10412,7 @@
         <v>258955</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>70</v>
       </c>
@@ -10538,7 +10571,7 @@
         <v>1613119</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>71</v>
       </c>
@@ -10697,7 +10730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>81</v>
       </c>
@@ -10754,7 +10787,7 @@
       <c r="BA78" s="15"/>
       <c r="BB78" s="15"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
         <v>73</v>
       </c>
@@ -10913,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
@@ -10970,7 +11003,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>77</v>
       </c>
@@ -11129,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>63</v>
       </c>
@@ -11288,7 +11321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="16" t="s">
         <v>78</v>
       </c>
@@ -11447,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>83</v>
       </c>
@@ -11504,7 +11537,7 @@
       <c r="BA84" s="9"/>
       <c r="BB84" s="9"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>84</v>
       </c>
@@ -11663,7 +11696,7 @@
         <v>-263408</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="18" t="s">
         <v>74</v>
       </c>
@@ -11820,7 +11853,7 @@
         <v>11774920</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11875,7 +11908,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -11930,7 +11963,7 @@
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -11985,7 +12018,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>85</v>
       </c>
@@ -12142,7 +12175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12197,7 +12230,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>86</v>
       </c>
@@ -12254,7 +12287,7 @@
       <c r="BA92" s="9"/>
       <c r="BB92" s="9"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>55</v>
       </c>
@@ -12413,7 +12446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>58</v>
       </c>
@@ -12572,7 +12605,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>59</v>
       </c>
@@ -12731,7 +12764,7 @@
         <v>264291296</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>60</v>
       </c>
@@ -12890,7 +12923,7 @@
         <v>218574378</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>61</v>
       </c>
@@ -13049,7 +13082,7 @@
         <v>362176471</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>62</v>
       </c>
@@ -13208,7 +13241,7 @@
         <v>444629630</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>63</v>
       </c>
@@ -13367,7 +13400,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>64</v>
       </c>
@@ -13526,7 +13559,7 @@
         <v>243683435</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>65</v>
       </c>
@@ -13685,7 +13718,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>66</v>
       </c>
@@ -13844,7 +13877,7 @@
         <v>351354511</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>67</v>
       </c>
@@ -14003,7 +14036,7 @@
         <v>452367180</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>68</v>
       </c>
@@ -14162,7 +14195,7 @@
         <v>415119911</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>69</v>
       </c>
@@ -14321,7 +14354,7 @@
         <v>458327434</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>70</v>
       </c>
@@ -14480,7 +14513,7 @@
         <v>92857414</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>71</v>
       </c>

--- a/database/industries/ravankar/shaspa/product/monthly.xlsx
+++ b/database/industries/ravankar/shaspa/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3EA1CC-D846-4CC6-A9E6-38BCDD4542C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A74486-786C-4DF0-AE6D-5B23AB664F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/ravankar/shaspa/product/monthly.xlsx
+++ b/database/industries/ravankar/shaspa/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A74486-786C-4DF0-AE6D-5B23AB664F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDFC98B-C878-47D2-BABB-340EF102EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>ضد یخ</t>
@@ -1468,65 +1468,65 @@
       <c r="M11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>57</v>
+      <c r="N11" s="11">
+        <v>562</v>
       </c>
       <c r="O11" s="11">
-        <v>562</v>
+        <v>182</v>
       </c>
       <c r="P11" s="11">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="11">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="R11" s="11">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="S11" s="11">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="T11" s="11">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U11" s="11">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="V11" s="11">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="W11" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X11" s="11">
         <v>0</v>
       </c>
       <c r="Y11" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z11" s="11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA11" s="11">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="AB11" s="11">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="AC11" s="11">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="AD11" s="11">
-        <v>382</v>
+        <v>541</v>
       </c>
       <c r="AE11" s="11">
-        <v>541</v>
+        <v>113</v>
       </c>
       <c r="AF11" s="11">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AG11" s="11">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="11">
         <v>0</v>
@@ -1535,37 +1535,37 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK11" s="11">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AL11" s="11">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="AM11" s="11">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="AN11" s="11">
-        <v>208</v>
+        <v>617</v>
       </c>
       <c r="AO11" s="11">
-        <v>617</v>
+        <v>134</v>
       </c>
       <c r="AP11" s="11">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="AQ11" s="11">
-        <v>351</v>
+        <v>122</v>
       </c>
       <c r="AR11" s="11">
-        <v>122</v>
-      </c>
-      <c r="AS11" s="11">
         <v>56</v>
       </c>
-      <c r="AT11" s="11">
-        <v>47</v>
+      <c r="AS11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>57</v>
@@ -1601,97 +1601,97 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>25076</v>
+        <v>31153</v>
       </c>
       <c r="F12" s="13">
-        <v>31153</v>
+        <v>33370</v>
       </c>
       <c r="G12" s="13">
-        <v>33370</v>
+        <v>27029</v>
       </c>
       <c r="H12" s="13">
-        <v>27029</v>
+        <v>33859</v>
       </c>
       <c r="I12" s="13">
-        <v>33859</v>
+        <v>23992</v>
       </c>
       <c r="J12" s="13">
-        <v>23992</v>
+        <v>29749</v>
       </c>
       <c r="K12" s="13">
-        <v>29749</v>
+        <v>37254</v>
       </c>
       <c r="L12" s="13">
-        <v>37254</v>
+        <v>35057</v>
       </c>
       <c r="M12" s="13">
-        <v>35057</v>
+        <v>37423</v>
       </c>
       <c r="N12" s="13">
-        <v>37423</v>
+        <v>59285</v>
       </c>
       <c r="O12" s="13">
-        <v>59285</v>
+        <v>54904</v>
       </c>
       <c r="P12" s="13">
-        <v>54904</v>
+        <v>58824</v>
       </c>
       <c r="Q12" s="13">
-        <v>58824</v>
+        <v>58142</v>
       </c>
       <c r="R12" s="13">
-        <v>58142</v>
+        <v>57003</v>
       </c>
       <c r="S12" s="13">
-        <v>57003</v>
+        <v>51182</v>
       </c>
       <c r="T12" s="13">
-        <v>51182</v>
+        <v>61196</v>
       </c>
       <c r="U12" s="13">
-        <v>61196</v>
+        <v>51984</v>
       </c>
       <c r="V12" s="13">
-        <v>51984</v>
+        <v>51670</v>
       </c>
       <c r="W12" s="13">
-        <v>51670</v>
+        <v>56834</v>
       </c>
       <c r="X12" s="13">
-        <v>56834</v>
+        <v>51261</v>
       </c>
       <c r="Y12" s="13">
-        <v>51261</v>
+        <v>56769</v>
       </c>
       <c r="Z12" s="13">
-        <v>56769</v>
+        <v>40145</v>
       </c>
       <c r="AA12" s="13">
-        <v>40145</v>
+        <v>61948</v>
       </c>
       <c r="AB12" s="13">
-        <v>61948</v>
+        <v>52547</v>
       </c>
       <c r="AC12" s="13">
-        <v>52547</v>
+        <v>65310</v>
       </c>
       <c r="AD12" s="13">
-        <v>65310</v>
+        <v>58240</v>
       </c>
       <c r="AE12" s="13">
-        <v>58240</v>
+        <v>55875</v>
       </c>
       <c r="AF12" s="13">
-        <v>55875</v>
+        <v>48926</v>
       </c>
       <c r="AG12" s="13">
-        <v>48926</v>
+        <v>52008</v>
       </c>
       <c r="AH12" s="13">
-        <v>52008</v>
-      </c>
-      <c r="AI12" s="13">
         <v>46515</v>
+      </c>
+      <c r="AI12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ12" s="13" t="s">
         <v>57</v>
@@ -1849,65 +1849,65 @@
       <c r="AH13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI13" s="11" t="s">
-        <v>57</v>
+      <c r="AI13" s="11">
+        <v>25684</v>
       </c>
       <c r="AJ13" s="11">
-        <v>25684</v>
+        <v>22010</v>
       </c>
       <c r="AK13" s="11">
-        <v>22010</v>
+        <v>22668</v>
       </c>
       <c r="AL13" s="11">
-        <v>22668</v>
+        <v>31693</v>
       </c>
       <c r="AM13" s="11">
-        <v>31693</v>
+        <v>23360</v>
       </c>
       <c r="AN13" s="11">
-        <v>23360</v>
+        <v>24932</v>
       </c>
       <c r="AO13" s="11">
-        <v>24932</v>
+        <v>24847</v>
       </c>
       <c r="AP13" s="11">
-        <v>24847</v>
+        <v>34431</v>
       </c>
       <c r="AQ13" s="11">
-        <v>34431</v>
+        <v>23879</v>
       </c>
       <c r="AR13" s="11">
-        <v>23879</v>
+        <v>23374</v>
       </c>
       <c r="AS13" s="11">
-        <v>23374</v>
+        <v>27251</v>
       </c>
       <c r="AT13" s="11">
-        <v>27249</v>
+        <v>23229</v>
       </c>
       <c r="AU13" s="11">
-        <v>23229</v>
+        <v>28726</v>
       </c>
       <c r="AV13" s="11">
-        <v>28726</v>
+        <v>27131</v>
       </c>
       <c r="AW13" s="11">
-        <v>27131</v>
+        <v>23761</v>
       </c>
       <c r="AX13" s="11">
-        <v>23761</v>
+        <v>29220</v>
       </c>
       <c r="AY13" s="11">
-        <v>29220</v>
+        <v>18706</v>
       </c>
       <c r="AZ13" s="11">
-        <v>18706</v>
+        <v>15211</v>
       </c>
       <c r="BA13" s="11">
-        <v>15211</v>
+        <v>23593</v>
       </c>
       <c r="BB13" s="11">
-        <v>23593</v>
+        <v>19495</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2008,65 +2008,65 @@
       <c r="AH14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI14" s="13" t="s">
-        <v>57</v>
+      <c r="AI14" s="13">
+        <v>2881</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2881</v>
+        <v>1600</v>
       </c>
       <c r="AK14" s="13">
-        <v>1600</v>
+        <v>2149</v>
       </c>
       <c r="AL14" s="13">
-        <v>2149</v>
+        <v>2279</v>
       </c>
       <c r="AM14" s="13">
-        <v>2279</v>
+        <v>2201</v>
       </c>
       <c r="AN14" s="13">
-        <v>2201</v>
+        <v>2521</v>
       </c>
       <c r="AO14" s="13">
-        <v>2521</v>
+        <v>1335</v>
       </c>
       <c r="AP14" s="13">
-        <v>1335</v>
+        <v>2020</v>
       </c>
       <c r="AQ14" s="13">
-        <v>2020</v>
+        <v>2975</v>
       </c>
       <c r="AR14" s="13">
-        <v>2975</v>
+        <v>805</v>
       </c>
       <c r="AS14" s="13">
-        <v>805</v>
+        <v>631</v>
       </c>
       <c r="AT14" s="13">
-        <v>862</v>
+        <v>1028</v>
       </c>
       <c r="AU14" s="13">
+        <v>774</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>1700</v>
+      </c>
+      <c r="AW14" s="13">
         <v>1028</v>
       </c>
-      <c r="AV14" s="13">
-        <v>774</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>1700</v>
-      </c>
       <c r="AX14" s="13">
-        <v>1028</v>
+        <v>837</v>
       </c>
       <c r="AY14" s="13">
-        <v>837</v>
+        <v>1143</v>
       </c>
       <c r="AZ14" s="13">
-        <v>1143</v>
+        <v>3936</v>
       </c>
       <c r="BA14" s="13">
-        <v>3936</v>
+        <v>6250</v>
       </c>
       <c r="BB14" s="13">
-        <v>6250</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2104,35 +2104,35 @@
       <c r="M15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>57</v>
+      <c r="N15" s="11">
+        <v>68</v>
       </c>
       <c r="O15" s="11">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="P15" s="11">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="11">
         <v>0</v>
       </c>
       <c r="R15" s="11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S15" s="11">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="T15" s="11">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="U15" s="11">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="V15" s="11">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="W15" s="11">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="X15" s="11">
         <v>0</v>
@@ -2147,40 +2147,40 @@
         <v>0</v>
       </c>
       <c r="AB15" s="11">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AC15" s="11">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="AD15" s="11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="11">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AF15" s="11">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="AG15" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="11">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AI15" s="11">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="AJ15" s="11">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="AK15" s="11">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AL15" s="11">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AM15" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="11">
         <v>0</v>
@@ -2192,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="11">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AR15" s="11">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AS15" s="11">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="AT15" s="11">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="AU15" s="11">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="11">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB15" s="11">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2356,35 +2356,35 @@
       <c r="AR16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT16" s="13" t="s">
-        <v>57</v>
+      <c r="AS16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>0</v>
       </c>
       <c r="AU16" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AV16" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="13">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AX16" s="13">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="AY16" s="13">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="AZ16" s="13">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="13">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="BB16" s="13">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2396,34 +2396,34 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>21024</v>
+        <v>23140</v>
       </c>
       <c r="F17" s="11">
-        <v>23140</v>
+        <v>21739</v>
       </c>
       <c r="G17" s="11">
-        <v>21739</v>
+        <v>26989</v>
       </c>
       <c r="H17" s="11">
-        <v>26989</v>
+        <v>20609</v>
       </c>
       <c r="I17" s="11">
-        <v>20609</v>
+        <v>24948</v>
       </c>
       <c r="J17" s="11">
-        <v>24948</v>
+        <v>23462</v>
       </c>
       <c r="K17" s="11">
-        <v>23462</v>
+        <v>29484</v>
       </c>
       <c r="L17" s="11">
-        <v>29484</v>
+        <v>19449</v>
       </c>
       <c r="M17" s="11">
-        <v>19449</v>
+        <v>24556</v>
       </c>
       <c r="N17" s="11">
-        <v>24556</v>
+        <v>0</v>
       </c>
       <c r="O17" s="11">
         <v>0</v>
@@ -2449,8 +2449,8 @@
       <c r="V17" s="11">
         <v>0</v>
       </c>
-      <c r="W17" s="11">
-        <v>0</v>
+      <c r="W17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>57</v>
@@ -2644,65 +2644,65 @@
       <c r="AH18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI18" s="13" t="s">
-        <v>57</v>
+      <c r="AI18" s="13">
+        <v>2515</v>
       </c>
       <c r="AJ18" s="13">
-        <v>2515</v>
+        <v>4031</v>
       </c>
       <c r="AK18" s="13">
-        <v>4031</v>
+        <v>3735</v>
       </c>
       <c r="AL18" s="13">
-        <v>3735</v>
+        <v>3730</v>
       </c>
       <c r="AM18" s="13">
-        <v>3730</v>
+        <v>3549</v>
       </c>
       <c r="AN18" s="13">
-        <v>3549</v>
+        <v>2789</v>
       </c>
       <c r="AO18" s="13">
-        <v>2789</v>
+        <v>4285</v>
       </c>
       <c r="AP18" s="13">
-        <v>4285</v>
+        <v>3439</v>
       </c>
       <c r="AQ18" s="13">
-        <v>3439</v>
+        <v>2684</v>
       </c>
       <c r="AR18" s="13">
-        <v>2684</v>
+        <v>4166</v>
       </c>
       <c r="AS18" s="13">
-        <v>4166</v>
+        <v>4533</v>
       </c>
       <c r="AT18" s="13">
-        <v>4302</v>
+        <v>3517</v>
       </c>
       <c r="AU18" s="13">
-        <v>3517</v>
+        <v>5317</v>
       </c>
       <c r="AV18" s="13">
-        <v>5317</v>
+        <v>4504</v>
       </c>
       <c r="AW18" s="13">
-        <v>4504</v>
+        <v>4506</v>
       </c>
       <c r="AX18" s="13">
-        <v>4506</v>
+        <v>2283</v>
       </c>
       <c r="AY18" s="13">
-        <v>2283</v>
+        <v>3342</v>
       </c>
       <c r="AZ18" s="13">
-        <v>3342</v>
+        <v>1068</v>
       </c>
       <c r="BA18" s="13">
-        <v>1068</v>
+        <v>230</v>
       </c>
       <c r="BB18" s="13">
-        <v>230</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2740,71 +2740,71 @@
       <c r="M19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="11" t="s">
-        <v>57</v>
+      <c r="N19" s="11">
+        <v>6065</v>
       </c>
       <c r="O19" s="11">
-        <v>6065</v>
+        <v>6287</v>
       </c>
       <c r="P19" s="11">
-        <v>6287</v>
+        <v>5387</v>
       </c>
       <c r="Q19" s="11">
-        <v>5387</v>
+        <v>5916</v>
       </c>
       <c r="R19" s="11">
-        <v>5916</v>
+        <v>6225</v>
       </c>
       <c r="S19" s="11">
-        <v>6225</v>
+        <v>6322</v>
       </c>
       <c r="T19" s="11">
-        <v>6322</v>
+        <v>5947</v>
       </c>
       <c r="U19" s="11">
-        <v>5947</v>
+        <v>4950</v>
       </c>
       <c r="V19" s="11">
-        <v>4950</v>
+        <v>5307</v>
       </c>
       <c r="W19" s="11">
-        <v>5307</v>
+        <v>6024</v>
       </c>
       <c r="X19" s="11">
-        <v>6024</v>
+        <v>5101</v>
       </c>
       <c r="Y19" s="11">
-        <v>5101</v>
+        <v>5042</v>
       </c>
       <c r="Z19" s="11">
-        <v>5042</v>
+        <v>4890</v>
       </c>
       <c r="AA19" s="11">
-        <v>4890</v>
+        <v>5561</v>
       </c>
       <c r="AB19" s="11">
-        <v>5561</v>
+        <v>5547</v>
       </c>
       <c r="AC19" s="11">
-        <v>5547</v>
+        <v>5524</v>
       </c>
       <c r="AD19" s="11">
-        <v>5524</v>
+        <v>5333</v>
       </c>
       <c r="AE19" s="11">
-        <v>5333</v>
+        <v>5062</v>
       </c>
       <c r="AF19" s="11">
-        <v>5062</v>
+        <v>6513</v>
       </c>
       <c r="AG19" s="11">
-        <v>6513</v>
+        <v>4245</v>
       </c>
       <c r="AH19" s="11">
-        <v>4245</v>
-      </c>
-      <c r="AI19" s="11">
         <v>5222</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>57</v>
@@ -2962,65 +2962,65 @@
       <c r="AH20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI20" s="13" t="s">
-        <v>57</v>
+      <c r="AI20" s="13">
+        <v>6782</v>
       </c>
       <c r="AJ20" s="13">
-        <v>6782</v>
+        <v>3941</v>
       </c>
       <c r="AK20" s="13">
-        <v>3941</v>
+        <v>7096</v>
       </c>
       <c r="AL20" s="13">
-        <v>7096</v>
+        <v>10629</v>
       </c>
       <c r="AM20" s="13">
-        <v>10629</v>
+        <v>7746</v>
       </c>
       <c r="AN20" s="13">
-        <v>7746</v>
+        <v>5883</v>
       </c>
       <c r="AO20" s="13">
-        <v>5883</v>
+        <v>5093</v>
       </c>
       <c r="AP20" s="13">
-        <v>5093</v>
+        <v>5885</v>
       </c>
       <c r="AQ20" s="13">
-        <v>5885</v>
+        <v>6347</v>
       </c>
       <c r="AR20" s="13">
-        <v>6347</v>
+        <v>3833</v>
       </c>
       <c r="AS20" s="13">
-        <v>3833</v>
+        <v>3509</v>
       </c>
       <c r="AT20" s="13">
-        <v>3509</v>
+        <v>3382</v>
       </c>
       <c r="AU20" s="13">
-        <v>3382</v>
+        <v>3621</v>
       </c>
       <c r="AV20" s="13">
-        <v>3741</v>
+        <v>2377</v>
       </c>
       <c r="AW20" s="13">
-        <v>2390</v>
+        <v>6031</v>
       </c>
       <c r="AX20" s="13">
-        <v>6031</v>
+        <v>4816</v>
       </c>
       <c r="AY20" s="13">
-        <v>4816</v>
+        <v>6863</v>
       </c>
       <c r="AZ20" s="13">
-        <v>6863</v>
+        <v>9155</v>
       </c>
       <c r="BA20" s="13">
-        <v>9155</v>
+        <v>3954</v>
       </c>
       <c r="BB20" s="13">
-        <v>3954</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3121,65 +3121,65 @@
       <c r="AH21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI21" s="11" t="s">
-        <v>57</v>
+      <c r="AI21" s="11">
+        <v>9454</v>
       </c>
       <c r="AJ21" s="11">
-        <v>9454</v>
+        <v>2089</v>
       </c>
       <c r="AK21" s="11">
-        <v>2089</v>
+        <v>5252</v>
       </c>
       <c r="AL21" s="11">
-        <v>5252</v>
+        <v>6498</v>
       </c>
       <c r="AM21" s="11">
-        <v>6498</v>
+        <v>7632</v>
       </c>
       <c r="AN21" s="11">
-        <v>7632</v>
+        <v>3730</v>
       </c>
       <c r="AO21" s="11">
-        <v>3730</v>
+        <v>5787</v>
       </c>
       <c r="AP21" s="11">
-        <v>5787</v>
+        <v>5118</v>
       </c>
       <c r="AQ21" s="11">
-        <v>5118</v>
+        <v>3478</v>
       </c>
       <c r="AR21" s="11">
-        <v>3478</v>
+        <v>6376</v>
       </c>
       <c r="AS21" s="11">
-        <v>6376</v>
+        <v>5315</v>
       </c>
       <c r="AT21" s="11">
-        <v>5315</v>
+        <v>3802</v>
       </c>
       <c r="AU21" s="11">
-        <v>3802</v>
+        <v>2714</v>
       </c>
       <c r="AV21" s="11">
-        <v>2714</v>
+        <v>4387</v>
       </c>
       <c r="AW21" s="11">
-        <v>4387</v>
+        <v>3295</v>
       </c>
       <c r="AX21" s="11">
-        <v>3295</v>
+        <v>2728</v>
       </c>
       <c r="AY21" s="11">
-        <v>2728</v>
+        <v>6783</v>
       </c>
       <c r="AZ21" s="11">
-        <v>6783</v>
+        <v>6788</v>
       </c>
       <c r="BA21" s="11">
-        <v>6788</v>
+        <v>7551</v>
       </c>
       <c r="BB21" s="11">
-        <v>7551</v>
+        <v>9744</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3280,65 +3280,65 @@
       <c r="AH22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI22" s="13" t="s">
-        <v>57</v>
+      <c r="AI22" s="13">
+        <v>2541</v>
       </c>
       <c r="AJ22" s="13">
-        <v>2541</v>
+        <v>2391</v>
       </c>
       <c r="AK22" s="13">
-        <v>2391</v>
+        <v>1973</v>
       </c>
       <c r="AL22" s="13">
-        <v>1973</v>
+        <v>3224</v>
       </c>
       <c r="AM22" s="13">
-        <v>3224</v>
+        <v>2955</v>
       </c>
       <c r="AN22" s="13">
-        <v>2955</v>
+        <v>2139</v>
       </c>
       <c r="AO22" s="13">
-        <v>2139</v>
+        <v>2824</v>
       </c>
       <c r="AP22" s="13">
-        <v>2824</v>
+        <v>1766</v>
       </c>
       <c r="AQ22" s="13">
-        <v>1766</v>
+        <v>1844</v>
       </c>
       <c r="AR22" s="13">
-        <v>1844</v>
+        <v>1222</v>
       </c>
       <c r="AS22" s="13">
-        <v>1222</v>
+        <v>2693</v>
       </c>
       <c r="AT22" s="13">
-        <v>2697</v>
+        <v>810</v>
       </c>
       <c r="AU22" s="13">
-        <v>810</v>
+        <v>1503</v>
       </c>
       <c r="AV22" s="13">
-        <v>1503</v>
+        <v>2330</v>
       </c>
       <c r="AW22" s="13">
-        <v>2330</v>
+        <v>2315</v>
       </c>
       <c r="AX22" s="13">
-        <v>2315</v>
+        <v>1504</v>
       </c>
       <c r="AY22" s="13">
-        <v>1504</v>
+        <v>1543</v>
       </c>
       <c r="AZ22" s="13">
-        <v>1543</v>
+        <v>1818</v>
       </c>
       <c r="BA22" s="13">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="BB22" s="13">
-        <v>1796</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3439,65 +3439,65 @@
       <c r="AH23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI23" s="11" t="s">
-        <v>57</v>
+      <c r="AI23" s="11">
+        <v>1048</v>
       </c>
       <c r="AJ23" s="11">
-        <v>1048</v>
+        <v>490</v>
       </c>
       <c r="AK23" s="11">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="AL23" s="11">
-        <v>461</v>
+        <v>1127</v>
       </c>
       <c r="AM23" s="11">
-        <v>1127</v>
+        <v>1322</v>
       </c>
       <c r="AN23" s="11">
-        <v>1322</v>
+        <v>592</v>
       </c>
       <c r="AO23" s="11">
-        <v>592</v>
+        <v>351</v>
       </c>
       <c r="AP23" s="11">
-        <v>351</v>
+        <v>696</v>
       </c>
       <c r="AQ23" s="11">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="AR23" s="11">
-        <v>692</v>
+        <v>616</v>
       </c>
       <c r="AS23" s="11">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="AT23" s="11">
-        <v>541</v>
+        <v>397</v>
       </c>
       <c r="AU23" s="11">
-        <v>397</v>
+        <v>778</v>
       </c>
       <c r="AV23" s="11">
-        <v>778</v>
+        <v>888</v>
       </c>
       <c r="AW23" s="11">
-        <v>888</v>
+        <v>1604</v>
       </c>
       <c r="AX23" s="11">
-        <v>1604</v>
+        <v>204</v>
       </c>
       <c r="AY23" s="11">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="AZ23" s="11">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="BA23" s="11">
-        <v>178</v>
+        <v>1466</v>
       </c>
       <c r="BB23" s="11">
-        <v>1466</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3598,65 +3598,65 @@
       <c r="AH24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI24" s="13" t="s">
-        <v>57</v>
+      <c r="AI24" s="13">
+        <v>22872</v>
       </c>
       <c r="AJ24" s="13">
-        <v>22872</v>
+        <v>10000</v>
       </c>
       <c r="AK24" s="13">
-        <v>10000</v>
+        <v>21265</v>
       </c>
       <c r="AL24" s="13">
-        <v>21265</v>
+        <v>19437</v>
       </c>
       <c r="AM24" s="13">
-        <v>19437</v>
+        <v>20285</v>
       </c>
       <c r="AN24" s="13">
-        <v>20285</v>
+        <v>20340</v>
       </c>
       <c r="AO24" s="13">
-        <v>20340</v>
+        <v>30556</v>
       </c>
       <c r="AP24" s="13">
-        <v>30556</v>
+        <v>17675</v>
       </c>
       <c r="AQ24" s="13">
-        <v>17675</v>
+        <v>15533</v>
       </c>
       <c r="AR24" s="13">
-        <v>15533</v>
+        <v>14536</v>
       </c>
       <c r="AS24" s="13">
-        <v>14536</v>
+        <v>20160</v>
       </c>
       <c r="AT24" s="13">
-        <v>20160</v>
+        <v>16766</v>
       </c>
       <c r="AU24" s="13">
-        <v>16766</v>
+        <v>17060</v>
       </c>
       <c r="AV24" s="13">
-        <v>17060</v>
+        <v>17046</v>
       </c>
       <c r="AW24" s="13">
-        <v>17046</v>
+        <v>17828</v>
       </c>
       <c r="AX24" s="13">
-        <v>17828</v>
+        <v>15504</v>
       </c>
       <c r="AY24" s="13">
-        <v>15504</v>
+        <v>18180</v>
       </c>
       <c r="AZ24" s="13">
-        <v>18180</v>
+        <v>17149</v>
       </c>
       <c r="BA24" s="13">
-        <v>17149</v>
+        <v>19684</v>
       </c>
       <c r="BB24" s="13">
-        <v>19684</v>
+        <v>21613</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3757,35 +3757,35 @@
       <c r="AH25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI25" s="11" t="s">
-        <v>57</v>
+      <c r="AI25" s="11">
+        <v>0</v>
       </c>
       <c r="AJ25" s="11">
         <v>0</v>
       </c>
       <c r="AK25" s="11">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AL25" s="11">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="11">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="AN25" s="11">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="11">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="AP25" s="11">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="11">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AR25" s="11">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="11">
         <v>0</v>
@@ -3793,8 +3793,8 @@
       <c r="AT25" s="11">
         <v>0</v>
       </c>
-      <c r="AU25" s="11">
-        <v>0</v>
+      <c r="AU25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV25" s="11" t="s">
         <v>57</v>
@@ -3944,8 +3944,8 @@
       <c r="Y27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z27" s="17" t="s">
-        <v>57</v>
+      <c r="Z27" s="17">
+        <v>0</v>
       </c>
       <c r="AA27" s="17">
         <v>0</v>
@@ -4039,154 +4039,154 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>46100</v>
+        <v>54293</v>
       </c>
       <c r="F28" s="19">
-        <v>54293</v>
+        <v>55109</v>
       </c>
       <c r="G28" s="19">
-        <v>55109</v>
+        <v>54018</v>
       </c>
       <c r="H28" s="19">
-        <v>54018</v>
+        <v>54468</v>
       </c>
       <c r="I28" s="19">
-        <v>54468</v>
+        <v>48940</v>
       </c>
       <c r="J28" s="19">
-        <v>48940</v>
+        <v>53211</v>
       </c>
       <c r="K28" s="19">
-        <v>53211</v>
+        <v>66738</v>
       </c>
       <c r="L28" s="19">
-        <v>66738</v>
+        <v>54506</v>
       </c>
       <c r="M28" s="19">
-        <v>54506</v>
+        <v>61979</v>
       </c>
       <c r="N28" s="19">
-        <v>61979</v>
+        <v>65980</v>
       </c>
       <c r="O28" s="19">
-        <v>65980</v>
+        <v>61466</v>
       </c>
       <c r="P28" s="19">
-        <v>61466</v>
+        <v>64371</v>
       </c>
       <c r="Q28" s="19">
-        <v>64371</v>
+        <v>64207</v>
       </c>
       <c r="R28" s="19">
-        <v>64207</v>
+        <v>63265</v>
       </c>
       <c r="S28" s="19">
-        <v>63265</v>
+        <v>57705</v>
       </c>
       <c r="T28" s="19">
-        <v>57705</v>
+        <v>67304</v>
       </c>
       <c r="U28" s="19">
-        <v>67304</v>
+        <v>57121</v>
       </c>
       <c r="V28" s="19">
-        <v>57121</v>
+        <v>57055</v>
       </c>
       <c r="W28" s="19">
-        <v>57055</v>
+        <v>62858</v>
       </c>
       <c r="X28" s="19">
-        <v>62858</v>
+        <v>56362</v>
       </c>
       <c r="Y28" s="19">
-        <v>56362</v>
+        <v>61832</v>
       </c>
       <c r="Z28" s="19">
-        <v>61832</v>
+        <v>45059</v>
       </c>
       <c r="AA28" s="19">
-        <v>45059</v>
+        <v>67699</v>
       </c>
       <c r="AB28" s="19">
-        <v>67699</v>
+        <v>58702</v>
       </c>
       <c r="AC28" s="19">
-        <v>58702</v>
+        <v>71228</v>
       </c>
       <c r="AD28" s="19">
-        <v>71228</v>
+        <v>64114</v>
       </c>
       <c r="AE28" s="19">
-        <v>64114</v>
+        <v>61117</v>
       </c>
       <c r="AF28" s="19">
-        <v>61117</v>
+        <v>55616</v>
       </c>
       <c r="AG28" s="19">
-        <v>55616</v>
+        <v>56253</v>
       </c>
       <c r="AH28" s="19">
-        <v>56253</v>
+        <v>51873</v>
       </c>
       <c r="AI28" s="19">
-        <v>51873</v>
+        <v>73829</v>
       </c>
       <c r="AJ28" s="19">
-        <v>73829</v>
+        <v>46703</v>
       </c>
       <c r="AK28" s="19">
-        <v>46703</v>
+        <v>65575</v>
       </c>
       <c r="AL28" s="19">
-        <v>65575</v>
+        <v>78770</v>
       </c>
       <c r="AM28" s="19">
-        <v>78770</v>
+        <v>70292</v>
       </c>
       <c r="AN28" s="19">
-        <v>70292</v>
+        <v>63543</v>
       </c>
       <c r="AO28" s="19">
-        <v>63543</v>
+        <v>75687</v>
       </c>
       <c r="AP28" s="19">
-        <v>75687</v>
+        <v>71381</v>
       </c>
       <c r="AQ28" s="19">
-        <v>71381</v>
+        <v>58110</v>
       </c>
       <c r="AR28" s="19">
-        <v>58110</v>
+        <v>55054</v>
       </c>
       <c r="AS28" s="19">
-        <v>55054</v>
+        <v>64780</v>
       </c>
       <c r="AT28" s="19">
-        <v>64829</v>
+        <v>53017</v>
       </c>
       <c r="AU28" s="19">
-        <v>53017</v>
+        <v>60515</v>
       </c>
       <c r="AV28" s="19">
-        <v>60635</v>
+        <v>60363</v>
       </c>
       <c r="AW28" s="19">
-        <v>60376</v>
+        <v>60491</v>
       </c>
       <c r="AX28" s="19">
-        <v>60491</v>
+        <v>57441</v>
       </c>
       <c r="AY28" s="19">
-        <v>57441</v>
+        <v>56804</v>
       </c>
       <c r="AZ28" s="19">
-        <v>56804</v>
+        <v>55304</v>
       </c>
       <c r="BA28" s="19">
-        <v>55304</v>
+        <v>64595</v>
       </c>
       <c r="BB28" s="19">
-        <v>64595</v>
+        <v>61322</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -4658,104 +4658,104 @@
       <c r="M35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N35" s="11" t="s">
-        <v>57</v>
+      <c r="N35" s="11">
+        <v>17</v>
       </c>
       <c r="O35" s="11">
-        <v>17</v>
+        <v>569</v>
       </c>
       <c r="P35" s="11">
-        <v>569</v>
+        <v>158</v>
       </c>
       <c r="Q35" s="11">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="R35" s="11">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="S35" s="11">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="T35" s="11">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="U35" s="11">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="V35" s="11">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="W35" s="11">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="X35" s="11">
+        <v>16</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>32</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>104</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>527</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>346</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>399</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>237</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>111</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>25</v>
+      </c>
+      <c r="AH35" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="11">
         <v>6</v>
       </c>
-      <c r="Y35" s="11">
-        <v>16</v>
-      </c>
-      <c r="Z35" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA35" s="11">
-        <v>32</v>
-      </c>
-      <c r="AB35" s="11">
-        <v>104</v>
-      </c>
-      <c r="AC35" s="11">
-        <v>527</v>
-      </c>
-      <c r="AD35" s="11">
-        <v>346</v>
-      </c>
-      <c r="AE35" s="11">
-        <v>399</v>
-      </c>
-      <c r="AF35" s="11">
-        <v>237</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>111</v>
-      </c>
-      <c r="AH35" s="11">
-        <v>25</v>
-      </c>
-      <c r="AI35" s="11">
-        <v>1</v>
-      </c>
       <c r="AJ35" s="11">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="AK35" s="11">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AL35" s="11">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AM35" s="11">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="AN35" s="11">
-        <v>145</v>
+        <v>559</v>
       </c>
       <c r="AO35" s="11">
-        <v>559</v>
+        <v>257</v>
       </c>
       <c r="AP35" s="11">
-        <v>257</v>
+        <v>411</v>
       </c>
       <c r="AQ35" s="11">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="AR35" s="11">
-        <v>110</v>
-      </c>
-      <c r="AS35" s="11">
         <v>80</v>
       </c>
-      <c r="AT35" s="11">
-        <v>51</v>
+      <c r="AS35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU35" s="11" t="s">
         <v>57</v>
@@ -4791,97 +4791,97 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>36452</v>
+        <v>28789</v>
       </c>
       <c r="F36" s="13">
-        <v>28789</v>
+        <v>32591</v>
       </c>
       <c r="G36" s="13">
-        <v>32591</v>
+        <v>25622</v>
       </c>
       <c r="H36" s="13">
-        <v>25622</v>
+        <v>30803</v>
       </c>
       <c r="I36" s="13">
-        <v>30803</v>
+        <v>29880</v>
       </c>
       <c r="J36" s="13">
-        <v>29880</v>
+        <v>48450</v>
       </c>
       <c r="K36" s="13">
-        <v>48450</v>
+        <v>31571</v>
       </c>
       <c r="L36" s="13">
-        <v>31571</v>
+        <v>43133</v>
       </c>
       <c r="M36" s="13">
-        <v>43133</v>
+        <v>44401</v>
       </c>
       <c r="N36" s="13">
-        <v>44401</v>
+        <v>60125</v>
       </c>
       <c r="O36" s="13">
-        <v>60125</v>
+        <v>65987</v>
       </c>
       <c r="P36" s="13">
-        <v>65987</v>
+        <v>65128</v>
       </c>
       <c r="Q36" s="13">
-        <v>65128</v>
+        <v>47967</v>
       </c>
       <c r="R36" s="13">
-        <v>47967</v>
+        <v>46781</v>
       </c>
       <c r="S36" s="13">
-        <v>46781</v>
+        <v>62771</v>
       </c>
       <c r="T36" s="13">
-        <v>62771</v>
+        <v>51818</v>
       </c>
       <c r="U36" s="13">
-        <v>51818</v>
+        <v>67441</v>
       </c>
       <c r="V36" s="13">
-        <v>67441</v>
+        <v>56113</v>
       </c>
       <c r="W36" s="13">
-        <v>56113</v>
+        <v>22075</v>
       </c>
       <c r="X36" s="13">
-        <v>22075</v>
+        <v>55576</v>
       </c>
       <c r="Y36" s="13">
-        <v>55576</v>
+        <v>67616</v>
       </c>
       <c r="Z36" s="13">
-        <v>67616</v>
+        <v>59104</v>
       </c>
       <c r="AA36" s="13">
-        <v>59104</v>
+        <v>50189</v>
       </c>
       <c r="AB36" s="13">
-        <v>50189</v>
+        <v>59049</v>
       </c>
       <c r="AC36" s="13">
-        <v>59049</v>
+        <v>61923</v>
       </c>
       <c r="AD36" s="13">
-        <v>61923</v>
+        <v>47981</v>
       </c>
       <c r="AE36" s="13">
-        <v>47981</v>
+        <v>51056</v>
       </c>
       <c r="AF36" s="13">
-        <v>51056</v>
+        <v>62926</v>
       </c>
       <c r="AG36" s="13">
-        <v>62926</v>
+        <v>47452</v>
       </c>
       <c r="AH36" s="13">
-        <v>47452</v>
-      </c>
-      <c r="AI36" s="13">
         <v>50713</v>
+      </c>
+      <c r="AI36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ36" s="13" t="s">
         <v>57</v>
@@ -5039,65 +5039,65 @@
       <c r="AH37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI37" s="11" t="s">
-        <v>57</v>
+      <c r="AI37" s="11">
+        <v>17366</v>
       </c>
       <c r="AJ37" s="11">
-        <v>17366</v>
+        <v>18843</v>
       </c>
       <c r="AK37" s="11">
-        <v>18843</v>
+        <v>21712</v>
       </c>
       <c r="AL37" s="11">
-        <v>21712</v>
+        <v>21802</v>
       </c>
       <c r="AM37" s="11">
-        <v>21802</v>
+        <v>24929</v>
       </c>
       <c r="AN37" s="11">
-        <v>24929</v>
+        <v>39065</v>
       </c>
       <c r="AO37" s="11">
-        <v>39065</v>
+        <v>20379</v>
       </c>
       <c r="AP37" s="11">
-        <v>20379</v>
+        <v>16279</v>
       </c>
       <c r="AQ37" s="11">
-        <v>16279</v>
+        <v>21593</v>
       </c>
       <c r="AR37" s="11">
-        <v>21593</v>
+        <v>20190</v>
       </c>
       <c r="AS37" s="11">
-        <v>20190</v>
+        <v>18944</v>
       </c>
       <c r="AT37" s="11">
-        <v>22426</v>
+        <v>26998</v>
       </c>
       <c r="AU37" s="11">
-        <v>26998</v>
+        <v>7908</v>
       </c>
       <c r="AV37" s="11">
-        <v>7908</v>
+        <v>27135</v>
       </c>
       <c r="AW37" s="11">
-        <v>27135</v>
+        <v>42181</v>
       </c>
       <c r="AX37" s="11">
-        <v>42181</v>
+        <v>34412</v>
       </c>
       <c r="AY37" s="11">
-        <v>34412</v>
+        <v>25621</v>
       </c>
       <c r="AZ37" s="11">
-        <v>25621</v>
+        <v>22812</v>
       </c>
       <c r="BA37" s="11">
-        <v>22812</v>
+        <v>16430</v>
       </c>
       <c r="BB37" s="11">
-        <v>16430</v>
+        <v>19627</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5198,65 +5198,65 @@
       <c r="AH38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI38" s="13" t="s">
-        <v>57</v>
+      <c r="AI38" s="13">
+        <v>1039</v>
       </c>
       <c r="AJ38" s="13">
-        <v>1039</v>
+        <v>2156</v>
       </c>
       <c r="AK38" s="13">
-        <v>2156</v>
+        <v>1939</v>
       </c>
       <c r="AL38" s="13">
-        <v>1939</v>
+        <v>2550</v>
       </c>
       <c r="AM38" s="13">
-        <v>2550</v>
+        <v>2609</v>
       </c>
       <c r="AN38" s="13">
-        <v>2609</v>
+        <v>1901</v>
       </c>
       <c r="AO38" s="13">
-        <v>1901</v>
+        <v>1611</v>
       </c>
       <c r="AP38" s="13">
-        <v>1611</v>
+        <v>1362</v>
       </c>
       <c r="AQ38" s="13">
-        <v>1362</v>
+        <v>2463</v>
       </c>
       <c r="AR38" s="13">
-        <v>2463</v>
+        <v>1783</v>
       </c>
       <c r="AS38" s="13">
-        <v>1783</v>
+        <v>1243</v>
       </c>
       <c r="AT38" s="13">
-        <v>1243</v>
+        <v>962</v>
       </c>
       <c r="AU38" s="13">
-        <v>962</v>
+        <v>736</v>
       </c>
       <c r="AV38" s="13">
-        <v>736</v>
+        <v>1686</v>
       </c>
       <c r="AW38" s="13">
-        <v>1686</v>
+        <v>1029</v>
       </c>
       <c r="AX38" s="13">
-        <v>1029</v>
+        <v>824</v>
       </c>
       <c r="AY38" s="13">
-        <v>824</v>
+        <v>367</v>
       </c>
       <c r="AZ38" s="13">
-        <v>367</v>
+        <v>720</v>
       </c>
       <c r="BA38" s="13">
-        <v>720</v>
+        <v>1889</v>
       </c>
       <c r="BB38" s="13">
-        <v>1889</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5294,128 +5294,128 @@
       <c r="M39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N39" s="11" t="s">
-        <v>57</v>
+      <c r="N39" s="11">
+        <v>42</v>
       </c>
       <c r="O39" s="11">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P39" s="11">
+        <v>65</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>71</v>
+      </c>
+      <c r="R39" s="11">
+        <v>33</v>
+      </c>
+      <c r="S39" s="11">
+        <v>71</v>
+      </c>
+      <c r="T39" s="11">
+        <v>41</v>
+      </c>
+      <c r="U39" s="11">
+        <v>44</v>
+      </c>
+      <c r="V39" s="11">
+        <v>55</v>
+      </c>
+      <c r="W39" s="11">
+        <v>27</v>
+      </c>
+      <c r="X39" s="11">
+        <v>123</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>90</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>63</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>18</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>159</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>66</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AE39" s="11">
         <v>46</v>
       </c>
-      <c r="Q39" s="11">
-        <v>65</v>
-      </c>
-      <c r="R39" s="11">
-        <v>71</v>
-      </c>
-      <c r="S39" s="11">
-        <v>33</v>
-      </c>
-      <c r="T39" s="11">
-        <v>71</v>
-      </c>
-      <c r="U39" s="11">
-        <v>41</v>
-      </c>
-      <c r="V39" s="11">
-        <v>44</v>
-      </c>
-      <c r="W39" s="11">
-        <v>55</v>
-      </c>
-      <c r="X39" s="11">
-        <v>27</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>123</v>
-      </c>
-      <c r="Z39" s="11">
-        <v>90</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>63</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>18</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>159</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>66</v>
-      </c>
-      <c r="AE39" s="11">
-        <v>10</v>
-      </c>
       <c r="AF39" s="11">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AG39" s="11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AH39" s="11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AI39" s="11">
+        <v>106</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>77</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>150</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>110</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>13</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>2</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>31</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>40</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>75</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>119</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>14</v>
+      </c>
+      <c r="AV39" s="11">
+        <v>51</v>
+      </c>
+      <c r="AW39" s="11">
         <v>12</v>
       </c>
-      <c r="AJ39" s="11">
-        <v>106</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>77</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>150</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>110</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>13</v>
-      </c>
-      <c r="AO39" s="11">
+      <c r="AX39" s="11">
+        <v>4</v>
+      </c>
+      <c r="AY39" s="11">
         <v>2</v>
       </c>
-      <c r="AP39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>31</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>40</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>75</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>119</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>14</v>
-      </c>
-      <c r="AW39" s="11">
-        <v>51</v>
-      </c>
-      <c r="AX39" s="11">
-        <v>12</v>
-      </c>
-      <c r="AY39" s="11">
-        <v>4</v>
-      </c>
       <c r="AZ39" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BB39" s="11">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5546,35 +5546,35 @@
       <c r="AR40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT40" s="13" t="s">
-        <v>57</v>
+      <c r="AS40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>0</v>
       </c>
       <c r="AU40" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AV40" s="13">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AW40" s="13">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="AX40" s="13">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="AY40" s="13">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="AZ40" s="13">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="BA40" s="13">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BB40" s="13">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5586,34 +5586,34 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>16550</v>
+        <v>19629</v>
       </c>
       <c r="F41" s="11">
-        <v>19629</v>
+        <v>19150</v>
       </c>
       <c r="G41" s="11">
-        <v>19150</v>
+        <v>22789</v>
       </c>
       <c r="H41" s="11">
-        <v>22789</v>
+        <v>26531</v>
       </c>
       <c r="I41" s="11">
-        <v>26531</v>
+        <v>27231</v>
       </c>
       <c r="J41" s="11">
-        <v>27231</v>
+        <v>17165</v>
       </c>
       <c r="K41" s="11">
-        <v>17165</v>
+        <v>15435</v>
       </c>
       <c r="L41" s="11">
-        <v>15435</v>
+        <v>30793</v>
       </c>
       <c r="M41" s="11">
-        <v>30793</v>
+        <v>20883</v>
       </c>
       <c r="N41" s="11">
-        <v>20883</v>
+        <v>0</v>
       </c>
       <c r="O41" s="11">
         <v>0</v>
@@ -5639,17 +5639,17 @@
       <c r="V41" s="11">
         <v>0</v>
       </c>
-      <c r="W41" s="11">
-        <v>0</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>57</v>
+      <c r="W41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X41" s="11">
+        <v>0</v>
       </c>
       <c r="Y41" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="11">
         <v>-54</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA41" s="11" t="s">
         <v>57</v>
@@ -5834,65 +5834,65 @@
       <c r="AH42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI42" s="13" t="s">
-        <v>57</v>
+      <c r="AI42" s="13">
+        <v>1524</v>
       </c>
       <c r="AJ42" s="13">
-        <v>1524</v>
+        <v>3781</v>
       </c>
       <c r="AK42" s="13">
-        <v>3781</v>
+        <v>4111</v>
       </c>
       <c r="AL42" s="13">
-        <v>4111</v>
+        <v>2226</v>
       </c>
       <c r="AM42" s="13">
-        <v>2226</v>
+        <v>3719</v>
       </c>
       <c r="AN42" s="13">
-        <v>3719</v>
+        <v>4068</v>
       </c>
       <c r="AO42" s="13">
-        <v>4068</v>
+        <v>2573</v>
       </c>
       <c r="AP42" s="13">
-        <v>2573</v>
+        <v>3825</v>
       </c>
       <c r="AQ42" s="13">
-        <v>3825</v>
+        <v>4257</v>
       </c>
       <c r="AR42" s="13">
-        <v>4257</v>
+        <v>3108</v>
       </c>
       <c r="AS42" s="13">
-        <v>3108</v>
+        <v>4455</v>
       </c>
       <c r="AT42" s="13">
-        <v>4455</v>
+        <v>2689</v>
       </c>
       <c r="AU42" s="13">
-        <v>2689</v>
+        <v>2482</v>
       </c>
       <c r="AV42" s="13">
-        <v>2482</v>
+        <v>4052</v>
       </c>
       <c r="AW42" s="13">
-        <v>4052</v>
+        <v>3564</v>
       </c>
       <c r="AX42" s="13">
-        <v>3564</v>
+        <v>4134</v>
       </c>
       <c r="AY42" s="13">
-        <v>4134</v>
+        <v>4857</v>
       </c>
       <c r="AZ42" s="13">
-        <v>4857</v>
+        <v>3305</v>
       </c>
       <c r="BA42" s="13">
-        <v>3305</v>
+        <v>2783</v>
       </c>
       <c r="BB42" s="13">
-        <v>2783</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5930,71 +5930,71 @@
       <c r="M43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N43" s="11" t="s">
-        <v>57</v>
+      <c r="N43" s="11">
+        <v>6381</v>
       </c>
       <c r="O43" s="11">
-        <v>6381</v>
+        <v>4431</v>
       </c>
       <c r="P43" s="11">
-        <v>4431</v>
+        <v>5748</v>
       </c>
       <c r="Q43" s="11">
-        <v>5748</v>
+        <v>3762</v>
       </c>
       <c r="R43" s="11">
-        <v>3762</v>
+        <v>4558</v>
       </c>
       <c r="S43" s="11">
-        <v>4558</v>
+        <v>6379</v>
       </c>
       <c r="T43" s="11">
-        <v>6379</v>
+        <v>9717</v>
       </c>
       <c r="U43" s="11">
-        <v>9717</v>
+        <v>10198</v>
       </c>
       <c r="V43" s="11">
-        <v>10198</v>
+        <v>4926</v>
       </c>
       <c r="W43" s="11">
-        <v>4926</v>
+        <v>858</v>
       </c>
       <c r="X43" s="11">
-        <v>858</v>
+        <v>2933</v>
       </c>
       <c r="Y43" s="11">
-        <v>2933</v>
+        <v>8137</v>
       </c>
       <c r="Z43" s="11">
-        <v>8137</v>
+        <v>6891</v>
       </c>
       <c r="AA43" s="11">
-        <v>6891</v>
+        <v>6931</v>
       </c>
       <c r="AB43" s="11">
-        <v>6931</v>
+        <v>5876</v>
       </c>
       <c r="AC43" s="11">
-        <v>5876</v>
+        <v>4742</v>
       </c>
       <c r="AD43" s="11">
-        <v>4742</v>
+        <v>4369</v>
       </c>
       <c r="AE43" s="11">
-        <v>4369</v>
+        <v>5202</v>
       </c>
       <c r="AF43" s="11">
-        <v>5202</v>
+        <v>5859</v>
       </c>
       <c r="AG43" s="11">
-        <v>5859</v>
+        <v>8245</v>
       </c>
       <c r="AH43" s="11">
-        <v>8245</v>
-      </c>
-      <c r="AI43" s="11">
         <v>4398</v>
+      </c>
+      <c r="AI43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ43" s="11" t="s">
         <v>57</v>
@@ -6152,65 +6152,65 @@
       <c r="AH44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI44" s="13" t="s">
-        <v>57</v>
+      <c r="AI44" s="13">
+        <v>5218</v>
       </c>
       <c r="AJ44" s="13">
-        <v>5218</v>
+        <v>6577</v>
       </c>
       <c r="AK44" s="13">
-        <v>6577</v>
+        <v>8009</v>
       </c>
       <c r="AL44" s="13">
-        <v>8009</v>
+        <v>6566</v>
       </c>
       <c r="AM44" s="13">
-        <v>6566</v>
+        <v>5648</v>
       </c>
       <c r="AN44" s="13">
-        <v>5648</v>
+        <v>6537</v>
       </c>
       <c r="AO44" s="13">
-        <v>6537</v>
+        <v>4808</v>
       </c>
       <c r="AP44" s="13">
-        <v>4808</v>
+        <v>4575</v>
       </c>
       <c r="AQ44" s="13">
-        <v>4575</v>
+        <v>4833</v>
       </c>
       <c r="AR44" s="13">
-        <v>4833</v>
+        <v>4784</v>
       </c>
       <c r="AS44" s="13">
-        <v>4784</v>
+        <v>4532</v>
       </c>
       <c r="AT44" s="13">
-        <v>4532</v>
+        <v>5168</v>
       </c>
       <c r="AU44" s="13">
-        <v>5168</v>
+        <v>2051</v>
       </c>
       <c r="AV44" s="13">
-        <v>2051</v>
+        <v>3620</v>
       </c>
       <c r="AW44" s="13">
-        <v>3620</v>
+        <v>6670</v>
       </c>
       <c r="AX44" s="13">
-        <v>6670</v>
+        <v>4597</v>
       </c>
       <c r="AY44" s="13">
-        <v>4597</v>
+        <v>5554</v>
       </c>
       <c r="AZ44" s="13">
-        <v>5554</v>
+        <v>6887</v>
       </c>
       <c r="BA44" s="13">
-        <v>6887</v>
+        <v>4722</v>
       </c>
       <c r="BB44" s="13">
-        <v>4722</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6311,65 +6311,65 @@
       <c r="AH45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI45" s="11" t="s">
-        <v>57</v>
+      <c r="AI45" s="11">
+        <v>5280</v>
       </c>
       <c r="AJ45" s="11">
-        <v>5280</v>
+        <v>5935</v>
       </c>
       <c r="AK45" s="11">
-        <v>5935</v>
+        <v>6597</v>
       </c>
       <c r="AL45" s="11">
-        <v>6597</v>
+        <v>3712</v>
       </c>
       <c r="AM45" s="11">
-        <v>3712</v>
+        <v>5080</v>
       </c>
       <c r="AN45" s="11">
-        <v>5080</v>
+        <v>5354</v>
       </c>
       <c r="AO45" s="11">
-        <v>5354</v>
+        <v>4224</v>
       </c>
       <c r="AP45" s="11">
-        <v>4224</v>
+        <v>5510</v>
       </c>
       <c r="AQ45" s="11">
-        <v>5510</v>
+        <v>5595</v>
       </c>
       <c r="AR45" s="11">
-        <v>5595</v>
+        <v>5092</v>
       </c>
       <c r="AS45" s="11">
-        <v>5092</v>
+        <v>5504</v>
       </c>
       <c r="AT45" s="11">
-        <v>5504</v>
+        <v>4685</v>
       </c>
       <c r="AU45" s="11">
-        <v>4685</v>
+        <v>2355</v>
       </c>
       <c r="AV45" s="11">
-        <v>2355</v>
+        <v>4082</v>
       </c>
       <c r="AW45" s="11">
-        <v>4082</v>
+        <v>4764</v>
       </c>
       <c r="AX45" s="11">
-        <v>4764</v>
+        <v>4254</v>
       </c>
       <c r="AY45" s="11">
-        <v>4254</v>
+        <v>4516</v>
       </c>
       <c r="AZ45" s="11">
-        <v>4516</v>
+        <v>7012</v>
       </c>
       <c r="BA45" s="11">
-        <v>7012</v>
+        <v>5515</v>
       </c>
       <c r="BB45" s="11">
-        <v>5515</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6470,65 +6470,65 @@
       <c r="AH46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI46" s="13" t="s">
-        <v>57</v>
+      <c r="AI46" s="13">
+        <v>1700</v>
       </c>
       <c r="AJ46" s="13">
-        <v>1700</v>
+        <v>2767</v>
       </c>
       <c r="AK46" s="13">
-        <v>2767</v>
+        <v>2447</v>
       </c>
       <c r="AL46" s="13">
-        <v>2447</v>
+        <v>2083</v>
       </c>
       <c r="AM46" s="13">
-        <v>2083</v>
+        <v>1526</v>
       </c>
       <c r="AN46" s="13">
-        <v>1526</v>
+        <v>2803</v>
       </c>
       <c r="AO46" s="13">
-        <v>2803</v>
+        <v>2354</v>
       </c>
       <c r="AP46" s="13">
-        <v>2354</v>
+        <v>1953</v>
       </c>
       <c r="AQ46" s="13">
-        <v>1953</v>
+        <v>1754</v>
       </c>
       <c r="AR46" s="13">
-        <v>1754</v>
+        <v>1623</v>
       </c>
       <c r="AS46" s="13">
-        <v>1623</v>
+        <v>1772</v>
       </c>
       <c r="AT46" s="13">
-        <v>1772</v>
+        <v>2203</v>
       </c>
       <c r="AU46" s="13">
+        <v>1055</v>
+      </c>
+      <c r="AV46" s="13">
         <v>2203</v>
       </c>
-      <c r="AV46" s="13">
-        <v>1055</v>
-      </c>
       <c r="AW46" s="13">
-        <v>2203</v>
+        <v>2498</v>
       </c>
       <c r="AX46" s="13">
-        <v>2498</v>
+        <v>1590</v>
       </c>
       <c r="AY46" s="13">
-        <v>1590</v>
+        <v>1816</v>
       </c>
       <c r="AZ46" s="13">
-        <v>1816</v>
+        <v>1628</v>
       </c>
       <c r="BA46" s="13">
-        <v>1628</v>
+        <v>1351</v>
       </c>
       <c r="BB46" s="13">
-        <v>1351</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6629,65 +6629,65 @@
       <c r="AH47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI47" s="11" t="s">
-        <v>57</v>
+      <c r="AI47" s="11">
+        <v>790</v>
       </c>
       <c r="AJ47" s="11">
-        <v>790</v>
+        <v>853</v>
       </c>
       <c r="AK47" s="11">
-        <v>853</v>
+        <v>998</v>
       </c>
       <c r="AL47" s="11">
+        <v>433</v>
+      </c>
+      <c r="AM47" s="11">
+        <v>575</v>
+      </c>
+      <c r="AN47" s="11">
+        <v>848</v>
+      </c>
+      <c r="AO47" s="11">
+        <v>590</v>
+      </c>
+      <c r="AP47" s="11">
+        <v>580</v>
+      </c>
+      <c r="AQ47" s="11">
+        <v>816</v>
+      </c>
+      <c r="AR47" s="11">
+        <v>505</v>
+      </c>
+      <c r="AS47" s="11">
+        <v>577</v>
+      </c>
+      <c r="AT47" s="11">
+        <v>567</v>
+      </c>
+      <c r="AU47" s="11">
+        <v>418</v>
+      </c>
+      <c r="AV47" s="11">
+        <v>979</v>
+      </c>
+      <c r="AW47" s="11">
         <v>998</v>
       </c>
-      <c r="AM47" s="11">
-        <v>433</v>
-      </c>
-      <c r="AN47" s="11">
-        <v>575</v>
-      </c>
-      <c r="AO47" s="11">
-        <v>848</v>
-      </c>
-      <c r="AP47" s="11">
-        <v>590</v>
-      </c>
-      <c r="AQ47" s="11">
-        <v>580</v>
-      </c>
-      <c r="AR47" s="11">
-        <v>816</v>
-      </c>
-      <c r="AS47" s="11">
-        <v>505</v>
-      </c>
-      <c r="AT47" s="11">
-        <v>577</v>
-      </c>
-      <c r="AU47" s="11">
-        <v>567</v>
-      </c>
-      <c r="AV47" s="11">
-        <v>418</v>
-      </c>
-      <c r="AW47" s="11">
-        <v>979</v>
-      </c>
       <c r="AX47" s="11">
-        <v>998</v>
+        <v>346</v>
       </c>
       <c r="AY47" s="11">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="AZ47" s="11">
-        <v>267</v>
+        <v>984</v>
       </c>
       <c r="BA47" s="11">
-        <v>984</v>
+        <v>565</v>
       </c>
       <c r="BB47" s="11">
-        <v>565</v>
+        <v>773</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6788,65 +6788,65 @@
       <c r="AH48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI48" s="13" t="s">
-        <v>57</v>
+      <c r="AI48" s="13">
+        <v>16881</v>
       </c>
       <c r="AJ48" s="13">
-        <v>16881</v>
+        <v>21966</v>
       </c>
       <c r="AK48" s="13">
-        <v>21966</v>
+        <v>22429</v>
       </c>
       <c r="AL48" s="13">
-        <v>22429</v>
+        <v>21091</v>
       </c>
       <c r="AM48" s="13">
-        <v>21091</v>
+        <v>22858</v>
       </c>
       <c r="AN48" s="13">
-        <v>22858</v>
+        <v>16523</v>
       </c>
       <c r="AO48" s="13">
-        <v>16523</v>
+        <v>25004</v>
       </c>
       <c r="AP48" s="13">
-        <v>25004</v>
+        <v>22245</v>
       </c>
       <c r="AQ48" s="13">
-        <v>22245</v>
+        <v>15745</v>
       </c>
       <c r="AR48" s="13">
-        <v>15745</v>
+        <v>8855</v>
       </c>
       <c r="AS48" s="13">
-        <v>8855</v>
+        <v>16584</v>
       </c>
       <c r="AT48" s="13">
-        <v>16596</v>
+        <v>2183</v>
       </c>
       <c r="AU48" s="13">
-        <v>2183</v>
+        <v>21956</v>
       </c>
       <c r="AV48" s="13">
-        <v>21956</v>
+        <v>20700</v>
       </c>
       <c r="AW48" s="13">
-        <v>20700</v>
+        <v>16275</v>
       </c>
       <c r="AX48" s="13">
-        <v>16275</v>
+        <v>16901</v>
       </c>
       <c r="AY48" s="13">
-        <v>16901</v>
+        <v>14865</v>
       </c>
       <c r="AZ48" s="13">
-        <v>14865</v>
+        <v>22195</v>
       </c>
       <c r="BA48" s="13">
-        <v>22195</v>
+        <v>17372</v>
       </c>
       <c r="BB48" s="13">
-        <v>17372</v>
+        <v>25055</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6947,20 +6947,20 @@
       <c r="AH49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI49" s="11" t="s">
-        <v>57</v>
+      <c r="AI49" s="11">
+        <v>0</v>
       </c>
       <c r="AJ49" s="11">
         <v>0</v>
       </c>
       <c r="AK49" s="11">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="AL49" s="11">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="AM49" s="11">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="11">
         <v>0</v>
@@ -6983,8 +6983,8 @@
       <c r="AT49" s="11">
         <v>0</v>
       </c>
-      <c r="AU49" s="11">
-        <v>0</v>
+      <c r="AU49" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV49" s="11" t="s">
         <v>57</v>
@@ -7134,8 +7134,8 @@
       <c r="Y51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z51" s="17" t="s">
-        <v>57</v>
+      <c r="Z51" s="17">
+        <v>0</v>
       </c>
       <c r="AA51" s="17">
         <v>0</v>
@@ -7380,53 +7380,53 @@
       <c r="AI53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ53" s="11" t="s">
-        <v>57</v>
+      <c r="AJ53" s="11">
+        <v>-4</v>
       </c>
       <c r="AK53" s="11">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AL53" s="11">
-        <v>-6</v>
-      </c>
-      <c r="AM53" s="11">
         <v>-1</v>
       </c>
-      <c r="AN53" s="11" t="s">
-        <v>57</v>
+      <c r="AM53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN53" s="11">
+        <v>-4581</v>
       </c>
       <c r="AO53" s="11">
-        <v>-4581</v>
-      </c>
-      <c r="AP53" s="11">
         <v>-15</v>
       </c>
-      <c r="AQ53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR53" s="11">
+      <c r="AP53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ53" s="11">
         <v>-9</v>
       </c>
-      <c r="AS53" s="11" t="s">
-        <v>57</v>
+      <c r="AR53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS53" s="11">
+        <v>-43</v>
       </c>
       <c r="AT53" s="11">
-        <v>-43</v>
+        <v>-75</v>
       </c>
       <c r="AU53" s="11">
-        <v>-75</v>
-      </c>
-      <c r="AV53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW53" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AV53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="11">
+        <v>-5</v>
       </c>
       <c r="AX53" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AY53" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AY53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AZ53" s="11" t="s">
         <v>57</v>
@@ -7434,8 +7434,8 @@
       <c r="BA53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB53" s="11" t="s">
-        <v>57</v>
+      <c r="BB53" s="11">
+        <v>-7</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7509,14 +7509,14 @@
       <c r="Y54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z54" s="13" t="s">
-        <v>57</v>
+      <c r="Z54" s="13">
+        <v>-20</v>
       </c>
       <c r="AA54" s="13">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AB54" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="13">
         <v>0</v>
@@ -7525,19 +7525,19 @@
         <v>0</v>
       </c>
       <c r="AE54" s="13">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AF54" s="13">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="13">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AH54" s="13">
-        <v>-23</v>
-      </c>
-      <c r="AI54" s="13">
         <v>-8</v>
+      </c>
+      <c r="AI54" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ54" s="13" t="s">
         <v>57</v>
@@ -7666,80 +7666,80 @@
       <c r="Y55" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z55" s="17" t="s">
-        <v>57</v>
+      <c r="Z55" s="17">
+        <v>-20</v>
       </c>
       <c r="AA55" s="17">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AB55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="17">
+        <v>-21</v>
+      </c>
+      <c r="AF55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AH55" s="17">
+        <v>-8</v>
+      </c>
+      <c r="AI55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="17">
+        <v>-4</v>
+      </c>
+      <c r="AK55" s="17">
+        <v>-6</v>
+      </c>
+      <c r="AL55" s="17">
         <v>-1</v>
       </c>
-      <c r="AC55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="17">
-        <v>-21</v>
-      </c>
-      <c r="AG55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="17">
-        <v>-23</v>
-      </c>
-      <c r="AI55" s="17">
-        <v>-8</v>
-      </c>
-      <c r="AJ55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK55" s="17">
-        <v>-4</v>
-      </c>
-      <c r="AL55" s="17">
-        <v>-6</v>
-      </c>
       <c r="AM55" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="17">
-        <v>0</v>
+        <v>-4581</v>
       </c>
       <c r="AO55" s="17">
-        <v>-4581</v>
+        <v>-15</v>
       </c>
       <c r="AP55" s="17">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="17">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AR55" s="17">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="17">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="AT55" s="17">
-        <v>-43</v>
+        <v>-75</v>
       </c>
       <c r="AU55" s="17">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="17">
         <v>0</v>
       </c>
       <c r="AW55" s="17">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AX55" s="17">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="17">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="17">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7761,154 +7761,154 @@
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19">
-        <v>53002</v>
+        <v>48418</v>
       </c>
       <c r="F56" s="19">
-        <v>48418</v>
+        <v>51741</v>
       </c>
       <c r="G56" s="19">
-        <v>51741</v>
+        <v>48411</v>
       </c>
       <c r="H56" s="19">
-        <v>48411</v>
+        <v>57334</v>
       </c>
       <c r="I56" s="19">
-        <v>57334</v>
+        <v>57111</v>
       </c>
       <c r="J56" s="19">
-        <v>57111</v>
+        <v>65615</v>
       </c>
       <c r="K56" s="19">
-        <v>65615</v>
+        <v>47006</v>
       </c>
       <c r="L56" s="19">
-        <v>47006</v>
+        <v>73926</v>
       </c>
       <c r="M56" s="19">
-        <v>73926</v>
+        <v>65284</v>
       </c>
       <c r="N56" s="19">
-        <v>65284</v>
+        <v>66565</v>
       </c>
       <c r="O56" s="19">
-        <v>66565</v>
+        <v>71033</v>
       </c>
       <c r="P56" s="19">
-        <v>71033</v>
+        <v>71099</v>
       </c>
       <c r="Q56" s="19">
-        <v>71099</v>
+        <v>51899</v>
       </c>
       <c r="R56" s="19">
-        <v>51899</v>
+        <v>51687</v>
       </c>
       <c r="S56" s="19">
-        <v>51687</v>
+        <v>69277</v>
       </c>
       <c r="T56" s="19">
-        <v>69277</v>
+        <v>61664</v>
       </c>
       <c r="U56" s="19">
-        <v>61664</v>
+        <v>77703</v>
       </c>
       <c r="V56" s="19">
-        <v>77703</v>
+        <v>61175</v>
       </c>
       <c r="W56" s="19">
-        <v>61175</v>
+        <v>22966</v>
       </c>
       <c r="X56" s="19">
-        <v>22966</v>
+        <v>58648</v>
       </c>
       <c r="Y56" s="19">
-        <v>58648</v>
+        <v>75792</v>
       </c>
       <c r="Z56" s="19">
-        <v>75792</v>
+        <v>66070</v>
       </c>
       <c r="AA56" s="19">
-        <v>66070</v>
+        <v>57241</v>
       </c>
       <c r="AB56" s="19">
-        <v>57241</v>
+        <v>65611</v>
       </c>
       <c r="AC56" s="19">
-        <v>65611</v>
+        <v>67077</v>
       </c>
       <c r="AD56" s="19">
-        <v>67077</v>
+        <v>52759</v>
       </c>
       <c r="AE56" s="19">
-        <v>52759</v>
+        <v>56520</v>
       </c>
       <c r="AF56" s="19">
-        <v>56520</v>
+        <v>68912</v>
       </c>
       <c r="AG56" s="19">
-        <v>68912</v>
+        <v>55727</v>
       </c>
       <c r="AH56" s="19">
-        <v>55727</v>
+        <v>55116</v>
       </c>
       <c r="AI56" s="19">
-        <v>55116</v>
+        <v>49910</v>
       </c>
       <c r="AJ56" s="19">
-        <v>49910</v>
+        <v>62984</v>
       </c>
       <c r="AK56" s="19">
-        <v>62984</v>
+        <v>68897</v>
       </c>
       <c r="AL56" s="19">
-        <v>68897</v>
+        <v>61109</v>
       </c>
       <c r="AM56" s="19">
-        <v>61109</v>
+        <v>67102</v>
       </c>
       <c r="AN56" s="19">
-        <v>67102</v>
+        <v>73079</v>
       </c>
       <c r="AO56" s="19">
-        <v>73079</v>
+        <v>61785</v>
       </c>
       <c r="AP56" s="19">
-        <v>61785</v>
+        <v>56740</v>
       </c>
       <c r="AQ56" s="19">
-        <v>56740</v>
+        <v>57188</v>
       </c>
       <c r="AR56" s="19">
-        <v>57188</v>
+        <v>46060</v>
       </c>
       <c r="AS56" s="19">
-        <v>46060</v>
+        <v>53643</v>
       </c>
       <c r="AT56" s="19">
-        <v>57188</v>
+        <v>45499</v>
       </c>
       <c r="AU56" s="19">
-        <v>45499</v>
+        <v>38990</v>
       </c>
       <c r="AV56" s="19">
-        <v>38990</v>
+        <v>64573</v>
       </c>
       <c r="AW56" s="19">
-        <v>64573</v>
+        <v>78094</v>
       </c>
       <c r="AX56" s="19">
-        <v>78094</v>
+        <v>67382</v>
       </c>
       <c r="AY56" s="19">
-        <v>67382</v>
+        <v>58025</v>
       </c>
       <c r="AZ56" s="19">
-        <v>58025</v>
+        <v>65566</v>
       </c>
       <c r="BA56" s="19">
-        <v>65566</v>
+        <v>50671</v>
       </c>
       <c r="BB56" s="19">
-        <v>50671</v>
+        <v>64058</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8380,104 +8380,104 @@
       <c r="M63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N63" s="11" t="s">
-        <v>57</v>
+      <c r="N63" s="11">
+        <v>2151</v>
       </c>
       <c r="O63" s="11">
-        <v>2151</v>
+        <v>65790</v>
       </c>
       <c r="P63" s="11">
-        <v>65790</v>
+        <v>19038</v>
       </c>
       <c r="Q63" s="11">
-        <v>19038</v>
+        <v>10901</v>
       </c>
       <c r="R63" s="11">
-        <v>10901</v>
+        <v>30194</v>
       </c>
       <c r="S63" s="11">
-        <v>30194</v>
+        <v>5974</v>
       </c>
       <c r="T63" s="11">
-        <v>5974</v>
+        <v>7495</v>
       </c>
       <c r="U63" s="11">
-        <v>7495</v>
+        <v>2376</v>
       </c>
       <c r="V63" s="11">
-        <v>2376</v>
+        <v>9525</v>
       </c>
       <c r="W63" s="11">
-        <v>9525</v>
+        <v>680</v>
       </c>
       <c r="X63" s="11">
-        <v>680</v>
+        <v>1854</v>
       </c>
       <c r="Y63" s="11">
-        <v>1854</v>
+        <v>405</v>
       </c>
       <c r="Z63" s="11">
-        <v>405</v>
+        <v>3411</v>
       </c>
       <c r="AA63" s="11">
-        <v>3411</v>
+        <v>21870</v>
       </c>
       <c r="AB63" s="11">
-        <v>21870</v>
+        <v>83823</v>
       </c>
       <c r="AC63" s="11">
-        <v>83823</v>
+        <v>75112</v>
       </c>
       <c r="AD63" s="11">
-        <v>75112</v>
+        <v>84816</v>
       </c>
       <c r="AE63" s="11">
-        <v>84816</v>
+        <v>52123</v>
       </c>
       <c r="AF63" s="11">
-        <v>52123</v>
+        <v>23993</v>
       </c>
       <c r="AG63" s="11">
-        <v>23993</v>
+        <v>5966</v>
       </c>
       <c r="AH63" s="11">
-        <v>5966</v>
+        <v>140</v>
       </c>
       <c r="AI63" s="11">
-        <v>140</v>
+        <v>1181</v>
       </c>
       <c r="AJ63" s="11">
-        <v>1181</v>
+        <v>7063</v>
       </c>
       <c r="AK63" s="11">
-        <v>7063</v>
+        <v>2041</v>
       </c>
       <c r="AL63" s="11">
-        <v>2041</v>
+        <v>18102</v>
       </c>
       <c r="AM63" s="11">
-        <v>18102</v>
+        <v>51274</v>
       </c>
       <c r="AN63" s="11">
-        <v>51274</v>
+        <v>202979</v>
       </c>
       <c r="AO63" s="11">
-        <v>202979</v>
+        <v>85758</v>
       </c>
       <c r="AP63" s="11">
-        <v>85758</v>
+        <v>155250</v>
       </c>
       <c r="AQ63" s="11">
-        <v>155250</v>
+        <v>42358</v>
       </c>
       <c r="AR63" s="11">
-        <v>42358</v>
-      </c>
-      <c r="AS63" s="11">
         <v>30972</v>
       </c>
-      <c r="AT63" s="11">
-        <v>20025</v>
+      <c r="AS63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU63" s="11" t="s">
         <v>57</v>
@@ -8513,97 +8513,97 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>2074318</v>
+        <v>2014632</v>
       </c>
       <c r="F64" s="13">
-        <v>2014632</v>
+        <v>2204352</v>
       </c>
       <c r="G64" s="13">
-        <v>2204352</v>
+        <v>1735116</v>
       </c>
       <c r="H64" s="13">
-        <v>1735116</v>
+        <v>2007778</v>
       </c>
       <c r="I64" s="13">
-        <v>2007778</v>
+        <v>2021275</v>
       </c>
       <c r="J64" s="13">
-        <v>2021275</v>
+        <v>3158633</v>
       </c>
       <c r="K64" s="13">
-        <v>3158633</v>
+        <v>2182062</v>
       </c>
       <c r="L64" s="13">
-        <v>2182062</v>
+        <v>3336377</v>
       </c>
       <c r="M64" s="13">
-        <v>3336377</v>
+        <v>3690218</v>
       </c>
       <c r="N64" s="13">
-        <v>3690218</v>
+        <v>3709847</v>
       </c>
       <c r="O64" s="13">
-        <v>3709847</v>
+        <v>3799458</v>
       </c>
       <c r="P64" s="13">
-        <v>3799458</v>
+        <v>3664198</v>
       </c>
       <c r="Q64" s="13">
-        <v>3664198</v>
+        <v>2814321</v>
       </c>
       <c r="R64" s="13">
-        <v>2814321</v>
+        <v>2530976</v>
       </c>
       <c r="S64" s="13">
-        <v>2530976</v>
+        <v>3886576</v>
       </c>
       <c r="T64" s="13">
-        <v>3886576</v>
+        <v>2888282</v>
       </c>
       <c r="U64" s="13">
-        <v>2888282</v>
+        <v>4304013</v>
       </c>
       <c r="V64" s="13">
-        <v>4304013</v>
+        <v>3816064</v>
       </c>
       <c r="W64" s="13">
-        <v>3816064</v>
+        <v>1435621</v>
       </c>
       <c r="X64" s="13">
-        <v>1435621</v>
+        <v>2850372</v>
       </c>
       <c r="Y64" s="13">
-        <v>2850372</v>
+        <v>4076371</v>
       </c>
       <c r="Z64" s="13">
-        <v>4076371</v>
+        <v>4655580</v>
       </c>
       <c r="AA64" s="13">
-        <v>4655580</v>
+        <v>4283342</v>
       </c>
       <c r="AB64" s="13">
-        <v>4283342</v>
+        <v>5267530</v>
       </c>
       <c r="AC64" s="13">
-        <v>5267530</v>
+        <v>6729658</v>
       </c>
       <c r="AD64" s="13">
-        <v>6729658</v>
+        <v>6162138</v>
       </c>
       <c r="AE64" s="13">
-        <v>6162138</v>
+        <v>7303483</v>
       </c>
       <c r="AF64" s="13">
-        <v>7303483</v>
+        <v>8090173</v>
       </c>
       <c r="AG64" s="13">
-        <v>8090173</v>
+        <v>7301184</v>
       </c>
       <c r="AH64" s="13">
-        <v>7301184</v>
-      </c>
-      <c r="AI64" s="13">
         <v>7842635</v>
+      </c>
+      <c r="AI64" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ64" s="13" t="s">
         <v>57</v>
@@ -8761,65 +8761,65 @@
       <c r="AH65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI65" s="11" t="s">
-        <v>57</v>
+      <c r="AI65" s="11">
+        <v>3202298</v>
       </c>
       <c r="AJ65" s="11">
-        <v>3202298</v>
+        <v>3768352</v>
       </c>
       <c r="AK65" s="11">
-        <v>3768352</v>
+        <v>4534746</v>
       </c>
       <c r="AL65" s="11">
-        <v>4534746</v>
+        <v>4593975</v>
       </c>
       <c r="AM65" s="11">
-        <v>4593975</v>
+        <v>5387789</v>
       </c>
       <c r="AN65" s="11">
-        <v>5387789</v>
+        <v>8627248</v>
       </c>
       <c r="AO65" s="11">
-        <v>8627248</v>
+        <v>4637124</v>
       </c>
       <c r="AP65" s="11">
-        <v>4637124</v>
+        <v>3607401</v>
       </c>
       <c r="AQ65" s="11">
-        <v>3607401</v>
+        <v>4637386</v>
       </c>
       <c r="AR65" s="11">
-        <v>4637386</v>
+        <v>4310457</v>
       </c>
       <c r="AS65" s="11">
-        <v>4310457</v>
+        <v>3996931</v>
       </c>
       <c r="AT65" s="11">
-        <v>4690021</v>
+        <v>5608454</v>
       </c>
       <c r="AU65" s="11">
-        <v>5608454</v>
+        <v>2199544</v>
       </c>
       <c r="AV65" s="11">
-        <v>2199544</v>
+        <v>7038855</v>
       </c>
       <c r="AW65" s="11">
-        <v>7038855</v>
+        <v>11316157</v>
       </c>
       <c r="AX65" s="11">
-        <v>11316157</v>
+        <v>10289411</v>
       </c>
       <c r="AY65" s="11">
-        <v>10289411</v>
+        <v>7816973</v>
       </c>
       <c r="AZ65" s="11">
-        <v>7816973</v>
+        <v>6103818</v>
       </c>
       <c r="BA65" s="11">
-        <v>6103818</v>
+        <v>4342306</v>
       </c>
       <c r="BB65" s="11">
-        <v>4342306</v>
+        <v>5313687</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8920,65 +8920,65 @@
       <c r="AH66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI66" s="13" t="s">
-        <v>57</v>
+      <c r="AI66" s="13">
+        <v>143590</v>
       </c>
       <c r="AJ66" s="13">
-        <v>143590</v>
+        <v>279026</v>
       </c>
       <c r="AK66" s="13">
-        <v>279026</v>
+        <v>277930</v>
       </c>
       <c r="AL66" s="13">
-        <v>277930</v>
+        <v>409487</v>
       </c>
       <c r="AM66" s="13">
-        <v>409487</v>
+        <v>435347</v>
       </c>
       <c r="AN66" s="13">
-        <v>435347</v>
+        <v>332798</v>
       </c>
       <c r="AO66" s="13">
-        <v>332798</v>
+        <v>311039</v>
       </c>
       <c r="AP66" s="13">
-        <v>311039</v>
+        <v>293846</v>
       </c>
       <c r="AQ66" s="13">
-        <v>293846</v>
+        <v>574625</v>
       </c>
       <c r="AR66" s="13">
-        <v>574625</v>
+        <v>452655</v>
       </c>
       <c r="AS66" s="13">
-        <v>452655</v>
+        <v>277470</v>
       </c>
       <c r="AT66" s="13">
-        <v>277470</v>
+        <v>241758</v>
       </c>
       <c r="AU66" s="13">
-        <v>241758</v>
+        <v>226488</v>
       </c>
       <c r="AV66" s="13">
-        <v>226488</v>
+        <v>463862</v>
       </c>
       <c r="AW66" s="13">
-        <v>463862</v>
+        <v>308536</v>
       </c>
       <c r="AX66" s="13">
-        <v>308536</v>
+        <v>261700</v>
       </c>
       <c r="AY66" s="13">
-        <v>261700</v>
+        <v>112983</v>
       </c>
       <c r="AZ66" s="13">
-        <v>112983</v>
+        <v>164400</v>
       </c>
       <c r="BA66" s="13">
-        <v>164400</v>
+        <v>412887</v>
       </c>
       <c r="BB66" s="13">
-        <v>412887</v>
+        <v>332881</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9016,128 +9016,128 @@
       <c r="M67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N67" s="11" t="s">
-        <v>57</v>
+      <c r="N67" s="11">
+        <v>4254</v>
       </c>
       <c r="O67" s="11">
-        <v>4254</v>
+        <v>4582</v>
       </c>
       <c r="P67" s="11">
-        <v>4582</v>
+        <v>6583</v>
       </c>
       <c r="Q67" s="11">
-        <v>6583</v>
+        <v>7498</v>
       </c>
       <c r="R67" s="11">
-        <v>7498</v>
+        <v>3694</v>
       </c>
       <c r="S67" s="11">
-        <v>3694</v>
+        <v>7503</v>
       </c>
       <c r="T67" s="11">
-        <v>7503</v>
+        <v>4164</v>
       </c>
       <c r="U67" s="11">
-        <v>4164</v>
+        <v>4560</v>
       </c>
       <c r="V67" s="11">
-        <v>4560</v>
+        <v>5537</v>
       </c>
       <c r="W67" s="11">
-        <v>5537</v>
+        <v>2847</v>
       </c>
       <c r="X67" s="11">
-        <v>2847</v>
+        <v>13163</v>
       </c>
       <c r="Y67" s="11">
-        <v>13163</v>
+        <v>9334</v>
       </c>
       <c r="Z67" s="11">
-        <v>9334</v>
+        <v>6113</v>
       </c>
       <c r="AA67" s="11">
-        <v>6113</v>
+        <v>2348</v>
       </c>
       <c r="AB67" s="11">
-        <v>2348</v>
+        <v>17001</v>
       </c>
       <c r="AC67" s="11">
-        <v>17001</v>
+        <v>8003</v>
       </c>
       <c r="AD67" s="11">
-        <v>8003</v>
+        <v>1572</v>
       </c>
       <c r="AE67" s="11">
-        <v>1572</v>
+        <v>10035</v>
       </c>
       <c r="AF67" s="11">
-        <v>10035</v>
+        <v>3491</v>
       </c>
       <c r="AG67" s="11">
-        <v>3491</v>
+        <v>5748</v>
       </c>
       <c r="AH67" s="11">
-        <v>5748</v>
+        <v>2326</v>
       </c>
       <c r="AI67" s="11">
-        <v>2326</v>
+        <v>19239</v>
       </c>
       <c r="AJ67" s="11">
-        <v>19239</v>
+        <v>16987</v>
       </c>
       <c r="AK67" s="11">
-        <v>16987</v>
+        <v>33160</v>
       </c>
       <c r="AL67" s="11">
-        <v>33160</v>
+        <v>24910</v>
       </c>
       <c r="AM67" s="11">
-        <v>24910</v>
+        <v>2995</v>
       </c>
       <c r="AN67" s="11">
-        <v>2995</v>
+        <v>410</v>
       </c>
       <c r="AO67" s="11">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="AP67" s="11">
         <v>0</v>
       </c>
       <c r="AQ67" s="11">
-        <v>0</v>
+        <v>8537</v>
       </c>
       <c r="AR67" s="11">
-        <v>8537</v>
+        <v>10739</v>
       </c>
       <c r="AS67" s="11">
-        <v>10739</v>
+        <v>20053</v>
       </c>
       <c r="AT67" s="11">
-        <v>20053</v>
+        <v>32684</v>
       </c>
       <c r="AU67" s="11">
-        <v>32684</v>
+        <v>5468</v>
       </c>
       <c r="AV67" s="11">
-        <v>5468</v>
+        <v>20647</v>
       </c>
       <c r="AW67" s="11">
-        <v>20647</v>
+        <v>6018</v>
       </c>
       <c r="AX67" s="11">
-        <v>6018</v>
+        <v>1494</v>
       </c>
       <c r="AY67" s="11">
-        <v>1494</v>
+        <v>1429</v>
       </c>
       <c r="AZ67" s="11">
-        <v>1429</v>
+        <v>65</v>
       </c>
       <c r="BA67" s="11">
-        <v>65</v>
+        <v>6157</v>
       </c>
       <c r="BB67" s="11">
-        <v>6157</v>
+        <v>11770</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9268,35 +9268,35 @@
       <c r="AR68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT68" s="13" t="s">
-        <v>57</v>
+      <c r="AS68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT68" s="13">
+        <v>73</v>
       </c>
       <c r="AU68" s="13">
-        <v>73</v>
+        <v>5787</v>
       </c>
       <c r="AV68" s="13">
-        <v>5787</v>
+        <v>22723</v>
       </c>
       <c r="AW68" s="13">
-        <v>22723</v>
+        <v>49385</v>
       </c>
       <c r="AX68" s="13">
-        <v>49385</v>
+        <v>174435</v>
       </c>
       <c r="AY68" s="13">
-        <v>174435</v>
+        <v>95500</v>
       </c>
       <c r="AZ68" s="13">
-        <v>95500</v>
+        <v>7652</v>
       </c>
       <c r="BA68" s="13">
-        <v>7652</v>
+        <v>12005</v>
       </c>
       <c r="BB68" s="13">
-        <v>12005</v>
+        <v>25648</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9308,34 +9308,34 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>594305</v>
+        <v>1042072</v>
       </c>
       <c r="F69" s="11">
-        <v>1042072</v>
+        <v>904622</v>
       </c>
       <c r="G69" s="11">
-        <v>904622</v>
+        <v>1021759</v>
       </c>
       <c r="H69" s="11">
-        <v>1021759</v>
+        <v>1023447</v>
       </c>
       <c r="I69" s="11">
-        <v>1023447</v>
+        <v>901054</v>
       </c>
       <c r="J69" s="11">
-        <v>901054</v>
+        <v>835917</v>
       </c>
       <c r="K69" s="11">
-        <v>835917</v>
+        <v>643895</v>
       </c>
       <c r="L69" s="11">
-        <v>643895</v>
+        <v>1461691</v>
       </c>
       <c r="M69" s="11">
-        <v>1461691</v>
+        <v>1107262</v>
       </c>
       <c r="N69" s="11">
-        <v>1107262</v>
+        <v>0</v>
       </c>
       <c r="O69" s="11">
         <v>0</v>
@@ -9361,17 +9361,17 @@
       <c r="V69" s="11">
         <v>0</v>
       </c>
-      <c r="W69" s="11">
-        <v>0</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>57</v>
+      <c r="W69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0</v>
       </c>
       <c r="Y69" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="11">
         <v>-3493</v>
+      </c>
+      <c r="Z69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA69" s="11" t="s">
         <v>57</v>
@@ -9556,65 +9556,65 @@
       <c r="AH70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI70" s="13" t="s">
-        <v>57</v>
+      <c r="AI70" s="13">
+        <v>203984</v>
       </c>
       <c r="AJ70" s="13">
-        <v>203984</v>
+        <v>528817</v>
       </c>
       <c r="AK70" s="13">
-        <v>528817</v>
+        <v>572466</v>
       </c>
       <c r="AL70" s="13">
-        <v>572466</v>
+        <v>364166</v>
       </c>
       <c r="AM70" s="13">
-        <v>364166</v>
+        <v>650691</v>
       </c>
       <c r="AN70" s="13">
-        <v>650691</v>
+        <v>831565</v>
       </c>
       <c r="AO70" s="13">
-        <v>831565</v>
+        <v>573992</v>
       </c>
       <c r="AP70" s="13">
-        <v>573992</v>
+        <v>944130</v>
       </c>
       <c r="AQ70" s="13">
-        <v>944130</v>
+        <v>1056319</v>
       </c>
       <c r="AR70" s="13">
-        <v>1056319</v>
+        <v>769162</v>
       </c>
       <c r="AS70" s="13">
-        <v>769162</v>
+        <v>1181598</v>
       </c>
       <c r="AT70" s="13">
-        <v>1181598</v>
+        <v>654147</v>
       </c>
       <c r="AU70" s="13">
-        <v>654147</v>
+        <v>763094</v>
       </c>
       <c r="AV70" s="13">
-        <v>763094</v>
+        <v>1169679</v>
       </c>
       <c r="AW70" s="13">
-        <v>1169679</v>
+        <v>965638</v>
       </c>
       <c r="AX70" s="13">
-        <v>965638</v>
+        <v>1138352</v>
       </c>
       <c r="AY70" s="13">
-        <v>1138352</v>
+        <v>1384236</v>
       </c>
       <c r="AZ70" s="13">
-        <v>1384236</v>
+        <v>814685</v>
       </c>
       <c r="BA70" s="13">
-        <v>814685</v>
+        <v>678171</v>
       </c>
       <c r="BB70" s="13">
-        <v>678171</v>
+        <v>600834</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9652,71 +9652,71 @@
       <c r="M71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N71" s="11" t="s">
-        <v>57</v>
+      <c r="N71" s="11">
+        <v>476823</v>
       </c>
       <c r="O71" s="11">
-        <v>476823</v>
+        <v>304296</v>
       </c>
       <c r="P71" s="11">
-        <v>304296</v>
+        <v>379172</v>
       </c>
       <c r="Q71" s="11">
-        <v>379172</v>
+        <v>234921</v>
       </c>
       <c r="R71" s="11">
-        <v>234921</v>
+        <v>224522</v>
       </c>
       <c r="S71" s="11">
-        <v>224522</v>
+        <v>316108</v>
       </c>
       <c r="T71" s="11">
-        <v>316108</v>
+        <v>529213</v>
       </c>
       <c r="U71" s="11">
-        <v>529213</v>
+        <v>595188</v>
       </c>
       <c r="V71" s="11">
-        <v>595188</v>
+        <v>308570</v>
       </c>
       <c r="W71" s="11">
-        <v>308570</v>
+        <v>55251</v>
       </c>
       <c r="X71" s="11">
-        <v>55251</v>
+        <v>174668</v>
       </c>
       <c r="Y71" s="11">
-        <v>174668</v>
+        <v>450771</v>
       </c>
       <c r="Z71" s="11">
-        <v>450771</v>
+        <v>442505</v>
       </c>
       <c r="AA71" s="11">
-        <v>442505</v>
+        <v>570074</v>
       </c>
       <c r="AB71" s="11">
-        <v>570074</v>
+        <v>601097</v>
       </c>
       <c r="AC71" s="11">
-        <v>601097</v>
+        <v>611823</v>
       </c>
       <c r="AD71" s="11">
-        <v>611823</v>
+        <v>568403</v>
       </c>
       <c r="AE71" s="11">
-        <v>568403</v>
+        <v>657627</v>
       </c>
       <c r="AF71" s="11">
-        <v>657627</v>
+        <v>787663</v>
       </c>
       <c r="AG71" s="11">
-        <v>787663</v>
+        <v>1137847</v>
       </c>
       <c r="AH71" s="11">
-        <v>1137847</v>
-      </c>
-      <c r="AI71" s="11">
         <v>606742</v>
+      </c>
+      <c r="AI71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ71" s="11" t="s">
         <v>57</v>
@@ -9874,65 +9874,65 @@
       <c r="AH72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI72" s="13" t="s">
-        <v>57</v>
+      <c r="AI72" s="13">
+        <v>1012494</v>
       </c>
       <c r="AJ72" s="13">
-        <v>1012494</v>
+        <v>1222296</v>
       </c>
       <c r="AK72" s="13">
-        <v>1222296</v>
+        <v>1534794</v>
       </c>
       <c r="AL72" s="13">
-        <v>1534794</v>
+        <v>1359389</v>
       </c>
       <c r="AM72" s="13">
-        <v>1359389</v>
+        <v>1505517</v>
       </c>
       <c r="AN72" s="13">
-        <v>1505517</v>
+        <v>1809473</v>
       </c>
       <c r="AO72" s="13">
-        <v>1809473</v>
+        <v>1363783</v>
       </c>
       <c r="AP72" s="13">
-        <v>1363783</v>
+        <v>1273493</v>
       </c>
       <c r="AQ72" s="13">
-        <v>1273493</v>
+        <v>1441869</v>
       </c>
       <c r="AR72" s="13">
-        <v>1441869</v>
+        <v>1361011</v>
       </c>
       <c r="AS72" s="13">
-        <v>1361011</v>
+        <v>1246535</v>
       </c>
       <c r="AT72" s="13">
-        <v>1246535</v>
+        <v>1485862</v>
       </c>
       <c r="AU72" s="13">
-        <v>1485862</v>
+        <v>630133</v>
       </c>
       <c r="AV72" s="13">
-        <v>630133</v>
+        <v>1078203</v>
       </c>
       <c r="AW72" s="13">
-        <v>1078203</v>
+        <v>2182482</v>
       </c>
       <c r="AX72" s="13">
-        <v>2182482</v>
+        <v>1605942</v>
       </c>
       <c r="AY72" s="13">
-        <v>1605942</v>
+        <v>2016372</v>
       </c>
       <c r="AZ72" s="13">
-        <v>2016372</v>
+        <v>2419135</v>
       </c>
       <c r="BA72" s="13">
-        <v>2419135</v>
+        <v>1659096</v>
       </c>
       <c r="BB72" s="13">
-        <v>1659096</v>
+        <v>1807299</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -10033,65 +10033,65 @@
       <c r="AH73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI73" s="11" t="s">
-        <v>57</v>
+      <c r="AI73" s="11">
+        <v>1224608</v>
       </c>
       <c r="AJ73" s="11">
-        <v>1224608</v>
+        <v>1338041</v>
       </c>
       <c r="AK73" s="11">
-        <v>1338041</v>
+        <v>1593300</v>
       </c>
       <c r="AL73" s="11">
-        <v>1593300</v>
+        <v>1005979</v>
       </c>
       <c r="AM73" s="11">
-        <v>1005979</v>
+        <v>1752198</v>
       </c>
       <c r="AN73" s="11">
-        <v>1752198</v>
+        <v>1764468</v>
       </c>
       <c r="AO73" s="11">
-        <v>1764468</v>
+        <v>1580672</v>
       </c>
       <c r="AP73" s="11">
-        <v>1580672</v>
+        <v>1905621</v>
       </c>
       <c r="AQ73" s="11">
-        <v>1905621</v>
+        <v>1972794</v>
       </c>
       <c r="AR73" s="11">
-        <v>1972794</v>
+        <v>1959762</v>
       </c>
       <c r="AS73" s="11">
-        <v>1959762</v>
+        <v>1911493</v>
       </c>
       <c r="AT73" s="11">
-        <v>1911493</v>
+        <v>1782010</v>
       </c>
       <c r="AU73" s="11">
-        <v>1782010</v>
+        <v>967356</v>
       </c>
       <c r="AV73" s="11">
-        <v>967356</v>
+        <v>1766178</v>
       </c>
       <c r="AW73" s="11">
-        <v>1766178</v>
+        <v>2224504</v>
       </c>
       <c r="AX73" s="11">
-        <v>2224504</v>
+        <v>2255446</v>
       </c>
       <c r="AY73" s="11">
-        <v>2255446</v>
+        <v>2332348</v>
       </c>
       <c r="AZ73" s="11">
-        <v>2332348</v>
+        <v>3414039</v>
       </c>
       <c r="BA73" s="11">
-        <v>3414039</v>
+        <v>2494805</v>
       </c>
       <c r="BB73" s="11">
-        <v>2494805</v>
+        <v>3344449</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10192,65 +10192,65 @@
       <c r="AH74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI74" s="13" t="s">
-        <v>57</v>
+      <c r="AI74" s="13">
+        <v>414689</v>
       </c>
       <c r="AJ74" s="13">
-        <v>414689</v>
+        <v>701807</v>
       </c>
       <c r="AK74" s="13">
-        <v>701807</v>
+        <v>630462</v>
       </c>
       <c r="AL74" s="13">
-        <v>630462</v>
+        <v>548203</v>
       </c>
       <c r="AM74" s="13">
-        <v>548203</v>
+        <v>403964</v>
       </c>
       <c r="AN74" s="13">
-        <v>403964</v>
+        <v>786001</v>
       </c>
       <c r="AO74" s="13">
-        <v>786001</v>
+        <v>649521</v>
       </c>
       <c r="AP74" s="13">
-        <v>649521</v>
+        <v>632332</v>
       </c>
       <c r="AQ74" s="13">
-        <v>632332</v>
+        <v>617866</v>
       </c>
       <c r="AR74" s="13">
-        <v>617866</v>
+        <v>528351</v>
       </c>
       <c r="AS74" s="13">
-        <v>528351</v>
+        <v>586166</v>
       </c>
       <c r="AT74" s="13">
-        <v>586166</v>
+        <v>754586</v>
       </c>
       <c r="AU74" s="13">
-        <v>754586</v>
+        <v>397241</v>
       </c>
       <c r="AV74" s="13">
-        <v>397241</v>
+        <v>924724</v>
       </c>
       <c r="AW74" s="13">
-        <v>924724</v>
+        <v>1062554</v>
       </c>
       <c r="AX74" s="13">
-        <v>1062554</v>
+        <v>648397</v>
       </c>
       <c r="AY74" s="13">
-        <v>648397</v>
+        <v>755556</v>
       </c>
       <c r="AZ74" s="13">
-        <v>755556</v>
+        <v>706033</v>
       </c>
       <c r="BA74" s="13">
-        <v>706033</v>
+        <v>560827</v>
       </c>
       <c r="BB74" s="13">
-        <v>560827</v>
+        <v>773745</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10351,65 +10351,65 @@
       <c r="AH75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI75" s="11" t="s">
-        <v>57</v>
+      <c r="AI75" s="11">
+        <v>193824</v>
       </c>
       <c r="AJ75" s="11">
-        <v>193824</v>
+        <v>216114</v>
       </c>
       <c r="AK75" s="11">
-        <v>216114</v>
+        <v>307272</v>
       </c>
       <c r="AL75" s="11">
-        <v>307272</v>
+        <v>134029</v>
       </c>
       <c r="AM75" s="11">
-        <v>134029</v>
+        <v>183420</v>
       </c>
       <c r="AN75" s="11">
-        <v>183420</v>
+        <v>253633</v>
       </c>
       <c r="AO75" s="11">
-        <v>253633</v>
+        <v>217942</v>
       </c>
       <c r="AP75" s="11">
-        <v>217942</v>
+        <v>224292</v>
       </c>
       <c r="AQ75" s="11">
-        <v>224292</v>
+        <v>309289</v>
       </c>
       <c r="AR75" s="11">
-        <v>309289</v>
+        <v>181043</v>
       </c>
       <c r="AS75" s="11">
-        <v>181043</v>
+        <v>184352</v>
       </c>
       <c r="AT75" s="11">
-        <v>184352</v>
+        <v>212206</v>
       </c>
       <c r="AU75" s="11">
-        <v>212206</v>
+        <v>198259</v>
       </c>
       <c r="AV75" s="11">
-        <v>198259</v>
+        <v>426184</v>
       </c>
       <c r="AW75" s="11">
-        <v>426184</v>
+        <v>444298</v>
       </c>
       <c r="AX75" s="11">
-        <v>444298</v>
+        <v>188180</v>
       </c>
       <c r="AY75" s="11">
-        <v>188180</v>
+        <v>162272</v>
       </c>
       <c r="AZ75" s="11">
-        <v>162272</v>
+        <v>463428</v>
       </c>
       <c r="BA75" s="11">
-        <v>463428</v>
+        <v>258955</v>
       </c>
       <c r="BB75" s="11">
-        <v>258955</v>
+        <v>363486</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10510,65 +10510,65 @@
       <c r="AH76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI76" s="13" t="s">
-        <v>57</v>
+      <c r="AI76" s="13">
+        <v>1135769</v>
       </c>
       <c r="AJ76" s="13">
-        <v>1135769</v>
+        <v>1500227</v>
       </c>
       <c r="AK76" s="13">
-        <v>1500227</v>
+        <v>1534204</v>
       </c>
       <c r="AL76" s="13">
-        <v>1534204</v>
+        <v>1588124</v>
       </c>
       <c r="AM76" s="13">
-        <v>1588124</v>
+        <v>1705963</v>
       </c>
       <c r="AN76" s="13">
-        <v>1705963</v>
+        <v>1378982</v>
       </c>
       <c r="AO76" s="13">
-        <v>1378982</v>
+        <v>2365489</v>
       </c>
       <c r="AP76" s="13">
-        <v>2365489</v>
+        <v>2017230</v>
       </c>
       <c r="AQ76" s="13">
-        <v>2017230</v>
+        <v>1453564</v>
       </c>
       <c r="AR76" s="13">
-        <v>1453564</v>
+        <v>867973</v>
       </c>
       <c r="AS76" s="13">
-        <v>867973</v>
+        <v>1784048</v>
       </c>
       <c r="AT76" s="13">
-        <v>1760123</v>
+        <v>249540</v>
       </c>
       <c r="AU76" s="13">
-        <v>249540</v>
+        <v>3278703</v>
       </c>
       <c r="AV76" s="13">
-        <v>3278703</v>
+        <v>2886505</v>
       </c>
       <c r="AW76" s="13">
-        <v>2886505</v>
+        <v>2286360</v>
       </c>
       <c r="AX76" s="13">
-        <v>2286360</v>
+        <v>2054045</v>
       </c>
       <c r="AY76" s="13">
-        <v>2054045</v>
+        <v>1751195</v>
       </c>
       <c r="AZ76" s="13">
-        <v>1751195</v>
+        <v>2042689</v>
       </c>
       <c r="BA76" s="13">
-        <v>2042689</v>
+        <v>1613119</v>
       </c>
       <c r="BB76" s="13">
-        <v>1613119</v>
+        <v>2309583</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10669,20 +10669,20 @@
       <c r="AH77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI77" s="11" t="s">
-        <v>57</v>
+      <c r="AI77" s="11">
+        <v>0</v>
       </c>
       <c r="AJ77" s="11">
         <v>0</v>
       </c>
       <c r="AK77" s="11">
-        <v>0</v>
+        <v>65173</v>
       </c>
       <c r="AL77" s="11">
-        <v>65173</v>
+        <v>62725</v>
       </c>
       <c r="AM77" s="11">
-        <v>62725</v>
+        <v>0</v>
       </c>
       <c r="AN77" s="11">
         <v>0</v>
@@ -10705,8 +10705,8 @@
       <c r="AT77" s="11">
         <v>0</v>
       </c>
-      <c r="AU77" s="11">
-        <v>0</v>
+      <c r="AU77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV77" s="11" t="s">
         <v>57</v>
@@ -10858,8 +10858,8 @@
       <c r="Y79" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z79" s="17" t="s">
-        <v>57</v>
+      <c r="Z79" s="17">
+        <v>0</v>
       </c>
       <c r="AA79" s="17">
         <v>0</v>
@@ -11104,50 +11104,50 @@
       <c r="AI81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ81" s="11" t="s">
-        <v>57</v>
+      <c r="AJ81" s="11">
+        <v>-1096</v>
       </c>
       <c r="AK81" s="11">
-        <v>-1096</v>
+        <v>-1597</v>
       </c>
       <c r="AL81" s="11">
-        <v>-1597</v>
+        <v>-133</v>
       </c>
       <c r="AM81" s="11">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AN81" s="11">
-        <v>0</v>
+        <v>-356143</v>
       </c>
       <c r="AO81" s="11">
-        <v>-356143</v>
+        <v>-4243</v>
       </c>
       <c r="AP81" s="11">
-        <v>-4243</v>
+        <v>0</v>
       </c>
       <c r="AQ81" s="11">
-        <v>0</v>
+        <v>-4072</v>
       </c>
       <c r="AR81" s="11">
-        <v>-4072</v>
+        <v>0</v>
       </c>
       <c r="AS81" s="11">
-        <v>0</v>
+        <v>-7758</v>
       </c>
       <c r="AT81" s="11">
-        <v>-7758</v>
+        <v>-34371</v>
       </c>
       <c r="AU81" s="11">
-        <v>-34371</v>
-      </c>
-      <c r="AV81" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AV81" s="11">
+        <v>0</v>
       </c>
       <c r="AW81" s="11">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AX81" s="11">
-        <v>-1606</v>
+        <v>1244</v>
       </c>
       <c r="AY81" s="11">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="BB81" s="11">
-        <v>0</v>
+        <v>-4380</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11233,14 +11233,14 @@
       <c r="Y82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z82" s="13" t="s">
-        <v>57</v>
+      <c r="Z82" s="13">
+        <v>-3871</v>
       </c>
       <c r="AA82" s="13">
-        <v>-3871</v>
+        <v>-55</v>
       </c>
       <c r="AB82" s="13">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AC82" s="13">
         <v>0</v>
@@ -11249,19 +11249,19 @@
         <v>0</v>
       </c>
       <c r="AE82" s="13">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AF82" s="13">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="AG82" s="13">
-        <v>0</v>
+        <v>-1208</v>
       </c>
       <c r="AH82" s="13">
-        <v>-1208</v>
-      </c>
-      <c r="AI82" s="13">
         <v>-530</v>
+      </c>
+      <c r="AI82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ82" s="13" t="s">
         <v>57</v>
@@ -11392,14 +11392,14 @@
       <c r="Y83" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z83" s="17" t="s">
-        <v>57</v>
+      <c r="Z83" s="17">
+        <v>-3871</v>
       </c>
       <c r="AA83" s="17">
-        <v>-3871</v>
+        <v>-55</v>
       </c>
       <c r="AB83" s="17">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AC83" s="17">
         <v>0</v>
@@ -11408,64 +11408,64 @@
         <v>0</v>
       </c>
       <c r="AE83" s="17">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AF83" s="17">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="AG83" s="17">
-        <v>0</v>
+        <v>-1208</v>
       </c>
       <c r="AH83" s="17">
-        <v>-1208</v>
+        <v>-530</v>
       </c>
       <c r="AI83" s="17">
-        <v>-530</v>
+        <v>0</v>
       </c>
       <c r="AJ83" s="17">
-        <v>0</v>
+        <v>-1096</v>
       </c>
       <c r="AK83" s="17">
-        <v>-1096</v>
+        <v>-1597</v>
       </c>
       <c r="AL83" s="17">
-        <v>-1597</v>
+        <v>-133</v>
       </c>
       <c r="AM83" s="17">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AN83" s="17">
-        <v>0</v>
+        <v>-356143</v>
       </c>
       <c r="AO83" s="17">
-        <v>-356143</v>
+        <v>-4243</v>
       </c>
       <c r="AP83" s="17">
-        <v>-4243</v>
+        <v>0</v>
       </c>
       <c r="AQ83" s="17">
-        <v>0</v>
+        <v>-4072</v>
       </c>
       <c r="AR83" s="17">
-        <v>-4072</v>
+        <v>0</v>
       </c>
       <c r="AS83" s="17">
-        <v>0</v>
+        <v>-7758</v>
       </c>
       <c r="AT83" s="17">
-        <v>-7758</v>
+        <v>-34371</v>
       </c>
       <c r="AU83" s="17">
-        <v>-34371</v>
+        <v>0</v>
       </c>
       <c r="AV83" s="17">
         <v>0</v>
       </c>
       <c r="AW83" s="17">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AX83" s="17">
-        <v>-1606</v>
+        <v>1244</v>
       </c>
       <c r="AY83" s="17">
         <v>0</v>
@@ -11477,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="BB83" s="17">
-        <v>0</v>
+        <v>-4380</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11608,92 +11608,92 @@
       <c r="Y85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z85" s="11" t="s">
-        <v>57</v>
+      <c r="Z85" s="11">
+        <v>-99965</v>
       </c>
       <c r="AA85" s="11">
-        <v>-99965</v>
+        <v>-63046</v>
       </c>
       <c r="AB85" s="11">
-        <v>-63046</v>
+        <v>-121319</v>
       </c>
       <c r="AC85" s="11">
-        <v>-121319</v>
+        <v>-104481</v>
       </c>
       <c r="AD85" s="11">
-        <v>-104481</v>
+        <v>-33470</v>
       </c>
       <c r="AE85" s="11">
-        <v>-33470</v>
+        <v>-108786</v>
       </c>
       <c r="AF85" s="11">
-        <v>-108786</v>
+        <v>-194709</v>
       </c>
       <c r="AG85" s="11">
-        <v>-194709</v>
+        <v>-160422</v>
       </c>
       <c r="AH85" s="11">
-        <v>-160422</v>
+        <v>-147739</v>
       </c>
       <c r="AI85" s="11">
-        <v>-147739</v>
+        <v>-82901</v>
       </c>
       <c r="AJ85" s="11">
-        <v>-82901</v>
+        <v>-70815</v>
       </c>
       <c r="AK85" s="11">
-        <v>-70815</v>
+        <v>-55936</v>
       </c>
       <c r="AL85" s="11">
-        <v>-55936</v>
+        <v>-166034</v>
       </c>
       <c r="AM85" s="11">
-        <v>-166034</v>
+        <v>-162714</v>
       </c>
       <c r="AN85" s="11">
-        <v>-162714</v>
+        <v>-146494</v>
       </c>
       <c r="AO85" s="11">
-        <v>-146494</v>
+        <v>-107065</v>
       </c>
       <c r="AP85" s="11">
-        <v>-107065</v>
+        <v>-178470</v>
       </c>
       <c r="AQ85" s="11">
-        <v>-178470</v>
+        <v>-99431</v>
       </c>
       <c r="AR85" s="11">
-        <v>-99431</v>
+        <v>-117236</v>
       </c>
       <c r="AS85" s="11">
-        <v>-117236</v>
+        <v>-72470</v>
       </c>
       <c r="AT85" s="11">
-        <v>-72470</v>
+        <v>-98358</v>
       </c>
       <c r="AU85" s="11">
-        <v>-98358</v>
+        <v>-36205</v>
       </c>
       <c r="AV85" s="11">
-        <v>-36205</v>
+        <v>-46431</v>
       </c>
       <c r="AW85" s="11">
-        <v>-46431</v>
+        <v>-24993</v>
       </c>
       <c r="AX85" s="11">
-        <v>-24993</v>
+        <v>-16300</v>
       </c>
       <c r="AY85" s="11">
-        <v>-16300</v>
+        <v>-18418</v>
       </c>
       <c r="AZ85" s="11">
-        <v>-18418</v>
+        <v>-838864</v>
       </c>
       <c r="BA85" s="11">
-        <v>-838864</v>
+        <v>-263408</v>
       </c>
       <c r="BB85" s="11">
-        <v>-263408</v>
+        <v>-281259</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11703,154 +11703,154 @@
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19">
-        <v>2668623</v>
+        <v>3056704</v>
       </c>
       <c r="F86" s="19">
-        <v>3056704</v>
+        <v>3108974</v>
       </c>
       <c r="G86" s="19">
-        <v>3108974</v>
+        <v>2756875</v>
       </c>
       <c r="H86" s="19">
-        <v>2756875</v>
+        <v>3031225</v>
       </c>
       <c r="I86" s="19">
-        <v>3031225</v>
+        <v>2922329</v>
       </c>
       <c r="J86" s="19">
-        <v>2922329</v>
+        <v>3994550</v>
       </c>
       <c r="K86" s="19">
-        <v>3994550</v>
+        <v>2825957</v>
       </c>
       <c r="L86" s="19">
-        <v>2825957</v>
+        <v>4798068</v>
       </c>
       <c r="M86" s="19">
-        <v>4798068</v>
+        <v>4797480</v>
       </c>
       <c r="N86" s="19">
-        <v>4797480</v>
+        <v>4193075</v>
       </c>
       <c r="O86" s="19">
-        <v>4193075</v>
+        <v>4174126</v>
       </c>
       <c r="P86" s="19">
-        <v>4174126</v>
+        <v>4068991</v>
       </c>
       <c r="Q86" s="19">
-        <v>4068991</v>
+        <v>3067641</v>
       </c>
       <c r="R86" s="19">
-        <v>3067641</v>
+        <v>2789386</v>
       </c>
       <c r="S86" s="19">
-        <v>2789386</v>
+        <v>4216161</v>
       </c>
       <c r="T86" s="19">
-        <v>4216161</v>
+        <v>3429154</v>
       </c>
       <c r="U86" s="19">
-        <v>3429154</v>
+        <v>4906137</v>
       </c>
       <c r="V86" s="19">
-        <v>4906137</v>
+        <v>4139696</v>
       </c>
       <c r="W86" s="19">
-        <v>4139696</v>
+        <v>1494399</v>
       </c>
       <c r="X86" s="19">
-        <v>1494399</v>
+        <v>3040057</v>
       </c>
       <c r="Y86" s="19">
-        <v>3040057</v>
+        <v>4533388</v>
       </c>
       <c r="Z86" s="19">
-        <v>4533388</v>
+        <v>5003773</v>
       </c>
       <c r="AA86" s="19">
-        <v>5003773</v>
+        <v>4814533</v>
       </c>
       <c r="AB86" s="19">
-        <v>4814533</v>
+        <v>5848132</v>
       </c>
       <c r="AC86" s="19">
-        <v>5848132</v>
+        <v>7320115</v>
       </c>
       <c r="AD86" s="19">
-        <v>7320115</v>
+        <v>6783459</v>
       </c>
       <c r="AE86" s="19">
-        <v>6783459</v>
+        <v>7913054</v>
       </c>
       <c r="AF86" s="19">
-        <v>7913054</v>
+        <v>8710611</v>
       </c>
       <c r="AG86" s="19">
-        <v>8710611</v>
+        <v>8289115</v>
       </c>
       <c r="AH86" s="19">
-        <v>8289115</v>
+        <v>8303574</v>
       </c>
       <c r="AI86" s="19">
-        <v>8303574</v>
+        <v>7468775</v>
       </c>
       <c r="AJ86" s="19">
-        <v>7468775</v>
+        <v>9506819</v>
       </c>
       <c r="AK86" s="19">
-        <v>9506819</v>
+        <v>11028015</v>
       </c>
       <c r="AL86" s="19">
-        <v>11028015</v>
+        <v>9942922</v>
       </c>
       <c r="AM86" s="19">
-        <v>9942922</v>
+        <v>11916444</v>
       </c>
       <c r="AN86" s="19">
-        <v>11916444</v>
+        <v>15484920</v>
       </c>
       <c r="AO86" s="19">
-        <v>15484920</v>
+        <v>11674012</v>
       </c>
       <c r="AP86" s="19">
-        <v>11674012</v>
+        <v>10875125</v>
       </c>
       <c r="AQ86" s="19">
-        <v>10875125</v>
+        <v>12011104</v>
       </c>
       <c r="AR86" s="19">
-        <v>12011104</v>
+        <v>10354889</v>
       </c>
       <c r="AS86" s="19">
-        <v>10354889</v>
+        <v>11108418</v>
       </c>
       <c r="AT86" s="19">
-        <v>11797608</v>
+        <v>10888591</v>
       </c>
       <c r="AU86" s="19">
-        <v>10888591</v>
+        <v>8635868</v>
       </c>
       <c r="AV86" s="19">
-        <v>8635868</v>
+        <v>15751129</v>
       </c>
       <c r="AW86" s="19">
-        <v>15751129</v>
+        <v>20819333</v>
       </c>
       <c r="AX86" s="19">
-        <v>20819333</v>
+        <v>18602346</v>
       </c>
       <c r="AY86" s="19">
-        <v>18601102</v>
+        <v>16410446</v>
       </c>
       <c r="AZ86" s="19">
-        <v>16410446</v>
+        <v>15297080</v>
       </c>
       <c r="BA86" s="19">
-        <v>15297080</v>
+        <v>11774920</v>
       </c>
       <c r="BB86" s="19">
-        <v>11774920</v>
+        <v>14597743</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12322,104 +12322,104 @@
       <c r="M93" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N93" s="11" t="s">
-        <v>57</v>
+      <c r="N93" s="11">
+        <v>126529412</v>
       </c>
       <c r="O93" s="11">
-        <v>126529412</v>
+        <v>115623902</v>
       </c>
       <c r="P93" s="11">
-        <v>115623902</v>
+        <v>120493671</v>
       </c>
       <c r="Q93" s="11">
-        <v>120493671</v>
+        <v>110111111</v>
       </c>
       <c r="R93" s="11">
-        <v>110111111</v>
+        <v>95853968</v>
       </c>
       <c r="S93" s="11">
-        <v>95853968</v>
+        <v>106678571</v>
       </c>
       <c r="T93" s="11">
-        <v>106678571</v>
+        <v>85170455</v>
       </c>
       <c r="U93" s="11">
-        <v>85170455</v>
+        <v>118800000</v>
       </c>
       <c r="V93" s="11">
-        <v>118800000</v>
+        <v>117592593</v>
       </c>
       <c r="W93" s="11">
-        <v>117592593</v>
+        <v>113333333</v>
       </c>
       <c r="X93" s="11">
-        <v>113333333</v>
+        <v>115875000</v>
       </c>
       <c r="Y93" s="11">
-        <v>115875000</v>
+        <v>135000000</v>
       </c>
       <c r="Z93" s="11">
-        <v>135000000</v>
+        <v>106593750</v>
       </c>
       <c r="AA93" s="11">
-        <v>106593750</v>
+        <v>210288462</v>
       </c>
       <c r="AB93" s="11">
-        <v>210288462</v>
+        <v>159056926</v>
       </c>
       <c r="AC93" s="11">
-        <v>159056926</v>
+        <v>217086705</v>
       </c>
       <c r="AD93" s="11">
-        <v>217086705</v>
+        <v>212571429</v>
       </c>
       <c r="AE93" s="11">
-        <v>212571429</v>
+        <v>219928270</v>
       </c>
       <c r="AF93" s="11">
-        <v>219928270</v>
+        <v>216153153</v>
       </c>
       <c r="AG93" s="11">
-        <v>216153153</v>
+        <v>238640000</v>
       </c>
       <c r="AH93" s="11">
-        <v>238640000</v>
+        <v>140000000</v>
       </c>
       <c r="AI93" s="11">
-        <v>140000000</v>
+        <v>196833333</v>
       </c>
       <c r="AJ93" s="11">
-        <v>196833333</v>
+        <v>214030303</v>
       </c>
       <c r="AK93" s="11">
-        <v>214030303</v>
+        <v>204100000</v>
       </c>
       <c r="AL93" s="11">
-        <v>204100000</v>
+        <v>335222222</v>
       </c>
       <c r="AM93" s="11">
-        <v>335222222</v>
+        <v>353613793</v>
       </c>
       <c r="AN93" s="11">
-        <v>353613793</v>
+        <v>363110912</v>
       </c>
       <c r="AO93" s="11">
-        <v>363110912</v>
+        <v>333688716</v>
       </c>
       <c r="AP93" s="11">
-        <v>333688716</v>
+        <v>377737226</v>
       </c>
       <c r="AQ93" s="11">
-        <v>377737226</v>
+        <v>385072727</v>
       </c>
       <c r="AR93" s="11">
-        <v>385072727</v>
-      </c>
-      <c r="AS93" s="11">
         <v>387150000</v>
       </c>
-      <c r="AT93" s="11">
-        <v>392647059</v>
+      <c r="AS93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT93" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU93" s="11" t="s">
         <v>57</v>
@@ -12455,97 +12455,97 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>56905465</v>
+        <v>69979228</v>
       </c>
       <c r="F94" s="13">
-        <v>69979228</v>
+        <v>67636832</v>
       </c>
       <c r="G94" s="13">
-        <v>67636832</v>
+        <v>67719772</v>
       </c>
       <c r="H94" s="13">
-        <v>67719772</v>
+        <v>65181249</v>
       </c>
       <c r="I94" s="13">
-        <v>65181249</v>
+        <v>67646419</v>
       </c>
       <c r="J94" s="13">
-        <v>67646419</v>
+        <v>65193664</v>
       </c>
       <c r="K94" s="13">
-        <v>65193664</v>
+        <v>69116024</v>
       </c>
       <c r="L94" s="13">
-        <v>69116024</v>
+        <v>77350915</v>
       </c>
       <c r="M94" s="13">
-        <v>77350915</v>
+        <v>83111146</v>
       </c>
       <c r="N94" s="13">
-        <v>83111146</v>
+        <v>61702237</v>
       </c>
       <c r="O94" s="13">
-        <v>61702237</v>
+        <v>57578887</v>
       </c>
       <c r="P94" s="13">
-        <v>57578887</v>
+        <v>56261485</v>
       </c>
       <c r="Q94" s="13">
-        <v>56261485</v>
+        <v>58672025</v>
       </c>
       <c r="R94" s="13">
-        <v>58672025</v>
+        <v>54102649</v>
       </c>
       <c r="S94" s="13">
-        <v>54102649</v>
+        <v>61916745</v>
       </c>
       <c r="T94" s="13">
-        <v>61916745</v>
+        <v>55738971</v>
       </c>
       <c r="U94" s="13">
-        <v>55738971</v>
+        <v>63818938</v>
       </c>
       <c r="V94" s="13">
-        <v>63818938</v>
+        <v>68006772</v>
       </c>
       <c r="W94" s="13">
-        <v>68006772</v>
+        <v>65033794</v>
       </c>
       <c r="X94" s="13">
-        <v>65033794</v>
+        <v>51287822</v>
       </c>
       <c r="Y94" s="13">
-        <v>51287822</v>
+        <v>60287077</v>
       </c>
       <c r="Z94" s="13">
-        <v>60287077</v>
+        <v>78769288</v>
       </c>
       <c r="AA94" s="13">
-        <v>78769288</v>
+        <v>85344239</v>
       </c>
       <c r="AB94" s="13">
-        <v>85344239</v>
+        <v>89206083</v>
       </c>
       <c r="AC94" s="13">
-        <v>89206083</v>
+        <v>108677842</v>
       </c>
       <c r="AD94" s="13">
-        <v>108677842</v>
+        <v>128428711</v>
       </c>
       <c r="AE94" s="13">
-        <v>128428711</v>
+        <v>143048476</v>
       </c>
       <c r="AF94" s="13">
-        <v>143048476</v>
+        <v>128566459</v>
       </c>
       <c r="AG94" s="13">
-        <v>128566459</v>
+        <v>153864621</v>
       </c>
       <c r="AH94" s="13">
-        <v>153864621</v>
-      </c>
-      <c r="AI94" s="13">
         <v>154647428</v>
+      </c>
+      <c r="AI94" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ94" s="13" t="s">
         <v>57</v>
@@ -12703,65 +12703,65 @@
       <c r="AH95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI95" s="11" t="s">
-        <v>57</v>
+      <c r="AI95" s="11">
+        <v>184400438</v>
       </c>
       <c r="AJ95" s="11">
-        <v>184400438</v>
+        <v>199986839</v>
       </c>
       <c r="AK95" s="11">
-        <v>199986839</v>
+        <v>208858972</v>
       </c>
       <c r="AL95" s="11">
-        <v>208858972</v>
+        <v>210713467</v>
       </c>
       <c r="AM95" s="11">
-        <v>210713467</v>
+        <v>216125356</v>
       </c>
       <c r="AN95" s="11">
-        <v>216125356</v>
+        <v>220843415</v>
       </c>
       <c r="AO95" s="11">
-        <v>220843415</v>
+        <v>227544237</v>
       </c>
       <c r="AP95" s="11">
-        <v>227544237</v>
+        <v>221598440</v>
       </c>
       <c r="AQ95" s="11">
-        <v>221598440</v>
+        <v>214763396</v>
       </c>
       <c r="AR95" s="11">
-        <v>214763396</v>
+        <v>213494651</v>
       </c>
       <c r="AS95" s="11">
-        <v>213494651</v>
+        <v>209329828</v>
       </c>
       <c r="AT95" s="11">
-        <v>209133194</v>
+        <v>207735906</v>
       </c>
       <c r="AU95" s="11">
-        <v>207735906</v>
+        <v>278141629</v>
       </c>
       <c r="AV95" s="11">
-        <v>278141629</v>
+        <v>259401327</v>
       </c>
       <c r="AW95" s="11">
-        <v>259401327</v>
+        <v>268276167</v>
       </c>
       <c r="AX95" s="11">
-        <v>268276167</v>
+        <v>299006480</v>
       </c>
       <c r="AY95" s="11">
-        <v>299006480</v>
+        <v>305100230</v>
       </c>
       <c r="AZ95" s="11">
-        <v>305100230</v>
+        <v>267570489</v>
       </c>
       <c r="BA95" s="11">
-        <v>267570489</v>
+        <v>264291296</v>
       </c>
       <c r="BB95" s="11">
-        <v>264291296</v>
+        <v>270733530</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12862,65 +12862,65 @@
       <c r="AH96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI96" s="13" t="s">
-        <v>57</v>
+      <c r="AI96" s="13">
+        <v>138200192</v>
       </c>
       <c r="AJ96" s="13">
-        <v>138200192</v>
+        <v>129418367</v>
       </c>
       <c r="AK96" s="13">
-        <v>129418367</v>
+        <v>143336772</v>
       </c>
       <c r="AL96" s="13">
-        <v>143336772</v>
+        <v>160583137</v>
       </c>
       <c r="AM96" s="13">
-        <v>160583137</v>
+        <v>166863549</v>
       </c>
       <c r="AN96" s="13">
-        <v>166863549</v>
+        <v>175064703</v>
       </c>
       <c r="AO96" s="13">
-        <v>175064703</v>
+        <v>193072005</v>
       </c>
       <c r="AP96" s="13">
-        <v>193072005</v>
+        <v>215745962</v>
       </c>
       <c r="AQ96" s="13">
-        <v>215745962</v>
+        <v>233302883</v>
       </c>
       <c r="AR96" s="13">
-        <v>233302883</v>
+        <v>253872686</v>
       </c>
       <c r="AS96" s="13">
-        <v>253872686</v>
+        <v>223226066</v>
       </c>
       <c r="AT96" s="13">
-        <v>223226066</v>
+        <v>251307692</v>
       </c>
       <c r="AU96" s="13">
-        <v>251307692</v>
+        <v>307728261</v>
       </c>
       <c r="AV96" s="13">
-        <v>307728261</v>
+        <v>275125741</v>
       </c>
       <c r="AW96" s="13">
-        <v>275125741</v>
+        <v>299840622</v>
       </c>
       <c r="AX96" s="13">
-        <v>299840622</v>
+        <v>317597087</v>
       </c>
       <c r="AY96" s="13">
-        <v>317597087</v>
+        <v>307855586</v>
       </c>
       <c r="AZ96" s="13">
-        <v>307855586</v>
+        <v>228333333</v>
       </c>
       <c r="BA96" s="13">
-        <v>228333333</v>
+        <v>218574378</v>
       </c>
       <c r="BB96" s="13">
-        <v>218574378</v>
+        <v>225835142</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -12958,128 +12958,128 @@
       <c r="M97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N97" s="11" t="s">
-        <v>57</v>
+      <c r="N97" s="11">
+        <v>101285714</v>
       </c>
       <c r="O97" s="11">
-        <v>101285714</v>
+        <v>99608696</v>
       </c>
       <c r="P97" s="11">
-        <v>99608696</v>
+        <v>101276923</v>
       </c>
       <c r="Q97" s="11">
-        <v>101276923</v>
+        <v>105605634</v>
       </c>
       <c r="R97" s="11">
-        <v>105605634</v>
+        <v>111939394</v>
       </c>
       <c r="S97" s="11">
-        <v>111939394</v>
+        <v>105676056</v>
       </c>
       <c r="T97" s="11">
-        <v>105676056</v>
+        <v>101560976</v>
       </c>
       <c r="U97" s="11">
-        <v>101560976</v>
+        <v>103636364</v>
       </c>
       <c r="V97" s="11">
-        <v>103636364</v>
+        <v>100672727</v>
       </c>
       <c r="W97" s="11">
-        <v>100672727</v>
+        <v>105444444</v>
       </c>
       <c r="X97" s="11">
-        <v>105444444</v>
+        <v>107016260</v>
       </c>
       <c r="Y97" s="11">
-        <v>107016260</v>
+        <v>103711111</v>
       </c>
       <c r="Z97" s="11">
-        <v>103711111</v>
+        <v>97031746</v>
       </c>
       <c r="AA97" s="11">
-        <v>97031746</v>
+        <v>130444444</v>
       </c>
       <c r="AB97" s="11">
-        <v>130444444</v>
+        <v>106924528</v>
       </c>
       <c r="AC97" s="11">
-        <v>106924528</v>
+        <v>121257576</v>
       </c>
       <c r="AD97" s="11">
-        <v>121257576</v>
+        <v>157200000</v>
       </c>
       <c r="AE97" s="11">
-        <v>157200000</v>
+        <v>218152174</v>
       </c>
       <c r="AF97" s="11">
-        <v>218152174</v>
+        <v>218187500</v>
       </c>
       <c r="AG97" s="11">
-        <v>218187500</v>
+        <v>205285714</v>
       </c>
       <c r="AH97" s="11">
-        <v>205285714</v>
+        <v>193833333</v>
       </c>
       <c r="AI97" s="11">
-        <v>193833333</v>
+        <v>181500000</v>
       </c>
       <c r="AJ97" s="11">
-        <v>181500000</v>
+        <v>220610390</v>
       </c>
       <c r="AK97" s="11">
-        <v>220610390</v>
+        <v>221066667</v>
       </c>
       <c r="AL97" s="11">
-        <v>221066667</v>
+        <v>226454545</v>
       </c>
       <c r="AM97" s="11">
-        <v>226454545</v>
+        <v>230384615</v>
       </c>
       <c r="AN97" s="11">
-        <v>230384615</v>
-      </c>
-      <c r="AO97" s="11">
         <v>205000000</v>
       </c>
+      <c r="AO97" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AP97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ97" s="11" t="s">
-        <v>57</v>
+      <c r="AQ97" s="11">
+        <v>275387097</v>
       </c>
       <c r="AR97" s="11">
-        <v>275387097</v>
+        <v>268475000</v>
       </c>
       <c r="AS97" s="11">
-        <v>268475000</v>
+        <v>267373333</v>
       </c>
       <c r="AT97" s="11">
-        <v>267373333</v>
+        <v>274655462</v>
       </c>
       <c r="AU97" s="11">
-        <v>274655462</v>
+        <v>390571429</v>
       </c>
       <c r="AV97" s="11">
-        <v>390571429</v>
+        <v>404843137</v>
       </c>
       <c r="AW97" s="11">
-        <v>404843137</v>
+        <v>501500000</v>
       </c>
       <c r="AX97" s="11">
-        <v>501500000</v>
+        <v>373500000</v>
       </c>
       <c r="AY97" s="11">
-        <v>373500000</v>
-      </c>
-      <c r="AZ97" s="11">
         <v>714500000</v>
       </c>
-      <c r="BA97" s="11" t="s">
-        <v>57</v>
+      <c r="AZ97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA97" s="11">
+        <v>362176471</v>
       </c>
       <c r="BB97" s="11">
-        <v>362176471</v>
+        <v>367812500</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -13210,35 +13210,35 @@
       <c r="AR98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS98" s="13" t="s">
-        <v>57</v>
+      <c r="AS98" s="13">
+        <v>0</v>
       </c>
       <c r="AT98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU98" s="13" t="s">
-        <v>57</v>
+      <c r="AU98" s="13">
+        <v>385800000</v>
       </c>
       <c r="AV98" s="13">
-        <v>385800000</v>
+        <v>349584615</v>
       </c>
       <c r="AW98" s="13">
-        <v>349584615</v>
+        <v>457268519</v>
       </c>
       <c r="AX98" s="13">
-        <v>457268519</v>
+        <v>545109375</v>
       </c>
       <c r="AY98" s="13">
-        <v>545109375</v>
+        <v>596875000</v>
       </c>
       <c r="AZ98" s="13">
-        <v>596875000</v>
+        <v>332695652</v>
       </c>
       <c r="BA98" s="13">
-        <v>332695652</v>
+        <v>444629630</v>
       </c>
       <c r="BB98" s="13">
-        <v>444629630</v>
+        <v>413677419</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13250,34 +13250,34 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>35909668</v>
+        <v>53088390</v>
       </c>
       <c r="F99" s="11">
-        <v>53088390</v>
+        <v>47238747</v>
       </c>
       <c r="G99" s="11">
-        <v>47238747</v>
+        <v>44835622</v>
       </c>
       <c r="H99" s="11">
-        <v>44835622</v>
+        <v>38575515</v>
       </c>
       <c r="I99" s="11">
-        <v>38575515</v>
+        <v>33089273</v>
       </c>
       <c r="J99" s="11">
-        <v>33089273</v>
+        <v>48698922</v>
       </c>
       <c r="K99" s="11">
-        <v>48698922</v>
+        <v>41716553</v>
       </c>
       <c r="L99" s="11">
-        <v>41716553</v>
+        <v>47468288</v>
       </c>
       <c r="M99" s="11">
-        <v>47468288</v>
+        <v>53022171</v>
       </c>
       <c r="N99" s="11">
-        <v>53022171</v>
+        <v>0</v>
       </c>
       <c r="O99" s="11">
         <v>0</v>
@@ -13303,17 +13303,17 @@
       <c r="V99" s="11">
         <v>0</v>
       </c>
-      <c r="W99" s="11">
-        <v>0</v>
+      <c r="W99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z99" s="11">
+      <c r="Y99" s="11">
         <v>64685185</v>
+      </c>
+      <c r="Z99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA99" s="11" t="s">
         <v>57</v>
@@ -13498,65 +13498,65 @@
       <c r="AH100" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI100" s="13" t="s">
-        <v>57</v>
+      <c r="AI100" s="13">
+        <v>133847769</v>
       </c>
       <c r="AJ100" s="13">
-        <v>133847769</v>
+        <v>139861677</v>
       </c>
       <c r="AK100" s="13">
-        <v>139861677</v>
+        <v>139252250</v>
       </c>
       <c r="AL100" s="13">
-        <v>139252250</v>
+        <v>163596586</v>
       </c>
       <c r="AM100" s="13">
-        <v>163596586</v>
+        <v>174963969</v>
       </c>
       <c r="AN100" s="13">
-        <v>174963969</v>
+        <v>204416175</v>
       </c>
       <c r="AO100" s="13">
-        <v>204416175</v>
+        <v>223082783</v>
       </c>
       <c r="AP100" s="13">
-        <v>223082783</v>
+        <v>246831373</v>
       </c>
       <c r="AQ100" s="13">
-        <v>246831373</v>
+        <v>248136951</v>
       </c>
       <c r="AR100" s="13">
-        <v>248136951</v>
+        <v>247478121</v>
       </c>
       <c r="AS100" s="13">
-        <v>247478121</v>
+        <v>265229630</v>
       </c>
       <c r="AT100" s="13">
-        <v>265229630</v>
+        <v>243267758</v>
       </c>
       <c r="AU100" s="13">
-        <v>243267758</v>
+        <v>307451249</v>
       </c>
       <c r="AV100" s="13">
-        <v>307451249</v>
+        <v>288667078</v>
       </c>
       <c r="AW100" s="13">
-        <v>288667078</v>
+        <v>270942200</v>
       </c>
       <c r="AX100" s="13">
-        <v>270942200</v>
+        <v>275363329</v>
       </c>
       <c r="AY100" s="13">
-        <v>275363329</v>
+        <v>284998147</v>
       </c>
       <c r="AZ100" s="13">
-        <v>284998147</v>
+        <v>246500756</v>
       </c>
       <c r="BA100" s="13">
-        <v>246500756</v>
+        <v>243683435</v>
       </c>
       <c r="BB100" s="13">
-        <v>243683435</v>
+        <v>267870709</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -13594,71 +13594,71 @@
       <c r="M101" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N101" s="11" t="s">
-        <v>57</v>
+      <c r="N101" s="11">
+        <v>74725435</v>
       </c>
       <c r="O101" s="11">
-        <v>74725435</v>
+        <v>68674340</v>
       </c>
       <c r="P101" s="11">
-        <v>68674340</v>
+        <v>65965901</v>
       </c>
       <c r="Q101" s="11">
-        <v>65965901</v>
+        <v>62445774</v>
       </c>
       <c r="R101" s="11">
-        <v>62445774</v>
+        <v>49258885</v>
       </c>
       <c r="S101" s="11">
-        <v>49258885</v>
+        <v>49554476</v>
       </c>
       <c r="T101" s="11">
-        <v>49554476</v>
+        <v>54462591</v>
       </c>
       <c r="U101" s="11">
-        <v>54462591</v>
+        <v>58363208</v>
       </c>
       <c r="V101" s="11">
-        <v>58363208</v>
+        <v>62641088</v>
       </c>
       <c r="W101" s="11">
-        <v>62641088</v>
+        <v>64395105</v>
       </c>
       <c r="X101" s="11">
-        <v>64395105</v>
+        <v>59552676</v>
       </c>
       <c r="Y101" s="11">
-        <v>59552676</v>
+        <v>55397690</v>
       </c>
       <c r="Z101" s="11">
-        <v>55397690</v>
+        <v>64214918</v>
       </c>
       <c r="AA101" s="11">
-        <v>64214918</v>
+        <v>82249892</v>
       </c>
       <c r="AB101" s="11">
-        <v>82249892</v>
+        <v>102296971</v>
       </c>
       <c r="AC101" s="11">
-        <v>102296971</v>
+        <v>129022143</v>
       </c>
       <c r="AD101" s="11">
-        <v>129022143</v>
+        <v>130099107</v>
       </c>
       <c r="AE101" s="11">
-        <v>130099107</v>
+        <v>126418108</v>
       </c>
       <c r="AF101" s="11">
-        <v>126418108</v>
+        <v>134436423</v>
       </c>
       <c r="AG101" s="11">
-        <v>134436423</v>
+        <v>138004488</v>
       </c>
       <c r="AH101" s="11">
-        <v>138004488</v>
-      </c>
-      <c r="AI101" s="11">
         <v>137958618</v>
+      </c>
+      <c r="AI101" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ101" s="11" t="s">
         <v>57</v>
@@ -13816,65 +13816,65 @@
       <c r="AH102" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI102" s="13" t="s">
-        <v>57</v>
+      <c r="AI102" s="13">
+        <v>194038712</v>
       </c>
       <c r="AJ102" s="13">
-        <v>194038712</v>
+        <v>185844002</v>
       </c>
       <c r="AK102" s="13">
-        <v>185844002</v>
+        <v>191633662</v>
       </c>
       <c r="AL102" s="13">
-        <v>191633662</v>
+        <v>207034572</v>
       </c>
       <c r="AM102" s="13">
-        <v>207034572</v>
+        <v>266557542</v>
       </c>
       <c r="AN102" s="13">
-        <v>266557542</v>
+        <v>276804803</v>
       </c>
       <c r="AO102" s="13">
-        <v>276804803</v>
+        <v>283648710</v>
       </c>
       <c r="AP102" s="13">
-        <v>283648710</v>
+        <v>278359126</v>
       </c>
       <c r="AQ102" s="13">
-        <v>278359126</v>
+        <v>298338299</v>
       </c>
       <c r="AR102" s="13">
-        <v>298338299</v>
+        <v>284492266</v>
       </c>
       <c r="AS102" s="13">
-        <v>284492266</v>
+        <v>275051853</v>
       </c>
       <c r="AT102" s="13">
-        <v>275051853</v>
+        <v>287511997</v>
       </c>
       <c r="AU102" s="13">
-        <v>287511997</v>
+        <v>307232082</v>
       </c>
       <c r="AV102" s="13">
-        <v>307232082</v>
+        <v>297846133</v>
       </c>
       <c r="AW102" s="13">
-        <v>297846133</v>
+        <v>327208696</v>
       </c>
       <c r="AX102" s="13">
-        <v>327208696</v>
+        <v>349345660</v>
       </c>
       <c r="AY102" s="13">
-        <v>349345660</v>
+        <v>363048614</v>
       </c>
       <c r="AZ102" s="13">
-        <v>363048614</v>
+        <v>351261072</v>
       </c>
       <c r="BA102" s="13">
-        <v>351261072</v>
+        <v>351354511</v>
       </c>
       <c r="BB102" s="13">
-        <v>351354511</v>
+        <v>350523468</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -13975,65 +13975,65 @@
       <c r="AH103" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI103" s="11" t="s">
-        <v>57</v>
+      <c r="AI103" s="11">
+        <v>231933333</v>
       </c>
       <c r="AJ103" s="11">
-        <v>231933333</v>
+        <v>225449200</v>
       </c>
       <c r="AK103" s="11">
-        <v>225449200</v>
+        <v>241518872</v>
       </c>
       <c r="AL103" s="11">
-        <v>241518872</v>
+        <v>271007274</v>
       </c>
       <c r="AM103" s="11">
-        <v>271007274</v>
+        <v>344920866</v>
       </c>
       <c r="AN103" s="11">
-        <v>344920866</v>
+        <v>329560702</v>
       </c>
       <c r="AO103" s="11">
-        <v>329560702</v>
+        <v>374212121</v>
       </c>
       <c r="AP103" s="11">
-        <v>374212121</v>
+        <v>345847731</v>
       </c>
       <c r="AQ103" s="11">
-        <v>345847731</v>
+        <v>352599464</v>
       </c>
       <c r="AR103" s="11">
-        <v>352599464</v>
+        <v>384870778</v>
       </c>
       <c r="AS103" s="11">
-        <v>384870778</v>
+        <v>347291606</v>
       </c>
       <c r="AT103" s="11">
-        <v>347291606</v>
+        <v>380364995</v>
       </c>
       <c r="AU103" s="11">
-        <v>380364995</v>
+        <v>410766879</v>
       </c>
       <c r="AV103" s="11">
-        <v>410766879</v>
+        <v>432674669</v>
       </c>
       <c r="AW103" s="11">
-        <v>432674669</v>
+        <v>466940386</v>
       </c>
       <c r="AX103" s="11">
-        <v>466940386</v>
+        <v>530194170</v>
       </c>
       <c r="AY103" s="11">
-        <v>530194170</v>
+        <v>516463242</v>
       </c>
       <c r="AZ103" s="11">
-        <v>516463242</v>
+        <v>486885197</v>
       </c>
       <c r="BA103" s="11">
-        <v>486885197</v>
+        <v>452367180</v>
       </c>
       <c r="BB103" s="11">
-        <v>452367180</v>
+        <v>428940490</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -14134,65 +14134,65 @@
       <c r="AH104" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI104" s="13" t="s">
-        <v>57</v>
+      <c r="AI104" s="13">
+        <v>243934706</v>
       </c>
       <c r="AJ104" s="13">
-        <v>243934706</v>
+        <v>253634622</v>
       </c>
       <c r="AK104" s="13">
-        <v>253634622</v>
+        <v>257646915</v>
       </c>
       <c r="AL104" s="13">
-        <v>257646915</v>
+        <v>263179549</v>
       </c>
       <c r="AM104" s="13">
-        <v>263179549</v>
+        <v>264720839</v>
       </c>
       <c r="AN104" s="13">
-        <v>264720839</v>
+        <v>280414199</v>
       </c>
       <c r="AO104" s="13">
-        <v>280414199</v>
+        <v>275922260</v>
       </c>
       <c r="AP104" s="13">
-        <v>275922260</v>
+        <v>323774706</v>
       </c>
       <c r="AQ104" s="13">
-        <v>323774706</v>
+        <v>352261117</v>
       </c>
       <c r="AR104" s="13">
-        <v>352261117</v>
+        <v>325539741</v>
       </c>
       <c r="AS104" s="13">
-        <v>325539741</v>
+        <v>330793454</v>
       </c>
       <c r="AT104" s="13">
-        <v>330793454</v>
+        <v>342526555</v>
       </c>
       <c r="AU104" s="13">
-        <v>342526555</v>
+        <v>376531754</v>
       </c>
       <c r="AV104" s="13">
-        <v>376531754</v>
+        <v>419756695</v>
       </c>
       <c r="AW104" s="13">
-        <v>419756695</v>
+        <v>425361890</v>
       </c>
       <c r="AX104" s="13">
-        <v>425361890</v>
+        <v>407796855</v>
       </c>
       <c r="AY104" s="13">
-        <v>407796855</v>
+        <v>416055066</v>
       </c>
       <c r="AZ104" s="13">
-        <v>416055066</v>
+        <v>433681204</v>
       </c>
       <c r="BA104" s="13">
-        <v>433681204</v>
+        <v>415119911</v>
       </c>
       <c r="BB104" s="13">
-        <v>415119911</v>
+        <v>419146804</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.3">
@@ -14293,65 +14293,65 @@
       <c r="AH105" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI105" s="11" t="s">
-        <v>57</v>
+      <c r="AI105" s="11">
+        <v>245346835</v>
       </c>
       <c r="AJ105" s="11">
-        <v>245346835</v>
+        <v>253357562</v>
       </c>
       <c r="AK105" s="11">
-        <v>253357562</v>
+        <v>307887776</v>
       </c>
       <c r="AL105" s="11">
-        <v>307887776</v>
+        <v>309535797</v>
       </c>
       <c r="AM105" s="11">
-        <v>309535797</v>
+        <v>318991304</v>
       </c>
       <c r="AN105" s="11">
-        <v>318991304</v>
+        <v>299095519</v>
       </c>
       <c r="AO105" s="11">
-        <v>299095519</v>
+        <v>369393220</v>
       </c>
       <c r="AP105" s="11">
-        <v>369393220</v>
+        <v>386710345</v>
       </c>
       <c r="AQ105" s="11">
-        <v>386710345</v>
+        <v>379030637</v>
       </c>
       <c r="AR105" s="11">
-        <v>379030637</v>
+        <v>358500990</v>
       </c>
       <c r="AS105" s="11">
-        <v>358500990</v>
+        <v>319500867</v>
       </c>
       <c r="AT105" s="11">
-        <v>319500867</v>
+        <v>374261023</v>
       </c>
       <c r="AU105" s="11">
-        <v>374261023</v>
+        <v>474303828</v>
       </c>
       <c r="AV105" s="11">
-        <v>474303828</v>
+        <v>435325843</v>
       </c>
       <c r="AW105" s="11">
-        <v>435325843</v>
+        <v>445188377</v>
       </c>
       <c r="AX105" s="11">
-        <v>445188377</v>
+        <v>543872832</v>
       </c>
       <c r="AY105" s="11">
-        <v>543872832</v>
+        <v>607760300</v>
       </c>
       <c r="AZ105" s="11">
-        <v>607760300</v>
+        <v>470963415</v>
       </c>
       <c r="BA105" s="11">
-        <v>470963415</v>
+        <v>458327434</v>
       </c>
       <c r="BB105" s="11">
-        <v>458327434</v>
+        <v>470227684</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14452,65 +14452,65 @@
       <c r="AH106" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI106" s="13" t="s">
-        <v>57</v>
+      <c r="AI106" s="13">
+        <v>67280908</v>
       </c>
       <c r="AJ106" s="13">
-        <v>67280908</v>
+        <v>68297687</v>
       </c>
       <c r="AK106" s="13">
-        <v>68297687</v>
+        <v>68402693</v>
       </c>
       <c r="AL106" s="13">
-        <v>68402693</v>
+        <v>75298658</v>
       </c>
       <c r="AM106" s="13">
-        <v>75298658</v>
+        <v>74633083</v>
       </c>
       <c r="AN106" s="13">
-        <v>74633083</v>
+        <v>83458331</v>
       </c>
       <c r="AO106" s="13">
-        <v>83458331</v>
+        <v>94604423</v>
       </c>
       <c r="AP106" s="13">
-        <v>94604423</v>
+        <v>90682401</v>
       </c>
       <c r="AQ106" s="13">
-        <v>90682401</v>
+        <v>92319085</v>
       </c>
       <c r="AR106" s="13">
-        <v>92319085</v>
+        <v>98020666</v>
       </c>
       <c r="AS106" s="13">
-        <v>98020666</v>
+        <v>106175638</v>
       </c>
       <c r="AT106" s="13">
-        <v>106057062</v>
+        <v>114310582</v>
       </c>
       <c r="AU106" s="13">
-        <v>114310582</v>
+        <v>149330616</v>
       </c>
       <c r="AV106" s="13">
-        <v>149330616</v>
+        <v>139444686</v>
       </c>
       <c r="AW106" s="13">
-        <v>139444686</v>
+        <v>140482949</v>
       </c>
       <c r="AX106" s="13">
-        <v>140482949</v>
+        <v>121533933</v>
       </c>
       <c r="AY106" s="13">
-        <v>121533933</v>
+        <v>117806593</v>
       </c>
       <c r="AZ106" s="13">
-        <v>117806593</v>
+        <v>92033746</v>
       </c>
       <c r="BA106" s="13">
-        <v>92033746</v>
+        <v>92857414</v>
       </c>
       <c r="BB106" s="13">
-        <v>92857414</v>
+        <v>92180523</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -14617,15 +14617,15 @@
       <c r="AJ107" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK107" s="11" t="s">
-        <v>57</v>
+      <c r="AK107" s="11">
+        <v>130085828</v>
       </c>
       <c r="AL107" s="11">
-        <v>130085828</v>
-      </c>
-      <c r="AM107" s="11">
         <v>129865424</v>
       </c>
+      <c r="AM107" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AN107" s="11" t="s">
         <v>57</v>
       </c>
@@ -14641,8 +14641,8 @@
       <c r="AR107" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS107" s="11" t="s">
-        <v>57</v>
+      <c r="AS107" s="11">
+        <v>0</v>
       </c>
       <c r="AT107" s="11" t="s">
         <v>57</v>

--- a/database/industries/ravankar/shaspa/product/monthly.xlsx
+++ b/database/industries/ravankar/shaspa/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDFC98B-C878-47D2-BABB-340EF102EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B101617A-7B28-47A3-9081-60FBB5E0E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شسپا-نفت سپاهان</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>ضد یخ</t>
@@ -1465,65 +1465,65 @@
       <c r="L11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>57</v>
+      <c r="M11" s="11">
+        <v>562</v>
       </c>
       <c r="N11" s="11">
-        <v>562</v>
+        <v>182</v>
       </c>
       <c r="O11" s="11">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="P11" s="11">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="11">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="R11" s="11">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="S11" s="11">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="T11" s="11">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U11" s="11">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="V11" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W11" s="11">
         <v>0</v>
       </c>
       <c r="X11" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y11" s="11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z11" s="11">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="AA11" s="11">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="AB11" s="11">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="AC11" s="11">
-        <v>382</v>
+        <v>541</v>
       </c>
       <c r="AD11" s="11">
-        <v>541</v>
+        <v>113</v>
       </c>
       <c r="AE11" s="11">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AF11" s="11">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="11">
         <v>0</v>
@@ -1532,34 +1532,34 @@
         <v>0</v>
       </c>
       <c r="AI11" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ11" s="11">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AK11" s="11">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="AL11" s="11">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="AM11" s="11">
-        <v>208</v>
+        <v>617</v>
       </c>
       <c r="AN11" s="11">
-        <v>617</v>
+        <v>134</v>
       </c>
       <c r="AO11" s="11">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="AP11" s="11">
-        <v>351</v>
+        <v>122</v>
       </c>
       <c r="AQ11" s="11">
-        <v>122</v>
-      </c>
-      <c r="AR11" s="11">
         <v>56</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS11" s="11" t="s">
         <v>57</v>
@@ -1601,94 +1601,94 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>31153</v>
+        <v>33370</v>
       </c>
       <c r="F12" s="13">
-        <v>33370</v>
+        <v>27029</v>
       </c>
       <c r="G12" s="13">
-        <v>27029</v>
+        <v>33859</v>
       </c>
       <c r="H12" s="13">
-        <v>33859</v>
+        <v>23992</v>
       </c>
       <c r="I12" s="13">
-        <v>23992</v>
+        <v>29749</v>
       </c>
       <c r="J12" s="13">
-        <v>29749</v>
+        <v>37254</v>
       </c>
       <c r="K12" s="13">
-        <v>37254</v>
+        <v>35057</v>
       </c>
       <c r="L12" s="13">
-        <v>35057</v>
+        <v>37423</v>
       </c>
       <c r="M12" s="13">
-        <v>37423</v>
+        <v>59285</v>
       </c>
       <c r="N12" s="13">
-        <v>59285</v>
+        <v>54904</v>
       </c>
       <c r="O12" s="13">
-        <v>54904</v>
+        <v>58824</v>
       </c>
       <c r="P12" s="13">
-        <v>58824</v>
+        <v>58142</v>
       </c>
       <c r="Q12" s="13">
-        <v>58142</v>
+        <v>57003</v>
       </c>
       <c r="R12" s="13">
-        <v>57003</v>
+        <v>51182</v>
       </c>
       <c r="S12" s="13">
-        <v>51182</v>
+        <v>61196</v>
       </c>
       <c r="T12" s="13">
-        <v>61196</v>
+        <v>51984</v>
       </c>
       <c r="U12" s="13">
-        <v>51984</v>
+        <v>51670</v>
       </c>
       <c r="V12" s="13">
-        <v>51670</v>
+        <v>56834</v>
       </c>
       <c r="W12" s="13">
-        <v>56834</v>
+        <v>51261</v>
       </c>
       <c r="X12" s="13">
-        <v>51261</v>
+        <v>56769</v>
       </c>
       <c r="Y12" s="13">
-        <v>56769</v>
+        <v>40145</v>
       </c>
       <c r="Z12" s="13">
-        <v>40145</v>
+        <v>61948</v>
       </c>
       <c r="AA12" s="13">
-        <v>61948</v>
+        <v>52547</v>
       </c>
       <c r="AB12" s="13">
-        <v>52547</v>
+        <v>65310</v>
       </c>
       <c r="AC12" s="13">
-        <v>65310</v>
+        <v>58240</v>
       </c>
       <c r="AD12" s="13">
-        <v>58240</v>
+        <v>55875</v>
       </c>
       <c r="AE12" s="13">
-        <v>55875</v>
+        <v>48926</v>
       </c>
       <c r="AF12" s="13">
-        <v>48926</v>
+        <v>52008</v>
       </c>
       <c r="AG12" s="13">
-        <v>52008</v>
-      </c>
-      <c r="AH12" s="13">
         <v>46515</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI12" s="13" t="s">
         <v>57</v>
@@ -1846,68 +1846,68 @@
       <c r="AG13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH13" s="11" t="s">
-        <v>57</v>
+      <c r="AH13" s="11">
+        <v>25684</v>
       </c>
       <c r="AI13" s="11">
-        <v>25684</v>
+        <v>22010</v>
       </c>
       <c r="AJ13" s="11">
-        <v>22010</v>
+        <v>22668</v>
       </c>
       <c r="AK13" s="11">
-        <v>22668</v>
+        <v>31693</v>
       </c>
       <c r="AL13" s="11">
-        <v>31693</v>
+        <v>23360</v>
       </c>
       <c r="AM13" s="11">
-        <v>23360</v>
+        <v>24932</v>
       </c>
       <c r="AN13" s="11">
-        <v>24932</v>
+        <v>24847</v>
       </c>
       <c r="AO13" s="11">
-        <v>24847</v>
+        <v>34431</v>
       </c>
       <c r="AP13" s="11">
-        <v>34431</v>
+        <v>23879</v>
       </c>
       <c r="AQ13" s="11">
-        <v>23879</v>
+        <v>23374</v>
       </c>
       <c r="AR13" s="11">
-        <v>23374</v>
+        <v>27251</v>
       </c>
       <c r="AS13" s="11">
-        <v>27251</v>
+        <v>23229</v>
       </c>
       <c r="AT13" s="11">
-        <v>23229</v>
+        <v>28726</v>
       </c>
       <c r="AU13" s="11">
-        <v>28726</v>
+        <v>27131</v>
       </c>
       <c r="AV13" s="11">
-        <v>27131</v>
+        <v>23761</v>
       </c>
       <c r="AW13" s="11">
-        <v>23761</v>
+        <v>29220</v>
       </c>
       <c r="AX13" s="11">
-        <v>29220</v>
+        <v>18706</v>
       </c>
       <c r="AY13" s="11">
-        <v>18706</v>
+        <v>15211</v>
       </c>
       <c r="AZ13" s="11">
-        <v>15211</v>
+        <v>23593</v>
       </c>
       <c r="BA13" s="11">
-        <v>23593</v>
+        <v>19495</v>
       </c>
       <c r="BB13" s="11">
-        <v>19495</v>
+        <v>19336</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2005,68 +2005,68 @@
       <c r="AG14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH14" s="13" t="s">
-        <v>57</v>
+      <c r="AH14" s="13">
+        <v>2881</v>
       </c>
       <c r="AI14" s="13">
-        <v>2881</v>
+        <v>1600</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1600</v>
+        <v>2149</v>
       </c>
       <c r="AK14" s="13">
-        <v>2149</v>
+        <v>2279</v>
       </c>
       <c r="AL14" s="13">
-        <v>2279</v>
+        <v>2201</v>
       </c>
       <c r="AM14" s="13">
-        <v>2201</v>
+        <v>2521</v>
       </c>
       <c r="AN14" s="13">
-        <v>2521</v>
+        <v>1335</v>
       </c>
       <c r="AO14" s="13">
-        <v>1335</v>
+        <v>2020</v>
       </c>
       <c r="AP14" s="13">
-        <v>2020</v>
+        <v>2975</v>
       </c>
       <c r="AQ14" s="13">
-        <v>2975</v>
+        <v>805</v>
       </c>
       <c r="AR14" s="13">
-        <v>805</v>
+        <v>631</v>
       </c>
       <c r="AS14" s="13">
-        <v>631</v>
+        <v>1028</v>
       </c>
       <c r="AT14" s="13">
+        <v>774</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>1700</v>
+      </c>
+      <c r="AV14" s="13">
         <v>1028</v>
       </c>
-      <c r="AU14" s="13">
-        <v>774</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>1700</v>
-      </c>
       <c r="AW14" s="13">
-        <v>1028</v>
+        <v>837</v>
       </c>
       <c r="AX14" s="13">
-        <v>837</v>
+        <v>1143</v>
       </c>
       <c r="AY14" s="13">
-        <v>1143</v>
+        <v>3936</v>
       </c>
       <c r="AZ14" s="13">
-        <v>3936</v>
+        <v>6250</v>
       </c>
       <c r="BA14" s="13">
-        <v>6250</v>
+        <v>3295</v>
       </c>
       <c r="BB14" s="13">
-        <v>3295</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2101,35 +2101,35 @@
       <c r="L15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>57</v>
+      <c r="M15" s="11">
+        <v>68</v>
       </c>
       <c r="N15" s="11">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="O15" s="11">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="P15" s="11">
         <v>0</v>
       </c>
       <c r="Q15" s="11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R15" s="11">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="S15" s="11">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="T15" s="11">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="U15" s="11">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="V15" s="11">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="W15" s="11">
         <v>0</v>
@@ -2144,88 +2144,88 @@
         <v>0</v>
       </c>
       <c r="AA15" s="11">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AB15" s="11">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="AC15" s="11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="11">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AE15" s="11">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="AF15" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="11">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AH15" s="11">
+        <v>52</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>144</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>148</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>45</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>62</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>70</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>147</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>86</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="11">
+        <v>3</v>
+      </c>
+      <c r="BA15" s="11">
+        <v>48</v>
+      </c>
+      <c r="BB15" s="11">
         <v>136</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>52</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>144</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>148</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>45</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>62</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>70</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>147</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>86</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="11">
-        <v>1</v>
-      </c>
-      <c r="BA15" s="11">
-        <v>3</v>
-      </c>
-      <c r="BB15" s="11">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2353,38 +2353,38 @@
       <c r="AQ16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>57</v>
+      <c r="AR16" s="13">
+        <v>0</v>
       </c>
       <c r="AS16" s="13">
         <v>0</v>
       </c>
       <c r="AT16" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU16" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="13">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AW16" s="13">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="AX16" s="13">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="AY16" s="13">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="13">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="BA16" s="13">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="BB16" s="13">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2396,31 +2396,31 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>23140</v>
+        <v>21739</v>
       </c>
       <c r="F17" s="11">
-        <v>21739</v>
+        <v>26989</v>
       </c>
       <c r="G17" s="11">
-        <v>26989</v>
+        <v>20609</v>
       </c>
       <c r="H17" s="11">
-        <v>20609</v>
+        <v>24948</v>
       </c>
       <c r="I17" s="11">
-        <v>24948</v>
+        <v>23462</v>
       </c>
       <c r="J17" s="11">
-        <v>23462</v>
+        <v>29484</v>
       </c>
       <c r="K17" s="11">
-        <v>29484</v>
+        <v>19449</v>
       </c>
       <c r="L17" s="11">
-        <v>19449</v>
+        <v>24556</v>
       </c>
       <c r="M17" s="11">
-        <v>24556</v>
+        <v>0</v>
       </c>
       <c r="N17" s="11">
         <v>0</v>
@@ -2446,8 +2446,8 @@
       <c r="U17" s="11">
         <v>0</v>
       </c>
-      <c r="V17" s="11">
-        <v>0</v>
+      <c r="V17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>57</v>
@@ -2641,68 +2641,68 @@
       <c r="AG18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH18" s="13" t="s">
-        <v>57</v>
+      <c r="AH18" s="13">
+        <v>2515</v>
       </c>
       <c r="AI18" s="13">
-        <v>2515</v>
+        <v>4031</v>
       </c>
       <c r="AJ18" s="13">
-        <v>4031</v>
+        <v>3735</v>
       </c>
       <c r="AK18" s="13">
-        <v>3735</v>
+        <v>3730</v>
       </c>
       <c r="AL18" s="13">
-        <v>3730</v>
+        <v>3549</v>
       </c>
       <c r="AM18" s="13">
-        <v>3549</v>
+        <v>2789</v>
       </c>
       <c r="AN18" s="13">
-        <v>2789</v>
+        <v>4285</v>
       </c>
       <c r="AO18" s="13">
-        <v>4285</v>
+        <v>3439</v>
       </c>
       <c r="AP18" s="13">
-        <v>3439</v>
+        <v>2684</v>
       </c>
       <c r="AQ18" s="13">
-        <v>2684</v>
+        <v>4166</v>
       </c>
       <c r="AR18" s="13">
-        <v>4166</v>
+        <v>4533</v>
       </c>
       <c r="AS18" s="13">
-        <v>4533</v>
+        <v>3517</v>
       </c>
       <c r="AT18" s="13">
-        <v>3517</v>
+        <v>5317</v>
       </c>
       <c r="AU18" s="13">
-        <v>5317</v>
+        <v>4504</v>
       </c>
       <c r="AV18" s="13">
-        <v>4504</v>
+        <v>4506</v>
       </c>
       <c r="AW18" s="13">
-        <v>4506</v>
+        <v>2283</v>
       </c>
       <c r="AX18" s="13">
-        <v>2283</v>
+        <v>3342</v>
       </c>
       <c r="AY18" s="13">
-        <v>3342</v>
+        <v>1068</v>
       </c>
       <c r="AZ18" s="13">
-        <v>1068</v>
+        <v>230</v>
       </c>
       <c r="BA18" s="13">
-        <v>230</v>
+        <v>2349</v>
       </c>
       <c r="BB18" s="13">
-        <v>2349</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2737,71 +2737,71 @@
       <c r="L19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>57</v>
+      <c r="M19" s="11">
+        <v>6065</v>
       </c>
       <c r="N19" s="11">
-        <v>6065</v>
+        <v>6287</v>
       </c>
       <c r="O19" s="11">
-        <v>6287</v>
+        <v>5387</v>
       </c>
       <c r="P19" s="11">
-        <v>5387</v>
+        <v>5916</v>
       </c>
       <c r="Q19" s="11">
-        <v>5916</v>
+        <v>6225</v>
       </c>
       <c r="R19" s="11">
-        <v>6225</v>
+        <v>6322</v>
       </c>
       <c r="S19" s="11">
-        <v>6322</v>
+        <v>5947</v>
       </c>
       <c r="T19" s="11">
-        <v>5947</v>
+        <v>4950</v>
       </c>
       <c r="U19" s="11">
-        <v>4950</v>
+        <v>5307</v>
       </c>
       <c r="V19" s="11">
-        <v>5307</v>
+        <v>6024</v>
       </c>
       <c r="W19" s="11">
-        <v>6024</v>
+        <v>5101</v>
       </c>
       <c r="X19" s="11">
-        <v>5101</v>
+        <v>5042</v>
       </c>
       <c r="Y19" s="11">
-        <v>5042</v>
+        <v>4890</v>
       </c>
       <c r="Z19" s="11">
-        <v>4890</v>
+        <v>5561</v>
       </c>
       <c r="AA19" s="11">
-        <v>5561</v>
+        <v>5547</v>
       </c>
       <c r="AB19" s="11">
-        <v>5547</v>
+        <v>5524</v>
       </c>
       <c r="AC19" s="11">
-        <v>5524</v>
+        <v>5333</v>
       </c>
       <c r="AD19" s="11">
-        <v>5333</v>
+        <v>5062</v>
       </c>
       <c r="AE19" s="11">
-        <v>5062</v>
+        <v>6513</v>
       </c>
       <c r="AF19" s="11">
-        <v>6513</v>
+        <v>4245</v>
       </c>
       <c r="AG19" s="11">
-        <v>4245</v>
-      </c>
-      <c r="AH19" s="11">
         <v>5222</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>57</v>
@@ -2959,68 +2959,68 @@
       <c r="AG20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH20" s="13" t="s">
-        <v>57</v>
+      <c r="AH20" s="13">
+        <v>6782</v>
       </c>
       <c r="AI20" s="13">
-        <v>6782</v>
+        <v>3941</v>
       </c>
       <c r="AJ20" s="13">
-        <v>3941</v>
+        <v>7096</v>
       </c>
       <c r="AK20" s="13">
-        <v>7096</v>
+        <v>10629</v>
       </c>
       <c r="AL20" s="13">
-        <v>10629</v>
+        <v>7746</v>
       </c>
       <c r="AM20" s="13">
-        <v>7746</v>
+        <v>5883</v>
       </c>
       <c r="AN20" s="13">
-        <v>5883</v>
+        <v>5093</v>
       </c>
       <c r="AO20" s="13">
-        <v>5093</v>
+        <v>5885</v>
       </c>
       <c r="AP20" s="13">
-        <v>5885</v>
+        <v>6347</v>
       </c>
       <c r="AQ20" s="13">
-        <v>6347</v>
+        <v>3833</v>
       </c>
       <c r="AR20" s="13">
-        <v>3833</v>
+        <v>3509</v>
       </c>
       <c r="AS20" s="13">
-        <v>3509</v>
+        <v>3382</v>
       </c>
       <c r="AT20" s="13">
-        <v>3382</v>
+        <v>3621</v>
       </c>
       <c r="AU20" s="13">
-        <v>3621</v>
+        <v>2377</v>
       </c>
       <c r="AV20" s="13">
-        <v>2377</v>
+        <v>6031</v>
       </c>
       <c r="AW20" s="13">
-        <v>6031</v>
+        <v>4816</v>
       </c>
       <c r="AX20" s="13">
-        <v>4816</v>
+        <v>6863</v>
       </c>
       <c r="AY20" s="13">
-        <v>6863</v>
+        <v>9155</v>
       </c>
       <c r="AZ20" s="13">
-        <v>9155</v>
+        <v>3954</v>
       </c>
       <c r="BA20" s="13">
-        <v>3954</v>
+        <v>2339</v>
       </c>
       <c r="BB20" s="13">
-        <v>2339</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3118,68 +3118,68 @@
       <c r="AG21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH21" s="11" t="s">
-        <v>57</v>
+      <c r="AH21" s="11">
+        <v>9454</v>
       </c>
       <c r="AI21" s="11">
-        <v>9454</v>
+        <v>2089</v>
       </c>
       <c r="AJ21" s="11">
-        <v>2089</v>
+        <v>5252</v>
       </c>
       <c r="AK21" s="11">
-        <v>5252</v>
+        <v>6498</v>
       </c>
       <c r="AL21" s="11">
-        <v>6498</v>
+        <v>7632</v>
       </c>
       <c r="AM21" s="11">
-        <v>7632</v>
+        <v>3730</v>
       </c>
       <c r="AN21" s="11">
-        <v>3730</v>
+        <v>5787</v>
       </c>
       <c r="AO21" s="11">
-        <v>5787</v>
+        <v>5118</v>
       </c>
       <c r="AP21" s="11">
-        <v>5118</v>
+        <v>3478</v>
       </c>
       <c r="AQ21" s="11">
-        <v>3478</v>
+        <v>6376</v>
       </c>
       <c r="AR21" s="11">
-        <v>6376</v>
+        <v>5315</v>
       </c>
       <c r="AS21" s="11">
-        <v>5315</v>
+        <v>3802</v>
       </c>
       <c r="AT21" s="11">
-        <v>3802</v>
+        <v>2714</v>
       </c>
       <c r="AU21" s="11">
-        <v>2714</v>
+        <v>4387</v>
       </c>
       <c r="AV21" s="11">
-        <v>4387</v>
+        <v>3295</v>
       </c>
       <c r="AW21" s="11">
-        <v>3295</v>
+        <v>2728</v>
       </c>
       <c r="AX21" s="11">
-        <v>2728</v>
+        <v>6783</v>
       </c>
       <c r="AY21" s="11">
-        <v>6783</v>
+        <v>6788</v>
       </c>
       <c r="AZ21" s="11">
-        <v>6788</v>
+        <v>7551</v>
       </c>
       <c r="BA21" s="11">
-        <v>7551</v>
+        <v>9744</v>
       </c>
       <c r="BB21" s="11">
-        <v>9744</v>
+        <v>8680</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3277,68 +3277,68 @@
       <c r="AG22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH22" s="13" t="s">
-        <v>57</v>
+      <c r="AH22" s="13">
+        <v>2541</v>
       </c>
       <c r="AI22" s="13">
-        <v>2541</v>
+        <v>2391</v>
       </c>
       <c r="AJ22" s="13">
-        <v>2391</v>
+        <v>1973</v>
       </c>
       <c r="AK22" s="13">
-        <v>1973</v>
+        <v>3224</v>
       </c>
       <c r="AL22" s="13">
-        <v>3224</v>
+        <v>2955</v>
       </c>
       <c r="AM22" s="13">
-        <v>2955</v>
+        <v>2139</v>
       </c>
       <c r="AN22" s="13">
-        <v>2139</v>
+        <v>2824</v>
       </c>
       <c r="AO22" s="13">
-        <v>2824</v>
+        <v>1766</v>
       </c>
       <c r="AP22" s="13">
-        <v>1766</v>
+        <v>1844</v>
       </c>
       <c r="AQ22" s="13">
-        <v>1844</v>
+        <v>1222</v>
       </c>
       <c r="AR22" s="13">
-        <v>1222</v>
+        <v>2693</v>
       </c>
       <c r="AS22" s="13">
-        <v>2693</v>
+        <v>810</v>
       </c>
       <c r="AT22" s="13">
-        <v>810</v>
+        <v>1503</v>
       </c>
       <c r="AU22" s="13">
-        <v>1503</v>
+        <v>2330</v>
       </c>
       <c r="AV22" s="13">
-        <v>2330</v>
+        <v>2315</v>
       </c>
       <c r="AW22" s="13">
-        <v>2315</v>
+        <v>1504</v>
       </c>
       <c r="AX22" s="13">
-        <v>1504</v>
+        <v>1543</v>
       </c>
       <c r="AY22" s="13">
-        <v>1543</v>
+        <v>1818</v>
       </c>
       <c r="AZ22" s="13">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="BA22" s="13">
-        <v>1796</v>
+        <v>1693</v>
       </c>
       <c r="BB22" s="13">
-        <v>1693</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3436,68 +3436,68 @@
       <c r="AG23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH23" s="11" t="s">
-        <v>57</v>
+      <c r="AH23" s="11">
+        <v>1048</v>
       </c>
       <c r="AI23" s="11">
-        <v>1048</v>
+        <v>490</v>
       </c>
       <c r="AJ23" s="11">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="AK23" s="11">
-        <v>461</v>
+        <v>1127</v>
       </c>
       <c r="AL23" s="11">
-        <v>1127</v>
+        <v>1322</v>
       </c>
       <c r="AM23" s="11">
-        <v>1322</v>
+        <v>592</v>
       </c>
       <c r="AN23" s="11">
-        <v>592</v>
+        <v>351</v>
       </c>
       <c r="AO23" s="11">
-        <v>351</v>
+        <v>696</v>
       </c>
       <c r="AP23" s="11">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="AQ23" s="11">
-        <v>692</v>
+        <v>616</v>
       </c>
       <c r="AR23" s="11">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="AS23" s="11">
-        <v>541</v>
+        <v>397</v>
       </c>
       <c r="AT23" s="11">
-        <v>397</v>
+        <v>778</v>
       </c>
       <c r="AU23" s="11">
-        <v>778</v>
+        <v>888</v>
       </c>
       <c r="AV23" s="11">
-        <v>888</v>
+        <v>1604</v>
       </c>
       <c r="AW23" s="11">
-        <v>1604</v>
+        <v>204</v>
       </c>
       <c r="AX23" s="11">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="AY23" s="11">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="AZ23" s="11">
-        <v>178</v>
+        <v>1466</v>
       </c>
       <c r="BA23" s="11">
-        <v>1466</v>
+        <v>699</v>
       </c>
       <c r="BB23" s="11">
-        <v>699</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3595,68 +3595,68 @@
       <c r="AG24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH24" s="13" t="s">
-        <v>57</v>
+      <c r="AH24" s="13">
+        <v>22872</v>
       </c>
       <c r="AI24" s="13">
-        <v>22872</v>
+        <v>10000</v>
       </c>
       <c r="AJ24" s="13">
-        <v>10000</v>
+        <v>21265</v>
       </c>
       <c r="AK24" s="13">
-        <v>21265</v>
+        <v>19437</v>
       </c>
       <c r="AL24" s="13">
-        <v>19437</v>
+        <v>20285</v>
       </c>
       <c r="AM24" s="13">
-        <v>20285</v>
+        <v>20340</v>
       </c>
       <c r="AN24" s="13">
-        <v>20340</v>
+        <v>30556</v>
       </c>
       <c r="AO24" s="13">
-        <v>30556</v>
+        <v>17675</v>
       </c>
       <c r="AP24" s="13">
-        <v>17675</v>
+        <v>15533</v>
       </c>
       <c r="AQ24" s="13">
-        <v>15533</v>
+        <v>14536</v>
       </c>
       <c r="AR24" s="13">
-        <v>14536</v>
+        <v>20160</v>
       </c>
       <c r="AS24" s="13">
-        <v>20160</v>
+        <v>16766</v>
       </c>
       <c r="AT24" s="13">
-        <v>16766</v>
+        <v>17060</v>
       </c>
       <c r="AU24" s="13">
-        <v>17060</v>
+        <v>17046</v>
       </c>
       <c r="AV24" s="13">
-        <v>17046</v>
+        <v>17828</v>
       </c>
       <c r="AW24" s="13">
-        <v>17828</v>
+        <v>15504</v>
       </c>
       <c r="AX24" s="13">
-        <v>15504</v>
+        <v>18180</v>
       </c>
       <c r="AY24" s="13">
-        <v>18180</v>
+        <v>17149</v>
       </c>
       <c r="AZ24" s="13">
-        <v>17149</v>
+        <v>19684</v>
       </c>
       <c r="BA24" s="13">
-        <v>19684</v>
+        <v>21613</v>
       </c>
       <c r="BB24" s="13">
-        <v>21613</v>
+        <v>21621</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3754,35 +3754,35 @@
       <c r="AG25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH25" s="11" t="s">
-        <v>57</v>
+      <c r="AH25" s="11">
+        <v>0</v>
       </c>
       <c r="AI25" s="11">
         <v>0</v>
       </c>
       <c r="AJ25" s="11">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AK25" s="11">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="11">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="AM25" s="11">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="11">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="AO25" s="11">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="11">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AQ25" s="11">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="11">
         <v>0</v>
@@ -3790,8 +3790,8 @@
       <c r="AS25" s="11">
         <v>0</v>
       </c>
-      <c r="AT25" s="11">
-        <v>0</v>
+      <c r="AT25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU25" s="11" t="s">
         <v>57</v>
@@ -3941,8 +3941,8 @@
       <c r="X27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y27" s="17" t="s">
-        <v>57</v>
+      <c r="Y27" s="17">
+        <v>0</v>
       </c>
       <c r="Z27" s="17">
         <v>0</v>
@@ -4039,154 +4039,154 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>54293</v>
+        <v>55109</v>
       </c>
       <c r="F28" s="19">
-        <v>55109</v>
+        <v>54018</v>
       </c>
       <c r="G28" s="19">
-        <v>54018</v>
+        <v>54468</v>
       </c>
       <c r="H28" s="19">
-        <v>54468</v>
+        <v>48940</v>
       </c>
       <c r="I28" s="19">
-        <v>48940</v>
+        <v>53211</v>
       </c>
       <c r="J28" s="19">
-        <v>53211</v>
+        <v>66738</v>
       </c>
       <c r="K28" s="19">
-        <v>66738</v>
+        <v>54506</v>
       </c>
       <c r="L28" s="19">
-        <v>54506</v>
+        <v>61979</v>
       </c>
       <c r="M28" s="19">
-        <v>61979</v>
+        <v>65980</v>
       </c>
       <c r="N28" s="19">
-        <v>65980</v>
+        <v>61466</v>
       </c>
       <c r="O28" s="19">
-        <v>61466</v>
+        <v>64371</v>
       </c>
       <c r="P28" s="19">
-        <v>64371</v>
+        <v>64207</v>
       </c>
       <c r="Q28" s="19">
-        <v>64207</v>
+        <v>63265</v>
       </c>
       <c r="R28" s="19">
-        <v>63265</v>
+        <v>57705</v>
       </c>
       <c r="S28" s="19">
-        <v>57705</v>
+        <v>67304</v>
       </c>
       <c r="T28" s="19">
-        <v>67304</v>
+        <v>57121</v>
       </c>
       <c r="U28" s="19">
-        <v>57121</v>
+        <v>57055</v>
       </c>
       <c r="V28" s="19">
-        <v>57055</v>
+        <v>62858</v>
       </c>
       <c r="W28" s="19">
-        <v>62858</v>
+        <v>56362</v>
       </c>
       <c r="X28" s="19">
-        <v>56362</v>
+        <v>61832</v>
       </c>
       <c r="Y28" s="19">
-        <v>61832</v>
+        <v>45059</v>
       </c>
       <c r="Z28" s="19">
-        <v>45059</v>
+        <v>67699</v>
       </c>
       <c r="AA28" s="19">
-        <v>67699</v>
+        <v>58702</v>
       </c>
       <c r="AB28" s="19">
-        <v>58702</v>
+        <v>71228</v>
       </c>
       <c r="AC28" s="19">
-        <v>71228</v>
+        <v>64114</v>
       </c>
       <c r="AD28" s="19">
-        <v>64114</v>
+        <v>61117</v>
       </c>
       <c r="AE28" s="19">
-        <v>61117</v>
+        <v>55616</v>
       </c>
       <c r="AF28" s="19">
-        <v>55616</v>
+        <v>56253</v>
       </c>
       <c r="AG28" s="19">
-        <v>56253</v>
+        <v>51873</v>
       </c>
       <c r="AH28" s="19">
-        <v>51873</v>
+        <v>73829</v>
       </c>
       <c r="AI28" s="19">
-        <v>73829</v>
+        <v>46703</v>
       </c>
       <c r="AJ28" s="19">
-        <v>46703</v>
+        <v>65575</v>
       </c>
       <c r="AK28" s="19">
-        <v>65575</v>
+        <v>78770</v>
       </c>
       <c r="AL28" s="19">
-        <v>78770</v>
+        <v>70292</v>
       </c>
       <c r="AM28" s="19">
-        <v>70292</v>
+        <v>63543</v>
       </c>
       <c r="AN28" s="19">
-        <v>63543</v>
+        <v>75687</v>
       </c>
       <c r="AO28" s="19">
-        <v>75687</v>
+        <v>71381</v>
       </c>
       <c r="AP28" s="19">
-        <v>71381</v>
+        <v>58110</v>
       </c>
       <c r="AQ28" s="19">
-        <v>58110</v>
+        <v>55054</v>
       </c>
       <c r="AR28" s="19">
-        <v>55054</v>
+        <v>64780</v>
       </c>
       <c r="AS28" s="19">
-        <v>64780</v>
+        <v>53017</v>
       </c>
       <c r="AT28" s="19">
-        <v>53017</v>
+        <v>60515</v>
       </c>
       <c r="AU28" s="19">
-        <v>60515</v>
+        <v>60363</v>
       </c>
       <c r="AV28" s="19">
-        <v>60363</v>
+        <v>60491</v>
       </c>
       <c r="AW28" s="19">
-        <v>60491</v>
+        <v>57441</v>
       </c>
       <c r="AX28" s="19">
-        <v>57441</v>
+        <v>56804</v>
       </c>
       <c r="AY28" s="19">
-        <v>56804</v>
+        <v>55304</v>
       </c>
       <c r="AZ28" s="19">
-        <v>55304</v>
+        <v>64595</v>
       </c>
       <c r="BA28" s="19">
-        <v>64595</v>
+        <v>61322</v>
       </c>
       <c r="BB28" s="19">
-        <v>61322</v>
+        <v>62595</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -4655,101 +4655,101 @@
       <c r="L35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M35" s="11" t="s">
-        <v>57</v>
+      <c r="M35" s="11">
+        <v>17</v>
       </c>
       <c r="N35" s="11">
-        <v>17</v>
+        <v>569</v>
       </c>
       <c r="O35" s="11">
-        <v>569</v>
+        <v>158</v>
       </c>
       <c r="P35" s="11">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="Q35" s="11">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="R35" s="11">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="S35" s="11">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="T35" s="11">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="U35" s="11">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="V35" s="11">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="W35" s="11">
+        <v>16</v>
+      </c>
+      <c r="X35" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>32</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>104</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>527</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>346</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>399</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>237</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>111</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>25</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="11">
         <v>6</v>
       </c>
-      <c r="X35" s="11">
-        <v>16</v>
-      </c>
-      <c r="Y35" s="11">
-        <v>3</v>
-      </c>
-      <c r="Z35" s="11">
-        <v>32</v>
-      </c>
-      <c r="AA35" s="11">
-        <v>104</v>
-      </c>
-      <c r="AB35" s="11">
-        <v>527</v>
-      </c>
-      <c r="AC35" s="11">
-        <v>346</v>
-      </c>
-      <c r="AD35" s="11">
-        <v>399</v>
-      </c>
-      <c r="AE35" s="11">
-        <v>237</v>
-      </c>
-      <c r="AF35" s="11">
-        <v>111</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>25</v>
-      </c>
-      <c r="AH35" s="11">
-        <v>1</v>
-      </c>
       <c r="AI35" s="11">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="AJ35" s="11">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AK35" s="11">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AL35" s="11">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="AM35" s="11">
-        <v>145</v>
+        <v>559</v>
       </c>
       <c r="AN35" s="11">
-        <v>559</v>
+        <v>257</v>
       </c>
       <c r="AO35" s="11">
-        <v>257</v>
+        <v>411</v>
       </c>
       <c r="AP35" s="11">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="AQ35" s="11">
-        <v>110</v>
-      </c>
-      <c r="AR35" s="11">
         <v>80</v>
+      </c>
+      <c r="AR35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS35" s="11" t="s">
         <v>57</v>
@@ -4791,94 +4791,94 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>28789</v>
+        <v>32591</v>
       </c>
       <c r="F36" s="13">
-        <v>32591</v>
+        <v>25622</v>
       </c>
       <c r="G36" s="13">
-        <v>25622</v>
+        <v>30803</v>
       </c>
       <c r="H36" s="13">
-        <v>30803</v>
+        <v>29880</v>
       </c>
       <c r="I36" s="13">
-        <v>29880</v>
+        <v>48450</v>
       </c>
       <c r="J36" s="13">
-        <v>48450</v>
+        <v>31571</v>
       </c>
       <c r="K36" s="13">
-        <v>31571</v>
+        <v>43133</v>
       </c>
       <c r="L36" s="13">
-        <v>43133</v>
+        <v>44401</v>
       </c>
       <c r="M36" s="13">
-        <v>44401</v>
+        <v>60125</v>
       </c>
       <c r="N36" s="13">
-        <v>60125</v>
+        <v>65987</v>
       </c>
       <c r="O36" s="13">
-        <v>65987</v>
+        <v>65128</v>
       </c>
       <c r="P36" s="13">
-        <v>65128</v>
+        <v>47967</v>
       </c>
       <c r="Q36" s="13">
-        <v>47967</v>
+        <v>46781</v>
       </c>
       <c r="R36" s="13">
-        <v>46781</v>
+        <v>62771</v>
       </c>
       <c r="S36" s="13">
-        <v>62771</v>
+        <v>51818</v>
       </c>
       <c r="T36" s="13">
-        <v>51818</v>
+        <v>67441</v>
       </c>
       <c r="U36" s="13">
-        <v>67441</v>
+        <v>56113</v>
       </c>
       <c r="V36" s="13">
-        <v>56113</v>
+        <v>22075</v>
       </c>
       <c r="W36" s="13">
-        <v>22075</v>
+        <v>55576</v>
       </c>
       <c r="X36" s="13">
-        <v>55576</v>
+        <v>67616</v>
       </c>
       <c r="Y36" s="13">
-        <v>67616</v>
+        <v>59104</v>
       </c>
       <c r="Z36" s="13">
-        <v>59104</v>
+        <v>50189</v>
       </c>
       <c r="AA36" s="13">
-        <v>50189</v>
+        <v>59049</v>
       </c>
       <c r="AB36" s="13">
-        <v>59049</v>
+        <v>61923</v>
       </c>
       <c r="AC36" s="13">
-        <v>61923</v>
+        <v>47981</v>
       </c>
       <c r="AD36" s="13">
-        <v>47981</v>
+        <v>51056</v>
       </c>
       <c r="AE36" s="13">
-        <v>51056</v>
+        <v>62926</v>
       </c>
       <c r="AF36" s="13">
-        <v>62926</v>
+        <v>47452</v>
       </c>
       <c r="AG36" s="13">
-        <v>47452</v>
-      </c>
-      <c r="AH36" s="13">
         <v>50713</v>
+      </c>
+      <c r="AH36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI36" s="13" t="s">
         <v>57</v>
@@ -5036,68 +5036,68 @@
       <c r="AG37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH37" s="11" t="s">
-        <v>57</v>
+      <c r="AH37" s="11">
+        <v>17366</v>
       </c>
       <c r="AI37" s="11">
-        <v>17366</v>
+        <v>18843</v>
       </c>
       <c r="AJ37" s="11">
-        <v>18843</v>
+        <v>21712</v>
       </c>
       <c r="AK37" s="11">
-        <v>21712</v>
+        <v>21802</v>
       </c>
       <c r="AL37" s="11">
-        <v>21802</v>
+        <v>24929</v>
       </c>
       <c r="AM37" s="11">
-        <v>24929</v>
+        <v>39065</v>
       </c>
       <c r="AN37" s="11">
-        <v>39065</v>
+        <v>20379</v>
       </c>
       <c r="AO37" s="11">
-        <v>20379</v>
+        <v>16279</v>
       </c>
       <c r="AP37" s="11">
-        <v>16279</v>
+        <v>21593</v>
       </c>
       <c r="AQ37" s="11">
-        <v>21593</v>
+        <v>20190</v>
       </c>
       <c r="AR37" s="11">
-        <v>20190</v>
+        <v>18944</v>
       </c>
       <c r="AS37" s="11">
-        <v>18944</v>
+        <v>26998</v>
       </c>
       <c r="AT37" s="11">
-        <v>26998</v>
+        <v>7908</v>
       </c>
       <c r="AU37" s="11">
-        <v>7908</v>
+        <v>27135</v>
       </c>
       <c r="AV37" s="11">
-        <v>27135</v>
+        <v>42181</v>
       </c>
       <c r="AW37" s="11">
-        <v>42181</v>
+        <v>34412</v>
       </c>
       <c r="AX37" s="11">
-        <v>34412</v>
+        <v>25621</v>
       </c>
       <c r="AY37" s="11">
-        <v>25621</v>
+        <v>22812</v>
       </c>
       <c r="AZ37" s="11">
-        <v>22812</v>
+        <v>16430</v>
       </c>
       <c r="BA37" s="11">
-        <v>16430</v>
+        <v>19627</v>
       </c>
       <c r="BB37" s="11">
-        <v>19627</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5195,68 +5195,68 @@
       <c r="AG38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH38" s="13" t="s">
-        <v>57</v>
+      <c r="AH38" s="13">
+        <v>1039</v>
       </c>
       <c r="AI38" s="13">
-        <v>1039</v>
+        <v>2156</v>
       </c>
       <c r="AJ38" s="13">
-        <v>2156</v>
+        <v>1939</v>
       </c>
       <c r="AK38" s="13">
-        <v>1939</v>
+        <v>2550</v>
       </c>
       <c r="AL38" s="13">
-        <v>2550</v>
+        <v>2609</v>
       </c>
       <c r="AM38" s="13">
-        <v>2609</v>
+        <v>1901</v>
       </c>
       <c r="AN38" s="13">
-        <v>1901</v>
+        <v>1611</v>
       </c>
       <c r="AO38" s="13">
-        <v>1611</v>
+        <v>1362</v>
       </c>
       <c r="AP38" s="13">
-        <v>1362</v>
+        <v>2463</v>
       </c>
       <c r="AQ38" s="13">
-        <v>2463</v>
+        <v>1783</v>
       </c>
       <c r="AR38" s="13">
-        <v>1783</v>
+        <v>1243</v>
       </c>
       <c r="AS38" s="13">
-        <v>1243</v>
+        <v>962</v>
       </c>
       <c r="AT38" s="13">
-        <v>962</v>
+        <v>736</v>
       </c>
       <c r="AU38" s="13">
-        <v>736</v>
+        <v>1686</v>
       </c>
       <c r="AV38" s="13">
-        <v>1686</v>
+        <v>1029</v>
       </c>
       <c r="AW38" s="13">
-        <v>1029</v>
+        <v>824</v>
       </c>
       <c r="AX38" s="13">
-        <v>824</v>
+        <v>367</v>
       </c>
       <c r="AY38" s="13">
-        <v>367</v>
+        <v>720</v>
       </c>
       <c r="AZ38" s="13">
-        <v>720</v>
+        <v>1889</v>
       </c>
       <c r="BA38" s="13">
-        <v>1889</v>
+        <v>1474</v>
       </c>
       <c r="BB38" s="13">
-        <v>1474</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5291,131 +5291,131 @@
       <c r="L39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>57</v>
+      <c r="M39" s="11">
+        <v>42</v>
       </c>
       <c r="N39" s="11">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O39" s="11">
+        <v>65</v>
+      </c>
+      <c r="P39" s="11">
+        <v>71</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>33</v>
+      </c>
+      <c r="R39" s="11">
+        <v>71</v>
+      </c>
+      <c r="S39" s="11">
+        <v>41</v>
+      </c>
+      <c r="T39" s="11">
+        <v>44</v>
+      </c>
+      <c r="U39" s="11">
+        <v>55</v>
+      </c>
+      <c r="V39" s="11">
+        <v>27</v>
+      </c>
+      <c r="W39" s="11">
+        <v>123</v>
+      </c>
+      <c r="X39" s="11">
+        <v>90</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>63</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>18</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>159</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>66</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="11">
         <v>46</v>
       </c>
-      <c r="P39" s="11">
-        <v>65</v>
-      </c>
-      <c r="Q39" s="11">
-        <v>71</v>
-      </c>
-      <c r="R39" s="11">
-        <v>33</v>
-      </c>
-      <c r="S39" s="11">
-        <v>71</v>
-      </c>
-      <c r="T39" s="11">
-        <v>41</v>
-      </c>
-      <c r="U39" s="11">
-        <v>44</v>
-      </c>
-      <c r="V39" s="11">
-        <v>55</v>
-      </c>
-      <c r="W39" s="11">
-        <v>27</v>
-      </c>
-      <c r="X39" s="11">
-        <v>123</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>90</v>
-      </c>
-      <c r="Z39" s="11">
-        <v>63</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>18</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>159</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>66</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>10</v>
-      </c>
       <c r="AE39" s="11">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AF39" s="11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AG39" s="11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AH39" s="11">
+        <v>106</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>77</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>150</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>110</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>13</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>2</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>31</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>40</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>75</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>119</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>14</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>51</v>
+      </c>
+      <c r="AV39" s="11">
         <v>12</v>
       </c>
-      <c r="AI39" s="11">
-        <v>106</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>77</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>150</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>110</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>13</v>
-      </c>
-      <c r="AN39" s="11">
+      <c r="AW39" s="11">
+        <v>4</v>
+      </c>
+      <c r="AX39" s="11">
         <v>2</v>
       </c>
-      <c r="AO39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>31</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>40</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>75</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>119</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>14</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>51</v>
-      </c>
-      <c r="AW39" s="11">
-        <v>12</v>
-      </c>
-      <c r="AX39" s="11">
-        <v>4</v>
-      </c>
       <c r="AY39" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BA39" s="11">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="BB39" s="11">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5543,38 +5543,38 @@
       <c r="AQ40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>57</v>
+      <c r="AR40" s="13">
+        <v>0</v>
       </c>
       <c r="AS40" s="13">
         <v>0</v>
       </c>
       <c r="AT40" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU40" s="13">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AV40" s="13">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="AW40" s="13">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="AX40" s="13">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="AY40" s="13">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="AZ40" s="13">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BA40" s="13">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="BB40" s="13">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5586,31 +5586,31 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>19629</v>
+        <v>19150</v>
       </c>
       <c r="F41" s="11">
-        <v>19150</v>
+        <v>22789</v>
       </c>
       <c r="G41" s="11">
-        <v>22789</v>
+        <v>26531</v>
       </c>
       <c r="H41" s="11">
-        <v>26531</v>
+        <v>27231</v>
       </c>
       <c r="I41" s="11">
-        <v>27231</v>
+        <v>17165</v>
       </c>
       <c r="J41" s="11">
-        <v>17165</v>
+        <v>15435</v>
       </c>
       <c r="K41" s="11">
-        <v>15435</v>
+        <v>30793</v>
       </c>
       <c r="L41" s="11">
-        <v>30793</v>
+        <v>20883</v>
       </c>
       <c r="M41" s="11">
-        <v>20883</v>
+        <v>0</v>
       </c>
       <c r="N41" s="11">
         <v>0</v>
@@ -5636,17 +5636,17 @@
       <c r="U41" s="11">
         <v>0</v>
       </c>
-      <c r="V41" s="11">
-        <v>0</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>57</v>
+      <c r="V41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W41" s="11">
+        <v>0</v>
       </c>
       <c r="X41" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="11">
         <v>-54</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Z41" s="11" t="s">
         <v>57</v>
@@ -5831,68 +5831,68 @@
       <c r="AG42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH42" s="13" t="s">
-        <v>57</v>
+      <c r="AH42" s="13">
+        <v>1524</v>
       </c>
       <c r="AI42" s="13">
-        <v>1524</v>
+        <v>3781</v>
       </c>
       <c r="AJ42" s="13">
-        <v>3781</v>
+        <v>4111</v>
       </c>
       <c r="AK42" s="13">
-        <v>4111</v>
+        <v>2226</v>
       </c>
       <c r="AL42" s="13">
-        <v>2226</v>
+        <v>3719</v>
       </c>
       <c r="AM42" s="13">
-        <v>3719</v>
+        <v>4068</v>
       </c>
       <c r="AN42" s="13">
-        <v>4068</v>
+        <v>2573</v>
       </c>
       <c r="AO42" s="13">
-        <v>2573</v>
+        <v>3825</v>
       </c>
       <c r="AP42" s="13">
-        <v>3825</v>
+        <v>4257</v>
       </c>
       <c r="AQ42" s="13">
-        <v>4257</v>
+        <v>3108</v>
       </c>
       <c r="AR42" s="13">
-        <v>3108</v>
+        <v>4455</v>
       </c>
       <c r="AS42" s="13">
-        <v>4455</v>
+        <v>2689</v>
       </c>
       <c r="AT42" s="13">
-        <v>2689</v>
+        <v>2482</v>
       </c>
       <c r="AU42" s="13">
-        <v>2482</v>
+        <v>4052</v>
       </c>
       <c r="AV42" s="13">
-        <v>4052</v>
+        <v>3564</v>
       </c>
       <c r="AW42" s="13">
-        <v>3564</v>
+        <v>4134</v>
       </c>
       <c r="AX42" s="13">
-        <v>4134</v>
+        <v>4857</v>
       </c>
       <c r="AY42" s="13">
-        <v>4857</v>
+        <v>3305</v>
       </c>
       <c r="AZ42" s="13">
-        <v>3305</v>
+        <v>2783</v>
       </c>
       <c r="BA42" s="13">
-        <v>2783</v>
+        <v>2243</v>
       </c>
       <c r="BB42" s="13">
-        <v>2243</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5927,71 +5927,71 @@
       <c r="L43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M43" s="11" t="s">
-        <v>57</v>
+      <c r="M43" s="11">
+        <v>6381</v>
       </c>
       <c r="N43" s="11">
-        <v>6381</v>
+        <v>4431</v>
       </c>
       <c r="O43" s="11">
-        <v>4431</v>
+        <v>5748</v>
       </c>
       <c r="P43" s="11">
-        <v>5748</v>
+        <v>3762</v>
       </c>
       <c r="Q43" s="11">
-        <v>3762</v>
+        <v>4558</v>
       </c>
       <c r="R43" s="11">
-        <v>4558</v>
+        <v>6379</v>
       </c>
       <c r="S43" s="11">
-        <v>6379</v>
+        <v>9717</v>
       </c>
       <c r="T43" s="11">
-        <v>9717</v>
+        <v>10198</v>
       </c>
       <c r="U43" s="11">
-        <v>10198</v>
+        <v>4926</v>
       </c>
       <c r="V43" s="11">
-        <v>4926</v>
+        <v>858</v>
       </c>
       <c r="W43" s="11">
-        <v>858</v>
+        <v>2933</v>
       </c>
       <c r="X43" s="11">
-        <v>2933</v>
+        <v>8137</v>
       </c>
       <c r="Y43" s="11">
-        <v>8137</v>
+        <v>6891</v>
       </c>
       <c r="Z43" s="11">
-        <v>6891</v>
+        <v>6931</v>
       </c>
       <c r="AA43" s="11">
-        <v>6931</v>
+        <v>5876</v>
       </c>
       <c r="AB43" s="11">
-        <v>5876</v>
+        <v>4742</v>
       </c>
       <c r="AC43" s="11">
-        <v>4742</v>
+        <v>4369</v>
       </c>
       <c r="AD43" s="11">
-        <v>4369</v>
+        <v>5202</v>
       </c>
       <c r="AE43" s="11">
-        <v>5202</v>
+        <v>5859</v>
       </c>
       <c r="AF43" s="11">
-        <v>5859</v>
+        <v>8245</v>
       </c>
       <c r="AG43" s="11">
-        <v>8245</v>
-      </c>
-      <c r="AH43" s="11">
         <v>4398</v>
+      </c>
+      <c r="AH43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI43" s="11" t="s">
         <v>57</v>
@@ -6149,68 +6149,68 @@
       <c r="AG44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH44" s="13" t="s">
-        <v>57</v>
+      <c r="AH44" s="13">
+        <v>5218</v>
       </c>
       <c r="AI44" s="13">
-        <v>5218</v>
+        <v>6577</v>
       </c>
       <c r="AJ44" s="13">
-        <v>6577</v>
+        <v>8009</v>
       </c>
       <c r="AK44" s="13">
-        <v>8009</v>
+        <v>6566</v>
       </c>
       <c r="AL44" s="13">
-        <v>6566</v>
+        <v>5648</v>
       </c>
       <c r="AM44" s="13">
-        <v>5648</v>
+        <v>6537</v>
       </c>
       <c r="AN44" s="13">
-        <v>6537</v>
+        <v>4808</v>
       </c>
       <c r="AO44" s="13">
-        <v>4808</v>
+        <v>4575</v>
       </c>
       <c r="AP44" s="13">
-        <v>4575</v>
+        <v>4833</v>
       </c>
       <c r="AQ44" s="13">
-        <v>4833</v>
+        <v>4784</v>
       </c>
       <c r="AR44" s="13">
-        <v>4784</v>
+        <v>4532</v>
       </c>
       <c r="AS44" s="13">
-        <v>4532</v>
+        <v>5168</v>
       </c>
       <c r="AT44" s="13">
-        <v>5168</v>
+        <v>2051</v>
       </c>
       <c r="AU44" s="13">
-        <v>2051</v>
+        <v>3620</v>
       </c>
       <c r="AV44" s="13">
-        <v>3620</v>
+        <v>6670</v>
       </c>
       <c r="AW44" s="13">
-        <v>6670</v>
+        <v>4597</v>
       </c>
       <c r="AX44" s="13">
-        <v>4597</v>
+        <v>5554</v>
       </c>
       <c r="AY44" s="13">
-        <v>5554</v>
+        <v>6887</v>
       </c>
       <c r="AZ44" s="13">
-        <v>6887</v>
+        <v>4722</v>
       </c>
       <c r="BA44" s="13">
-        <v>4722</v>
+        <v>5156</v>
       </c>
       <c r="BB44" s="13">
-        <v>5156</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6308,68 +6308,68 @@
       <c r="AG45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH45" s="11" t="s">
-        <v>57</v>
+      <c r="AH45" s="11">
+        <v>5280</v>
       </c>
       <c r="AI45" s="11">
-        <v>5280</v>
+        <v>5935</v>
       </c>
       <c r="AJ45" s="11">
-        <v>5935</v>
+        <v>6597</v>
       </c>
       <c r="AK45" s="11">
-        <v>6597</v>
+        <v>3712</v>
       </c>
       <c r="AL45" s="11">
-        <v>3712</v>
+        <v>5080</v>
       </c>
       <c r="AM45" s="11">
-        <v>5080</v>
+        <v>5354</v>
       </c>
       <c r="AN45" s="11">
-        <v>5354</v>
+        <v>4224</v>
       </c>
       <c r="AO45" s="11">
-        <v>4224</v>
+        <v>5510</v>
       </c>
       <c r="AP45" s="11">
-        <v>5510</v>
+        <v>5595</v>
       </c>
       <c r="AQ45" s="11">
-        <v>5595</v>
+        <v>5092</v>
       </c>
       <c r="AR45" s="11">
-        <v>5092</v>
+        <v>5504</v>
       </c>
       <c r="AS45" s="11">
-        <v>5504</v>
+        <v>4685</v>
       </c>
       <c r="AT45" s="11">
-        <v>4685</v>
+        <v>2355</v>
       </c>
       <c r="AU45" s="11">
-        <v>2355</v>
+        <v>4082</v>
       </c>
       <c r="AV45" s="11">
-        <v>4082</v>
+        <v>4764</v>
       </c>
       <c r="AW45" s="11">
-        <v>4764</v>
+        <v>4254</v>
       </c>
       <c r="AX45" s="11">
-        <v>4254</v>
+        <v>4516</v>
       </c>
       <c r="AY45" s="11">
-        <v>4516</v>
+        <v>7012</v>
       </c>
       <c r="AZ45" s="11">
-        <v>7012</v>
+        <v>5515</v>
       </c>
       <c r="BA45" s="11">
-        <v>5515</v>
+        <v>7797</v>
       </c>
       <c r="BB45" s="11">
-        <v>7797</v>
+        <v>10414</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6467,68 +6467,68 @@
       <c r="AG46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH46" s="13" t="s">
-        <v>57</v>
+      <c r="AH46" s="13">
+        <v>1700</v>
       </c>
       <c r="AI46" s="13">
-        <v>1700</v>
+        <v>2767</v>
       </c>
       <c r="AJ46" s="13">
-        <v>2767</v>
+        <v>2447</v>
       </c>
       <c r="AK46" s="13">
-        <v>2447</v>
+        <v>2083</v>
       </c>
       <c r="AL46" s="13">
-        <v>2083</v>
+        <v>1526</v>
       </c>
       <c r="AM46" s="13">
-        <v>1526</v>
+        <v>2803</v>
       </c>
       <c r="AN46" s="13">
-        <v>2803</v>
+        <v>2354</v>
       </c>
       <c r="AO46" s="13">
-        <v>2354</v>
+        <v>1953</v>
       </c>
       <c r="AP46" s="13">
-        <v>1953</v>
+        <v>1754</v>
       </c>
       <c r="AQ46" s="13">
-        <v>1754</v>
+        <v>1623</v>
       </c>
       <c r="AR46" s="13">
-        <v>1623</v>
+        <v>1772</v>
       </c>
       <c r="AS46" s="13">
-        <v>1772</v>
+        <v>2203</v>
       </c>
       <c r="AT46" s="13">
+        <v>1055</v>
+      </c>
+      <c r="AU46" s="13">
         <v>2203</v>
       </c>
-      <c r="AU46" s="13">
-        <v>1055</v>
-      </c>
       <c r="AV46" s="13">
-        <v>2203</v>
+        <v>2498</v>
       </c>
       <c r="AW46" s="13">
-        <v>2498</v>
+        <v>1590</v>
       </c>
       <c r="AX46" s="13">
-        <v>1590</v>
+        <v>1816</v>
       </c>
       <c r="AY46" s="13">
-        <v>1816</v>
+        <v>1628</v>
       </c>
       <c r="AZ46" s="13">
-        <v>1628</v>
+        <v>1351</v>
       </c>
       <c r="BA46" s="13">
-        <v>1351</v>
+        <v>1846</v>
       </c>
       <c r="BB46" s="13">
-        <v>1846</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6626,68 +6626,68 @@
       <c r="AG47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH47" s="11" t="s">
-        <v>57</v>
+      <c r="AH47" s="11">
+        <v>790</v>
       </c>
       <c r="AI47" s="11">
-        <v>790</v>
+        <v>853</v>
       </c>
       <c r="AJ47" s="11">
-        <v>853</v>
+        <v>998</v>
       </c>
       <c r="AK47" s="11">
+        <v>433</v>
+      </c>
+      <c r="AL47" s="11">
+        <v>575</v>
+      </c>
+      <c r="AM47" s="11">
+        <v>848</v>
+      </c>
+      <c r="AN47" s="11">
+        <v>590</v>
+      </c>
+      <c r="AO47" s="11">
+        <v>580</v>
+      </c>
+      <c r="AP47" s="11">
+        <v>816</v>
+      </c>
+      <c r="AQ47" s="11">
+        <v>505</v>
+      </c>
+      <c r="AR47" s="11">
+        <v>577</v>
+      </c>
+      <c r="AS47" s="11">
+        <v>567</v>
+      </c>
+      <c r="AT47" s="11">
+        <v>418</v>
+      </c>
+      <c r="AU47" s="11">
+        <v>979</v>
+      </c>
+      <c r="AV47" s="11">
         <v>998</v>
       </c>
-      <c r="AL47" s="11">
-        <v>433</v>
-      </c>
-      <c r="AM47" s="11">
-        <v>575</v>
-      </c>
-      <c r="AN47" s="11">
-        <v>848</v>
-      </c>
-      <c r="AO47" s="11">
-        <v>590</v>
-      </c>
-      <c r="AP47" s="11">
-        <v>580</v>
-      </c>
-      <c r="AQ47" s="11">
-        <v>816</v>
-      </c>
-      <c r="AR47" s="11">
-        <v>505</v>
-      </c>
-      <c r="AS47" s="11">
-        <v>577</v>
-      </c>
-      <c r="AT47" s="11">
-        <v>567</v>
-      </c>
-      <c r="AU47" s="11">
-        <v>418</v>
-      </c>
-      <c r="AV47" s="11">
-        <v>979</v>
-      </c>
       <c r="AW47" s="11">
-        <v>998</v>
+        <v>346</v>
       </c>
       <c r="AX47" s="11">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="AY47" s="11">
-        <v>267</v>
+        <v>984</v>
       </c>
       <c r="AZ47" s="11">
-        <v>984</v>
+        <v>565</v>
       </c>
       <c r="BA47" s="11">
-        <v>565</v>
+        <v>773</v>
       </c>
       <c r="BB47" s="11">
-        <v>773</v>
+        <v>938</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6785,68 +6785,68 @@
       <c r="AG48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH48" s="13" t="s">
-        <v>57</v>
+      <c r="AH48" s="13">
+        <v>16881</v>
       </c>
       <c r="AI48" s="13">
-        <v>16881</v>
+        <v>21966</v>
       </c>
       <c r="AJ48" s="13">
-        <v>21966</v>
+        <v>22429</v>
       </c>
       <c r="AK48" s="13">
-        <v>22429</v>
+        <v>21091</v>
       </c>
       <c r="AL48" s="13">
-        <v>21091</v>
+        <v>22858</v>
       </c>
       <c r="AM48" s="13">
-        <v>22858</v>
+        <v>16523</v>
       </c>
       <c r="AN48" s="13">
-        <v>16523</v>
+        <v>25004</v>
       </c>
       <c r="AO48" s="13">
-        <v>25004</v>
+        <v>22245</v>
       </c>
       <c r="AP48" s="13">
-        <v>22245</v>
+        <v>15745</v>
       </c>
       <c r="AQ48" s="13">
-        <v>15745</v>
+        <v>8855</v>
       </c>
       <c r="AR48" s="13">
-        <v>8855</v>
+        <v>16584</v>
       </c>
       <c r="AS48" s="13">
-        <v>16584</v>
+        <v>2183</v>
       </c>
       <c r="AT48" s="13">
-        <v>2183</v>
+        <v>21956</v>
       </c>
       <c r="AU48" s="13">
-        <v>21956</v>
+        <v>20700</v>
       </c>
       <c r="AV48" s="13">
-        <v>20700</v>
+        <v>16275</v>
       </c>
       <c r="AW48" s="13">
-        <v>16275</v>
+        <v>16901</v>
       </c>
       <c r="AX48" s="13">
-        <v>16901</v>
+        <v>14865</v>
       </c>
       <c r="AY48" s="13">
-        <v>14865</v>
+        <v>22195</v>
       </c>
       <c r="AZ48" s="13">
-        <v>22195</v>
+        <v>17372</v>
       </c>
       <c r="BA48" s="13">
-        <v>17372</v>
+        <v>25055</v>
       </c>
       <c r="BB48" s="13">
-        <v>25055</v>
+        <v>18426</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6944,20 +6944,20 @@
       <c r="AG49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH49" s="11" t="s">
-        <v>57</v>
+      <c r="AH49" s="11">
+        <v>0</v>
       </c>
       <c r="AI49" s="11">
         <v>0</v>
       </c>
       <c r="AJ49" s="11">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="AK49" s="11">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="AL49" s="11">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="11">
         <v>0</v>
@@ -6980,8 +6980,8 @@
       <c r="AS49" s="11">
         <v>0</v>
       </c>
-      <c r="AT49" s="11">
-        <v>0</v>
+      <c r="AT49" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU49" s="11" t="s">
         <v>57</v>
@@ -7131,8 +7131,8 @@
       <c r="X51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y51" s="17" t="s">
-        <v>57</v>
+      <c r="Y51" s="17">
+        <v>0</v>
       </c>
       <c r="Z51" s="17">
         <v>0</v>
@@ -7377,53 +7377,53 @@
       <c r="AH53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI53" s="11" t="s">
-        <v>57</v>
+      <c r="AI53" s="11">
+        <v>-4</v>
       </c>
       <c r="AJ53" s="11">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AK53" s="11">
-        <v>-6</v>
-      </c>
-      <c r="AL53" s="11">
         <v>-1</v>
       </c>
-      <c r="AM53" s="11" t="s">
-        <v>57</v>
+      <c r="AL53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM53" s="11">
+        <v>-4581</v>
       </c>
       <c r="AN53" s="11">
-        <v>-4581</v>
-      </c>
-      <c r="AO53" s="11">
         <v>-15</v>
       </c>
-      <c r="AP53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ53" s="11">
+      <c r="AO53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP53" s="11">
         <v>-9</v>
       </c>
-      <c r="AR53" s="11" t="s">
-        <v>57</v>
+      <c r="AQ53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR53" s="11">
+        <v>-43</v>
       </c>
       <c r="AS53" s="11">
-        <v>-43</v>
+        <v>-75</v>
       </c>
       <c r="AT53" s="11">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="11">
         <v>0</v>
       </c>
       <c r="AV53" s="11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AW53" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AX53" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AX53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY53" s="11" t="s">
         <v>57</v>
@@ -7431,11 +7431,11 @@
       <c r="AZ53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA53" s="11" t="s">
-        <v>57</v>
+      <c r="BA53" s="11">
+        <v>-7</v>
       </c>
       <c r="BB53" s="11">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7506,14 +7506,14 @@
       <c r="X54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>57</v>
+      <c r="Y54" s="13">
+        <v>-20</v>
       </c>
       <c r="Z54" s="13">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AA54" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="13">
         <v>0</v>
@@ -7522,19 +7522,19 @@
         <v>0</v>
       </c>
       <c r="AD54" s="13">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AE54" s="13">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="13">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AG54" s="13">
-        <v>-23</v>
-      </c>
-      <c r="AH54" s="13">
         <v>-8</v>
+      </c>
+      <c r="AH54" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI54" s="13" t="s">
         <v>57</v>
@@ -7663,80 +7663,80 @@
       <c r="X55" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y55" s="17" t="s">
-        <v>57</v>
+      <c r="Y55" s="17">
+        <v>-20</v>
       </c>
       <c r="Z55" s="17">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AA55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="17">
+        <v>-21</v>
+      </c>
+      <c r="AE55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AG55" s="17">
+        <v>-8</v>
+      </c>
+      <c r="AH55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="17">
+        <v>-4</v>
+      </c>
+      <c r="AJ55" s="17">
+        <v>-6</v>
+      </c>
+      <c r="AK55" s="17">
         <v>-1</v>
       </c>
-      <c r="AB55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="17">
-        <v>-21</v>
-      </c>
-      <c r="AF55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="17">
-        <v>-23</v>
-      </c>
-      <c r="AH55" s="17">
-        <v>-8</v>
-      </c>
-      <c r="AI55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="17">
-        <v>-4</v>
-      </c>
-      <c r="AK55" s="17">
-        <v>-6</v>
-      </c>
       <c r="AL55" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="17">
-        <v>0</v>
+        <v>-4581</v>
       </c>
       <c r="AN55" s="17">
-        <v>-4581</v>
+        <v>-15</v>
       </c>
       <c r="AO55" s="17">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="17">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AQ55" s="17">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="17">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="AS55" s="17">
-        <v>-43</v>
+        <v>-75</v>
       </c>
       <c r="AT55" s="17">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="AU55" s="17">
         <v>0</v>
       </c>
       <c r="AV55" s="17">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AW55" s="17">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AX55" s="17">
         <v>0</v>
@@ -7748,10 +7748,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="17">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="BB55" s="17">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7761,154 +7761,154 @@
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19">
-        <v>48418</v>
+        <v>51741</v>
       </c>
       <c r="F56" s="19">
-        <v>51741</v>
+        <v>48411</v>
       </c>
       <c r="G56" s="19">
-        <v>48411</v>
+        <v>57334</v>
       </c>
       <c r="H56" s="19">
-        <v>57334</v>
+        <v>57111</v>
       </c>
       <c r="I56" s="19">
-        <v>57111</v>
+        <v>65615</v>
       </c>
       <c r="J56" s="19">
-        <v>65615</v>
+        <v>47006</v>
       </c>
       <c r="K56" s="19">
-        <v>47006</v>
+        <v>73926</v>
       </c>
       <c r="L56" s="19">
-        <v>73926</v>
+        <v>65284</v>
       </c>
       <c r="M56" s="19">
-        <v>65284</v>
+        <v>66565</v>
       </c>
       <c r="N56" s="19">
-        <v>66565</v>
+        <v>71033</v>
       </c>
       <c r="O56" s="19">
-        <v>71033</v>
+        <v>71099</v>
       </c>
       <c r="P56" s="19">
-        <v>71099</v>
+        <v>51899</v>
       </c>
       <c r="Q56" s="19">
-        <v>51899</v>
+        <v>51687</v>
       </c>
       <c r="R56" s="19">
-        <v>51687</v>
+        <v>69277</v>
       </c>
       <c r="S56" s="19">
-        <v>69277</v>
+        <v>61664</v>
       </c>
       <c r="T56" s="19">
-        <v>61664</v>
+        <v>77703</v>
       </c>
       <c r="U56" s="19">
-        <v>77703</v>
+        <v>61175</v>
       </c>
       <c r="V56" s="19">
-        <v>61175</v>
+        <v>22966</v>
       </c>
       <c r="W56" s="19">
-        <v>22966</v>
+        <v>58648</v>
       </c>
       <c r="X56" s="19">
-        <v>58648</v>
+        <v>75792</v>
       </c>
       <c r="Y56" s="19">
-        <v>75792</v>
+        <v>66070</v>
       </c>
       <c r="Z56" s="19">
-        <v>66070</v>
+        <v>57241</v>
       </c>
       <c r="AA56" s="19">
-        <v>57241</v>
+        <v>65611</v>
       </c>
       <c r="AB56" s="19">
-        <v>65611</v>
+        <v>67077</v>
       </c>
       <c r="AC56" s="19">
-        <v>67077</v>
+        <v>52759</v>
       </c>
       <c r="AD56" s="19">
-        <v>52759</v>
+        <v>56520</v>
       </c>
       <c r="AE56" s="19">
-        <v>56520</v>
+        <v>68912</v>
       </c>
       <c r="AF56" s="19">
-        <v>68912</v>
+        <v>55727</v>
       </c>
       <c r="AG56" s="19">
-        <v>55727</v>
+        <v>55116</v>
       </c>
       <c r="AH56" s="19">
-        <v>55116</v>
+        <v>49910</v>
       </c>
       <c r="AI56" s="19">
-        <v>49910</v>
+        <v>62984</v>
       </c>
       <c r="AJ56" s="19">
-        <v>62984</v>
+        <v>68897</v>
       </c>
       <c r="AK56" s="19">
-        <v>68897</v>
+        <v>61109</v>
       </c>
       <c r="AL56" s="19">
-        <v>61109</v>
+        <v>67102</v>
       </c>
       <c r="AM56" s="19">
-        <v>67102</v>
+        <v>73079</v>
       </c>
       <c r="AN56" s="19">
-        <v>73079</v>
+        <v>61785</v>
       </c>
       <c r="AO56" s="19">
-        <v>61785</v>
+        <v>56740</v>
       </c>
       <c r="AP56" s="19">
-        <v>56740</v>
+        <v>57188</v>
       </c>
       <c r="AQ56" s="19">
-        <v>57188</v>
+        <v>46060</v>
       </c>
       <c r="AR56" s="19">
-        <v>46060</v>
+        <v>53643</v>
       </c>
       <c r="AS56" s="19">
-        <v>53643</v>
+        <v>45499</v>
       </c>
       <c r="AT56" s="19">
-        <v>45499</v>
+        <v>38990</v>
       </c>
       <c r="AU56" s="19">
-        <v>38990</v>
+        <v>64573</v>
       </c>
       <c r="AV56" s="19">
-        <v>64573</v>
+        <v>78094</v>
       </c>
       <c r="AW56" s="19">
-        <v>78094</v>
+        <v>67382</v>
       </c>
       <c r="AX56" s="19">
-        <v>67382</v>
+        <v>58025</v>
       </c>
       <c r="AY56" s="19">
-        <v>58025</v>
+        <v>65566</v>
       </c>
       <c r="AZ56" s="19">
-        <v>65566</v>
+        <v>50671</v>
       </c>
       <c r="BA56" s="19">
-        <v>50671</v>
+        <v>64058</v>
       </c>
       <c r="BB56" s="19">
-        <v>64058</v>
+        <v>60795</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8377,101 +8377,101 @@
       <c r="L63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M63" s="11" t="s">
-        <v>57</v>
+      <c r="M63" s="11">
+        <v>2151</v>
       </c>
       <c r="N63" s="11">
-        <v>2151</v>
+        <v>65790</v>
       </c>
       <c r="O63" s="11">
-        <v>65790</v>
+        <v>19038</v>
       </c>
       <c r="P63" s="11">
-        <v>19038</v>
+        <v>10901</v>
       </c>
       <c r="Q63" s="11">
-        <v>10901</v>
+        <v>30194</v>
       </c>
       <c r="R63" s="11">
-        <v>30194</v>
+        <v>5974</v>
       </c>
       <c r="S63" s="11">
-        <v>5974</v>
+        <v>7495</v>
       </c>
       <c r="T63" s="11">
-        <v>7495</v>
+        <v>2376</v>
       </c>
       <c r="U63" s="11">
-        <v>2376</v>
+        <v>9525</v>
       </c>
       <c r="V63" s="11">
-        <v>9525</v>
+        <v>680</v>
       </c>
       <c r="W63" s="11">
-        <v>680</v>
+        <v>1854</v>
       </c>
       <c r="X63" s="11">
-        <v>1854</v>
+        <v>405</v>
       </c>
       <c r="Y63" s="11">
-        <v>405</v>
+        <v>3411</v>
       </c>
       <c r="Z63" s="11">
-        <v>3411</v>
+        <v>21870</v>
       </c>
       <c r="AA63" s="11">
-        <v>21870</v>
+        <v>83823</v>
       </c>
       <c r="AB63" s="11">
-        <v>83823</v>
+        <v>75112</v>
       </c>
       <c r="AC63" s="11">
-        <v>75112</v>
+        <v>84816</v>
       </c>
       <c r="AD63" s="11">
-        <v>84816</v>
+        <v>52123</v>
       </c>
       <c r="AE63" s="11">
-        <v>52123</v>
+        <v>23993</v>
       </c>
       <c r="AF63" s="11">
-        <v>23993</v>
+        <v>5966</v>
       </c>
       <c r="AG63" s="11">
-        <v>5966</v>
+        <v>140</v>
       </c>
       <c r="AH63" s="11">
-        <v>140</v>
+        <v>1181</v>
       </c>
       <c r="AI63" s="11">
-        <v>1181</v>
+        <v>7063</v>
       </c>
       <c r="AJ63" s="11">
-        <v>7063</v>
+        <v>2041</v>
       </c>
       <c r="AK63" s="11">
-        <v>2041</v>
+        <v>18102</v>
       </c>
       <c r="AL63" s="11">
-        <v>18102</v>
+        <v>51274</v>
       </c>
       <c r="AM63" s="11">
-        <v>51274</v>
+        <v>202979</v>
       </c>
       <c r="AN63" s="11">
-        <v>202979</v>
+        <v>85758</v>
       </c>
       <c r="AO63" s="11">
-        <v>85758</v>
+        <v>155250</v>
       </c>
       <c r="AP63" s="11">
-        <v>155250</v>
+        <v>42358</v>
       </c>
       <c r="AQ63" s="11">
-        <v>42358</v>
-      </c>
-      <c r="AR63" s="11">
         <v>30972</v>
+      </c>
+      <c r="AR63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS63" s="11" t="s">
         <v>57</v>
@@ -8513,94 +8513,94 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>2014632</v>
+        <v>2204352</v>
       </c>
       <c r="F64" s="13">
-        <v>2204352</v>
+        <v>1735116</v>
       </c>
       <c r="G64" s="13">
-        <v>1735116</v>
+        <v>2007778</v>
       </c>
       <c r="H64" s="13">
-        <v>2007778</v>
+        <v>2021275</v>
       </c>
       <c r="I64" s="13">
-        <v>2021275</v>
+        <v>3158633</v>
       </c>
       <c r="J64" s="13">
-        <v>3158633</v>
+        <v>2182062</v>
       </c>
       <c r="K64" s="13">
-        <v>2182062</v>
+        <v>3336377</v>
       </c>
       <c r="L64" s="13">
-        <v>3336377</v>
+        <v>3690218</v>
       </c>
       <c r="M64" s="13">
-        <v>3690218</v>
+        <v>3709847</v>
       </c>
       <c r="N64" s="13">
-        <v>3709847</v>
+        <v>3799458</v>
       </c>
       <c r="O64" s="13">
-        <v>3799458</v>
+        <v>3664198</v>
       </c>
       <c r="P64" s="13">
-        <v>3664198</v>
+        <v>2814321</v>
       </c>
       <c r="Q64" s="13">
-        <v>2814321</v>
+        <v>2530976</v>
       </c>
       <c r="R64" s="13">
-        <v>2530976</v>
+        <v>3886576</v>
       </c>
       <c r="S64" s="13">
-        <v>3886576</v>
+        <v>2888282</v>
       </c>
       <c r="T64" s="13">
-        <v>2888282</v>
+        <v>4304013</v>
       </c>
       <c r="U64" s="13">
-        <v>4304013</v>
+        <v>3816064</v>
       </c>
       <c r="V64" s="13">
-        <v>3816064</v>
+        <v>1435621</v>
       </c>
       <c r="W64" s="13">
-        <v>1435621</v>
+        <v>2850372</v>
       </c>
       <c r="X64" s="13">
-        <v>2850372</v>
+        <v>4076371</v>
       </c>
       <c r="Y64" s="13">
-        <v>4076371</v>
+        <v>4655580</v>
       </c>
       <c r="Z64" s="13">
-        <v>4655580</v>
+        <v>4283342</v>
       </c>
       <c r="AA64" s="13">
-        <v>4283342</v>
+        <v>5267530</v>
       </c>
       <c r="AB64" s="13">
-        <v>5267530</v>
+        <v>6729658</v>
       </c>
       <c r="AC64" s="13">
-        <v>6729658</v>
+        <v>6162138</v>
       </c>
       <c r="AD64" s="13">
-        <v>6162138</v>
+        <v>7303483</v>
       </c>
       <c r="AE64" s="13">
-        <v>7303483</v>
+        <v>8090173</v>
       </c>
       <c r="AF64" s="13">
-        <v>8090173</v>
+        <v>7301184</v>
       </c>
       <c r="AG64" s="13">
-        <v>7301184</v>
-      </c>
-      <c r="AH64" s="13">
         <v>7842635</v>
+      </c>
+      <c r="AH64" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI64" s="13" t="s">
         <v>57</v>
@@ -8758,68 +8758,68 @@
       <c r="AG65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH65" s="11" t="s">
-        <v>57</v>
+      <c r="AH65" s="11">
+        <v>3202298</v>
       </c>
       <c r="AI65" s="11">
-        <v>3202298</v>
+        <v>3768352</v>
       </c>
       <c r="AJ65" s="11">
-        <v>3768352</v>
+        <v>4534746</v>
       </c>
       <c r="AK65" s="11">
-        <v>4534746</v>
+        <v>4593975</v>
       </c>
       <c r="AL65" s="11">
-        <v>4593975</v>
+        <v>5387789</v>
       </c>
       <c r="AM65" s="11">
-        <v>5387789</v>
+        <v>8627248</v>
       </c>
       <c r="AN65" s="11">
-        <v>8627248</v>
+        <v>4637124</v>
       </c>
       <c r="AO65" s="11">
-        <v>4637124</v>
+        <v>3607401</v>
       </c>
       <c r="AP65" s="11">
-        <v>3607401</v>
+        <v>4637386</v>
       </c>
       <c r="AQ65" s="11">
-        <v>4637386</v>
+        <v>4310457</v>
       </c>
       <c r="AR65" s="11">
-        <v>4310457</v>
+        <v>3996931</v>
       </c>
       <c r="AS65" s="11">
-        <v>3996931</v>
+        <v>5608454</v>
       </c>
       <c r="AT65" s="11">
-        <v>5608454</v>
+        <v>2199544</v>
       </c>
       <c r="AU65" s="11">
-        <v>2199544</v>
+        <v>7038855</v>
       </c>
       <c r="AV65" s="11">
-        <v>7038855</v>
+        <v>11316157</v>
       </c>
       <c r="AW65" s="11">
-        <v>11316157</v>
+        <v>10289411</v>
       </c>
       <c r="AX65" s="11">
-        <v>10289411</v>
+        <v>7816973</v>
       </c>
       <c r="AY65" s="11">
-        <v>7816973</v>
+        <v>6103818</v>
       </c>
       <c r="AZ65" s="11">
-        <v>6103818</v>
+        <v>4342306</v>
       </c>
       <c r="BA65" s="11">
-        <v>4342306</v>
+        <v>5313686</v>
       </c>
       <c r="BB65" s="11">
-        <v>5313687</v>
+        <v>4885080</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8917,68 +8917,68 @@
       <c r="AG66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH66" s="13" t="s">
-        <v>57</v>
+      <c r="AH66" s="13">
+        <v>143590</v>
       </c>
       <c r="AI66" s="13">
-        <v>143590</v>
+        <v>279026</v>
       </c>
       <c r="AJ66" s="13">
-        <v>279026</v>
+        <v>277930</v>
       </c>
       <c r="AK66" s="13">
-        <v>277930</v>
+        <v>409487</v>
       </c>
       <c r="AL66" s="13">
-        <v>409487</v>
+        <v>435347</v>
       </c>
       <c r="AM66" s="13">
-        <v>435347</v>
+        <v>332798</v>
       </c>
       <c r="AN66" s="13">
-        <v>332798</v>
+        <v>311039</v>
       </c>
       <c r="AO66" s="13">
-        <v>311039</v>
+        <v>293846</v>
       </c>
       <c r="AP66" s="13">
-        <v>293846</v>
+        <v>574625</v>
       </c>
       <c r="AQ66" s="13">
-        <v>574625</v>
+        <v>452655</v>
       </c>
       <c r="AR66" s="13">
-        <v>452655</v>
+        <v>277470</v>
       </c>
       <c r="AS66" s="13">
-        <v>277470</v>
+        <v>241758</v>
       </c>
       <c r="AT66" s="13">
-        <v>241758</v>
+        <v>226488</v>
       </c>
       <c r="AU66" s="13">
-        <v>226488</v>
+        <v>463862</v>
       </c>
       <c r="AV66" s="13">
-        <v>463862</v>
+        <v>308536</v>
       </c>
       <c r="AW66" s="13">
-        <v>308536</v>
+        <v>261700</v>
       </c>
       <c r="AX66" s="13">
-        <v>261700</v>
+        <v>112983</v>
       </c>
       <c r="AY66" s="13">
-        <v>112983</v>
+        <v>164400</v>
       </c>
       <c r="AZ66" s="13">
-        <v>164400</v>
+        <v>412887</v>
       </c>
       <c r="BA66" s="13">
-        <v>412887</v>
+        <v>332879</v>
       </c>
       <c r="BB66" s="13">
-        <v>332881</v>
+        <v>534611</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9013,131 +9013,131 @@
       <c r="L67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M67" s="11" t="s">
-        <v>57</v>
+      <c r="M67" s="11">
+        <v>4254</v>
       </c>
       <c r="N67" s="11">
-        <v>4254</v>
+        <v>4582</v>
       </c>
       <c r="O67" s="11">
-        <v>4582</v>
+        <v>6583</v>
       </c>
       <c r="P67" s="11">
-        <v>6583</v>
+        <v>7498</v>
       </c>
       <c r="Q67" s="11">
-        <v>7498</v>
+        <v>3694</v>
       </c>
       <c r="R67" s="11">
-        <v>3694</v>
+        <v>7503</v>
       </c>
       <c r="S67" s="11">
-        <v>7503</v>
+        <v>4164</v>
       </c>
       <c r="T67" s="11">
-        <v>4164</v>
+        <v>4560</v>
       </c>
       <c r="U67" s="11">
-        <v>4560</v>
+        <v>5537</v>
       </c>
       <c r="V67" s="11">
-        <v>5537</v>
+        <v>2847</v>
       </c>
       <c r="W67" s="11">
-        <v>2847</v>
+        <v>13163</v>
       </c>
       <c r="X67" s="11">
-        <v>13163</v>
+        <v>9334</v>
       </c>
       <c r="Y67" s="11">
-        <v>9334</v>
+        <v>6113</v>
       </c>
       <c r="Z67" s="11">
-        <v>6113</v>
+        <v>2348</v>
       </c>
       <c r="AA67" s="11">
-        <v>2348</v>
+        <v>17001</v>
       </c>
       <c r="AB67" s="11">
-        <v>17001</v>
+        <v>8003</v>
       </c>
       <c r="AC67" s="11">
-        <v>8003</v>
+        <v>1572</v>
       </c>
       <c r="AD67" s="11">
-        <v>1572</v>
+        <v>10035</v>
       </c>
       <c r="AE67" s="11">
-        <v>10035</v>
+        <v>3491</v>
       </c>
       <c r="AF67" s="11">
-        <v>3491</v>
+        <v>5748</v>
       </c>
       <c r="AG67" s="11">
-        <v>5748</v>
+        <v>2326</v>
       </c>
       <c r="AH67" s="11">
-        <v>2326</v>
+        <v>19239</v>
       </c>
       <c r="AI67" s="11">
-        <v>19239</v>
+        <v>16987</v>
       </c>
       <c r="AJ67" s="11">
-        <v>16987</v>
+        <v>33160</v>
       </c>
       <c r="AK67" s="11">
-        <v>33160</v>
+        <v>24910</v>
       </c>
       <c r="AL67" s="11">
-        <v>24910</v>
+        <v>2995</v>
       </c>
       <c r="AM67" s="11">
-        <v>2995</v>
+        <v>410</v>
       </c>
       <c r="AN67" s="11">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="AO67" s="11">
         <v>0</v>
       </c>
       <c r="AP67" s="11">
-        <v>0</v>
+        <v>8537</v>
       </c>
       <c r="AQ67" s="11">
-        <v>8537</v>
+        <v>10739</v>
       </c>
       <c r="AR67" s="11">
-        <v>10739</v>
+        <v>20053</v>
       </c>
       <c r="AS67" s="11">
-        <v>20053</v>
+        <v>32684</v>
       </c>
       <c r="AT67" s="11">
-        <v>32684</v>
+        <v>5468</v>
       </c>
       <c r="AU67" s="11">
-        <v>5468</v>
+        <v>20647</v>
       </c>
       <c r="AV67" s="11">
-        <v>20647</v>
+        <v>6018</v>
       </c>
       <c r="AW67" s="11">
-        <v>6018</v>
+        <v>1494</v>
       </c>
       <c r="AX67" s="11">
-        <v>1494</v>
+        <v>1429</v>
       </c>
       <c r="AY67" s="11">
-        <v>1429</v>
+        <v>65</v>
       </c>
       <c r="AZ67" s="11">
-        <v>65</v>
+        <v>6157</v>
       </c>
       <c r="BA67" s="11">
-        <v>6157</v>
+        <v>11770</v>
       </c>
       <c r="BB67" s="11">
-        <v>11770</v>
+        <v>48802</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9265,38 +9265,38 @@
       <c r="AQ68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR68" s="13" t="s">
-        <v>57</v>
+      <c r="AR68" s="13">
+        <v>0</v>
       </c>
       <c r="AS68" s="13">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AT68" s="13">
-        <v>73</v>
+        <v>5787</v>
       </c>
       <c r="AU68" s="13">
-        <v>5787</v>
+        <v>22723</v>
       </c>
       <c r="AV68" s="13">
-        <v>22723</v>
+        <v>49385</v>
       </c>
       <c r="AW68" s="13">
-        <v>49385</v>
+        <v>174435</v>
       </c>
       <c r="AX68" s="13">
-        <v>174435</v>
+        <v>95500</v>
       </c>
       <c r="AY68" s="13">
-        <v>95500</v>
+        <v>7652</v>
       </c>
       <c r="AZ68" s="13">
-        <v>7652</v>
+        <v>12005</v>
       </c>
       <c r="BA68" s="13">
-        <v>12005</v>
+        <v>25647</v>
       </c>
       <c r="BB68" s="13">
-        <v>25648</v>
+        <v>18337</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9308,31 +9308,31 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>1042072</v>
+        <v>904622</v>
       </c>
       <c r="F69" s="11">
-        <v>904622</v>
+        <v>1021759</v>
       </c>
       <c r="G69" s="11">
-        <v>1021759</v>
+        <v>1023447</v>
       </c>
       <c r="H69" s="11">
-        <v>1023447</v>
+        <v>901054</v>
       </c>
       <c r="I69" s="11">
-        <v>901054</v>
+        <v>835917</v>
       </c>
       <c r="J69" s="11">
-        <v>835917</v>
+        <v>643895</v>
       </c>
       <c r="K69" s="11">
-        <v>643895</v>
+        <v>1461691</v>
       </c>
       <c r="L69" s="11">
-        <v>1461691</v>
+        <v>1107262</v>
       </c>
       <c r="M69" s="11">
-        <v>1107262</v>
+        <v>0</v>
       </c>
       <c r="N69" s="11">
         <v>0</v>
@@ -9358,17 +9358,17 @@
       <c r="U69" s="11">
         <v>0</v>
       </c>
-      <c r="V69" s="11">
-        <v>0</v>
-      </c>
-      <c r="W69" s="11" t="s">
-        <v>57</v>
+      <c r="V69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W69" s="11">
+        <v>0</v>
       </c>
       <c r="X69" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="11">
         <v>-3493</v>
+      </c>
+      <c r="Y69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Z69" s="11" t="s">
         <v>57</v>
@@ -9553,68 +9553,68 @@
       <c r="AG70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH70" s="13" t="s">
-        <v>57</v>
+      <c r="AH70" s="13">
+        <v>203984</v>
       </c>
       <c r="AI70" s="13">
-        <v>203984</v>
+        <v>528817</v>
       </c>
       <c r="AJ70" s="13">
-        <v>528817</v>
+        <v>572466</v>
       </c>
       <c r="AK70" s="13">
-        <v>572466</v>
+        <v>364166</v>
       </c>
       <c r="AL70" s="13">
-        <v>364166</v>
+        <v>650691</v>
       </c>
       <c r="AM70" s="13">
-        <v>650691</v>
+        <v>831565</v>
       </c>
       <c r="AN70" s="13">
-        <v>831565</v>
+        <v>573992</v>
       </c>
       <c r="AO70" s="13">
-        <v>573992</v>
+        <v>944130</v>
       </c>
       <c r="AP70" s="13">
-        <v>944130</v>
+        <v>1056319</v>
       </c>
       <c r="AQ70" s="13">
-        <v>1056319</v>
+        <v>769162</v>
       </c>
       <c r="AR70" s="13">
-        <v>769162</v>
+        <v>1181598</v>
       </c>
       <c r="AS70" s="13">
-        <v>1181598</v>
+        <v>654147</v>
       </c>
       <c r="AT70" s="13">
-        <v>654147</v>
+        <v>763094</v>
       </c>
       <c r="AU70" s="13">
-        <v>763094</v>
+        <v>1169679</v>
       </c>
       <c r="AV70" s="13">
-        <v>1169679</v>
+        <v>965638</v>
       </c>
       <c r="AW70" s="13">
-        <v>965638</v>
+        <v>1138352</v>
       </c>
       <c r="AX70" s="13">
-        <v>1138352</v>
+        <v>1384236</v>
       </c>
       <c r="AY70" s="13">
-        <v>1384236</v>
+        <v>814685</v>
       </c>
       <c r="AZ70" s="13">
-        <v>814685</v>
+        <v>678171</v>
       </c>
       <c r="BA70" s="13">
-        <v>678171</v>
+        <v>600834</v>
       </c>
       <c r="BB70" s="13">
-        <v>600834</v>
+        <v>512146</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9649,71 +9649,71 @@
       <c r="L71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M71" s="11" t="s">
-        <v>57</v>
+      <c r="M71" s="11">
+        <v>476823</v>
       </c>
       <c r="N71" s="11">
-        <v>476823</v>
+        <v>304296</v>
       </c>
       <c r="O71" s="11">
-        <v>304296</v>
+        <v>379172</v>
       </c>
       <c r="P71" s="11">
-        <v>379172</v>
+        <v>234921</v>
       </c>
       <c r="Q71" s="11">
-        <v>234921</v>
+        <v>224522</v>
       </c>
       <c r="R71" s="11">
-        <v>224522</v>
+        <v>316108</v>
       </c>
       <c r="S71" s="11">
-        <v>316108</v>
+        <v>529213</v>
       </c>
       <c r="T71" s="11">
-        <v>529213</v>
+        <v>595188</v>
       </c>
       <c r="U71" s="11">
-        <v>595188</v>
+        <v>308570</v>
       </c>
       <c r="V71" s="11">
-        <v>308570</v>
+        <v>55251</v>
       </c>
       <c r="W71" s="11">
-        <v>55251</v>
+        <v>174668</v>
       </c>
       <c r="X71" s="11">
-        <v>174668</v>
+        <v>450771</v>
       </c>
       <c r="Y71" s="11">
-        <v>450771</v>
+        <v>442505</v>
       </c>
       <c r="Z71" s="11">
-        <v>442505</v>
+        <v>570074</v>
       </c>
       <c r="AA71" s="11">
-        <v>570074</v>
+        <v>601097</v>
       </c>
       <c r="AB71" s="11">
-        <v>601097</v>
+        <v>611823</v>
       </c>
       <c r="AC71" s="11">
-        <v>611823</v>
+        <v>568403</v>
       </c>
       <c r="AD71" s="11">
-        <v>568403</v>
+        <v>657627</v>
       </c>
       <c r="AE71" s="11">
-        <v>657627</v>
+        <v>787663</v>
       </c>
       <c r="AF71" s="11">
-        <v>787663</v>
+        <v>1137847</v>
       </c>
       <c r="AG71" s="11">
-        <v>1137847</v>
-      </c>
-      <c r="AH71" s="11">
         <v>606742</v>
+      </c>
+      <c r="AH71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI71" s="11" t="s">
         <v>57</v>
@@ -9871,68 +9871,68 @@
       <c r="AG72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH72" s="13" t="s">
-        <v>57</v>
+      <c r="AH72" s="13">
+        <v>1012494</v>
       </c>
       <c r="AI72" s="13">
-        <v>1012494</v>
+        <v>1222296</v>
       </c>
       <c r="AJ72" s="13">
-        <v>1222296</v>
+        <v>1534794</v>
       </c>
       <c r="AK72" s="13">
-        <v>1534794</v>
+        <v>1359389</v>
       </c>
       <c r="AL72" s="13">
-        <v>1359389</v>
+        <v>1505517</v>
       </c>
       <c r="AM72" s="13">
-        <v>1505517</v>
+        <v>1809473</v>
       </c>
       <c r="AN72" s="13">
-        <v>1809473</v>
+        <v>1363783</v>
       </c>
       <c r="AO72" s="13">
-        <v>1363783</v>
+        <v>1273493</v>
       </c>
       <c r="AP72" s="13">
-        <v>1273493</v>
+        <v>1441869</v>
       </c>
       <c r="AQ72" s="13">
-        <v>1441869</v>
+        <v>1361011</v>
       </c>
       <c r="AR72" s="13">
-        <v>1361011</v>
+        <v>1246535</v>
       </c>
       <c r="AS72" s="13">
-        <v>1246535</v>
+        <v>1485862</v>
       </c>
       <c r="AT72" s="13">
-        <v>1485862</v>
+        <v>630133</v>
       </c>
       <c r="AU72" s="13">
-        <v>630133</v>
+        <v>1078203</v>
       </c>
       <c r="AV72" s="13">
-        <v>1078203</v>
+        <v>2182482</v>
       </c>
       <c r="AW72" s="13">
-        <v>2182482</v>
+        <v>1605942</v>
       </c>
       <c r="AX72" s="13">
-        <v>1605942</v>
+        <v>2016372</v>
       </c>
       <c r="AY72" s="13">
-        <v>2016372</v>
+        <v>2419135</v>
       </c>
       <c r="AZ72" s="13">
-        <v>2419135</v>
+        <v>1659096</v>
       </c>
       <c r="BA72" s="13">
-        <v>1659096</v>
+        <v>1807299</v>
       </c>
       <c r="BB72" s="13">
-        <v>1807299</v>
+        <v>1731324</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -10030,68 +10030,68 @@
       <c r="AG73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH73" s="11" t="s">
-        <v>57</v>
+      <c r="AH73" s="11">
+        <v>1224608</v>
       </c>
       <c r="AI73" s="11">
-        <v>1224608</v>
+        <v>1338041</v>
       </c>
       <c r="AJ73" s="11">
-        <v>1338041</v>
+        <v>1593300</v>
       </c>
       <c r="AK73" s="11">
-        <v>1593300</v>
+        <v>1005979</v>
       </c>
       <c r="AL73" s="11">
-        <v>1005979</v>
+        <v>1752198</v>
       </c>
       <c r="AM73" s="11">
-        <v>1752198</v>
+        <v>1764468</v>
       </c>
       <c r="AN73" s="11">
-        <v>1764468</v>
+        <v>1580672</v>
       </c>
       <c r="AO73" s="11">
-        <v>1580672</v>
+        <v>1905621</v>
       </c>
       <c r="AP73" s="11">
-        <v>1905621</v>
+        <v>1972794</v>
       </c>
       <c r="AQ73" s="11">
-        <v>1972794</v>
+        <v>1959762</v>
       </c>
       <c r="AR73" s="11">
-        <v>1959762</v>
+        <v>1911493</v>
       </c>
       <c r="AS73" s="11">
-        <v>1911493</v>
+        <v>1782010</v>
       </c>
       <c r="AT73" s="11">
-        <v>1782010</v>
+        <v>967356</v>
       </c>
       <c r="AU73" s="11">
-        <v>967356</v>
+        <v>1766178</v>
       </c>
       <c r="AV73" s="11">
-        <v>1766178</v>
+        <v>2224504</v>
       </c>
       <c r="AW73" s="11">
-        <v>2224504</v>
+        <v>2255446</v>
       </c>
       <c r="AX73" s="11">
-        <v>2255446</v>
+        <v>2332348</v>
       </c>
       <c r="AY73" s="11">
-        <v>2332348</v>
+        <v>3414039</v>
       </c>
       <c r="AZ73" s="11">
-        <v>3414039</v>
+        <v>2494805</v>
       </c>
       <c r="BA73" s="11">
-        <v>2494805</v>
+        <v>3344449</v>
       </c>
       <c r="BB73" s="11">
-        <v>3344449</v>
+        <v>3970094</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10189,68 +10189,68 @@
       <c r="AG74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH74" s="13" t="s">
-        <v>57</v>
+      <c r="AH74" s="13">
+        <v>414689</v>
       </c>
       <c r="AI74" s="13">
-        <v>414689</v>
+        <v>701807</v>
       </c>
       <c r="AJ74" s="13">
-        <v>701807</v>
+        <v>630462</v>
       </c>
       <c r="AK74" s="13">
-        <v>630462</v>
+        <v>548203</v>
       </c>
       <c r="AL74" s="13">
-        <v>548203</v>
+        <v>403964</v>
       </c>
       <c r="AM74" s="13">
-        <v>403964</v>
+        <v>786001</v>
       </c>
       <c r="AN74" s="13">
-        <v>786001</v>
+        <v>649521</v>
       </c>
       <c r="AO74" s="13">
-        <v>649521</v>
+        <v>632332</v>
       </c>
       <c r="AP74" s="13">
-        <v>632332</v>
+        <v>617866</v>
       </c>
       <c r="AQ74" s="13">
-        <v>617866</v>
+        <v>528351</v>
       </c>
       <c r="AR74" s="13">
-        <v>528351</v>
+        <v>586166</v>
       </c>
       <c r="AS74" s="13">
-        <v>586166</v>
+        <v>754586</v>
       </c>
       <c r="AT74" s="13">
-        <v>754586</v>
+        <v>397241</v>
       </c>
       <c r="AU74" s="13">
-        <v>397241</v>
+        <v>924724</v>
       </c>
       <c r="AV74" s="13">
-        <v>924724</v>
+        <v>1062554</v>
       </c>
       <c r="AW74" s="13">
-        <v>1062554</v>
+        <v>648397</v>
       </c>
       <c r="AX74" s="13">
-        <v>648397</v>
+        <v>755556</v>
       </c>
       <c r="AY74" s="13">
-        <v>755556</v>
+        <v>706033</v>
       </c>
       <c r="AZ74" s="13">
-        <v>706033</v>
+        <v>560827</v>
       </c>
       <c r="BA74" s="13">
-        <v>560827</v>
+        <v>773745</v>
       </c>
       <c r="BB74" s="13">
-        <v>773745</v>
+        <v>792533</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10348,68 +10348,68 @@
       <c r="AG75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH75" s="11" t="s">
-        <v>57</v>
+      <c r="AH75" s="11">
+        <v>193824</v>
       </c>
       <c r="AI75" s="11">
-        <v>193824</v>
+        <v>216114</v>
       </c>
       <c r="AJ75" s="11">
-        <v>216114</v>
+        <v>307272</v>
       </c>
       <c r="AK75" s="11">
-        <v>307272</v>
+        <v>134029</v>
       </c>
       <c r="AL75" s="11">
-        <v>134029</v>
+        <v>183420</v>
       </c>
       <c r="AM75" s="11">
-        <v>183420</v>
+        <v>253633</v>
       </c>
       <c r="AN75" s="11">
-        <v>253633</v>
+        <v>217942</v>
       </c>
       <c r="AO75" s="11">
-        <v>217942</v>
+        <v>224292</v>
       </c>
       <c r="AP75" s="11">
-        <v>224292</v>
+        <v>309289</v>
       </c>
       <c r="AQ75" s="11">
-        <v>309289</v>
+        <v>181043</v>
       </c>
       <c r="AR75" s="11">
-        <v>181043</v>
+        <v>184352</v>
       </c>
       <c r="AS75" s="11">
-        <v>184352</v>
+        <v>212206</v>
       </c>
       <c r="AT75" s="11">
-        <v>212206</v>
+        <v>198259</v>
       </c>
       <c r="AU75" s="11">
-        <v>198259</v>
+        <v>426184</v>
       </c>
       <c r="AV75" s="11">
-        <v>426184</v>
+        <v>444298</v>
       </c>
       <c r="AW75" s="11">
-        <v>444298</v>
+        <v>188180</v>
       </c>
       <c r="AX75" s="11">
-        <v>188180</v>
+        <v>162272</v>
       </c>
       <c r="AY75" s="11">
-        <v>162272</v>
+        <v>463428</v>
       </c>
       <c r="AZ75" s="11">
-        <v>463428</v>
+        <v>258955</v>
       </c>
       <c r="BA75" s="11">
-        <v>258955</v>
+        <v>363486</v>
       </c>
       <c r="BB75" s="11">
-        <v>363486</v>
+        <v>400273</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10507,68 +10507,68 @@
       <c r="AG76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH76" s="13" t="s">
-        <v>57</v>
+      <c r="AH76" s="13">
+        <v>1135769</v>
       </c>
       <c r="AI76" s="13">
-        <v>1135769</v>
+        <v>1500227</v>
       </c>
       <c r="AJ76" s="13">
-        <v>1500227</v>
+        <v>1534204</v>
       </c>
       <c r="AK76" s="13">
-        <v>1534204</v>
+        <v>1588124</v>
       </c>
       <c r="AL76" s="13">
-        <v>1588124</v>
+        <v>1705963</v>
       </c>
       <c r="AM76" s="13">
-        <v>1705963</v>
+        <v>1378982</v>
       </c>
       <c r="AN76" s="13">
-        <v>1378982</v>
+        <v>2365489</v>
       </c>
       <c r="AO76" s="13">
-        <v>2365489</v>
+        <v>2017230</v>
       </c>
       <c r="AP76" s="13">
-        <v>2017230</v>
+        <v>1453564</v>
       </c>
       <c r="AQ76" s="13">
-        <v>1453564</v>
+        <v>867973</v>
       </c>
       <c r="AR76" s="13">
-        <v>867973</v>
+        <v>1784048</v>
       </c>
       <c r="AS76" s="13">
-        <v>1784048</v>
+        <v>249540</v>
       </c>
       <c r="AT76" s="13">
-        <v>249540</v>
+        <v>3278703</v>
       </c>
       <c r="AU76" s="13">
-        <v>3278703</v>
+        <v>2886505</v>
       </c>
       <c r="AV76" s="13">
-        <v>2886505</v>
+        <v>2286360</v>
       </c>
       <c r="AW76" s="13">
-        <v>2286360</v>
+        <v>2054045</v>
       </c>
       <c r="AX76" s="13">
-        <v>2054045</v>
+        <v>1751195</v>
       </c>
       <c r="AY76" s="13">
-        <v>1751195</v>
+        <v>2042689</v>
       </c>
       <c r="AZ76" s="13">
-        <v>2042689</v>
+        <v>1613119</v>
       </c>
       <c r="BA76" s="13">
-        <v>1613119</v>
+        <v>2309583</v>
       </c>
       <c r="BB76" s="13">
-        <v>2309583</v>
+        <v>1576426</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10666,20 +10666,20 @@
       <c r="AG77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH77" s="11" t="s">
-        <v>57</v>
+      <c r="AH77" s="11">
+        <v>0</v>
       </c>
       <c r="AI77" s="11">
         <v>0</v>
       </c>
       <c r="AJ77" s="11">
-        <v>0</v>
+        <v>65173</v>
       </c>
       <c r="AK77" s="11">
-        <v>65173</v>
+        <v>62725</v>
       </c>
       <c r="AL77" s="11">
-        <v>62725</v>
+        <v>0</v>
       </c>
       <c r="AM77" s="11">
         <v>0</v>
@@ -10702,8 +10702,8 @@
       <c r="AS77" s="11">
         <v>0</v>
       </c>
-      <c r="AT77" s="11">
-        <v>0</v>
+      <c r="AT77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU77" s="11" t="s">
         <v>57</v>
@@ -10855,8 +10855,8 @@
       <c r="X79" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y79" s="17" t="s">
-        <v>57</v>
+      <c r="Y79" s="17">
+        <v>0</v>
       </c>
       <c r="Z79" s="17">
         <v>0</v>
@@ -11101,53 +11101,53 @@
       <c r="AH81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI81" s="11" t="s">
-        <v>57</v>
+      <c r="AI81" s="11">
+        <v>-1096</v>
       </c>
       <c r="AJ81" s="11">
-        <v>-1096</v>
+        <v>-1597</v>
       </c>
       <c r="AK81" s="11">
-        <v>-1597</v>
+        <v>-133</v>
       </c>
       <c r="AL81" s="11">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AM81" s="11">
-        <v>0</v>
+        <v>-356143</v>
       </c>
       <c r="AN81" s="11">
-        <v>-356143</v>
+        <v>-4243</v>
       </c>
       <c r="AO81" s="11">
-        <v>-4243</v>
+        <v>0</v>
       </c>
       <c r="AP81" s="11">
-        <v>0</v>
+        <v>-4072</v>
       </c>
       <c r="AQ81" s="11">
-        <v>-4072</v>
+        <v>0</v>
       </c>
       <c r="AR81" s="11">
-        <v>0</v>
+        <v>-7758</v>
       </c>
       <c r="AS81" s="11">
-        <v>-7758</v>
+        <v>-34371</v>
       </c>
       <c r="AT81" s="11">
-        <v>-34371</v>
+        <v>0</v>
       </c>
       <c r="AU81" s="11">
         <v>0</v>
       </c>
       <c r="AV81" s="11">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AW81" s="11">
-        <v>-1606</v>
+        <v>1244</v>
       </c>
       <c r="AX81" s="11">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="AY81" s="11">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="BA81" s="11">
-        <v>0</v>
+        <v>-4380</v>
       </c>
       <c r="BB81" s="11">
-        <v>-4380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11230,14 +11230,14 @@
       <c r="X82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y82" s="13" t="s">
-        <v>57</v>
+      <c r="Y82" s="13">
+        <v>-3871</v>
       </c>
       <c r="Z82" s="13">
-        <v>-3871</v>
+        <v>-55</v>
       </c>
       <c r="AA82" s="13">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AB82" s="13">
         <v>0</v>
@@ -11246,19 +11246,19 @@
         <v>0</v>
       </c>
       <c r="AD82" s="13">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AE82" s="13">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="AF82" s="13">
-        <v>0</v>
+        <v>-1208</v>
       </c>
       <c r="AG82" s="13">
-        <v>-1208</v>
-      </c>
-      <c r="AH82" s="13">
         <v>-530</v>
+      </c>
+      <c r="AH82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI82" s="13" t="s">
         <v>57</v>
@@ -11389,14 +11389,14 @@
       <c r="X83" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y83" s="17" t="s">
-        <v>57</v>
+      <c r="Y83" s="17">
+        <v>-3871</v>
       </c>
       <c r="Z83" s="17">
-        <v>-3871</v>
+        <v>-55</v>
       </c>
       <c r="AA83" s="17">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="17">
         <v>0</v>
@@ -11405,67 +11405,67 @@
         <v>0</v>
       </c>
       <c r="AD83" s="17">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AE83" s="17">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="17">
-        <v>0</v>
+        <v>-1208</v>
       </c>
       <c r="AG83" s="17">
-        <v>-1208</v>
+        <v>-530</v>
       </c>
       <c r="AH83" s="17">
-        <v>-530</v>
+        <v>0</v>
       </c>
       <c r="AI83" s="17">
-        <v>0</v>
+        <v>-1096</v>
       </c>
       <c r="AJ83" s="17">
-        <v>-1096</v>
+        <v>-1597</v>
       </c>
       <c r="AK83" s="17">
-        <v>-1597</v>
+        <v>-133</v>
       </c>
       <c r="AL83" s="17">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AM83" s="17">
-        <v>0</v>
+        <v>-356143</v>
       </c>
       <c r="AN83" s="17">
-        <v>-356143</v>
+        <v>-4243</v>
       </c>
       <c r="AO83" s="17">
-        <v>-4243</v>
+        <v>0</v>
       </c>
       <c r="AP83" s="17">
-        <v>0</v>
+        <v>-4072</v>
       </c>
       <c r="AQ83" s="17">
-        <v>-4072</v>
+        <v>0</v>
       </c>
       <c r="AR83" s="17">
-        <v>0</v>
+        <v>-7758</v>
       </c>
       <c r="AS83" s="17">
-        <v>-7758</v>
+        <v>-34371</v>
       </c>
       <c r="AT83" s="17">
-        <v>-34371</v>
+        <v>0</v>
       </c>
       <c r="AU83" s="17">
         <v>0</v>
       </c>
       <c r="AV83" s="17">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AW83" s="17">
-        <v>-1606</v>
+        <v>1244</v>
       </c>
       <c r="AX83" s="17">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="AY83" s="17">
         <v>0</v>
@@ -11474,10 +11474,10 @@
         <v>0</v>
       </c>
       <c r="BA83" s="17">
-        <v>0</v>
+        <v>-4380</v>
       </c>
       <c r="BB83" s="17">
-        <v>-4380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11605,95 +11605,95 @@
       <c r="X85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y85" s="11" t="s">
-        <v>57</v>
+      <c r="Y85" s="11">
+        <v>-99965</v>
       </c>
       <c r="Z85" s="11">
-        <v>-99965</v>
+        <v>-63046</v>
       </c>
       <c r="AA85" s="11">
-        <v>-63046</v>
+        <v>-121319</v>
       </c>
       <c r="AB85" s="11">
-        <v>-121319</v>
+        <v>-104481</v>
       </c>
       <c r="AC85" s="11">
-        <v>-104481</v>
+        <v>-33470</v>
       </c>
       <c r="AD85" s="11">
-        <v>-33470</v>
+        <v>-108786</v>
       </c>
       <c r="AE85" s="11">
-        <v>-108786</v>
+        <v>-194709</v>
       </c>
       <c r="AF85" s="11">
-        <v>-194709</v>
+        <v>-160422</v>
       </c>
       <c r="AG85" s="11">
-        <v>-160422</v>
+        <v>-147739</v>
       </c>
       <c r="AH85" s="11">
-        <v>-147739</v>
+        <v>-82901</v>
       </c>
       <c r="AI85" s="11">
-        <v>-82901</v>
+        <v>-70815</v>
       </c>
       <c r="AJ85" s="11">
-        <v>-70815</v>
+        <v>-55936</v>
       </c>
       <c r="AK85" s="11">
-        <v>-55936</v>
+        <v>-166034</v>
       </c>
       <c r="AL85" s="11">
-        <v>-166034</v>
+        <v>-162714</v>
       </c>
       <c r="AM85" s="11">
-        <v>-162714</v>
+        <v>-146494</v>
       </c>
       <c r="AN85" s="11">
-        <v>-146494</v>
+        <v>-107065</v>
       </c>
       <c r="AO85" s="11">
-        <v>-107065</v>
+        <v>-178470</v>
       </c>
       <c r="AP85" s="11">
-        <v>-178470</v>
+        <v>-99431</v>
       </c>
       <c r="AQ85" s="11">
-        <v>-99431</v>
+        <v>-117236</v>
       </c>
       <c r="AR85" s="11">
-        <v>-117236</v>
+        <v>-72470</v>
       </c>
       <c r="AS85" s="11">
-        <v>-72470</v>
+        <v>-98358</v>
       </c>
       <c r="AT85" s="11">
-        <v>-98358</v>
+        <v>-36205</v>
       </c>
       <c r="AU85" s="11">
-        <v>-36205</v>
+        <v>-46431</v>
       </c>
       <c r="AV85" s="11">
-        <v>-46431</v>
+        <v>-24993</v>
       </c>
       <c r="AW85" s="11">
-        <v>-24993</v>
+        <v>-16300</v>
       </c>
       <c r="AX85" s="11">
-        <v>-16300</v>
+        <v>-18418</v>
       </c>
       <c r="AY85" s="11">
-        <v>-18418</v>
+        <v>-838864</v>
       </c>
       <c r="AZ85" s="11">
-        <v>-838864</v>
+        <v>-263408</v>
       </c>
       <c r="BA85" s="11">
-        <v>-263408</v>
+        <v>-281255</v>
       </c>
       <c r="BB85" s="11">
-        <v>-281259</v>
+        <v>-751621</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11703,154 +11703,154 @@
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19">
-        <v>3056704</v>
+        <v>3108974</v>
       </c>
       <c r="F86" s="19">
-        <v>3108974</v>
+        <v>2756875</v>
       </c>
       <c r="G86" s="19">
-        <v>2756875</v>
+        <v>3031225</v>
       </c>
       <c r="H86" s="19">
-        <v>3031225</v>
+        <v>2922329</v>
       </c>
       <c r="I86" s="19">
-        <v>2922329</v>
+        <v>3994550</v>
       </c>
       <c r="J86" s="19">
-        <v>3994550</v>
+        <v>2825957</v>
       </c>
       <c r="K86" s="19">
-        <v>2825957</v>
+        <v>4798068</v>
       </c>
       <c r="L86" s="19">
-        <v>4798068</v>
+        <v>4797480</v>
       </c>
       <c r="M86" s="19">
-        <v>4797480</v>
+        <v>4193075</v>
       </c>
       <c r="N86" s="19">
-        <v>4193075</v>
+        <v>4174126</v>
       </c>
       <c r="O86" s="19">
-        <v>4174126</v>
+        <v>4068991</v>
       </c>
       <c r="P86" s="19">
-        <v>4068991</v>
+        <v>3067641</v>
       </c>
       <c r="Q86" s="19">
-        <v>3067641</v>
+        <v>2789386</v>
       </c>
       <c r="R86" s="19">
-        <v>2789386</v>
+        <v>4216161</v>
       </c>
       <c r="S86" s="19">
-        <v>4216161</v>
+        <v>3429154</v>
       </c>
       <c r="T86" s="19">
-        <v>3429154</v>
+        <v>4906137</v>
       </c>
       <c r="U86" s="19">
-        <v>4906137</v>
+        <v>4139696</v>
       </c>
       <c r="V86" s="19">
-        <v>4139696</v>
+        <v>1494399</v>
       </c>
       <c r="W86" s="19">
-        <v>1494399</v>
+        <v>3040057</v>
       </c>
       <c r="X86" s="19">
-        <v>3040057</v>
+        <v>4533388</v>
       </c>
       <c r="Y86" s="19">
-        <v>4533388</v>
+        <v>5003773</v>
       </c>
       <c r="Z86" s="19">
-        <v>5003773</v>
+        <v>4814533</v>
       </c>
       <c r="AA86" s="19">
-        <v>4814533</v>
+        <v>5848132</v>
       </c>
       <c r="AB86" s="19">
-        <v>5848132</v>
+        <v>7320115</v>
       </c>
       <c r="AC86" s="19">
-        <v>7320115</v>
+        <v>6783459</v>
       </c>
       <c r="AD86" s="19">
-        <v>6783459</v>
+        <v>7913054</v>
       </c>
       <c r="AE86" s="19">
-        <v>7913054</v>
+        <v>8710611</v>
       </c>
       <c r="AF86" s="19">
-        <v>8710611</v>
+        <v>8289115</v>
       </c>
       <c r="AG86" s="19">
-        <v>8289115</v>
+        <v>8303574</v>
       </c>
       <c r="AH86" s="19">
-        <v>8303574</v>
+        <v>7468775</v>
       </c>
       <c r="AI86" s="19">
-        <v>7468775</v>
+        <v>9506819</v>
       </c>
       <c r="AJ86" s="19">
-        <v>9506819</v>
+        <v>11028015</v>
       </c>
       <c r="AK86" s="19">
-        <v>11028015</v>
+        <v>9942922</v>
       </c>
       <c r="AL86" s="19">
-        <v>9942922</v>
+        <v>11916444</v>
       </c>
       <c r="AM86" s="19">
-        <v>11916444</v>
+        <v>15484920</v>
       </c>
       <c r="AN86" s="19">
-        <v>15484920</v>
+        <v>11674012</v>
       </c>
       <c r="AO86" s="19">
-        <v>11674012</v>
+        <v>10875125</v>
       </c>
       <c r="AP86" s="19">
-        <v>10875125</v>
+        <v>12011104</v>
       </c>
       <c r="AQ86" s="19">
-        <v>12011104</v>
+        <v>10354889</v>
       </c>
       <c r="AR86" s="19">
-        <v>10354889</v>
+        <v>11108418</v>
       </c>
       <c r="AS86" s="19">
-        <v>11108418</v>
+        <v>10888591</v>
       </c>
       <c r="AT86" s="19">
-        <v>10888591</v>
+        <v>8635868</v>
       </c>
       <c r="AU86" s="19">
-        <v>8635868</v>
+        <v>15751129</v>
       </c>
       <c r="AV86" s="19">
-        <v>15751129</v>
+        <v>20819333</v>
       </c>
       <c r="AW86" s="19">
-        <v>20819333</v>
+        <v>18602346</v>
       </c>
       <c r="AX86" s="19">
-        <v>18602346</v>
+        <v>16410446</v>
       </c>
       <c r="AY86" s="19">
-        <v>16410446</v>
+        <v>15297080</v>
       </c>
       <c r="AZ86" s="19">
-        <v>15297080</v>
+        <v>11774920</v>
       </c>
       <c r="BA86" s="19">
-        <v>11774920</v>
+        <v>14597743</v>
       </c>
       <c r="BB86" s="19">
-        <v>14597743</v>
+        <v>13718005</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12319,101 +12319,101 @@
       <c r="L93" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M93" s="11" t="s">
-        <v>57</v>
+      <c r="M93" s="11">
+        <v>126529412</v>
       </c>
       <c r="N93" s="11">
-        <v>126529412</v>
+        <v>115623902</v>
       </c>
       <c r="O93" s="11">
-        <v>115623902</v>
+        <v>120493671</v>
       </c>
       <c r="P93" s="11">
-        <v>120493671</v>
+        <v>110111111</v>
       </c>
       <c r="Q93" s="11">
-        <v>110111111</v>
+        <v>95853968</v>
       </c>
       <c r="R93" s="11">
-        <v>95853968</v>
+        <v>106678571</v>
       </c>
       <c r="S93" s="11">
-        <v>106678571</v>
+        <v>85170455</v>
       </c>
       <c r="T93" s="11">
-        <v>85170455</v>
+        <v>118800000</v>
       </c>
       <c r="U93" s="11">
-        <v>118800000</v>
+        <v>117592593</v>
       </c>
       <c r="V93" s="11">
-        <v>117592593</v>
+        <v>113333333</v>
       </c>
       <c r="W93" s="11">
-        <v>113333333</v>
+        <v>115875000</v>
       </c>
       <c r="X93" s="11">
-        <v>115875000</v>
+        <v>135000000</v>
       </c>
       <c r="Y93" s="11">
-        <v>135000000</v>
+        <v>106593750</v>
       </c>
       <c r="Z93" s="11">
-        <v>106593750</v>
+        <v>210288462</v>
       </c>
       <c r="AA93" s="11">
-        <v>210288462</v>
+        <v>159056926</v>
       </c>
       <c r="AB93" s="11">
-        <v>159056926</v>
+        <v>217086705</v>
       </c>
       <c r="AC93" s="11">
-        <v>217086705</v>
+        <v>212571429</v>
       </c>
       <c r="AD93" s="11">
-        <v>212571429</v>
+        <v>219928270</v>
       </c>
       <c r="AE93" s="11">
-        <v>219928270</v>
+        <v>216153153</v>
       </c>
       <c r="AF93" s="11">
-        <v>216153153</v>
+        <v>238640000</v>
       </c>
       <c r="AG93" s="11">
-        <v>238640000</v>
+        <v>140000000</v>
       </c>
       <c r="AH93" s="11">
-        <v>140000000</v>
+        <v>196833333</v>
       </c>
       <c r="AI93" s="11">
-        <v>196833333</v>
+        <v>214030303</v>
       </c>
       <c r="AJ93" s="11">
-        <v>214030303</v>
+        <v>204100000</v>
       </c>
       <c r="AK93" s="11">
-        <v>204100000</v>
+        <v>335222222</v>
       </c>
       <c r="AL93" s="11">
-        <v>335222222</v>
+        <v>353613793</v>
       </c>
       <c r="AM93" s="11">
-        <v>353613793</v>
+        <v>363110912</v>
       </c>
       <c r="AN93" s="11">
-        <v>363110912</v>
+        <v>333688716</v>
       </c>
       <c r="AO93" s="11">
-        <v>333688716</v>
+        <v>377737226</v>
       </c>
       <c r="AP93" s="11">
-        <v>377737226</v>
+        <v>385072727</v>
       </c>
       <c r="AQ93" s="11">
-        <v>385072727</v>
-      </c>
-      <c r="AR93" s="11">
         <v>387150000</v>
+      </c>
+      <c r="AR93" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS93" s="11" t="s">
         <v>57</v>
@@ -12455,94 +12455,94 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>69979228</v>
+        <v>67636832</v>
       </c>
       <c r="F94" s="13">
-        <v>67636832</v>
+        <v>67719772</v>
       </c>
       <c r="G94" s="13">
-        <v>67719772</v>
+        <v>65181249</v>
       </c>
       <c r="H94" s="13">
-        <v>65181249</v>
+        <v>67646419</v>
       </c>
       <c r="I94" s="13">
-        <v>67646419</v>
+        <v>65193664</v>
       </c>
       <c r="J94" s="13">
-        <v>65193664</v>
+        <v>69116024</v>
       </c>
       <c r="K94" s="13">
-        <v>69116024</v>
+        <v>77350915</v>
       </c>
       <c r="L94" s="13">
-        <v>77350915</v>
+        <v>83111146</v>
       </c>
       <c r="M94" s="13">
-        <v>83111146</v>
+        <v>61702237</v>
       </c>
       <c r="N94" s="13">
-        <v>61702237</v>
+        <v>57578887</v>
       </c>
       <c r="O94" s="13">
-        <v>57578887</v>
+        <v>56261485</v>
       </c>
       <c r="P94" s="13">
-        <v>56261485</v>
+        <v>58672025</v>
       </c>
       <c r="Q94" s="13">
-        <v>58672025</v>
+        <v>54102649</v>
       </c>
       <c r="R94" s="13">
-        <v>54102649</v>
+        <v>61916745</v>
       </c>
       <c r="S94" s="13">
-        <v>61916745</v>
+        <v>55738971</v>
       </c>
       <c r="T94" s="13">
-        <v>55738971</v>
+        <v>63818938</v>
       </c>
       <c r="U94" s="13">
-        <v>63818938</v>
+        <v>68006772</v>
       </c>
       <c r="V94" s="13">
-        <v>68006772</v>
+        <v>65033794</v>
       </c>
       <c r="W94" s="13">
-        <v>65033794</v>
+        <v>51287822</v>
       </c>
       <c r="X94" s="13">
-        <v>51287822</v>
+        <v>60287077</v>
       </c>
       <c r="Y94" s="13">
-        <v>60287077</v>
+        <v>78769288</v>
       </c>
       <c r="Z94" s="13">
-        <v>78769288</v>
+        <v>85344239</v>
       </c>
       <c r="AA94" s="13">
-        <v>85344239</v>
+        <v>89206083</v>
       </c>
       <c r="AB94" s="13">
-        <v>89206083</v>
+        <v>108677842</v>
       </c>
       <c r="AC94" s="13">
-        <v>108677842</v>
+        <v>128428711</v>
       </c>
       <c r="AD94" s="13">
-        <v>128428711</v>
+        <v>143048476</v>
       </c>
       <c r="AE94" s="13">
-        <v>143048476</v>
+        <v>128566459</v>
       </c>
       <c r="AF94" s="13">
-        <v>128566459</v>
+        <v>153864621</v>
       </c>
       <c r="AG94" s="13">
-        <v>153864621</v>
-      </c>
-      <c r="AH94" s="13">
         <v>154647428</v>
+      </c>
+      <c r="AH94" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI94" s="13" t="s">
         <v>57</v>
@@ -12700,68 +12700,68 @@
       <c r="AG95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH95" s="11" t="s">
-        <v>57</v>
+      <c r="AH95" s="11">
+        <v>184400438</v>
       </c>
       <c r="AI95" s="11">
-        <v>184400438</v>
+        <v>199986839</v>
       </c>
       <c r="AJ95" s="11">
-        <v>199986839</v>
+        <v>208858972</v>
       </c>
       <c r="AK95" s="11">
-        <v>208858972</v>
+        <v>210713467</v>
       </c>
       <c r="AL95" s="11">
-        <v>210713467</v>
+        <v>216125356</v>
       </c>
       <c r="AM95" s="11">
-        <v>216125356</v>
+        <v>220843415</v>
       </c>
       <c r="AN95" s="11">
-        <v>220843415</v>
+        <v>227544237</v>
       </c>
       <c r="AO95" s="11">
-        <v>227544237</v>
+        <v>221598440</v>
       </c>
       <c r="AP95" s="11">
-        <v>221598440</v>
+        <v>214763396</v>
       </c>
       <c r="AQ95" s="11">
-        <v>214763396</v>
+        <v>213494651</v>
       </c>
       <c r="AR95" s="11">
-        <v>213494651</v>
+        <v>209329828</v>
       </c>
       <c r="AS95" s="11">
-        <v>209329828</v>
+        <v>207735906</v>
       </c>
       <c r="AT95" s="11">
-        <v>207735906</v>
+        <v>278141629</v>
       </c>
       <c r="AU95" s="11">
-        <v>278141629</v>
+        <v>259401327</v>
       </c>
       <c r="AV95" s="11">
-        <v>259401327</v>
+        <v>268276167</v>
       </c>
       <c r="AW95" s="11">
-        <v>268276167</v>
+        <v>299006480</v>
       </c>
       <c r="AX95" s="11">
-        <v>299006480</v>
+        <v>305100230</v>
       </c>
       <c r="AY95" s="11">
-        <v>305100230</v>
+        <v>267570489</v>
       </c>
       <c r="AZ95" s="11">
-        <v>267570489</v>
+        <v>264291296</v>
       </c>
       <c r="BA95" s="11">
-        <v>264291296</v>
+        <v>270733479</v>
       </c>
       <c r="BB95" s="11">
-        <v>270733530</v>
+        <v>251083470</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12859,68 +12859,68 @@
       <c r="AG96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH96" s="13" t="s">
-        <v>57</v>
+      <c r="AH96" s="13">
+        <v>138200192</v>
       </c>
       <c r="AI96" s="13">
-        <v>138200192</v>
+        <v>129418367</v>
       </c>
       <c r="AJ96" s="13">
-        <v>129418367</v>
+        <v>143336772</v>
       </c>
       <c r="AK96" s="13">
-        <v>143336772</v>
+        <v>160583137</v>
       </c>
       <c r="AL96" s="13">
-        <v>160583137</v>
+        <v>166863549</v>
       </c>
       <c r="AM96" s="13">
-        <v>166863549</v>
+        <v>175064703</v>
       </c>
       <c r="AN96" s="13">
-        <v>175064703</v>
+        <v>193072005</v>
       </c>
       <c r="AO96" s="13">
-        <v>193072005</v>
+        <v>215745962</v>
       </c>
       <c r="AP96" s="13">
-        <v>215745962</v>
+        <v>233302883</v>
       </c>
       <c r="AQ96" s="13">
-        <v>233302883</v>
+        <v>253872686</v>
       </c>
       <c r="AR96" s="13">
-        <v>253872686</v>
+        <v>223226066</v>
       </c>
       <c r="AS96" s="13">
-        <v>223226066</v>
+        <v>251307692</v>
       </c>
       <c r="AT96" s="13">
-        <v>251307692</v>
+        <v>307728261</v>
       </c>
       <c r="AU96" s="13">
-        <v>307728261</v>
+        <v>275125741</v>
       </c>
       <c r="AV96" s="13">
-        <v>275125741</v>
+        <v>299840622</v>
       </c>
       <c r="AW96" s="13">
-        <v>299840622</v>
+        <v>317597087</v>
       </c>
       <c r="AX96" s="13">
-        <v>317597087</v>
+        <v>307855586</v>
       </c>
       <c r="AY96" s="13">
-        <v>307855586</v>
+        <v>228333333</v>
       </c>
       <c r="AZ96" s="13">
-        <v>228333333</v>
+        <v>218574378</v>
       </c>
       <c r="BA96" s="13">
-        <v>218574378</v>
+        <v>225833786</v>
       </c>
       <c r="BB96" s="13">
-        <v>225835142</v>
+        <v>229348348</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -12955,131 +12955,131 @@
       <c r="L97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M97" s="11" t="s">
-        <v>57</v>
+      <c r="M97" s="11">
+        <v>101285714</v>
       </c>
       <c r="N97" s="11">
-        <v>101285714</v>
+        <v>99608696</v>
       </c>
       <c r="O97" s="11">
-        <v>99608696</v>
+        <v>101276923</v>
       </c>
       <c r="P97" s="11">
-        <v>101276923</v>
+        <v>105605634</v>
       </c>
       <c r="Q97" s="11">
-        <v>105605634</v>
+        <v>111939394</v>
       </c>
       <c r="R97" s="11">
-        <v>111939394</v>
+        <v>105676056</v>
       </c>
       <c r="S97" s="11">
-        <v>105676056</v>
+        <v>101560976</v>
       </c>
       <c r="T97" s="11">
-        <v>101560976</v>
+        <v>103636364</v>
       </c>
       <c r="U97" s="11">
-        <v>103636364</v>
+        <v>100672727</v>
       </c>
       <c r="V97" s="11">
-        <v>100672727</v>
+        <v>105444444</v>
       </c>
       <c r="W97" s="11">
-        <v>105444444</v>
+        <v>107016260</v>
       </c>
       <c r="X97" s="11">
-        <v>107016260</v>
+        <v>103711111</v>
       </c>
       <c r="Y97" s="11">
-        <v>103711111</v>
+        <v>97031746</v>
       </c>
       <c r="Z97" s="11">
-        <v>97031746</v>
+        <v>130444444</v>
       </c>
       <c r="AA97" s="11">
-        <v>130444444</v>
+        <v>106924528</v>
       </c>
       <c r="AB97" s="11">
-        <v>106924528</v>
+        <v>121257576</v>
       </c>
       <c r="AC97" s="11">
-        <v>121257576</v>
+        <v>157200000</v>
       </c>
       <c r="AD97" s="11">
-        <v>157200000</v>
+        <v>218152174</v>
       </c>
       <c r="AE97" s="11">
-        <v>218152174</v>
+        <v>218187500</v>
       </c>
       <c r="AF97" s="11">
-        <v>218187500</v>
+        <v>205285714</v>
       </c>
       <c r="AG97" s="11">
-        <v>205285714</v>
+        <v>193833333</v>
       </c>
       <c r="AH97" s="11">
-        <v>193833333</v>
+        <v>181500000</v>
       </c>
       <c r="AI97" s="11">
-        <v>181500000</v>
+        <v>220610390</v>
       </c>
       <c r="AJ97" s="11">
-        <v>220610390</v>
+        <v>221066667</v>
       </c>
       <c r="AK97" s="11">
-        <v>221066667</v>
+        <v>226454545</v>
       </c>
       <c r="AL97" s="11">
-        <v>226454545</v>
+        <v>230384615</v>
       </c>
       <c r="AM97" s="11">
-        <v>230384615</v>
-      </c>
-      <c r="AN97" s="11">
         <v>205000000</v>
       </c>
+      <c r="AN97" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AO97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP97" s="11" t="s">
-        <v>57</v>
+      <c r="AP97" s="11">
+        <v>275387097</v>
       </c>
       <c r="AQ97" s="11">
-        <v>275387097</v>
+        <v>268475000</v>
       </c>
       <c r="AR97" s="11">
-        <v>268475000</v>
+        <v>267373333</v>
       </c>
       <c r="AS97" s="11">
-        <v>267373333</v>
+        <v>274655462</v>
       </c>
       <c r="AT97" s="11">
-        <v>274655462</v>
+        <v>390571429</v>
       </c>
       <c r="AU97" s="11">
-        <v>390571429</v>
+        <v>404843137</v>
       </c>
       <c r="AV97" s="11">
-        <v>404843137</v>
+        <v>501500000</v>
       </c>
       <c r="AW97" s="11">
-        <v>501500000</v>
+        <v>373500000</v>
       </c>
       <c r="AX97" s="11">
-        <v>373500000</v>
-      </c>
-      <c r="AY97" s="11">
         <v>714500000</v>
       </c>
-      <c r="AZ97" s="11" t="s">
-        <v>57</v>
+      <c r="AY97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ97" s="11">
+        <v>362176471</v>
       </c>
       <c r="BA97" s="11">
-        <v>362176471</v>
+        <v>367812500</v>
       </c>
       <c r="BB97" s="11">
-        <v>367812500</v>
+        <v>508354167</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -13207,38 +13207,38 @@
       <c r="AQ98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR98" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT98" s="13" t="s">
-        <v>57</v>
+      <c r="AR98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT98" s="13">
+        <v>385800000</v>
       </c>
       <c r="AU98" s="13">
-        <v>385800000</v>
+        <v>349584615</v>
       </c>
       <c r="AV98" s="13">
-        <v>349584615</v>
+        <v>457268519</v>
       </c>
       <c r="AW98" s="13">
-        <v>457268519</v>
+        <v>545109375</v>
       </c>
       <c r="AX98" s="13">
-        <v>545109375</v>
+        <v>596875000</v>
       </c>
       <c r="AY98" s="13">
-        <v>596875000</v>
+        <v>332695652</v>
       </c>
       <c r="AZ98" s="13">
-        <v>332695652</v>
+        <v>444629630</v>
       </c>
       <c r="BA98" s="13">
-        <v>444629630</v>
+        <v>413661290</v>
       </c>
       <c r="BB98" s="13">
-        <v>413677419</v>
+        <v>374224490</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13250,31 +13250,31 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>53088390</v>
+        <v>47238747</v>
       </c>
       <c r="F99" s="11">
-        <v>47238747</v>
+        <v>44835622</v>
       </c>
       <c r="G99" s="11">
-        <v>44835622</v>
+        <v>38575515</v>
       </c>
       <c r="H99" s="11">
-        <v>38575515</v>
+        <v>33089273</v>
       </c>
       <c r="I99" s="11">
-        <v>33089273</v>
+        <v>48698922</v>
       </c>
       <c r="J99" s="11">
-        <v>48698922</v>
+        <v>41716553</v>
       </c>
       <c r="K99" s="11">
-        <v>41716553</v>
+        <v>47468288</v>
       </c>
       <c r="L99" s="11">
-        <v>47468288</v>
+        <v>53022171</v>
       </c>
       <c r="M99" s="11">
-        <v>53022171</v>
+        <v>0</v>
       </c>
       <c r="N99" s="11">
         <v>0</v>
@@ -13300,17 +13300,17 @@
       <c r="U99" s="11">
         <v>0</v>
       </c>
-      <c r="V99" s="11">
-        <v>0</v>
+      <c r="V99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y99" s="11">
+      <c r="X99" s="11">
         <v>64685185</v>
+      </c>
+      <c r="Y99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Z99" s="11" t="s">
         <v>57</v>
@@ -13495,68 +13495,68 @@
       <c r="AG100" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH100" s="13" t="s">
-        <v>57</v>
+      <c r="AH100" s="13">
+        <v>133847769</v>
       </c>
       <c r="AI100" s="13">
-        <v>133847769</v>
+        <v>139861677</v>
       </c>
       <c r="AJ100" s="13">
-        <v>139861677</v>
+        <v>139252250</v>
       </c>
       <c r="AK100" s="13">
-        <v>139252250</v>
+        <v>163596586</v>
       </c>
       <c r="AL100" s="13">
-        <v>163596586</v>
+        <v>174963969</v>
       </c>
       <c r="AM100" s="13">
-        <v>174963969</v>
+        <v>204416175</v>
       </c>
       <c r="AN100" s="13">
-        <v>204416175</v>
+        <v>223082783</v>
       </c>
       <c r="AO100" s="13">
-        <v>223082783</v>
+        <v>246831373</v>
       </c>
       <c r="AP100" s="13">
-        <v>246831373</v>
+        <v>248136951</v>
       </c>
       <c r="AQ100" s="13">
-        <v>248136951</v>
+        <v>247478121</v>
       </c>
       <c r="AR100" s="13">
-        <v>247478121</v>
+        <v>265229630</v>
       </c>
       <c r="AS100" s="13">
-        <v>265229630</v>
+        <v>243267758</v>
       </c>
       <c r="AT100" s="13">
-        <v>243267758</v>
+        <v>307451249</v>
       </c>
       <c r="AU100" s="13">
-        <v>307451249</v>
+        <v>288667078</v>
       </c>
       <c r="AV100" s="13">
-        <v>288667078</v>
+        <v>270942200</v>
       </c>
       <c r="AW100" s="13">
-        <v>270942200</v>
+        <v>275363329</v>
       </c>
       <c r="AX100" s="13">
-        <v>275363329</v>
+        <v>284998147</v>
       </c>
       <c r="AY100" s="13">
-        <v>284998147</v>
+        <v>246500756</v>
       </c>
       <c r="AZ100" s="13">
-        <v>246500756</v>
+        <v>243683435</v>
       </c>
       <c r="BA100" s="13">
-        <v>243683435</v>
+        <v>267870709</v>
       </c>
       <c r="BB100" s="13">
-        <v>267870709</v>
+        <v>246461020</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -13591,71 +13591,71 @@
       <c r="L101" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M101" s="11" t="s">
-        <v>57</v>
+      <c r="M101" s="11">
+        <v>74725435</v>
       </c>
       <c r="N101" s="11">
-        <v>74725435</v>
+        <v>68674340</v>
       </c>
       <c r="O101" s="11">
-        <v>68674340</v>
+        <v>65965901</v>
       </c>
       <c r="P101" s="11">
-        <v>65965901</v>
+        <v>62445774</v>
       </c>
       <c r="Q101" s="11">
-        <v>62445774</v>
+        <v>49258885</v>
       </c>
       <c r="R101" s="11">
-        <v>49258885</v>
+        <v>49554476</v>
       </c>
       <c r="S101" s="11">
-        <v>49554476</v>
+        <v>54462591</v>
       </c>
       <c r="T101" s="11">
-        <v>54462591</v>
+        <v>58363208</v>
       </c>
       <c r="U101" s="11">
-        <v>58363208</v>
+        <v>62641088</v>
       </c>
       <c r="V101" s="11">
-        <v>62641088</v>
+        <v>64395105</v>
       </c>
       <c r="W101" s="11">
-        <v>64395105</v>
+        <v>59552676</v>
       </c>
       <c r="X101" s="11">
-        <v>59552676</v>
+        <v>55397690</v>
       </c>
       <c r="Y101" s="11">
-        <v>55397690</v>
+        <v>64214918</v>
       </c>
       <c r="Z101" s="11">
-        <v>64214918</v>
+        <v>82249892</v>
       </c>
       <c r="AA101" s="11">
-        <v>82249892</v>
+        <v>102296971</v>
       </c>
       <c r="AB101" s="11">
-        <v>102296971</v>
+        <v>129022143</v>
       </c>
       <c r="AC101" s="11">
-        <v>129022143</v>
+        <v>130099107</v>
       </c>
       <c r="AD101" s="11">
-        <v>130099107</v>
+        <v>126418108</v>
       </c>
       <c r="AE101" s="11">
-        <v>126418108</v>
+        <v>134436423</v>
       </c>
       <c r="AF101" s="11">
-        <v>134436423</v>
+        <v>138004488</v>
       </c>
       <c r="AG101" s="11">
-        <v>138004488</v>
-      </c>
-      <c r="AH101" s="11">
         <v>137958618</v>
+      </c>
+      <c r="AH101" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI101" s="11" t="s">
         <v>57</v>
@@ -13813,68 +13813,68 @@
       <c r="AG102" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH102" s="13" t="s">
-        <v>57</v>
+      <c r="AH102" s="13">
+        <v>194038712</v>
       </c>
       <c r="AI102" s="13">
-        <v>194038712</v>
+        <v>185844002</v>
       </c>
       <c r="AJ102" s="13">
-        <v>185844002</v>
+        <v>191633662</v>
       </c>
       <c r="AK102" s="13">
-        <v>191633662</v>
+        <v>207034572</v>
       </c>
       <c r="AL102" s="13">
-        <v>207034572</v>
+        <v>266557542</v>
       </c>
       <c r="AM102" s="13">
-        <v>266557542</v>
+        <v>276804803</v>
       </c>
       <c r="AN102" s="13">
-        <v>276804803</v>
+        <v>283648710</v>
       </c>
       <c r="AO102" s="13">
-        <v>283648710</v>
+        <v>278359126</v>
       </c>
       <c r="AP102" s="13">
-        <v>278359126</v>
+        <v>298338299</v>
       </c>
       <c r="AQ102" s="13">
-        <v>298338299</v>
+        <v>284492266</v>
       </c>
       <c r="AR102" s="13">
-        <v>284492266</v>
+        <v>275051853</v>
       </c>
       <c r="AS102" s="13">
-        <v>275051853</v>
+        <v>287511997</v>
       </c>
       <c r="AT102" s="13">
-        <v>287511997</v>
+        <v>307232082</v>
       </c>
       <c r="AU102" s="13">
-        <v>307232082</v>
+        <v>297846133</v>
       </c>
       <c r="AV102" s="13">
-        <v>297846133</v>
+        <v>327208696</v>
       </c>
       <c r="AW102" s="13">
-        <v>327208696</v>
+        <v>349345660</v>
       </c>
       <c r="AX102" s="13">
-        <v>349345660</v>
+        <v>363048614</v>
       </c>
       <c r="AY102" s="13">
-        <v>363048614</v>
+        <v>351261072</v>
       </c>
       <c r="AZ102" s="13">
-        <v>351261072</v>
+        <v>351354511</v>
       </c>
       <c r="BA102" s="13">
-        <v>351354511</v>
+        <v>350523468</v>
       </c>
       <c r="BB102" s="13">
-        <v>350523468</v>
+        <v>350967768</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -13972,68 +13972,68 @@
       <c r="AG103" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH103" s="11" t="s">
-        <v>57</v>
+      <c r="AH103" s="11">
+        <v>231933333</v>
       </c>
       <c r="AI103" s="11">
-        <v>231933333</v>
+        <v>225449200</v>
       </c>
       <c r="AJ103" s="11">
-        <v>225449200</v>
+        <v>241518872</v>
       </c>
       <c r="AK103" s="11">
-        <v>241518872</v>
+        <v>271007274</v>
       </c>
       <c r="AL103" s="11">
-        <v>271007274</v>
+        <v>344920866</v>
       </c>
       <c r="AM103" s="11">
-        <v>344920866</v>
+        <v>329560702</v>
       </c>
       <c r="AN103" s="11">
-        <v>329560702</v>
+        <v>374212121</v>
       </c>
       <c r="AO103" s="11">
-        <v>374212121</v>
+        <v>345847731</v>
       </c>
       <c r="AP103" s="11">
-        <v>345847731</v>
+        <v>352599464</v>
       </c>
       <c r="AQ103" s="11">
-        <v>352599464</v>
+        <v>384870778</v>
       </c>
       <c r="AR103" s="11">
-        <v>384870778</v>
+        <v>347291606</v>
       </c>
       <c r="AS103" s="11">
-        <v>347291606</v>
+        <v>380364995</v>
       </c>
       <c r="AT103" s="11">
-        <v>380364995</v>
+        <v>410766879</v>
       </c>
       <c r="AU103" s="11">
-        <v>410766879</v>
+        <v>432674669</v>
       </c>
       <c r="AV103" s="11">
-        <v>432674669</v>
+        <v>466940386</v>
       </c>
       <c r="AW103" s="11">
-        <v>466940386</v>
+        <v>530194170</v>
       </c>
       <c r="AX103" s="11">
-        <v>530194170</v>
+        <v>516463242</v>
       </c>
       <c r="AY103" s="11">
-        <v>516463242</v>
+        <v>486885197</v>
       </c>
       <c r="AZ103" s="11">
-        <v>486885197</v>
+        <v>452367180</v>
       </c>
       <c r="BA103" s="11">
-        <v>452367180</v>
+        <v>428940490</v>
       </c>
       <c r="BB103" s="11">
-        <v>428940490</v>
+        <v>381226618</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -14131,68 +14131,68 @@
       <c r="AG104" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH104" s="13" t="s">
-        <v>57</v>
+      <c r="AH104" s="13">
+        <v>243934706</v>
       </c>
       <c r="AI104" s="13">
-        <v>243934706</v>
+        <v>253634622</v>
       </c>
       <c r="AJ104" s="13">
-        <v>253634622</v>
+        <v>257646915</v>
       </c>
       <c r="AK104" s="13">
-        <v>257646915</v>
+        <v>263179549</v>
       </c>
       <c r="AL104" s="13">
-        <v>263179549</v>
+        <v>264720839</v>
       </c>
       <c r="AM104" s="13">
-        <v>264720839</v>
+        <v>280414199</v>
       </c>
       <c r="AN104" s="13">
-        <v>280414199</v>
+        <v>275922260</v>
       </c>
       <c r="AO104" s="13">
-        <v>275922260</v>
+        <v>323774706</v>
       </c>
       <c r="AP104" s="13">
-        <v>323774706</v>
+        <v>352261117</v>
       </c>
       <c r="AQ104" s="13">
-        <v>352261117</v>
+        <v>325539741</v>
       </c>
       <c r="AR104" s="13">
-        <v>325539741</v>
+        <v>330793454</v>
       </c>
       <c r="AS104" s="13">
-        <v>330793454</v>
+        <v>342526555</v>
       </c>
       <c r="AT104" s="13">
-        <v>342526555</v>
+        <v>376531754</v>
       </c>
       <c r="AU104" s="13">
-        <v>376531754</v>
+        <v>419756695</v>
       </c>
       <c r="AV104" s="13">
-        <v>419756695</v>
+        <v>425361890</v>
       </c>
       <c r="AW104" s="13">
-        <v>425361890</v>
+        <v>407796855</v>
       </c>
       <c r="AX104" s="13">
-        <v>407796855</v>
+        <v>416055066</v>
       </c>
       <c r="AY104" s="13">
-        <v>416055066</v>
+        <v>433681204</v>
       </c>
       <c r="AZ104" s="13">
-        <v>433681204</v>
+        <v>415119911</v>
       </c>
       <c r="BA104" s="13">
-        <v>415119911</v>
+        <v>419146804</v>
       </c>
       <c r="BB104" s="13">
-        <v>419146804</v>
+        <v>382127772</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.3">
@@ -14290,68 +14290,68 @@
       <c r="AG105" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH105" s="11" t="s">
-        <v>57</v>
+      <c r="AH105" s="11">
+        <v>245346835</v>
       </c>
       <c r="AI105" s="11">
-        <v>245346835</v>
+        <v>253357562</v>
       </c>
       <c r="AJ105" s="11">
-        <v>253357562</v>
+        <v>307887776</v>
       </c>
       <c r="AK105" s="11">
-        <v>307887776</v>
+        <v>309535797</v>
       </c>
       <c r="AL105" s="11">
-        <v>309535797</v>
+        <v>318991304</v>
       </c>
       <c r="AM105" s="11">
-        <v>318991304</v>
+        <v>299095519</v>
       </c>
       <c r="AN105" s="11">
-        <v>299095519</v>
+        <v>369393220</v>
       </c>
       <c r="AO105" s="11">
-        <v>369393220</v>
+        <v>386710345</v>
       </c>
       <c r="AP105" s="11">
-        <v>386710345</v>
+        <v>379030637</v>
       </c>
       <c r="AQ105" s="11">
-        <v>379030637</v>
+        <v>358500990</v>
       </c>
       <c r="AR105" s="11">
-        <v>358500990</v>
+        <v>319500867</v>
       </c>
       <c r="AS105" s="11">
-        <v>319500867</v>
+        <v>374261023</v>
       </c>
       <c r="AT105" s="11">
-        <v>374261023</v>
+        <v>474303828</v>
       </c>
       <c r="AU105" s="11">
-        <v>474303828</v>
+        <v>435325843</v>
       </c>
       <c r="AV105" s="11">
-        <v>435325843</v>
+        <v>445188377</v>
       </c>
       <c r="AW105" s="11">
-        <v>445188377</v>
+        <v>543872832</v>
       </c>
       <c r="AX105" s="11">
-        <v>543872832</v>
+        <v>607760300</v>
       </c>
       <c r="AY105" s="11">
-        <v>607760300</v>
+        <v>470963415</v>
       </c>
       <c r="AZ105" s="11">
-        <v>470963415</v>
+        <v>458327434</v>
       </c>
       <c r="BA105" s="11">
-        <v>458327434</v>
+        <v>470227684</v>
       </c>
       <c r="BB105" s="11">
-        <v>470227684</v>
+        <v>426730277</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14449,68 +14449,68 @@
       <c r="AG106" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH106" s="13" t="s">
-        <v>57</v>
+      <c r="AH106" s="13">
+        <v>67280908</v>
       </c>
       <c r="AI106" s="13">
-        <v>67280908</v>
+        <v>68297687</v>
       </c>
       <c r="AJ106" s="13">
-        <v>68297687</v>
+        <v>68402693</v>
       </c>
       <c r="AK106" s="13">
-        <v>68402693</v>
+        <v>75298658</v>
       </c>
       <c r="AL106" s="13">
-        <v>75298658</v>
+        <v>74633083</v>
       </c>
       <c r="AM106" s="13">
-        <v>74633083</v>
+        <v>83458331</v>
       </c>
       <c r="AN106" s="13">
-        <v>83458331</v>
+        <v>94604423</v>
       </c>
       <c r="AO106" s="13">
-        <v>94604423</v>
+        <v>90682401</v>
       </c>
       <c r="AP106" s="13">
-        <v>90682401</v>
+        <v>92319085</v>
       </c>
       <c r="AQ106" s="13">
-        <v>92319085</v>
+        <v>98020666</v>
       </c>
       <c r="AR106" s="13">
-        <v>98020666</v>
+        <v>106175638</v>
       </c>
       <c r="AS106" s="13">
-        <v>106175638</v>
+        <v>114310582</v>
       </c>
       <c r="AT106" s="13">
-        <v>114310582</v>
+        <v>149330616</v>
       </c>
       <c r="AU106" s="13">
-        <v>149330616</v>
+        <v>139444686</v>
       </c>
       <c r="AV106" s="13">
-        <v>139444686</v>
+        <v>140482949</v>
       </c>
       <c r="AW106" s="13">
-        <v>140482949</v>
+        <v>121533933</v>
       </c>
       <c r="AX106" s="13">
-        <v>121533933</v>
+        <v>117806593</v>
       </c>
       <c r="AY106" s="13">
-        <v>117806593</v>
+        <v>92033746</v>
       </c>
       <c r="AZ106" s="13">
-        <v>92033746</v>
+        <v>92857414</v>
       </c>
       <c r="BA106" s="13">
-        <v>92857414</v>
+        <v>92180523</v>
       </c>
       <c r="BB106" s="13">
-        <v>92180523</v>
+        <v>85554434</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -14614,15 +14614,15 @@
       <c r="AI107" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ107" s="11" t="s">
-        <v>57</v>
+      <c r="AJ107" s="11">
+        <v>130085828</v>
       </c>
       <c r="AK107" s="11">
-        <v>130085828</v>
-      </c>
-      <c r="AL107" s="11">
         <v>129865424</v>
       </c>
+      <c r="AL107" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AM107" s="11" t="s">
         <v>57</v>
       </c>
@@ -14638,11 +14638,11 @@
       <c r="AQ107" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR107" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS107" s="11">
-        <v>0</v>
+      <c r="AR107" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS107" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT107" s="11" t="s">
         <v>57</v>

--- a/database/industries/ravankar/shaspa/product/monthly.xlsx
+++ b/database/industries/ravankar/shaspa/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B101617A-7B28-47A3-9081-60FBB5E0E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADCF494-36FA-4461-B1D2-C924707ABDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>ضد یخ</t>
@@ -766,12 +766,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -826,7 +826,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -995,7 +995,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1376,7 +1376,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1459,104 +1459,104 @@
       <c r="J11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>57</v>
+      <c r="K11" s="11">
+        <v>562</v>
+      </c>
+      <c r="L11" s="11">
+        <v>182</v>
       </c>
       <c r="M11" s="11">
-        <v>562</v>
+        <v>160</v>
       </c>
       <c r="N11" s="11">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="O11" s="11">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="P11" s="11">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R11" s="11">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="S11" s="11">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T11" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U11" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V11" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="W11" s="11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X11" s="11">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="Y11" s="11">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="Z11" s="11">
-        <v>190</v>
+        <v>382</v>
       </c>
       <c r="AA11" s="11">
-        <v>333</v>
+        <v>541</v>
       </c>
       <c r="AB11" s="11">
-        <v>382</v>
+        <v>113</v>
       </c>
       <c r="AC11" s="11">
-        <v>541</v>
+        <v>133</v>
       </c>
       <c r="AD11" s="11">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="11">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="11">
         <v>0</v>
       </c>
       <c r="AG11" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH11" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI11" s="11">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="AJ11" s="11">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="AK11" s="11">
-        <v>108</v>
+        <v>617</v>
       </c>
       <c r="AL11" s="11">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="AM11" s="11">
-        <v>617</v>
+        <v>351</v>
       </c>
       <c r="AN11" s="11">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AO11" s="11">
-        <v>351</v>
+        <v>56</v>
       </c>
       <c r="AP11" s="11">
-        <v>122</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR11" s="11" t="s">
         <v>57</v>
@@ -1592,7 +1592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1601,92 +1601,92 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>33370</v>
+        <v>33859</v>
       </c>
       <c r="F12" s="13">
-        <v>27029</v>
+        <v>23992</v>
       </c>
       <c r="G12" s="13">
-        <v>33859</v>
+        <v>29749</v>
       </c>
       <c r="H12" s="13">
-        <v>23992</v>
+        <v>37254</v>
       </c>
       <c r="I12" s="13">
-        <v>29749</v>
+        <v>35057</v>
       </c>
       <c r="J12" s="13">
-        <v>37254</v>
+        <v>37423</v>
       </c>
       <c r="K12" s="13">
-        <v>35057</v>
+        <v>59285</v>
       </c>
       <c r="L12" s="13">
-        <v>37423</v>
+        <v>54904</v>
       </c>
       <c r="M12" s="13">
-        <v>59285</v>
+        <v>58824</v>
       </c>
       <c r="N12" s="13">
-        <v>54904</v>
+        <v>58142</v>
       </c>
       <c r="O12" s="13">
-        <v>58824</v>
+        <v>57003</v>
       </c>
       <c r="P12" s="13">
-        <v>58142</v>
+        <v>51182</v>
       </c>
       <c r="Q12" s="13">
-        <v>57003</v>
+        <v>61196</v>
       </c>
       <c r="R12" s="13">
-        <v>51182</v>
+        <v>51984</v>
       </c>
       <c r="S12" s="13">
-        <v>61196</v>
+        <v>51670</v>
       </c>
       <c r="T12" s="13">
-        <v>51984</v>
+        <v>56834</v>
       </c>
       <c r="U12" s="13">
-        <v>51670</v>
+        <v>51261</v>
       </c>
       <c r="V12" s="13">
-        <v>56834</v>
+        <v>56769</v>
       </c>
       <c r="W12" s="13">
-        <v>51261</v>
+        <v>40145</v>
       </c>
       <c r="X12" s="13">
-        <v>56769</v>
+        <v>61948</v>
       </c>
       <c r="Y12" s="13">
-        <v>40145</v>
+        <v>52547</v>
       </c>
       <c r="Z12" s="13">
-        <v>61948</v>
+        <v>65310</v>
       </c>
       <c r="AA12" s="13">
-        <v>52547</v>
+        <v>58240</v>
       </c>
       <c r="AB12" s="13">
-        <v>65310</v>
+        <v>55875</v>
       </c>
       <c r="AC12" s="13">
-        <v>58240</v>
+        <v>48926</v>
       </c>
       <c r="AD12" s="13">
-        <v>55875</v>
+        <v>52008</v>
       </c>
       <c r="AE12" s="13">
-        <v>48926</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>52008</v>
-      </c>
-      <c r="AG12" s="13">
         <v>46515</v>
       </c>
+      <c r="AF12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1840,77 +1840,77 @@
       <c r="AE13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG13" s="11" t="s">
-        <v>57</v>
+      <c r="AF13" s="11">
+        <v>25684</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>22010</v>
       </c>
       <c r="AH13" s="11">
-        <v>25684</v>
+        <v>22668</v>
       </c>
       <c r="AI13" s="11">
-        <v>22010</v>
+        <v>31693</v>
       </c>
       <c r="AJ13" s="11">
-        <v>22668</v>
+        <v>23360</v>
       </c>
       <c r="AK13" s="11">
-        <v>31693</v>
+        <v>24932</v>
       </c>
       <c r="AL13" s="11">
-        <v>23360</v>
+        <v>24847</v>
       </c>
       <c r="AM13" s="11">
-        <v>24932</v>
+        <v>34431</v>
       </c>
       <c r="AN13" s="11">
-        <v>24847</v>
+        <v>23879</v>
       </c>
       <c r="AO13" s="11">
-        <v>34431</v>
+        <v>23374</v>
       </c>
       <c r="AP13" s="11">
-        <v>23879</v>
+        <v>27249</v>
       </c>
       <c r="AQ13" s="11">
-        <v>23374</v>
+        <v>23229</v>
       </c>
       <c r="AR13" s="11">
-        <v>27251</v>
+        <v>28726</v>
       </c>
       <c r="AS13" s="11">
-        <v>23229</v>
+        <v>27131</v>
       </c>
       <c r="AT13" s="11">
-        <v>28726</v>
+        <v>23761</v>
       </c>
       <c r="AU13" s="11">
-        <v>27131</v>
+        <v>29220</v>
       </c>
       <c r="AV13" s="11">
-        <v>23761</v>
+        <v>18706</v>
       </c>
       <c r="AW13" s="11">
-        <v>29220</v>
+        <v>15211</v>
       </c>
       <c r="AX13" s="11">
-        <v>18706</v>
+        <v>23593</v>
       </c>
       <c r="AY13" s="11">
-        <v>15211</v>
+        <v>19495</v>
       </c>
       <c r="AZ13" s="11">
-        <v>23593</v>
+        <v>19336</v>
       </c>
       <c r="BA13" s="11">
-        <v>19495</v>
+        <v>16301</v>
       </c>
       <c r="BB13" s="11">
-        <v>19336</v>
+        <v>13797</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1999,77 +1999,77 @@
       <c r="AE14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>57</v>
+      <c r="AF14" s="13">
+        <v>2881</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>1600</v>
       </c>
       <c r="AH14" s="13">
-        <v>2881</v>
+        <v>2149</v>
       </c>
       <c r="AI14" s="13">
-        <v>1600</v>
+        <v>2279</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2149</v>
+        <v>2201</v>
       </c>
       <c r="AK14" s="13">
-        <v>2279</v>
+        <v>2521</v>
       </c>
       <c r="AL14" s="13">
-        <v>2201</v>
+        <v>1335</v>
       </c>
       <c r="AM14" s="13">
-        <v>2521</v>
+        <v>2020</v>
       </c>
       <c r="AN14" s="13">
-        <v>1335</v>
+        <v>2975</v>
       </c>
       <c r="AO14" s="13">
-        <v>2020</v>
+        <v>805</v>
       </c>
       <c r="AP14" s="13">
-        <v>2975</v>
+        <v>862</v>
       </c>
       <c r="AQ14" s="13">
-        <v>805</v>
+        <v>1028</v>
       </c>
       <c r="AR14" s="13">
-        <v>631</v>
+        <v>774</v>
       </c>
       <c r="AS14" s="13">
+        <v>1700</v>
+      </c>
+      <c r="AT14" s="13">
         <v>1028</v>
       </c>
-      <c r="AT14" s="13">
-        <v>774</v>
-      </c>
       <c r="AU14" s="13">
-        <v>1700</v>
+        <v>837</v>
       </c>
       <c r="AV14" s="13">
-        <v>1028</v>
+        <v>1143</v>
       </c>
       <c r="AW14" s="13">
-        <v>837</v>
+        <v>3936</v>
       </c>
       <c r="AX14" s="13">
-        <v>1143</v>
+        <v>6250</v>
       </c>
       <c r="AY14" s="13">
-        <v>3936</v>
+        <v>3295</v>
       </c>
       <c r="AZ14" s="13">
-        <v>6250</v>
+        <v>4352</v>
       </c>
       <c r="BA14" s="13">
-        <v>3295</v>
+        <v>987</v>
       </c>
       <c r="BB14" s="13">
-        <v>4352</v>
+        <v>1893</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2095,38 +2095,38 @@
       <c r="J15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>57</v>
+      <c r="K15" s="11">
+        <v>68</v>
+      </c>
+      <c r="L15" s="11">
+        <v>93</v>
       </c>
       <c r="M15" s="11">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N15" s="11">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="O15" s="11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P15" s="11">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="11">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="R15" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S15" s="11">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="T15" s="11">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="U15" s="11">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="V15" s="11">
         <v>0</v>
@@ -2138,97 +2138,97 @@
         <v>0</v>
       </c>
       <c r="Y15" s="11">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="Z15" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA15" s="11">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="11">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="AC15" s="11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AD15" s="11">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="11">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AF15" s="11">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AG15" s="11">
+        <v>144</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>148</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>45</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>62</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>70</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>147</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>86</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>3</v>
+      </c>
+      <c r="AY15" s="11">
+        <v>48</v>
+      </c>
+      <c r="AZ15" s="11">
         <v>136</v>
       </c>
-      <c r="AH15" s="11">
-        <v>52</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>144</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>148</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>45</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>62</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>70</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>147</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>86</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>1</v>
-      </c>
-      <c r="AZ15" s="11">
-        <v>3</v>
-      </c>
       <c r="BA15" s="11">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="BB15" s="11">
-        <v>136</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2350,44 +2350,44 @@
       <c r="AP16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ16" s="13" t="s">
-        <v>57</v>
+      <c r="AQ16" s="13">
+        <v>0</v>
       </c>
       <c r="AR16" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AS16" s="13">
         <v>0</v>
       </c>
       <c r="AT16" s="13">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="AU16" s="13">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="AV16" s="13">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AW16" s="13">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="13">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="AY16" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AZ16" s="13">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="BA16" s="13">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="BB16" s="13">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2396,28 +2396,28 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>21739</v>
+        <v>20609</v>
       </c>
       <c r="F17" s="11">
-        <v>26989</v>
+        <v>24948</v>
       </c>
       <c r="G17" s="11">
-        <v>20609</v>
+        <v>23462</v>
       </c>
       <c r="H17" s="11">
-        <v>24948</v>
+        <v>29484</v>
       </c>
       <c r="I17" s="11">
-        <v>23462</v>
+        <v>19449</v>
       </c>
       <c r="J17" s="11">
-        <v>29484</v>
+        <v>24556</v>
       </c>
       <c r="K17" s="11">
-        <v>19449</v>
+        <v>0</v>
       </c>
       <c r="L17" s="11">
-        <v>24556</v>
+        <v>0</v>
       </c>
       <c r="M17" s="11">
         <v>0</v>
@@ -2440,11 +2440,11 @@
       <c r="S17" s="11">
         <v>0</v>
       </c>
-      <c r="T17" s="11">
-        <v>0</v>
-      </c>
-      <c r="U17" s="11">
-        <v>0</v>
+      <c r="T17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V17" s="11" t="s">
         <v>57</v>
@@ -2546,7 +2546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2635,77 +2635,77 @@
       <c r="AE18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG18" s="13" t="s">
-        <v>57</v>
+      <c r="AF18" s="13">
+        <v>2515</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>4031</v>
       </c>
       <c r="AH18" s="13">
-        <v>2515</v>
+        <v>3735</v>
       </c>
       <c r="AI18" s="13">
-        <v>4031</v>
+        <v>3730</v>
       </c>
       <c r="AJ18" s="13">
-        <v>3735</v>
+        <v>3549</v>
       </c>
       <c r="AK18" s="13">
-        <v>3730</v>
+        <v>2789</v>
       </c>
       <c r="AL18" s="13">
-        <v>3549</v>
+        <v>4285</v>
       </c>
       <c r="AM18" s="13">
-        <v>2789</v>
+        <v>3439</v>
       </c>
       <c r="AN18" s="13">
-        <v>4285</v>
+        <v>2684</v>
       </c>
       <c r="AO18" s="13">
-        <v>3439</v>
+        <v>4166</v>
       </c>
       <c r="AP18" s="13">
-        <v>2684</v>
+        <v>4302</v>
       </c>
       <c r="AQ18" s="13">
-        <v>4166</v>
+        <v>3517</v>
       </c>
       <c r="AR18" s="13">
-        <v>4533</v>
+        <v>5317</v>
       </c>
       <c r="AS18" s="13">
-        <v>3517</v>
+        <v>4504</v>
       </c>
       <c r="AT18" s="13">
-        <v>5317</v>
+        <v>4506</v>
       </c>
       <c r="AU18" s="13">
-        <v>4504</v>
+        <v>2283</v>
       </c>
       <c r="AV18" s="13">
-        <v>4506</v>
+        <v>3342</v>
       </c>
       <c r="AW18" s="13">
-        <v>2283</v>
+        <v>1068</v>
       </c>
       <c r="AX18" s="13">
-        <v>3342</v>
+        <v>230</v>
       </c>
       <c r="AY18" s="13">
-        <v>1068</v>
+        <v>2349</v>
       </c>
       <c r="AZ18" s="13">
-        <v>230</v>
+        <v>536</v>
       </c>
       <c r="BA18" s="13">
-        <v>2349</v>
+        <v>4721</v>
       </c>
       <c r="BB18" s="13">
-        <v>536</v>
+        <v>3666</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2731,75 +2731,75 @@
       <c r="J19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>57</v>
+      <c r="K19" s="11">
+        <v>6065</v>
+      </c>
+      <c r="L19" s="11">
+        <v>6287</v>
       </c>
       <c r="M19" s="11">
-        <v>6065</v>
+        <v>5387</v>
       </c>
       <c r="N19" s="11">
-        <v>6287</v>
+        <v>5916</v>
       </c>
       <c r="O19" s="11">
-        <v>5387</v>
+        <v>6225</v>
       </c>
       <c r="P19" s="11">
-        <v>5916</v>
+        <v>6322</v>
       </c>
       <c r="Q19" s="11">
-        <v>6225</v>
+        <v>5947</v>
       </c>
       <c r="R19" s="11">
-        <v>6322</v>
+        <v>4950</v>
       </c>
       <c r="S19" s="11">
-        <v>5947</v>
+        <v>5307</v>
       </c>
       <c r="T19" s="11">
-        <v>4950</v>
+        <v>6024</v>
       </c>
       <c r="U19" s="11">
-        <v>5307</v>
+        <v>5101</v>
       </c>
       <c r="V19" s="11">
-        <v>6024</v>
+        <v>5042</v>
       </c>
       <c r="W19" s="11">
-        <v>5101</v>
+        <v>4890</v>
       </c>
       <c r="X19" s="11">
-        <v>5042</v>
+        <v>5561</v>
       </c>
       <c r="Y19" s="11">
-        <v>4890</v>
+        <v>5547</v>
       </c>
       <c r="Z19" s="11">
-        <v>5561</v>
+        <v>5524</v>
       </c>
       <c r="AA19" s="11">
-        <v>5547</v>
+        <v>5333</v>
       </c>
       <c r="AB19" s="11">
-        <v>5524</v>
+        <v>5062</v>
       </c>
       <c r="AC19" s="11">
-        <v>5333</v>
+        <v>6513</v>
       </c>
       <c r="AD19" s="11">
-        <v>5062</v>
+        <v>4245</v>
       </c>
       <c r="AE19" s="11">
-        <v>6513</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>4245</v>
-      </c>
-      <c r="AG19" s="11">
         <v>5222</v>
       </c>
+      <c r="AF19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH19" s="11" t="s">
         <v>57</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2953,77 +2953,77 @@
       <c r="AE20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>57</v>
+      <c r="AF20" s="13">
+        <v>6782</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>3941</v>
       </c>
       <c r="AH20" s="13">
-        <v>6782</v>
+        <v>7096</v>
       </c>
       <c r="AI20" s="13">
-        <v>3941</v>
+        <v>10629</v>
       </c>
       <c r="AJ20" s="13">
-        <v>7096</v>
+        <v>7746</v>
       </c>
       <c r="AK20" s="13">
-        <v>10629</v>
+        <v>5883</v>
       </c>
       <c r="AL20" s="13">
-        <v>7746</v>
+        <v>5093</v>
       </c>
       <c r="AM20" s="13">
-        <v>5883</v>
+        <v>5885</v>
       </c>
       <c r="AN20" s="13">
-        <v>5093</v>
+        <v>6347</v>
       </c>
       <c r="AO20" s="13">
-        <v>5885</v>
+        <v>3833</v>
       </c>
       <c r="AP20" s="13">
-        <v>6347</v>
+        <v>3509</v>
       </c>
       <c r="AQ20" s="13">
-        <v>3833</v>
+        <v>3382</v>
       </c>
       <c r="AR20" s="13">
-        <v>3509</v>
+        <v>3741</v>
       </c>
       <c r="AS20" s="13">
-        <v>3382</v>
+        <v>2390</v>
       </c>
       <c r="AT20" s="13">
-        <v>3621</v>
+        <v>6031</v>
       </c>
       <c r="AU20" s="13">
-        <v>2377</v>
+        <v>4816</v>
       </c>
       <c r="AV20" s="13">
-        <v>6031</v>
+        <v>6863</v>
       </c>
       <c r="AW20" s="13">
-        <v>4816</v>
+        <v>9155</v>
       </c>
       <c r="AX20" s="13">
-        <v>6863</v>
+        <v>3954</v>
       </c>
       <c r="AY20" s="13">
-        <v>9155</v>
+        <v>2339</v>
       </c>
       <c r="AZ20" s="13">
-        <v>3954</v>
+        <v>4804</v>
       </c>
       <c r="BA20" s="13">
-        <v>2339</v>
+        <v>7060</v>
       </c>
       <c r="BB20" s="13">
-        <v>4804</v>
+        <v>8564</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3112,77 +3112,77 @@
       <c r="AE21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG21" s="11" t="s">
-        <v>57</v>
+      <c r="AF21" s="11">
+        <v>9454</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>2089</v>
       </c>
       <c r="AH21" s="11">
-        <v>9454</v>
+        <v>5252</v>
       </c>
       <c r="AI21" s="11">
-        <v>2089</v>
+        <v>6498</v>
       </c>
       <c r="AJ21" s="11">
-        <v>5252</v>
+        <v>7632</v>
       </c>
       <c r="AK21" s="11">
-        <v>6498</v>
+        <v>3730</v>
       </c>
       <c r="AL21" s="11">
-        <v>7632</v>
+        <v>5787</v>
       </c>
       <c r="AM21" s="11">
-        <v>3730</v>
+        <v>5118</v>
       </c>
       <c r="AN21" s="11">
-        <v>5787</v>
+        <v>3478</v>
       </c>
       <c r="AO21" s="11">
-        <v>5118</v>
+        <v>6376</v>
       </c>
       <c r="AP21" s="11">
-        <v>3478</v>
+        <v>5315</v>
       </c>
       <c r="AQ21" s="11">
-        <v>6376</v>
+        <v>3802</v>
       </c>
       <c r="AR21" s="11">
-        <v>5315</v>
+        <v>2714</v>
       </c>
       <c r="AS21" s="11">
-        <v>3802</v>
+        <v>4387</v>
       </c>
       <c r="AT21" s="11">
-        <v>2714</v>
+        <v>3295</v>
       </c>
       <c r="AU21" s="11">
-        <v>4387</v>
+        <v>2728</v>
       </c>
       <c r="AV21" s="11">
-        <v>3295</v>
+        <v>6783</v>
       </c>
       <c r="AW21" s="11">
-        <v>2728</v>
+        <v>6788</v>
       </c>
       <c r="AX21" s="11">
-        <v>6783</v>
+        <v>7551</v>
       </c>
       <c r="AY21" s="11">
-        <v>6788</v>
+        <v>9744</v>
       </c>
       <c r="AZ21" s="11">
-        <v>7551</v>
+        <v>8680</v>
       </c>
       <c r="BA21" s="11">
-        <v>9744</v>
+        <v>7919</v>
       </c>
       <c r="BB21" s="11">
-        <v>8680</v>
+        <v>8340</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3271,77 +3271,77 @@
       <c r="AE22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>57</v>
+      <c r="AF22" s="13">
+        <v>2541</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>2391</v>
       </c>
       <c r="AH22" s="13">
-        <v>2541</v>
+        <v>1973</v>
       </c>
       <c r="AI22" s="13">
-        <v>2391</v>
+        <v>3224</v>
       </c>
       <c r="AJ22" s="13">
-        <v>1973</v>
+        <v>2955</v>
       </c>
       <c r="AK22" s="13">
-        <v>3224</v>
+        <v>2139</v>
       </c>
       <c r="AL22" s="13">
-        <v>2955</v>
+        <v>2824</v>
       </c>
       <c r="AM22" s="13">
-        <v>2139</v>
+        <v>1766</v>
       </c>
       <c r="AN22" s="13">
-        <v>2824</v>
+        <v>1844</v>
       </c>
       <c r="AO22" s="13">
-        <v>1766</v>
+        <v>1222</v>
       </c>
       <c r="AP22" s="13">
-        <v>1844</v>
+        <v>2697</v>
       </c>
       <c r="AQ22" s="13">
-        <v>1222</v>
+        <v>810</v>
       </c>
       <c r="AR22" s="13">
-        <v>2693</v>
+        <v>1503</v>
       </c>
       <c r="AS22" s="13">
-        <v>810</v>
+        <v>2330</v>
       </c>
       <c r="AT22" s="13">
-        <v>1503</v>
+        <v>2315</v>
       </c>
       <c r="AU22" s="13">
-        <v>2330</v>
+        <v>1504</v>
       </c>
       <c r="AV22" s="13">
-        <v>2315</v>
+        <v>1543</v>
       </c>
       <c r="AW22" s="13">
-        <v>1504</v>
+        <v>1818</v>
       </c>
       <c r="AX22" s="13">
-        <v>1543</v>
+        <v>1796</v>
       </c>
       <c r="AY22" s="13">
-        <v>1818</v>
+        <v>1693</v>
       </c>
       <c r="AZ22" s="13">
-        <v>1796</v>
+        <v>2122</v>
       </c>
       <c r="BA22" s="13">
-        <v>1693</v>
+        <v>4746</v>
       </c>
       <c r="BB22" s="13">
-        <v>2122</v>
+        <v>5749</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3430,77 +3430,77 @@
       <c r="AE23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG23" s="11" t="s">
-        <v>57</v>
+      <c r="AF23" s="11">
+        <v>1048</v>
+      </c>
+      <c r="AG23" s="11">
+        <v>490</v>
       </c>
       <c r="AH23" s="11">
-        <v>1048</v>
+        <v>461</v>
       </c>
       <c r="AI23" s="11">
-        <v>490</v>
+        <v>1127</v>
       </c>
       <c r="AJ23" s="11">
-        <v>461</v>
+        <v>1322</v>
       </c>
       <c r="AK23" s="11">
+        <v>592</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>351</v>
+      </c>
+      <c r="AM23" s="11">
+        <v>696</v>
+      </c>
+      <c r="AN23" s="11">
+        <v>692</v>
+      </c>
+      <c r="AO23" s="11">
+        <v>616</v>
+      </c>
+      <c r="AP23" s="11">
+        <v>541</v>
+      </c>
+      <c r="AQ23" s="11">
+        <v>397</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>778</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>888</v>
+      </c>
+      <c r="AT23" s="11">
+        <v>1604</v>
+      </c>
+      <c r="AU23" s="11">
+        <v>204</v>
+      </c>
+      <c r="AV23" s="11">
+        <v>129</v>
+      </c>
+      <c r="AW23" s="11">
+        <v>178</v>
+      </c>
+      <c r="AX23" s="11">
+        <v>1466</v>
+      </c>
+      <c r="AY23" s="11">
+        <v>699</v>
+      </c>
+      <c r="AZ23" s="11">
+        <v>980</v>
+      </c>
+      <c r="BA23" s="11">
         <v>1127</v>
       </c>
-      <c r="AL23" s="11">
-        <v>1322</v>
-      </c>
-      <c r="AM23" s="11">
-        <v>592</v>
-      </c>
-      <c r="AN23" s="11">
-        <v>351</v>
-      </c>
-      <c r="AO23" s="11">
-        <v>696</v>
-      </c>
-      <c r="AP23" s="11">
-        <v>692</v>
-      </c>
-      <c r="AQ23" s="11">
-        <v>616</v>
-      </c>
-      <c r="AR23" s="11">
-        <v>541</v>
-      </c>
-      <c r="AS23" s="11">
-        <v>397</v>
-      </c>
-      <c r="AT23" s="11">
-        <v>778</v>
-      </c>
-      <c r="AU23" s="11">
-        <v>888</v>
-      </c>
-      <c r="AV23" s="11">
-        <v>1604</v>
-      </c>
-      <c r="AW23" s="11">
-        <v>204</v>
-      </c>
-      <c r="AX23" s="11">
-        <v>129</v>
-      </c>
-      <c r="AY23" s="11">
-        <v>178</v>
-      </c>
-      <c r="AZ23" s="11">
-        <v>1466</v>
-      </c>
-      <c r="BA23" s="11">
-        <v>699</v>
-      </c>
       <c r="BB23" s="11">
-        <v>980</v>
+        <v>299</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3589,77 +3589,77 @@
       <c r="AE24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG24" s="13" t="s">
-        <v>57</v>
+      <c r="AF24" s="13">
+        <v>22872</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>10000</v>
       </c>
       <c r="AH24" s="13">
-        <v>22872</v>
+        <v>21265</v>
       </c>
       <c r="AI24" s="13">
-        <v>10000</v>
+        <v>19437</v>
       </c>
       <c r="AJ24" s="13">
-        <v>21265</v>
+        <v>20285</v>
       </c>
       <c r="AK24" s="13">
-        <v>19437</v>
+        <v>20340</v>
       </c>
       <c r="AL24" s="13">
-        <v>20285</v>
+        <v>30556</v>
       </c>
       <c r="AM24" s="13">
-        <v>20340</v>
+        <v>17675</v>
       </c>
       <c r="AN24" s="13">
-        <v>30556</v>
+        <v>15533</v>
       </c>
       <c r="AO24" s="13">
-        <v>17675</v>
+        <v>14536</v>
       </c>
       <c r="AP24" s="13">
-        <v>15533</v>
+        <v>20160</v>
       </c>
       <c r="AQ24" s="13">
-        <v>14536</v>
+        <v>16766</v>
       </c>
       <c r="AR24" s="13">
-        <v>20160</v>
+        <v>17060</v>
       </c>
       <c r="AS24" s="13">
-        <v>16766</v>
+        <v>17046</v>
       </c>
       <c r="AT24" s="13">
-        <v>17060</v>
+        <v>17828</v>
       </c>
       <c r="AU24" s="13">
-        <v>17046</v>
+        <v>15504</v>
       </c>
       <c r="AV24" s="13">
-        <v>17828</v>
+        <v>18180</v>
       </c>
       <c r="AW24" s="13">
-        <v>15504</v>
+        <v>17149</v>
       </c>
       <c r="AX24" s="13">
-        <v>18180</v>
+        <v>19684</v>
       </c>
       <c r="AY24" s="13">
-        <v>17149</v>
+        <v>21613</v>
       </c>
       <c r="AZ24" s="13">
-        <v>19684</v>
+        <v>21621</v>
       </c>
       <c r="BA24" s="13">
-        <v>21613</v>
+        <v>18698</v>
       </c>
       <c r="BB24" s="13">
-        <v>21621</v>
+        <v>20626</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3748,47 +3748,47 @@
       <c r="AE25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG25" s="11" t="s">
-        <v>57</v>
+      <c r="AF25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>0</v>
       </c>
       <c r="AH25" s="11">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AI25" s="11">
         <v>0</v>
       </c>
       <c r="AJ25" s="11">
-        <v>800</v>
+        <v>1034</v>
       </c>
       <c r="AK25" s="11">
         <v>0</v>
       </c>
       <c r="AL25" s="11">
-        <v>1034</v>
+        <v>475</v>
       </c>
       <c r="AM25" s="11">
         <v>0</v>
       </c>
       <c r="AN25" s="11">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="AO25" s="11">
         <v>0</v>
       </c>
       <c r="AP25" s="11">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="11">
         <v>0</v>
       </c>
-      <c r="AR25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>0</v>
+      <c r="AR25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT25" s="11" t="s">
         <v>57</v>
@@ -3818,7 +3818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
@@ -3935,11 +3935,11 @@
       <c r="V27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>57</v>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <v>0</v>
       </c>
       <c r="Y27" s="17">
         <v>0</v>
@@ -4032,164 +4032,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>55109</v>
+        <v>54468</v>
       </c>
       <c r="F28" s="19">
-        <v>54018</v>
+        <v>48940</v>
       </c>
       <c r="G28" s="19">
-        <v>54468</v>
+        <v>53211</v>
       </c>
       <c r="H28" s="19">
-        <v>48940</v>
+        <v>66738</v>
       </c>
       <c r="I28" s="19">
-        <v>53211</v>
+        <v>54506</v>
       </c>
       <c r="J28" s="19">
-        <v>66738</v>
+        <v>61979</v>
       </c>
       <c r="K28" s="19">
-        <v>54506</v>
+        <v>65980</v>
       </c>
       <c r="L28" s="19">
-        <v>61979</v>
+        <v>61466</v>
       </c>
       <c r="M28" s="19">
-        <v>65980</v>
+        <v>64371</v>
       </c>
       <c r="N28" s="19">
-        <v>61466</v>
+        <v>64207</v>
       </c>
       <c r="O28" s="19">
-        <v>64371</v>
+        <v>63265</v>
       </c>
       <c r="P28" s="19">
-        <v>64207</v>
+        <v>57705</v>
       </c>
       <c r="Q28" s="19">
-        <v>63265</v>
+        <v>67304</v>
       </c>
       <c r="R28" s="19">
-        <v>57705</v>
+        <v>57121</v>
       </c>
       <c r="S28" s="19">
-        <v>67304</v>
+        <v>57055</v>
       </c>
       <c r="T28" s="19">
-        <v>57121</v>
+        <v>62858</v>
       </c>
       <c r="U28" s="19">
-        <v>57055</v>
+        <v>56362</v>
       </c>
       <c r="V28" s="19">
-        <v>62858</v>
+        <v>61832</v>
       </c>
       <c r="W28" s="19">
-        <v>56362</v>
+        <v>45059</v>
       </c>
       <c r="X28" s="19">
-        <v>61832</v>
+        <v>67699</v>
       </c>
       <c r="Y28" s="19">
-        <v>45059</v>
+        <v>58702</v>
       </c>
       <c r="Z28" s="19">
-        <v>67699</v>
+        <v>71228</v>
       </c>
       <c r="AA28" s="19">
-        <v>58702</v>
+        <v>64114</v>
       </c>
       <c r="AB28" s="19">
-        <v>71228</v>
+        <v>61117</v>
       </c>
       <c r="AC28" s="19">
-        <v>64114</v>
+        <v>55616</v>
       </c>
       <c r="AD28" s="19">
-        <v>61117</v>
+        <v>56253</v>
       </c>
       <c r="AE28" s="19">
-        <v>55616</v>
+        <v>51873</v>
       </c>
       <c r="AF28" s="19">
-        <v>56253</v>
+        <v>73829</v>
       </c>
       <c r="AG28" s="19">
-        <v>51873</v>
+        <v>46703</v>
       </c>
       <c r="AH28" s="19">
-        <v>73829</v>
+        <v>65575</v>
       </c>
       <c r="AI28" s="19">
-        <v>46703</v>
+        <v>78770</v>
       </c>
       <c r="AJ28" s="19">
-        <v>65575</v>
+        <v>70292</v>
       </c>
       <c r="AK28" s="19">
-        <v>78770</v>
+        <v>63543</v>
       </c>
       <c r="AL28" s="19">
-        <v>70292</v>
+        <v>75687</v>
       </c>
       <c r="AM28" s="19">
-        <v>63543</v>
+        <v>71381</v>
       </c>
       <c r="AN28" s="19">
-        <v>75687</v>
+        <v>58110</v>
       </c>
       <c r="AO28" s="19">
-        <v>71381</v>
+        <v>55054</v>
       </c>
       <c r="AP28" s="19">
-        <v>58110</v>
+        <v>64829</v>
       </c>
       <c r="AQ28" s="19">
-        <v>55054</v>
+        <v>53017</v>
       </c>
       <c r="AR28" s="19">
-        <v>64780</v>
+        <v>60635</v>
       </c>
       <c r="AS28" s="19">
-        <v>53017</v>
+        <v>60376</v>
       </c>
       <c r="AT28" s="19">
-        <v>60515</v>
+        <v>60491</v>
       </c>
       <c r="AU28" s="19">
-        <v>60363</v>
+        <v>57441</v>
       </c>
       <c r="AV28" s="19">
-        <v>60491</v>
+        <v>56804</v>
       </c>
       <c r="AW28" s="19">
-        <v>57441</v>
+        <v>55304</v>
       </c>
       <c r="AX28" s="19">
-        <v>56804</v>
+        <v>64595</v>
       </c>
       <c r="AY28" s="19">
-        <v>55304</v>
+        <v>61322</v>
       </c>
       <c r="AZ28" s="19">
-        <v>64595</v>
+        <v>62595</v>
       </c>
       <c r="BA28" s="19">
-        <v>61322</v>
+        <v>61711</v>
       </c>
       <c r="BB28" s="19">
-        <v>62595</v>
+        <v>63215</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4244,7 +4244,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4299,7 +4299,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4354,7 +4354,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4566,7 +4566,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -4649,104 +4649,104 @@
       <c r="J35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>57</v>
+      <c r="K35" s="11">
+        <v>17</v>
+      </c>
+      <c r="L35" s="11">
+        <v>569</v>
       </c>
       <c r="M35" s="11">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="N35" s="11">
-        <v>569</v>
+        <v>99</v>
       </c>
       <c r="O35" s="11">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="P35" s="11">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="Q35" s="11">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="R35" s="11">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="S35" s="11">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="T35" s="11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="U35" s="11">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="V35" s="11">
+        <v>3</v>
+      </c>
+      <c r="W35" s="11">
+        <v>32</v>
+      </c>
+      <c r="X35" s="11">
+        <v>104</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>527</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>346</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>399</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>237</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>111</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>25</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="11">
         <v>6</v>
       </c>
-      <c r="W35" s="11">
-        <v>16</v>
-      </c>
-      <c r="X35" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y35" s="11">
-        <v>32</v>
-      </c>
-      <c r="Z35" s="11">
-        <v>104</v>
-      </c>
-      <c r="AA35" s="11">
-        <v>527</v>
-      </c>
-      <c r="AB35" s="11">
-        <v>346</v>
-      </c>
-      <c r="AC35" s="11">
-        <v>399</v>
-      </c>
-      <c r="AD35" s="11">
-        <v>237</v>
-      </c>
-      <c r="AE35" s="11">
-        <v>111</v>
-      </c>
-      <c r="AF35" s="11">
-        <v>25</v>
-      </c>
       <c r="AG35" s="11">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AH35" s="11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI35" s="11">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="AJ35" s="11">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="AK35" s="11">
-        <v>54</v>
+        <v>559</v>
       </c>
       <c r="AL35" s="11">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="AM35" s="11">
-        <v>559</v>
+        <v>411</v>
       </c>
       <c r="AN35" s="11">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="AO35" s="11">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AP35" s="11">
-        <v>110</v>
-      </c>
-      <c r="AQ35" s="11">
-        <v>80</v>
+        <v>51</v>
+      </c>
+      <c r="AQ35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR35" s="11" t="s">
         <v>57</v>
@@ -4782,7 +4782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>58</v>
       </c>
@@ -4791,92 +4791,92 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>32591</v>
+        <v>30803</v>
       </c>
       <c r="F36" s="13">
-        <v>25622</v>
+        <v>29880</v>
       </c>
       <c r="G36" s="13">
-        <v>30803</v>
+        <v>48450</v>
       </c>
       <c r="H36" s="13">
-        <v>29880</v>
+        <v>31571</v>
       </c>
       <c r="I36" s="13">
-        <v>48450</v>
+        <v>43133</v>
       </c>
       <c r="J36" s="13">
-        <v>31571</v>
+        <v>44401</v>
       </c>
       <c r="K36" s="13">
-        <v>43133</v>
+        <v>60125</v>
       </c>
       <c r="L36" s="13">
-        <v>44401</v>
+        <v>65987</v>
       </c>
       <c r="M36" s="13">
-        <v>60125</v>
+        <v>65128</v>
       </c>
       <c r="N36" s="13">
-        <v>65987</v>
+        <v>47967</v>
       </c>
       <c r="O36" s="13">
-        <v>65128</v>
+        <v>46781</v>
       </c>
       <c r="P36" s="13">
-        <v>47967</v>
+        <v>62771</v>
       </c>
       <c r="Q36" s="13">
-        <v>46781</v>
+        <v>51818</v>
       </c>
       <c r="R36" s="13">
-        <v>62771</v>
+        <v>67441</v>
       </c>
       <c r="S36" s="13">
-        <v>51818</v>
+        <v>56113</v>
       </c>
       <c r="T36" s="13">
-        <v>67441</v>
+        <v>22075</v>
       </c>
       <c r="U36" s="13">
-        <v>56113</v>
+        <v>55576</v>
       </c>
       <c r="V36" s="13">
-        <v>22075</v>
+        <v>67616</v>
       </c>
       <c r="W36" s="13">
-        <v>55576</v>
+        <v>59104</v>
       </c>
       <c r="X36" s="13">
-        <v>67616</v>
+        <v>50189</v>
       </c>
       <c r="Y36" s="13">
-        <v>59104</v>
+        <v>59049</v>
       </c>
       <c r="Z36" s="13">
-        <v>50189</v>
+        <v>61923</v>
       </c>
       <c r="AA36" s="13">
-        <v>59049</v>
+        <v>47981</v>
       </c>
       <c r="AB36" s="13">
-        <v>61923</v>
+        <v>51056</v>
       </c>
       <c r="AC36" s="13">
-        <v>47981</v>
+        <v>62926</v>
       </c>
       <c r="AD36" s="13">
-        <v>51056</v>
+        <v>47452</v>
       </c>
       <c r="AE36" s="13">
-        <v>62926</v>
-      </c>
-      <c r="AF36" s="13">
-        <v>47452</v>
-      </c>
-      <c r="AG36" s="13">
         <v>50713</v>
       </c>
+      <c r="AF36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH36" s="13" t="s">
         <v>57</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>59</v>
       </c>
@@ -5030,77 +5030,77 @@
       <c r="AE37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG37" s="11" t="s">
-        <v>57</v>
+      <c r="AF37" s="11">
+        <v>17366</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>18843</v>
       </c>
       <c r="AH37" s="11">
-        <v>17366</v>
+        <v>21712</v>
       </c>
       <c r="AI37" s="11">
-        <v>18843</v>
+        <v>21802</v>
       </c>
       <c r="AJ37" s="11">
-        <v>21712</v>
+        <v>24929</v>
       </c>
       <c r="AK37" s="11">
-        <v>21802</v>
+        <v>39065</v>
       </c>
       <c r="AL37" s="11">
-        <v>24929</v>
+        <v>20379</v>
       </c>
       <c r="AM37" s="11">
-        <v>39065</v>
+        <v>16279</v>
       </c>
       <c r="AN37" s="11">
-        <v>20379</v>
+        <v>21593</v>
       </c>
       <c r="AO37" s="11">
-        <v>16279</v>
+        <v>20190</v>
       </c>
       <c r="AP37" s="11">
-        <v>21593</v>
+        <v>22426</v>
       </c>
       <c r="AQ37" s="11">
-        <v>20190</v>
+        <v>26998</v>
       </c>
       <c r="AR37" s="11">
-        <v>18944</v>
+        <v>7908</v>
       </c>
       <c r="AS37" s="11">
-        <v>26998</v>
+        <v>27135</v>
       </c>
       <c r="AT37" s="11">
-        <v>7908</v>
+        <v>42181</v>
       </c>
       <c r="AU37" s="11">
-        <v>27135</v>
+        <v>34412</v>
       </c>
       <c r="AV37" s="11">
-        <v>42181</v>
+        <v>25621</v>
       </c>
       <c r="AW37" s="11">
-        <v>34412</v>
+        <v>22812</v>
       </c>
       <c r="AX37" s="11">
-        <v>25621</v>
+        <v>16430</v>
       </c>
       <c r="AY37" s="11">
-        <v>22812</v>
+        <v>19627</v>
       </c>
       <c r="AZ37" s="11">
-        <v>16430</v>
+        <v>19456</v>
       </c>
       <c r="BA37" s="11">
-        <v>19627</v>
+        <v>18049</v>
       </c>
       <c r="BB37" s="11">
-        <v>19456</v>
+        <v>14236</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
@@ -5189,77 +5189,77 @@
       <c r="AE38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG38" s="13" t="s">
-        <v>57</v>
+      <c r="AF38" s="13">
+        <v>1039</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>2156</v>
       </c>
       <c r="AH38" s="13">
-        <v>1039</v>
+        <v>1939</v>
       </c>
       <c r="AI38" s="13">
-        <v>2156</v>
+        <v>2550</v>
       </c>
       <c r="AJ38" s="13">
-        <v>1939</v>
+        <v>2609</v>
       </c>
       <c r="AK38" s="13">
-        <v>2550</v>
+        <v>1901</v>
       </c>
       <c r="AL38" s="13">
-        <v>2609</v>
+        <v>1611</v>
       </c>
       <c r="AM38" s="13">
-        <v>1901</v>
+        <v>1362</v>
       </c>
       <c r="AN38" s="13">
-        <v>1611</v>
+        <v>2463</v>
       </c>
       <c r="AO38" s="13">
-        <v>1362</v>
+        <v>1783</v>
       </c>
       <c r="AP38" s="13">
-        <v>2463</v>
+        <v>1243</v>
       </c>
       <c r="AQ38" s="13">
-        <v>1783</v>
+        <v>962</v>
       </c>
       <c r="AR38" s="13">
-        <v>1243</v>
+        <v>736</v>
       </c>
       <c r="AS38" s="13">
-        <v>962</v>
+        <v>1686</v>
       </c>
       <c r="AT38" s="13">
-        <v>736</v>
+        <v>1029</v>
       </c>
       <c r="AU38" s="13">
-        <v>1686</v>
+        <v>824</v>
       </c>
       <c r="AV38" s="13">
-        <v>1029</v>
+        <v>367</v>
       </c>
       <c r="AW38" s="13">
-        <v>824</v>
+        <v>720</v>
       </c>
       <c r="AX38" s="13">
-        <v>367</v>
+        <v>1889</v>
       </c>
       <c r="AY38" s="13">
-        <v>720</v>
+        <v>1474</v>
       </c>
       <c r="AZ38" s="13">
-        <v>1889</v>
+        <v>2331</v>
       </c>
       <c r="BA38" s="13">
-        <v>1474</v>
+        <v>1210</v>
       </c>
       <c r="BB38" s="13">
-        <v>2331</v>
+        <v>3135</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
@@ -5285,140 +5285,140 @@
       <c r="J39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>57</v>
+      <c r="K39" s="11">
+        <v>42</v>
+      </c>
+      <c r="L39" s="11">
+        <v>46</v>
       </c>
       <c r="M39" s="11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N39" s="11">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="O39" s="11">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="P39" s="11">
         <v>71</v>
       </c>
       <c r="Q39" s="11">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R39" s="11">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="S39" s="11">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="T39" s="11">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="U39" s="11">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="V39" s="11">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="W39" s="11">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="X39" s="11">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="Y39" s="11">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="Z39" s="11">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="AA39" s="11">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="AB39" s="11">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="AC39" s="11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AD39" s="11">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AE39" s="11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF39" s="11">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="AG39" s="11">
+        <v>77</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>150</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>110</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>13</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>31</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>40</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>75</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>119</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>14</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>51</v>
+      </c>
+      <c r="AT39" s="11">
         <v>12</v>
       </c>
-      <c r="AH39" s="11">
-        <v>106</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>77</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>150</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>110</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>13</v>
-      </c>
-      <c r="AM39" s="11">
+      <c r="AU39" s="11">
+        <v>4</v>
+      </c>
+      <c r="AV39" s="11">
         <v>2</v>
       </c>
-      <c r="AN39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>31</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>40</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>75</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>119</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>14</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>51</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>12</v>
-      </c>
       <c r="AW39" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="11">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AY39" s="11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AZ39" s="11">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="BA39" s="11">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="BB39" s="11">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5540,44 +5540,44 @@
       <c r="AP40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ40" s="13" t="s">
-        <v>57</v>
+      <c r="AQ40" s="13">
+        <v>0</v>
       </c>
       <c r="AR40" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS40" s="13">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AT40" s="13">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="AU40" s="13">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="AV40" s="13">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="AW40" s="13">
-        <v>320</v>
+        <v>23</v>
       </c>
       <c r="AX40" s="13">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="AY40" s="13">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="AZ40" s="13">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="BA40" s="13">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="BB40" s="13">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>63</v>
       </c>
@@ -5586,28 +5586,28 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>19150</v>
+        <v>26531</v>
       </c>
       <c r="F41" s="11">
-        <v>22789</v>
+        <v>27231</v>
       </c>
       <c r="G41" s="11">
-        <v>26531</v>
+        <v>17165</v>
       </c>
       <c r="H41" s="11">
-        <v>27231</v>
+        <v>15435</v>
       </c>
       <c r="I41" s="11">
-        <v>17165</v>
+        <v>30793</v>
       </c>
       <c r="J41" s="11">
-        <v>15435</v>
+        <v>20883</v>
       </c>
       <c r="K41" s="11">
-        <v>30793</v>
+        <v>0</v>
       </c>
       <c r="L41" s="11">
-        <v>20883</v>
+        <v>0</v>
       </c>
       <c r="M41" s="11">
         <v>0</v>
@@ -5630,21 +5630,21 @@
       <c r="S41" s="11">
         <v>0</v>
       </c>
-      <c r="T41" s="11">
-        <v>0</v>
+      <c r="T41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U41" s="11">
         <v>0</v>
       </c>
-      <c r="V41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W41" s="11">
-        <v>0</v>
-      </c>
-      <c r="X41" s="11">
+      <c r="V41" s="11">
         <v>-54</v>
       </c>
+      <c r="W41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y41" s="11" t="s">
         <v>57</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5825,77 +5825,77 @@
       <c r="AE42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG42" s="13" t="s">
-        <v>57</v>
+      <c r="AF42" s="13">
+        <v>1524</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>3781</v>
       </c>
       <c r="AH42" s="13">
-        <v>1524</v>
+        <v>4111</v>
       </c>
       <c r="AI42" s="13">
-        <v>3781</v>
+        <v>2226</v>
       </c>
       <c r="AJ42" s="13">
-        <v>4111</v>
+        <v>3719</v>
       </c>
       <c r="AK42" s="13">
-        <v>2226</v>
+        <v>4068</v>
       </c>
       <c r="AL42" s="13">
-        <v>3719</v>
+        <v>2573</v>
       </c>
       <c r="AM42" s="13">
-        <v>4068</v>
+        <v>3825</v>
       </c>
       <c r="AN42" s="13">
-        <v>2573</v>
+        <v>4257</v>
       </c>
       <c r="AO42" s="13">
-        <v>3825</v>
+        <v>3108</v>
       </c>
       <c r="AP42" s="13">
-        <v>4257</v>
+        <v>4455</v>
       </c>
       <c r="AQ42" s="13">
-        <v>3108</v>
+        <v>2689</v>
       </c>
       <c r="AR42" s="13">
-        <v>4455</v>
+        <v>2482</v>
       </c>
       <c r="AS42" s="13">
-        <v>2689</v>
+        <v>4052</v>
       </c>
       <c r="AT42" s="13">
-        <v>2482</v>
+        <v>3564</v>
       </c>
       <c r="AU42" s="13">
-        <v>4052</v>
+        <v>4134</v>
       </c>
       <c r="AV42" s="13">
-        <v>3564</v>
+        <v>4857</v>
       </c>
       <c r="AW42" s="13">
-        <v>4134</v>
+        <v>3305</v>
       </c>
       <c r="AX42" s="13">
-        <v>4857</v>
+        <v>2783</v>
       </c>
       <c r="AY42" s="13">
-        <v>3305</v>
+        <v>2243</v>
       </c>
       <c r="AZ42" s="13">
-        <v>2783</v>
+        <v>2078</v>
       </c>
       <c r="BA42" s="13">
-        <v>2243</v>
+        <v>1076</v>
       </c>
       <c r="BB42" s="13">
-        <v>2078</v>
+        <v>3116</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -5921,75 +5921,75 @@
       <c r="J43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>57</v>
+      <c r="K43" s="11">
+        <v>6381</v>
+      </c>
+      <c r="L43" s="11">
+        <v>4431</v>
       </c>
       <c r="M43" s="11">
-        <v>6381</v>
+        <v>5748</v>
       </c>
       <c r="N43" s="11">
-        <v>4431</v>
+        <v>3762</v>
       </c>
       <c r="O43" s="11">
-        <v>5748</v>
+        <v>4558</v>
       </c>
       <c r="P43" s="11">
-        <v>3762</v>
+        <v>6379</v>
       </c>
       <c r="Q43" s="11">
-        <v>4558</v>
+        <v>9717</v>
       </c>
       <c r="R43" s="11">
-        <v>6379</v>
+        <v>10198</v>
       </c>
       <c r="S43" s="11">
-        <v>9717</v>
+        <v>4926</v>
       </c>
       <c r="T43" s="11">
-        <v>10198</v>
+        <v>858</v>
       </c>
       <c r="U43" s="11">
-        <v>4926</v>
+        <v>2933</v>
       </c>
       <c r="V43" s="11">
-        <v>858</v>
+        <v>8137</v>
       </c>
       <c r="W43" s="11">
-        <v>2933</v>
+        <v>6891</v>
       </c>
       <c r="X43" s="11">
-        <v>8137</v>
+        <v>6931</v>
       </c>
       <c r="Y43" s="11">
-        <v>6891</v>
+        <v>5876</v>
       </c>
       <c r="Z43" s="11">
-        <v>6931</v>
+        <v>4742</v>
       </c>
       <c r="AA43" s="11">
-        <v>5876</v>
+        <v>4369</v>
       </c>
       <c r="AB43" s="11">
-        <v>4742</v>
+        <v>5202</v>
       </c>
       <c r="AC43" s="11">
-        <v>4369</v>
+        <v>5859</v>
       </c>
       <c r="AD43" s="11">
-        <v>5202</v>
+        <v>8245</v>
       </c>
       <c r="AE43" s="11">
-        <v>5859</v>
-      </c>
-      <c r="AF43" s="11">
-        <v>8245</v>
-      </c>
-      <c r="AG43" s="11">
         <v>4398</v>
       </c>
+      <c r="AF43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH43" s="11" t="s">
         <v>57</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>66</v>
       </c>
@@ -6143,77 +6143,77 @@
       <c r="AE44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG44" s="13" t="s">
-        <v>57</v>
+      <c r="AF44" s="13">
+        <v>5218</v>
+      </c>
+      <c r="AG44" s="13">
+        <v>6577</v>
       </c>
       <c r="AH44" s="13">
-        <v>5218</v>
+        <v>8009</v>
       </c>
       <c r="AI44" s="13">
-        <v>6577</v>
+        <v>6566</v>
       </c>
       <c r="AJ44" s="13">
-        <v>8009</v>
+        <v>5648</v>
       </c>
       <c r="AK44" s="13">
-        <v>6566</v>
+        <v>6537</v>
       </c>
       <c r="AL44" s="13">
-        <v>5648</v>
+        <v>4808</v>
       </c>
       <c r="AM44" s="13">
-        <v>6537</v>
+        <v>4575</v>
       </c>
       <c r="AN44" s="13">
-        <v>4808</v>
+        <v>4833</v>
       </c>
       <c r="AO44" s="13">
-        <v>4575</v>
+        <v>4784</v>
       </c>
       <c r="AP44" s="13">
-        <v>4833</v>
+        <v>4532</v>
       </c>
       <c r="AQ44" s="13">
-        <v>4784</v>
+        <v>5168</v>
       </c>
       <c r="AR44" s="13">
-        <v>4532</v>
+        <v>2051</v>
       </c>
       <c r="AS44" s="13">
-        <v>5168</v>
+        <v>3620</v>
       </c>
       <c r="AT44" s="13">
-        <v>2051</v>
+        <v>6670</v>
       </c>
       <c r="AU44" s="13">
-        <v>3620</v>
+        <v>4597</v>
       </c>
       <c r="AV44" s="13">
-        <v>6670</v>
+        <v>5554</v>
       </c>
       <c r="AW44" s="13">
-        <v>4597</v>
+        <v>6887</v>
       </c>
       <c r="AX44" s="13">
-        <v>5554</v>
+        <v>4722</v>
       </c>
       <c r="AY44" s="13">
-        <v>6887</v>
+        <v>5156</v>
       </c>
       <c r="AZ44" s="13">
-        <v>4722</v>
+        <v>4933</v>
       </c>
       <c r="BA44" s="13">
-        <v>5156</v>
+        <v>6568</v>
       </c>
       <c r="BB44" s="13">
-        <v>4933</v>
+        <v>6902</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>67</v>
       </c>
@@ -6302,77 +6302,77 @@
       <c r="AE45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG45" s="11" t="s">
-        <v>57</v>
+      <c r="AF45" s="11">
+        <v>5280</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>5935</v>
       </c>
       <c r="AH45" s="11">
-        <v>5280</v>
+        <v>6597</v>
       </c>
       <c r="AI45" s="11">
-        <v>5935</v>
+        <v>3712</v>
       </c>
       <c r="AJ45" s="11">
-        <v>6597</v>
+        <v>5080</v>
       </c>
       <c r="AK45" s="11">
-        <v>3712</v>
+        <v>5354</v>
       </c>
       <c r="AL45" s="11">
-        <v>5080</v>
+        <v>4224</v>
       </c>
       <c r="AM45" s="11">
-        <v>5354</v>
+        <v>5510</v>
       </c>
       <c r="AN45" s="11">
-        <v>4224</v>
+        <v>5595</v>
       </c>
       <c r="AO45" s="11">
-        <v>5510</v>
+        <v>5092</v>
       </c>
       <c r="AP45" s="11">
-        <v>5595</v>
+        <v>5504</v>
       </c>
       <c r="AQ45" s="11">
-        <v>5092</v>
+        <v>4685</v>
       </c>
       <c r="AR45" s="11">
-        <v>5504</v>
+        <v>2355</v>
       </c>
       <c r="AS45" s="11">
-        <v>4685</v>
+        <v>4082</v>
       </c>
       <c r="AT45" s="11">
-        <v>2355</v>
+        <v>4764</v>
       </c>
       <c r="AU45" s="11">
-        <v>4082</v>
+        <v>4254</v>
       </c>
       <c r="AV45" s="11">
-        <v>4764</v>
+        <v>4516</v>
       </c>
       <c r="AW45" s="11">
-        <v>4254</v>
+        <v>7012</v>
       </c>
       <c r="AX45" s="11">
-        <v>4516</v>
+        <v>5515</v>
       </c>
       <c r="AY45" s="11">
-        <v>7012</v>
+        <v>7797</v>
       </c>
       <c r="AZ45" s="11">
-        <v>5515</v>
+        <v>10414</v>
       </c>
       <c r="BA45" s="11">
-        <v>7797</v>
+        <v>7187</v>
       </c>
       <c r="BB45" s="11">
-        <v>10414</v>
+        <v>7893</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>68</v>
       </c>
@@ -6461,77 +6461,77 @@
       <c r="AE46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG46" s="13" t="s">
-        <v>57</v>
+      <c r="AF46" s="13">
+        <v>1700</v>
+      </c>
+      <c r="AG46" s="13">
+        <v>2767</v>
       </c>
       <c r="AH46" s="13">
-        <v>1700</v>
+        <v>2447</v>
       </c>
       <c r="AI46" s="13">
-        <v>2767</v>
+        <v>2083</v>
       </c>
       <c r="AJ46" s="13">
-        <v>2447</v>
+        <v>1526</v>
       </c>
       <c r="AK46" s="13">
-        <v>2083</v>
+        <v>2803</v>
       </c>
       <c r="AL46" s="13">
-        <v>1526</v>
+        <v>2354</v>
       </c>
       <c r="AM46" s="13">
-        <v>2803</v>
+        <v>1953</v>
       </c>
       <c r="AN46" s="13">
-        <v>2354</v>
+        <v>1754</v>
       </c>
       <c r="AO46" s="13">
-        <v>1953</v>
+        <v>1623</v>
       </c>
       <c r="AP46" s="13">
-        <v>1754</v>
+        <v>1772</v>
       </c>
       <c r="AQ46" s="13">
-        <v>1623</v>
+        <v>2203</v>
       </c>
       <c r="AR46" s="13">
-        <v>1772</v>
+        <v>1055</v>
       </c>
       <c r="AS46" s="13">
         <v>2203</v>
       </c>
       <c r="AT46" s="13">
-        <v>1055</v>
+        <v>2498</v>
       </c>
       <c r="AU46" s="13">
-        <v>2203</v>
+        <v>1590</v>
       </c>
       <c r="AV46" s="13">
-        <v>2498</v>
+        <v>1816</v>
       </c>
       <c r="AW46" s="13">
-        <v>1590</v>
+        <v>1628</v>
       </c>
       <c r="AX46" s="13">
-        <v>1816</v>
+        <v>1351</v>
       </c>
       <c r="AY46" s="13">
-        <v>1628</v>
+        <v>1846</v>
       </c>
       <c r="AZ46" s="13">
-        <v>1351</v>
+        <v>2074</v>
       </c>
       <c r="BA46" s="13">
-        <v>1846</v>
+        <v>4570</v>
       </c>
       <c r="BB46" s="13">
-        <v>2074</v>
+        <v>5408</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>69</v>
       </c>
@@ -6620,77 +6620,77 @@
       <c r="AE47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG47" s="11" t="s">
-        <v>57</v>
+      <c r="AF47" s="11">
+        <v>790</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>853</v>
       </c>
       <c r="AH47" s="11">
-        <v>790</v>
+        <v>998</v>
       </c>
       <c r="AI47" s="11">
-        <v>853</v>
+        <v>433</v>
       </c>
       <c r="AJ47" s="11">
+        <v>575</v>
+      </c>
+      <c r="AK47" s="11">
+        <v>848</v>
+      </c>
+      <c r="AL47" s="11">
+        <v>590</v>
+      </c>
+      <c r="AM47" s="11">
+        <v>580</v>
+      </c>
+      <c r="AN47" s="11">
+        <v>816</v>
+      </c>
+      <c r="AO47" s="11">
+        <v>505</v>
+      </c>
+      <c r="AP47" s="11">
+        <v>577</v>
+      </c>
+      <c r="AQ47" s="11">
+        <v>567</v>
+      </c>
+      <c r="AR47" s="11">
+        <v>418</v>
+      </c>
+      <c r="AS47" s="11">
+        <v>979</v>
+      </c>
+      <c r="AT47" s="11">
         <v>998</v>
       </c>
-      <c r="AK47" s="11">
-        <v>433</v>
-      </c>
-      <c r="AL47" s="11">
-        <v>575</v>
-      </c>
-      <c r="AM47" s="11">
-        <v>848</v>
-      </c>
-      <c r="AN47" s="11">
-        <v>590</v>
-      </c>
-      <c r="AO47" s="11">
-        <v>580</v>
-      </c>
-      <c r="AP47" s="11">
-        <v>816</v>
-      </c>
-      <c r="AQ47" s="11">
-        <v>505</v>
-      </c>
-      <c r="AR47" s="11">
-        <v>577</v>
-      </c>
-      <c r="AS47" s="11">
-        <v>567</v>
-      </c>
-      <c r="AT47" s="11">
-        <v>418</v>
-      </c>
       <c r="AU47" s="11">
-        <v>979</v>
+        <v>346</v>
       </c>
       <c r="AV47" s="11">
-        <v>998</v>
+        <v>267</v>
       </c>
       <c r="AW47" s="11">
-        <v>346</v>
+        <v>984</v>
       </c>
       <c r="AX47" s="11">
-        <v>267</v>
+        <v>565</v>
       </c>
       <c r="AY47" s="11">
-        <v>984</v>
+        <v>773</v>
       </c>
       <c r="AZ47" s="11">
-        <v>565</v>
+        <v>938</v>
       </c>
       <c r="BA47" s="11">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="BB47" s="11">
-        <v>938</v>
+        <v>761</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
@@ -6779,77 +6779,77 @@
       <c r="AE48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG48" s="13" t="s">
-        <v>57</v>
+      <c r="AF48" s="13">
+        <v>16881</v>
+      </c>
+      <c r="AG48" s="13">
+        <v>21966</v>
       </c>
       <c r="AH48" s="13">
-        <v>16881</v>
+        <v>22429</v>
       </c>
       <c r="AI48" s="13">
-        <v>21966</v>
+        <v>21091</v>
       </c>
       <c r="AJ48" s="13">
-        <v>22429</v>
+        <v>22858</v>
       </c>
       <c r="AK48" s="13">
-        <v>21091</v>
+        <v>16523</v>
       </c>
       <c r="AL48" s="13">
-        <v>22858</v>
+        <v>25004</v>
       </c>
       <c r="AM48" s="13">
-        <v>16523</v>
+        <v>22245</v>
       </c>
       <c r="AN48" s="13">
-        <v>25004</v>
+        <v>15745</v>
       </c>
       <c r="AO48" s="13">
-        <v>22245</v>
+        <v>8855</v>
       </c>
       <c r="AP48" s="13">
-        <v>15745</v>
+        <v>16596</v>
       </c>
       <c r="AQ48" s="13">
-        <v>8855</v>
+        <v>2183</v>
       </c>
       <c r="AR48" s="13">
-        <v>16584</v>
+        <v>21956</v>
       </c>
       <c r="AS48" s="13">
-        <v>2183</v>
+        <v>20700</v>
       </c>
       <c r="AT48" s="13">
-        <v>21956</v>
+        <v>16275</v>
       </c>
       <c r="AU48" s="13">
-        <v>20700</v>
+        <v>16901</v>
       </c>
       <c r="AV48" s="13">
-        <v>16275</v>
+        <v>14865</v>
       </c>
       <c r="AW48" s="13">
-        <v>16901</v>
+        <v>22195</v>
       </c>
       <c r="AX48" s="13">
-        <v>14865</v>
+        <v>17372</v>
       </c>
       <c r="AY48" s="13">
-        <v>22195</v>
+        <v>25055</v>
       </c>
       <c r="AZ48" s="13">
-        <v>17372</v>
+        <v>18426</v>
       </c>
       <c r="BA48" s="13">
-        <v>25055</v>
+        <v>23136</v>
       </c>
       <c r="BB48" s="13">
-        <v>18426</v>
+        <v>19422</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>71</v>
       </c>
@@ -6938,23 +6938,23 @@
       <c r="AE49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG49" s="11" t="s">
-        <v>57</v>
+      <c r="AF49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="11">
+        <v>0</v>
       </c>
       <c r="AH49" s="11">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="AI49" s="11">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="AJ49" s="11">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="11">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="11">
         <v>0</v>
@@ -6974,11 +6974,11 @@
       <c r="AQ49" s="11">
         <v>0</v>
       </c>
-      <c r="AR49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS49" s="11">
-        <v>0</v>
+      <c r="AR49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS49" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT49" s="11" t="s">
         <v>57</v>
@@ -7008,7 +7008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>72</v>
       </c>
@@ -7065,7 +7065,7 @@
       <c r="BA50" s="15"/>
       <c r="BB50" s="15"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>73</v>
       </c>
@@ -7125,11 +7125,11 @@
       <c r="V51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W51" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X51" s="17" t="s">
-        <v>57</v>
+      <c r="W51" s="17">
+        <v>0</v>
+      </c>
+      <c r="X51" s="17">
+        <v>0</v>
       </c>
       <c r="Y51" s="17">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>77</v>
       </c>
@@ -7371,74 +7371,74 @@
       <c r="AF53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH53" s="11" t="s">
-        <v>57</v>
+      <c r="AG53" s="11">
+        <v>-4</v>
+      </c>
+      <c r="AH53" s="11">
+        <v>-6</v>
       </c>
       <c r="AI53" s="11">
-        <v>-4</v>
-      </c>
-      <c r="AJ53" s="11">
-        <v>-6</v>
+        <v>-1</v>
+      </c>
+      <c r="AJ53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK53" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AL53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM53" s="11">
         <v>-4581</v>
       </c>
+      <c r="AL53" s="11">
+        <v>-15</v>
+      </c>
+      <c r="AM53" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AN53" s="11">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="AO53" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AP53" s="11">
-        <v>-9</v>
-      </c>
-      <c r="AQ53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR53" s="11">
         <v>-43</v>
       </c>
-      <c r="AS53" s="11">
+      <c r="AQ53" s="11">
         <v>-75</v>
       </c>
+      <c r="AR53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS53" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT53" s="11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AU53" s="11">
         <v>0</v>
       </c>
-      <c r="AV53" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AW53" s="11">
-        <v>0</v>
+      <c r="AV53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ53" s="11" t="s">
-        <v>57</v>
+      <c r="AY53" s="11">
+        <v>-7</v>
+      </c>
+      <c r="AZ53" s="11">
+        <v>0</v>
       </c>
       <c r="BA53" s="11">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="BB53" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>63</v>
       </c>
@@ -7500,39 +7500,39 @@
       <c r="V54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>57</v>
+      <c r="W54" s="13">
+        <v>-20</v>
+      </c>
+      <c r="X54" s="13">
+        <v>-1</v>
       </c>
       <c r="Y54" s="13">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="13">
         <v>0</v>
       </c>
       <c r="AB54" s="13">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AC54" s="13">
         <v>0</v>
       </c>
       <c r="AD54" s="13">
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="AE54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="13">
-        <v>-23</v>
-      </c>
-      <c r="AG54" s="13">
         <v>-8</v>
       </c>
+      <c r="AF54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG54" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH54" s="13" t="s">
         <v>57</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>78</v>
       </c>
@@ -7657,261 +7657,261 @@
       <c r="V55" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W55" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X55" s="17" t="s">
-        <v>57</v>
+      <c r="W55" s="17">
+        <v>-20</v>
+      </c>
+      <c r="X55" s="17">
+        <v>-1</v>
       </c>
       <c r="Y55" s="17">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="17">
+        <v>-21</v>
+      </c>
+      <c r="AC55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AE55" s="17">
+        <v>-8</v>
+      </c>
+      <c r="AF55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="17">
+        <v>-4</v>
+      </c>
+      <c r="AH55" s="17">
+        <v>-6</v>
+      </c>
+      <c r="AI55" s="17">
         <v>-1</v>
       </c>
-      <c r="AA55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="17">
-        <v>-21</v>
-      </c>
-      <c r="AE55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="17">
-        <v>-23</v>
-      </c>
-      <c r="AG55" s="17">
+      <c r="AJ55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="17">
+        <v>-4581</v>
+      </c>
+      <c r="AL55" s="17">
+        <v>-15</v>
+      </c>
+      <c r="AM55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="17">
+        <v>-9</v>
+      </c>
+      <c r="AO55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="17">
+        <v>-43</v>
+      </c>
+      <c r="AQ55" s="17">
+        <v>-75</v>
+      </c>
+      <c r="AR55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="17">
+        <v>-5</v>
+      </c>
+      <c r="AU55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY55" s="17">
+        <v>-7</v>
+      </c>
+      <c r="AZ55" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA55" s="17">
         <v>-8</v>
       </c>
-      <c r="AH55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="17">
-        <v>-4</v>
-      </c>
-      <c r="AJ55" s="17">
-        <v>-6</v>
-      </c>
-      <c r="AK55" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM55" s="17">
-        <v>-4581</v>
-      </c>
-      <c r="AN55" s="17">
-        <v>-15</v>
-      </c>
-      <c r="AO55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP55" s="17">
-        <v>-9</v>
-      </c>
-      <c r="AQ55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AR55" s="17">
-        <v>-43</v>
-      </c>
-      <c r="AS55" s="17">
-        <v>-75</v>
-      </c>
-      <c r="AT55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV55" s="17">
-        <v>-5</v>
-      </c>
-      <c r="AW55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AZ55" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA55" s="17">
-        <v>-7</v>
-      </c>
       <c r="BB55" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19">
-        <v>51741</v>
+        <v>57334</v>
       </c>
       <c r="F56" s="19">
-        <v>48411</v>
+        <v>57111</v>
       </c>
       <c r="G56" s="19">
-        <v>57334</v>
+        <v>65615</v>
       </c>
       <c r="H56" s="19">
-        <v>57111</v>
+        <v>47006</v>
       </c>
       <c r="I56" s="19">
-        <v>65615</v>
+        <v>73926</v>
       </c>
       <c r="J56" s="19">
-        <v>47006</v>
+        <v>65284</v>
       </c>
       <c r="K56" s="19">
-        <v>73926</v>
+        <v>66565</v>
       </c>
       <c r="L56" s="19">
-        <v>65284</v>
+        <v>71033</v>
       </c>
       <c r="M56" s="19">
-        <v>66565</v>
+        <v>71099</v>
       </c>
       <c r="N56" s="19">
-        <v>71033</v>
+        <v>51899</v>
       </c>
       <c r="O56" s="19">
-        <v>71099</v>
+        <v>51687</v>
       </c>
       <c r="P56" s="19">
-        <v>51899</v>
+        <v>69277</v>
       </c>
       <c r="Q56" s="19">
-        <v>51687</v>
+        <v>61664</v>
       </c>
       <c r="R56" s="19">
-        <v>69277</v>
+        <v>77703</v>
       </c>
       <c r="S56" s="19">
-        <v>61664</v>
+        <v>61175</v>
       </c>
       <c r="T56" s="19">
-        <v>77703</v>
+        <v>22966</v>
       </c>
       <c r="U56" s="19">
-        <v>61175</v>
+        <v>58648</v>
       </c>
       <c r="V56" s="19">
-        <v>22966</v>
+        <v>75792</v>
       </c>
       <c r="W56" s="19">
-        <v>58648</v>
+        <v>66070</v>
       </c>
       <c r="X56" s="19">
-        <v>75792</v>
+        <v>57241</v>
       </c>
       <c r="Y56" s="19">
-        <v>66070</v>
+        <v>65611</v>
       </c>
       <c r="Z56" s="19">
-        <v>57241</v>
+        <v>67077</v>
       </c>
       <c r="AA56" s="19">
-        <v>65611</v>
+        <v>52759</v>
       </c>
       <c r="AB56" s="19">
-        <v>67077</v>
+        <v>56520</v>
       </c>
       <c r="AC56" s="19">
-        <v>52759</v>
+        <v>68912</v>
       </c>
       <c r="AD56" s="19">
-        <v>56520</v>
+        <v>55727</v>
       </c>
       <c r="AE56" s="19">
-        <v>68912</v>
+        <v>55116</v>
       </c>
       <c r="AF56" s="19">
-        <v>55727</v>
+        <v>49910</v>
       </c>
       <c r="AG56" s="19">
-        <v>55116</v>
+        <v>62984</v>
       </c>
       <c r="AH56" s="19">
-        <v>49910</v>
+        <v>68897</v>
       </c>
       <c r="AI56" s="19">
-        <v>62984</v>
+        <v>61109</v>
       </c>
       <c r="AJ56" s="19">
-        <v>68897</v>
+        <v>67102</v>
       </c>
       <c r="AK56" s="19">
-        <v>61109</v>
+        <v>73079</v>
       </c>
       <c r="AL56" s="19">
-        <v>67102</v>
+        <v>61785</v>
       </c>
       <c r="AM56" s="19">
-        <v>73079</v>
+        <v>56740</v>
       </c>
       <c r="AN56" s="19">
-        <v>61785</v>
+        <v>57188</v>
       </c>
       <c r="AO56" s="19">
-        <v>56740</v>
+        <v>46060</v>
       </c>
       <c r="AP56" s="19">
         <v>57188</v>
       </c>
       <c r="AQ56" s="19">
-        <v>46060</v>
+        <v>45499</v>
       </c>
       <c r="AR56" s="19">
-        <v>53643</v>
+        <v>38990</v>
       </c>
       <c r="AS56" s="19">
-        <v>45499</v>
+        <v>64573</v>
       </c>
       <c r="AT56" s="19">
-        <v>38990</v>
+        <v>78094</v>
       </c>
       <c r="AU56" s="19">
-        <v>64573</v>
+        <v>67382</v>
       </c>
       <c r="AV56" s="19">
-        <v>78094</v>
+        <v>58025</v>
       </c>
       <c r="AW56" s="19">
-        <v>67382</v>
+        <v>65566</v>
       </c>
       <c r="AX56" s="19">
-        <v>58025</v>
+        <v>50671</v>
       </c>
       <c r="AY56" s="19">
-        <v>65566</v>
+        <v>64058</v>
       </c>
       <c r="AZ56" s="19">
-        <v>50671</v>
+        <v>60795</v>
       </c>
       <c r="BA56" s="19">
-        <v>64058</v>
+        <v>62706</v>
       </c>
       <c r="BB56" s="19">
-        <v>60795</v>
+        <v>61042</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7966,7 +7966,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -8021,7 +8021,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -8076,7 +8076,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>79</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8288,7 +8288,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>79</v>
       </c>
@@ -8345,7 +8345,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>55</v>
       </c>
@@ -8371,104 +8371,104 @@
       <c r="J63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>57</v>
+      <c r="K63" s="11">
+        <v>2151</v>
+      </c>
+      <c r="L63" s="11">
+        <v>65790</v>
       </c>
       <c r="M63" s="11">
-        <v>2151</v>
+        <v>19038</v>
       </c>
       <c r="N63" s="11">
-        <v>65790</v>
+        <v>10901</v>
       </c>
       <c r="O63" s="11">
-        <v>19038</v>
+        <v>30194</v>
       </c>
       <c r="P63" s="11">
-        <v>10901</v>
+        <v>5974</v>
       </c>
       <c r="Q63" s="11">
-        <v>30194</v>
+        <v>7495</v>
       </c>
       <c r="R63" s="11">
-        <v>5974</v>
+        <v>2376</v>
       </c>
       <c r="S63" s="11">
-        <v>7495</v>
+        <v>9525</v>
       </c>
       <c r="T63" s="11">
-        <v>2376</v>
+        <v>680</v>
       </c>
       <c r="U63" s="11">
-        <v>9525</v>
+        <v>1854</v>
       </c>
       <c r="V63" s="11">
-        <v>680</v>
+        <v>405</v>
       </c>
       <c r="W63" s="11">
-        <v>1854</v>
+        <v>3411</v>
       </c>
       <c r="X63" s="11">
-        <v>405</v>
+        <v>21870</v>
       </c>
       <c r="Y63" s="11">
-        <v>3411</v>
+        <v>83823</v>
       </c>
       <c r="Z63" s="11">
-        <v>21870</v>
+        <v>75112</v>
       </c>
       <c r="AA63" s="11">
-        <v>83823</v>
+        <v>84816</v>
       </c>
       <c r="AB63" s="11">
-        <v>75112</v>
+        <v>52123</v>
       </c>
       <c r="AC63" s="11">
-        <v>84816</v>
+        <v>23993</v>
       </c>
       <c r="AD63" s="11">
-        <v>52123</v>
+        <v>5966</v>
       </c>
       <c r="AE63" s="11">
-        <v>23993</v>
+        <v>140</v>
       </c>
       <c r="AF63" s="11">
-        <v>5966</v>
+        <v>1181</v>
       </c>
       <c r="AG63" s="11">
-        <v>140</v>
+        <v>7063</v>
       </c>
       <c r="AH63" s="11">
-        <v>1181</v>
+        <v>2041</v>
       </c>
       <c r="AI63" s="11">
-        <v>7063</v>
+        <v>18102</v>
       </c>
       <c r="AJ63" s="11">
-        <v>2041</v>
+        <v>51274</v>
       </c>
       <c r="AK63" s="11">
-        <v>18102</v>
+        <v>202979</v>
       </c>
       <c r="AL63" s="11">
-        <v>51274</v>
+        <v>85758</v>
       </c>
       <c r="AM63" s="11">
-        <v>202979</v>
+        <v>155250</v>
       </c>
       <c r="AN63" s="11">
-        <v>85758</v>
+        <v>42358</v>
       </c>
       <c r="AO63" s="11">
-        <v>155250</v>
+        <v>30972</v>
       </c>
       <c r="AP63" s="11">
-        <v>42358</v>
-      </c>
-      <c r="AQ63" s="11">
-        <v>30972</v>
+        <v>20025</v>
+      </c>
+      <c r="AQ63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR63" s="11" t="s">
         <v>57</v>
@@ -8504,7 +8504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>58</v>
       </c>
@@ -8513,92 +8513,92 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>2204352</v>
+        <v>2007778</v>
       </c>
       <c r="F64" s="13">
-        <v>1735116</v>
+        <v>2021275</v>
       </c>
       <c r="G64" s="13">
-        <v>2007778</v>
+        <v>3158633</v>
       </c>
       <c r="H64" s="13">
-        <v>2021275</v>
+        <v>2182062</v>
       </c>
       <c r="I64" s="13">
-        <v>3158633</v>
+        <v>3336377</v>
       </c>
       <c r="J64" s="13">
-        <v>2182062</v>
+        <v>3690218</v>
       </c>
       <c r="K64" s="13">
-        <v>3336377</v>
+        <v>3709847</v>
       </c>
       <c r="L64" s="13">
-        <v>3690218</v>
+        <v>3799458</v>
       </c>
       <c r="M64" s="13">
-        <v>3709847</v>
+        <v>3664198</v>
       </c>
       <c r="N64" s="13">
-        <v>3799458</v>
+        <v>2814321</v>
       </c>
       <c r="O64" s="13">
-        <v>3664198</v>
+        <v>2530976</v>
       </c>
       <c r="P64" s="13">
-        <v>2814321</v>
+        <v>3886576</v>
       </c>
       <c r="Q64" s="13">
-        <v>2530976</v>
+        <v>2888282</v>
       </c>
       <c r="R64" s="13">
-        <v>3886576</v>
+        <v>4304013</v>
       </c>
       <c r="S64" s="13">
-        <v>2888282</v>
+        <v>3816064</v>
       </c>
       <c r="T64" s="13">
-        <v>4304013</v>
+        <v>1435621</v>
       </c>
       <c r="U64" s="13">
-        <v>3816064</v>
+        <v>2850372</v>
       </c>
       <c r="V64" s="13">
-        <v>1435621</v>
+        <v>4076371</v>
       </c>
       <c r="W64" s="13">
-        <v>2850372</v>
+        <v>4655580</v>
       </c>
       <c r="X64" s="13">
-        <v>4076371</v>
+        <v>4283342</v>
       </c>
       <c r="Y64" s="13">
-        <v>4655580</v>
+        <v>5267530</v>
       </c>
       <c r="Z64" s="13">
-        <v>4283342</v>
+        <v>6729658</v>
       </c>
       <c r="AA64" s="13">
-        <v>5267530</v>
+        <v>6162138</v>
       </c>
       <c r="AB64" s="13">
-        <v>6729658</v>
+        <v>7303483</v>
       </c>
       <c r="AC64" s="13">
-        <v>6162138</v>
+        <v>8090173</v>
       </c>
       <c r="AD64" s="13">
-        <v>7303483</v>
+        <v>7301184</v>
       </c>
       <c r="AE64" s="13">
-        <v>8090173</v>
-      </c>
-      <c r="AF64" s="13">
-        <v>7301184</v>
-      </c>
-      <c r="AG64" s="13">
         <v>7842635</v>
       </c>
+      <c r="AF64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG64" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH64" s="13" t="s">
         <v>57</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>59</v>
       </c>
@@ -8752,77 +8752,77 @@
       <c r="AE65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG65" s="11" t="s">
-        <v>57</v>
+      <c r="AF65" s="11">
+        <v>3202298</v>
+      </c>
+      <c r="AG65" s="11">
+        <v>3768352</v>
       </c>
       <c r="AH65" s="11">
-        <v>3202298</v>
+        <v>4534746</v>
       </c>
       <c r="AI65" s="11">
-        <v>3768352</v>
+        <v>4593975</v>
       </c>
       <c r="AJ65" s="11">
-        <v>4534746</v>
+        <v>5387789</v>
       </c>
       <c r="AK65" s="11">
-        <v>4593975</v>
+        <v>8627248</v>
       </c>
       <c r="AL65" s="11">
-        <v>5387789</v>
+        <v>4637124</v>
       </c>
       <c r="AM65" s="11">
-        <v>8627248</v>
+        <v>3607401</v>
       </c>
       <c r="AN65" s="11">
-        <v>4637124</v>
+        <v>4637386</v>
       </c>
       <c r="AO65" s="11">
-        <v>3607401</v>
+        <v>4310457</v>
       </c>
       <c r="AP65" s="11">
-        <v>4637386</v>
+        <v>4690021</v>
       </c>
       <c r="AQ65" s="11">
-        <v>4310457</v>
+        <v>5608454</v>
       </c>
       <c r="AR65" s="11">
-        <v>3996931</v>
+        <v>2199544</v>
       </c>
       <c r="AS65" s="11">
-        <v>5608454</v>
+        <v>7038855</v>
       </c>
       <c r="AT65" s="11">
-        <v>2199544</v>
+        <v>11316157</v>
       </c>
       <c r="AU65" s="11">
-        <v>7038855</v>
+        <v>10289411</v>
       </c>
       <c r="AV65" s="11">
-        <v>11316157</v>
+        <v>7816973</v>
       </c>
       <c r="AW65" s="11">
-        <v>10289411</v>
+        <v>6103818</v>
       </c>
       <c r="AX65" s="11">
-        <v>7816973</v>
+        <v>4342306</v>
       </c>
       <c r="AY65" s="11">
-        <v>6103818</v>
+        <v>5313687</v>
       </c>
       <c r="AZ65" s="11">
-        <v>4342306</v>
+        <v>4885080</v>
       </c>
       <c r="BA65" s="11">
-        <v>5313686</v>
+        <v>5293517</v>
       </c>
       <c r="BB65" s="11">
-        <v>4885080</v>
+        <v>4418112</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>60</v>
       </c>
@@ -8911,77 +8911,77 @@
       <c r="AE66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG66" s="13" t="s">
-        <v>57</v>
+      <c r="AF66" s="13">
+        <v>143590</v>
+      </c>
+      <c r="AG66" s="13">
+        <v>279026</v>
       </c>
       <c r="AH66" s="13">
-        <v>143590</v>
+        <v>277930</v>
       </c>
       <c r="AI66" s="13">
-        <v>279026</v>
+        <v>409487</v>
       </c>
       <c r="AJ66" s="13">
-        <v>277930</v>
+        <v>435347</v>
       </c>
       <c r="AK66" s="13">
-        <v>409487</v>
+        <v>332798</v>
       </c>
       <c r="AL66" s="13">
-        <v>435347</v>
+        <v>311039</v>
       </c>
       <c r="AM66" s="13">
-        <v>332798</v>
+        <v>293846</v>
       </c>
       <c r="AN66" s="13">
-        <v>311039</v>
+        <v>574625</v>
       </c>
       <c r="AO66" s="13">
-        <v>293846</v>
+        <v>452655</v>
       </c>
       <c r="AP66" s="13">
-        <v>574625</v>
+        <v>277470</v>
       </c>
       <c r="AQ66" s="13">
-        <v>452655</v>
+        <v>241758</v>
       </c>
       <c r="AR66" s="13">
-        <v>277470</v>
+        <v>226488</v>
       </c>
       <c r="AS66" s="13">
-        <v>241758</v>
+        <v>463862</v>
       </c>
       <c r="AT66" s="13">
-        <v>226488</v>
+        <v>308536</v>
       </c>
       <c r="AU66" s="13">
-        <v>463862</v>
+        <v>261700</v>
       </c>
       <c r="AV66" s="13">
-        <v>308536</v>
+        <v>112983</v>
       </c>
       <c r="AW66" s="13">
-        <v>261700</v>
+        <v>164400</v>
       </c>
       <c r="AX66" s="13">
-        <v>112983</v>
+        <v>412887</v>
       </c>
       <c r="AY66" s="13">
-        <v>164400</v>
+        <v>332881</v>
       </c>
       <c r="AZ66" s="13">
-        <v>412887</v>
+        <v>534611</v>
       </c>
       <c r="BA66" s="13">
-        <v>332879</v>
+        <v>359413</v>
       </c>
       <c r="BB66" s="13">
-        <v>534611</v>
+        <v>704141</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>61</v>
       </c>
@@ -9007,140 +9007,140 @@
       <c r="J67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>57</v>
+      <c r="K67" s="11">
+        <v>4254</v>
+      </c>
+      <c r="L67" s="11">
+        <v>4582</v>
       </c>
       <c r="M67" s="11">
-        <v>4254</v>
+        <v>6583</v>
       </c>
       <c r="N67" s="11">
-        <v>4582</v>
+        <v>7498</v>
       </c>
       <c r="O67" s="11">
-        <v>6583</v>
+        <v>3694</v>
       </c>
       <c r="P67" s="11">
-        <v>7498</v>
+        <v>7503</v>
       </c>
       <c r="Q67" s="11">
-        <v>3694</v>
+        <v>4164</v>
       </c>
       <c r="R67" s="11">
-        <v>7503</v>
+        <v>4560</v>
       </c>
       <c r="S67" s="11">
-        <v>4164</v>
+        <v>5537</v>
       </c>
       <c r="T67" s="11">
-        <v>4560</v>
+        <v>2847</v>
       </c>
       <c r="U67" s="11">
-        <v>5537</v>
+        <v>13163</v>
       </c>
       <c r="V67" s="11">
-        <v>2847</v>
+        <v>9334</v>
       </c>
       <c r="W67" s="11">
-        <v>13163</v>
+        <v>6113</v>
       </c>
       <c r="X67" s="11">
-        <v>9334</v>
+        <v>2348</v>
       </c>
       <c r="Y67" s="11">
-        <v>6113</v>
+        <v>17001</v>
       </c>
       <c r="Z67" s="11">
-        <v>2348</v>
+        <v>8003</v>
       </c>
       <c r="AA67" s="11">
-        <v>17001</v>
+        <v>1572</v>
       </c>
       <c r="AB67" s="11">
-        <v>8003</v>
+        <v>10035</v>
       </c>
       <c r="AC67" s="11">
-        <v>1572</v>
+        <v>3491</v>
       </c>
       <c r="AD67" s="11">
-        <v>10035</v>
+        <v>5748</v>
       </c>
       <c r="AE67" s="11">
-        <v>3491</v>
+        <v>2326</v>
       </c>
       <c r="AF67" s="11">
-        <v>5748</v>
+        <v>19239</v>
       </c>
       <c r="AG67" s="11">
-        <v>2326</v>
+        <v>16987</v>
       </c>
       <c r="AH67" s="11">
-        <v>19239</v>
+        <v>33160</v>
       </c>
       <c r="AI67" s="11">
-        <v>16987</v>
+        <v>24910</v>
       </c>
       <c r="AJ67" s="11">
-        <v>33160</v>
+        <v>2995</v>
       </c>
       <c r="AK67" s="11">
-        <v>24910</v>
+        <v>410</v>
       </c>
       <c r="AL67" s="11">
-        <v>2995</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="11">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="11">
-        <v>0</v>
+        <v>8537</v>
       </c>
       <c r="AO67" s="11">
-        <v>0</v>
+        <v>10739</v>
       </c>
       <c r="AP67" s="11">
-        <v>8537</v>
+        <v>20053</v>
       </c>
       <c r="AQ67" s="11">
-        <v>10739</v>
+        <v>32684</v>
       </c>
       <c r="AR67" s="11">
-        <v>20053</v>
+        <v>5468</v>
       </c>
       <c r="AS67" s="11">
-        <v>32684</v>
+        <v>20647</v>
       </c>
       <c r="AT67" s="11">
-        <v>5468</v>
+        <v>6018</v>
       </c>
       <c r="AU67" s="11">
-        <v>20647</v>
+        <v>1494</v>
       </c>
       <c r="AV67" s="11">
-        <v>6018</v>
+        <v>1429</v>
       </c>
       <c r="AW67" s="11">
-        <v>1494</v>
+        <v>65</v>
       </c>
       <c r="AX67" s="11">
-        <v>1429</v>
+        <v>6157</v>
       </c>
       <c r="AY67" s="11">
-        <v>65</v>
+        <v>11770</v>
       </c>
       <c r="AZ67" s="11">
-        <v>6157</v>
+        <v>48802</v>
       </c>
       <c r="BA67" s="11">
-        <v>11770</v>
+        <v>44904</v>
       </c>
       <c r="BB67" s="11">
-        <v>48802</v>
+        <v>43198</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>62</v>
       </c>
@@ -9262,44 +9262,44 @@
       <c r="AP68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ68" s="13" t="s">
-        <v>57</v>
+      <c r="AQ68" s="13">
+        <v>73</v>
       </c>
       <c r="AR68" s="13">
-        <v>0</v>
+        <v>5787</v>
       </c>
       <c r="AS68" s="13">
-        <v>73</v>
+        <v>22723</v>
       </c>
       <c r="AT68" s="13">
-        <v>5787</v>
+        <v>49385</v>
       </c>
       <c r="AU68" s="13">
-        <v>22723</v>
+        <v>174435</v>
       </c>
       <c r="AV68" s="13">
-        <v>49385</v>
+        <v>95500</v>
       </c>
       <c r="AW68" s="13">
-        <v>174435</v>
+        <v>7652</v>
       </c>
       <c r="AX68" s="13">
-        <v>95500</v>
+        <v>12005</v>
       </c>
       <c r="AY68" s="13">
-        <v>7652</v>
+        <v>25648</v>
       </c>
       <c r="AZ68" s="13">
-        <v>12005</v>
+        <v>18337</v>
       </c>
       <c r="BA68" s="13">
-        <v>25647</v>
+        <v>27667</v>
       </c>
       <c r="BB68" s="13">
-        <v>18337</v>
+        <v>26398</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>63</v>
       </c>
@@ -9308,28 +9308,28 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>904622</v>
+        <v>1023447</v>
       </c>
       <c r="F69" s="11">
-        <v>1021759</v>
+        <v>901054</v>
       </c>
       <c r="G69" s="11">
-        <v>1023447</v>
+        <v>835917</v>
       </c>
       <c r="H69" s="11">
-        <v>901054</v>
+        <v>643895</v>
       </c>
       <c r="I69" s="11">
-        <v>835917</v>
+        <v>1461691</v>
       </c>
       <c r="J69" s="11">
-        <v>643895</v>
+        <v>1107262</v>
       </c>
       <c r="K69" s="11">
-        <v>1461691</v>
+        <v>0</v>
       </c>
       <c r="L69" s="11">
-        <v>1107262</v>
+        <v>0</v>
       </c>
       <c r="M69" s="11">
         <v>0</v>
@@ -9352,21 +9352,21 @@
       <c r="S69" s="11">
         <v>0</v>
       </c>
-      <c r="T69" s="11">
-        <v>0</v>
+      <c r="T69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U69" s="11">
         <v>0</v>
       </c>
-      <c r="V69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W69" s="11">
-        <v>0</v>
-      </c>
-      <c r="X69" s="11">
+      <c r="V69" s="11">
         <v>-3493</v>
       </c>
+      <c r="W69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X69" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y69" s="11" t="s">
         <v>57</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>64</v>
       </c>
@@ -9547,77 +9547,77 @@
       <c r="AE70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG70" s="13" t="s">
-        <v>57</v>
+      <c r="AF70" s="13">
+        <v>203984</v>
+      </c>
+      <c r="AG70" s="13">
+        <v>528817</v>
       </c>
       <c r="AH70" s="13">
-        <v>203984</v>
+        <v>572466</v>
       </c>
       <c r="AI70" s="13">
-        <v>528817</v>
+        <v>364166</v>
       </c>
       <c r="AJ70" s="13">
-        <v>572466</v>
+        <v>650691</v>
       </c>
       <c r="AK70" s="13">
-        <v>364166</v>
+        <v>831565</v>
       </c>
       <c r="AL70" s="13">
-        <v>650691</v>
+        <v>573992</v>
       </c>
       <c r="AM70" s="13">
-        <v>831565</v>
+        <v>944130</v>
       </c>
       <c r="AN70" s="13">
-        <v>573992</v>
+        <v>1056319</v>
       </c>
       <c r="AO70" s="13">
-        <v>944130</v>
+        <v>769162</v>
       </c>
       <c r="AP70" s="13">
-        <v>1056319</v>
+        <v>1181598</v>
       </c>
       <c r="AQ70" s="13">
-        <v>769162</v>
+        <v>654147</v>
       </c>
       <c r="AR70" s="13">
-        <v>1181598</v>
+        <v>763094</v>
       </c>
       <c r="AS70" s="13">
-        <v>654147</v>
+        <v>1169679</v>
       </c>
       <c r="AT70" s="13">
-        <v>763094</v>
+        <v>965638</v>
       </c>
       <c r="AU70" s="13">
-        <v>1169679</v>
+        <v>1138352</v>
       </c>
       <c r="AV70" s="13">
-        <v>965638</v>
+        <v>1384236</v>
       </c>
       <c r="AW70" s="13">
-        <v>1138352</v>
+        <v>814685</v>
       </c>
       <c r="AX70" s="13">
-        <v>1384236</v>
+        <v>678171</v>
       </c>
       <c r="AY70" s="13">
-        <v>814685</v>
+        <v>600834</v>
       </c>
       <c r="AZ70" s="13">
-        <v>678171</v>
+        <v>512146</v>
       </c>
       <c r="BA70" s="13">
-        <v>600834</v>
+        <v>320114</v>
       </c>
       <c r="BB70" s="13">
-        <v>512146</v>
+        <v>873074</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>65</v>
       </c>
@@ -9643,75 +9643,75 @@
       <c r="J71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L71" s="11" t="s">
-        <v>57</v>
+      <c r="K71" s="11">
+        <v>476823</v>
+      </c>
+      <c r="L71" s="11">
+        <v>304296</v>
       </c>
       <c r="M71" s="11">
-        <v>476823</v>
+        <v>379172</v>
       </c>
       <c r="N71" s="11">
-        <v>304296</v>
+        <v>234921</v>
       </c>
       <c r="O71" s="11">
-        <v>379172</v>
+        <v>224522</v>
       </c>
       <c r="P71" s="11">
-        <v>234921</v>
+        <v>316108</v>
       </c>
       <c r="Q71" s="11">
-        <v>224522</v>
+        <v>529213</v>
       </c>
       <c r="R71" s="11">
-        <v>316108</v>
+        <v>595188</v>
       </c>
       <c r="S71" s="11">
-        <v>529213</v>
+        <v>308570</v>
       </c>
       <c r="T71" s="11">
-        <v>595188</v>
+        <v>55251</v>
       </c>
       <c r="U71" s="11">
-        <v>308570</v>
+        <v>174668</v>
       </c>
       <c r="V71" s="11">
-        <v>55251</v>
+        <v>450771</v>
       </c>
       <c r="W71" s="11">
-        <v>174668</v>
+        <v>442505</v>
       </c>
       <c r="X71" s="11">
-        <v>450771</v>
+        <v>570074</v>
       </c>
       <c r="Y71" s="11">
-        <v>442505</v>
+        <v>601097</v>
       </c>
       <c r="Z71" s="11">
-        <v>570074</v>
+        <v>611823</v>
       </c>
       <c r="AA71" s="11">
-        <v>601097</v>
+        <v>568403</v>
       </c>
       <c r="AB71" s="11">
-        <v>611823</v>
+        <v>657627</v>
       </c>
       <c r="AC71" s="11">
-        <v>568403</v>
+        <v>787663</v>
       </c>
       <c r="AD71" s="11">
-        <v>657627</v>
+        <v>1137847</v>
       </c>
       <c r="AE71" s="11">
-        <v>787663</v>
-      </c>
-      <c r="AF71" s="11">
-        <v>1137847</v>
-      </c>
-      <c r="AG71" s="11">
         <v>606742</v>
       </c>
+      <c r="AF71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG71" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH71" s="11" t="s">
         <v>57</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>66</v>
       </c>
@@ -9865,77 +9865,77 @@
       <c r="AE72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF72" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG72" s="13" t="s">
-        <v>57</v>
+      <c r="AF72" s="13">
+        <v>1012494</v>
+      </c>
+      <c r="AG72" s="13">
+        <v>1222296</v>
       </c>
       <c r="AH72" s="13">
-        <v>1012494</v>
+        <v>1534794</v>
       </c>
       <c r="AI72" s="13">
-        <v>1222296</v>
+        <v>1359389</v>
       </c>
       <c r="AJ72" s="13">
-        <v>1534794</v>
+        <v>1505517</v>
       </c>
       <c r="AK72" s="13">
-        <v>1359389</v>
+        <v>1809473</v>
       </c>
       <c r="AL72" s="13">
-        <v>1505517</v>
+        <v>1363783</v>
       </c>
       <c r="AM72" s="13">
-        <v>1809473</v>
+        <v>1273493</v>
       </c>
       <c r="AN72" s="13">
-        <v>1363783</v>
+        <v>1441869</v>
       </c>
       <c r="AO72" s="13">
-        <v>1273493</v>
+        <v>1361011</v>
       </c>
       <c r="AP72" s="13">
-        <v>1441869</v>
+        <v>1246535</v>
       </c>
       <c r="AQ72" s="13">
-        <v>1361011</v>
+        <v>1485862</v>
       </c>
       <c r="AR72" s="13">
-        <v>1246535</v>
+        <v>630133</v>
       </c>
       <c r="AS72" s="13">
-        <v>1485862</v>
+        <v>1078203</v>
       </c>
       <c r="AT72" s="13">
-        <v>630133</v>
+        <v>2182482</v>
       </c>
       <c r="AU72" s="13">
-        <v>1078203</v>
+        <v>1605942</v>
       </c>
       <c r="AV72" s="13">
-        <v>2182482</v>
+        <v>2016372</v>
       </c>
       <c r="AW72" s="13">
-        <v>1605942</v>
+        <v>2419135</v>
       </c>
       <c r="AX72" s="13">
-        <v>2016372</v>
+        <v>1659096</v>
       </c>
       <c r="AY72" s="13">
-        <v>2419135</v>
+        <v>1807299</v>
       </c>
       <c r="AZ72" s="13">
-        <v>1659096</v>
+        <v>1731324</v>
       </c>
       <c r="BA72" s="13">
-        <v>1807299</v>
+        <v>2314465</v>
       </c>
       <c r="BB72" s="13">
-        <v>1731324</v>
+        <v>2501112</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>67</v>
       </c>
@@ -10024,77 +10024,77 @@
       <c r="AE73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG73" s="11" t="s">
-        <v>57</v>
+      <c r="AF73" s="11">
+        <v>1224608</v>
+      </c>
+      <c r="AG73" s="11">
+        <v>1338041</v>
       </c>
       <c r="AH73" s="11">
-        <v>1224608</v>
+        <v>1593300</v>
       </c>
       <c r="AI73" s="11">
-        <v>1338041</v>
+        <v>1005979</v>
       </c>
       <c r="AJ73" s="11">
-        <v>1593300</v>
+        <v>1752198</v>
       </c>
       <c r="AK73" s="11">
-        <v>1005979</v>
+        <v>1764468</v>
       </c>
       <c r="AL73" s="11">
-        <v>1752198</v>
+        <v>1580672</v>
       </c>
       <c r="AM73" s="11">
-        <v>1764468</v>
+        <v>1905621</v>
       </c>
       <c r="AN73" s="11">
-        <v>1580672</v>
+        <v>1972794</v>
       </c>
       <c r="AO73" s="11">
-        <v>1905621</v>
+        <v>1959762</v>
       </c>
       <c r="AP73" s="11">
-        <v>1972794</v>
+        <v>1911493</v>
       </c>
       <c r="AQ73" s="11">
-        <v>1959762</v>
+        <v>1782010</v>
       </c>
       <c r="AR73" s="11">
-        <v>1911493</v>
+        <v>967356</v>
       </c>
       <c r="AS73" s="11">
-        <v>1782010</v>
+        <v>1766178</v>
       </c>
       <c r="AT73" s="11">
-        <v>967356</v>
+        <v>2224504</v>
       </c>
       <c r="AU73" s="11">
-        <v>1766178</v>
+        <v>2255446</v>
       </c>
       <c r="AV73" s="11">
-        <v>2224504</v>
+        <v>2332348</v>
       </c>
       <c r="AW73" s="11">
-        <v>2255446</v>
+        <v>3414039</v>
       </c>
       <c r="AX73" s="11">
-        <v>2332348</v>
+        <v>2494805</v>
       </c>
       <c r="AY73" s="11">
-        <v>3414039</v>
+        <v>3344449</v>
       </c>
       <c r="AZ73" s="11">
-        <v>2494805</v>
+        <v>3970094</v>
       </c>
       <c r="BA73" s="11">
-        <v>3344449</v>
+        <v>3311492</v>
       </c>
       <c r="BB73" s="11">
-        <v>3970094</v>
+        <v>3697524</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>68</v>
       </c>
@@ -10183,77 +10183,77 @@
       <c r="AE74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF74" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG74" s="13" t="s">
-        <v>57</v>
+      <c r="AF74" s="13">
+        <v>414689</v>
+      </c>
+      <c r="AG74" s="13">
+        <v>701807</v>
       </c>
       <c r="AH74" s="13">
-        <v>414689</v>
+        <v>630462</v>
       </c>
       <c r="AI74" s="13">
-        <v>701807</v>
+        <v>548203</v>
       </c>
       <c r="AJ74" s="13">
-        <v>630462</v>
+        <v>403964</v>
       </c>
       <c r="AK74" s="13">
-        <v>548203</v>
+        <v>786001</v>
       </c>
       <c r="AL74" s="13">
-        <v>403964</v>
+        <v>649521</v>
       </c>
       <c r="AM74" s="13">
-        <v>786001</v>
+        <v>632332</v>
       </c>
       <c r="AN74" s="13">
-        <v>649521</v>
+        <v>617866</v>
       </c>
       <c r="AO74" s="13">
-        <v>632332</v>
+        <v>528351</v>
       </c>
       <c r="AP74" s="13">
-        <v>617866</v>
+        <v>586166</v>
       </c>
       <c r="AQ74" s="13">
-        <v>528351</v>
+        <v>754586</v>
       </c>
       <c r="AR74" s="13">
-        <v>586166</v>
+        <v>397241</v>
       </c>
       <c r="AS74" s="13">
-        <v>754586</v>
+        <v>924724</v>
       </c>
       <c r="AT74" s="13">
-        <v>397241</v>
+        <v>1062554</v>
       </c>
       <c r="AU74" s="13">
-        <v>924724</v>
+        <v>648397</v>
       </c>
       <c r="AV74" s="13">
-        <v>1062554</v>
+        <v>755556</v>
       </c>
       <c r="AW74" s="13">
-        <v>648397</v>
+        <v>706033</v>
       </c>
       <c r="AX74" s="13">
-        <v>755556</v>
+        <v>560827</v>
       </c>
       <c r="AY74" s="13">
-        <v>706033</v>
+        <v>773745</v>
       </c>
       <c r="AZ74" s="13">
-        <v>560827</v>
+        <v>792533</v>
       </c>
       <c r="BA74" s="13">
-        <v>773745</v>
+        <v>1604922</v>
       </c>
       <c r="BB74" s="13">
-        <v>792533</v>
+        <v>1994563</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>69</v>
       </c>
@@ -10342,77 +10342,77 @@
       <c r="AE75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG75" s="11" t="s">
-        <v>57</v>
+      <c r="AF75" s="11">
+        <v>193824</v>
+      </c>
+      <c r="AG75" s="11">
+        <v>216114</v>
       </c>
       <c r="AH75" s="11">
-        <v>193824</v>
+        <v>307272</v>
       </c>
       <c r="AI75" s="11">
-        <v>216114</v>
+        <v>134029</v>
       </c>
       <c r="AJ75" s="11">
-        <v>307272</v>
+        <v>183420</v>
       </c>
       <c r="AK75" s="11">
-        <v>134029</v>
+        <v>253633</v>
       </c>
       <c r="AL75" s="11">
-        <v>183420</v>
+        <v>217942</v>
       </c>
       <c r="AM75" s="11">
-        <v>253633</v>
+        <v>224292</v>
       </c>
       <c r="AN75" s="11">
-        <v>217942</v>
+        <v>309289</v>
       </c>
       <c r="AO75" s="11">
-        <v>224292</v>
+        <v>181043</v>
       </c>
       <c r="AP75" s="11">
-        <v>309289</v>
+        <v>184352</v>
       </c>
       <c r="AQ75" s="11">
-        <v>181043</v>
+        <v>212206</v>
       </c>
       <c r="AR75" s="11">
-        <v>184352</v>
+        <v>198259</v>
       </c>
       <c r="AS75" s="11">
-        <v>212206</v>
+        <v>426184</v>
       </c>
       <c r="AT75" s="11">
-        <v>198259</v>
+        <v>444298</v>
       </c>
       <c r="AU75" s="11">
-        <v>426184</v>
+        <v>188180</v>
       </c>
       <c r="AV75" s="11">
-        <v>444298</v>
+        <v>162272</v>
       </c>
       <c r="AW75" s="11">
-        <v>188180</v>
+        <v>463428</v>
       </c>
       <c r="AX75" s="11">
-        <v>162272</v>
+        <v>258955</v>
       </c>
       <c r="AY75" s="11">
-        <v>463428</v>
+        <v>363486</v>
       </c>
       <c r="AZ75" s="11">
-        <v>258955</v>
+        <v>400273</v>
       </c>
       <c r="BA75" s="11">
-        <v>363486</v>
+        <v>343707</v>
       </c>
       <c r="BB75" s="11">
-        <v>400273</v>
+        <v>352349</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>70</v>
       </c>
@@ -10501,77 +10501,77 @@
       <c r="AE76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF76" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG76" s="13" t="s">
-        <v>57</v>
+      <c r="AF76" s="13">
+        <v>1135769</v>
+      </c>
+      <c r="AG76" s="13">
+        <v>1500227</v>
       </c>
       <c r="AH76" s="13">
-        <v>1135769</v>
+        <v>1534204</v>
       </c>
       <c r="AI76" s="13">
-        <v>1500227</v>
+        <v>1588124</v>
       </c>
       <c r="AJ76" s="13">
-        <v>1534204</v>
+        <v>1705963</v>
       </c>
       <c r="AK76" s="13">
-        <v>1588124</v>
+        <v>1378982</v>
       </c>
       <c r="AL76" s="13">
-        <v>1705963</v>
+        <v>2365489</v>
       </c>
       <c r="AM76" s="13">
-        <v>1378982</v>
+        <v>2017230</v>
       </c>
       <c r="AN76" s="13">
-        <v>2365489</v>
+        <v>1453564</v>
       </c>
       <c r="AO76" s="13">
-        <v>2017230</v>
+        <v>867973</v>
       </c>
       <c r="AP76" s="13">
-        <v>1453564</v>
+        <v>1760123</v>
       </c>
       <c r="AQ76" s="13">
-        <v>867973</v>
+        <v>249540</v>
       </c>
       <c r="AR76" s="13">
-        <v>1784048</v>
+        <v>3278703</v>
       </c>
       <c r="AS76" s="13">
-        <v>249540</v>
+        <v>2886505</v>
       </c>
       <c r="AT76" s="13">
-        <v>3278703</v>
+        <v>2286360</v>
       </c>
       <c r="AU76" s="13">
-        <v>2886505</v>
+        <v>2054045</v>
       </c>
       <c r="AV76" s="13">
-        <v>2286360</v>
+        <v>1751195</v>
       </c>
       <c r="AW76" s="13">
-        <v>2054045</v>
+        <v>2042689</v>
       </c>
       <c r="AX76" s="13">
-        <v>1751195</v>
+        <v>1613119</v>
       </c>
       <c r="AY76" s="13">
-        <v>2042689</v>
+        <v>2309583</v>
       </c>
       <c r="AZ76" s="13">
-        <v>1613119</v>
+        <v>1576426</v>
       </c>
       <c r="BA76" s="13">
-        <v>2309583</v>
+        <v>2412499</v>
       </c>
       <c r="BB76" s="13">
-        <v>1576426</v>
+        <v>2260401</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>71</v>
       </c>
@@ -10660,23 +10660,23 @@
       <c r="AE77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG77" s="11" t="s">
-        <v>57</v>
+      <c r="AF77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="11">
+        <v>0</v>
       </c>
       <c r="AH77" s="11">
-        <v>0</v>
+        <v>65173</v>
       </c>
       <c r="AI77" s="11">
-        <v>0</v>
+        <v>62725</v>
       </c>
       <c r="AJ77" s="11">
-        <v>65173</v>
+        <v>0</v>
       </c>
       <c r="AK77" s="11">
-        <v>62725</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="11">
         <v>0</v>
@@ -10696,11 +10696,11 @@
       <c r="AQ77" s="11">
         <v>0</v>
       </c>
-      <c r="AR77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS77" s="11">
-        <v>0</v>
+      <c r="AR77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT77" s="11" t="s">
         <v>57</v>
@@ -10730,7 +10730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
         <v>81</v>
       </c>
@@ -10787,7 +10787,7 @@
       <c r="BA78" s="15"/>
       <c r="BB78" s="15"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>73</v>
       </c>
@@ -10849,11 +10849,11 @@
       <c r="V79" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W79" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X79" s="17" t="s">
-        <v>57</v>
+      <c r="W79" s="17">
+        <v>0</v>
+      </c>
+      <c r="X79" s="17">
+        <v>0</v>
       </c>
       <c r="Y79" s="17">
         <v>0</v>
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>77</v>
       </c>
@@ -11095,74 +11095,74 @@
       <c r="AF81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH81" s="11" t="s">
-        <v>57</v>
+      <c r="AG81" s="11">
+        <v>-1096</v>
+      </c>
+      <c r="AH81" s="11">
+        <v>-1597</v>
       </c>
       <c r="AI81" s="11">
-        <v>-1096</v>
+        <v>-133</v>
       </c>
       <c r="AJ81" s="11">
-        <v>-1597</v>
+        <v>0</v>
       </c>
       <c r="AK81" s="11">
-        <v>-133</v>
+        <v>-356143</v>
       </c>
       <c r="AL81" s="11">
-        <v>0</v>
+        <v>-4243</v>
       </c>
       <c r="AM81" s="11">
-        <v>-356143</v>
+        <v>0</v>
       </c>
       <c r="AN81" s="11">
-        <v>-4243</v>
+        <v>-4072</v>
       </c>
       <c r="AO81" s="11">
         <v>0</v>
       </c>
       <c r="AP81" s="11">
-        <v>-4072</v>
+        <v>-7758</v>
       </c>
       <c r="AQ81" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR81" s="11">
-        <v>-7758</v>
+        <v>-34371</v>
+      </c>
+      <c r="AR81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS81" s="11">
-        <v>-34371</v>
+        <v>0</v>
       </c>
       <c r="AT81" s="11">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AU81" s="11">
         <v>0</v>
       </c>
       <c r="AV81" s="11">
-        <v>-1606</v>
+        <v>0</v>
       </c>
       <c r="AW81" s="11">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="AX81" s="11">
         <v>0</v>
       </c>
       <c r="AY81" s="11">
-        <v>0</v>
+        <v>-4380</v>
       </c>
       <c r="AZ81" s="11">
         <v>0</v>
       </c>
       <c r="BA81" s="11">
-        <v>-4380</v>
+        <v>-4272</v>
       </c>
       <c r="BB81" s="11">
-        <v>0</v>
+        <v>-1731</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>63</v>
       </c>
@@ -11224,39 +11224,39 @@
       <c r="V82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X82" s="13" t="s">
-        <v>57</v>
+      <c r="W82" s="13">
+        <v>-3871</v>
+      </c>
+      <c r="X82" s="13">
+        <v>-55</v>
       </c>
       <c r="Y82" s="13">
-        <v>-3871</v>
+        <v>0</v>
       </c>
       <c r="Z82" s="13">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AA82" s="13">
         <v>0</v>
       </c>
       <c r="AB82" s="13">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AC82" s="13">
         <v>0</v>
       </c>
       <c r="AD82" s="13">
-        <v>-1428</v>
+        <v>-1208</v>
       </c>
       <c r="AE82" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF82" s="13">
-        <v>-1208</v>
-      </c>
-      <c r="AG82" s="13">
         <v>-530</v>
       </c>
+      <c r="AF82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG82" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH82" s="13" t="s">
         <v>57</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
         <v>78</v>
       </c>
@@ -11383,104 +11383,104 @@
       <c r="V83" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W83" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X83" s="17" t="s">
-        <v>57</v>
+      <c r="W83" s="17">
+        <v>-3871</v>
+      </c>
+      <c r="X83" s="17">
+        <v>-55</v>
       </c>
       <c r="Y83" s="17">
-        <v>-3871</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="17">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="17">
         <v>0</v>
       </c>
       <c r="AB83" s="17">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AC83" s="17">
         <v>0</v>
       </c>
       <c r="AD83" s="17">
-        <v>-1428</v>
+        <v>-1208</v>
       </c>
       <c r="AE83" s="17">
-        <v>0</v>
+        <v>-530</v>
       </c>
       <c r="AF83" s="17">
-        <v>-1208</v>
+        <v>0</v>
       </c>
       <c r="AG83" s="17">
-        <v>-530</v>
+        <v>-1096</v>
       </c>
       <c r="AH83" s="17">
-        <v>0</v>
+        <v>-1597</v>
       </c>
       <c r="AI83" s="17">
-        <v>-1096</v>
+        <v>-133</v>
       </c>
       <c r="AJ83" s="17">
-        <v>-1597</v>
+        <v>0</v>
       </c>
       <c r="AK83" s="17">
-        <v>-133</v>
+        <v>-356143</v>
       </c>
       <c r="AL83" s="17">
-        <v>0</v>
+        <v>-4243</v>
       </c>
       <c r="AM83" s="17">
-        <v>-356143</v>
+        <v>0</v>
       </c>
       <c r="AN83" s="17">
-        <v>-4243</v>
+        <v>-4072</v>
       </c>
       <c r="AO83" s="17">
         <v>0</v>
       </c>
       <c r="AP83" s="17">
-        <v>-4072</v>
+        <v>-7758</v>
       </c>
       <c r="AQ83" s="17">
-        <v>0</v>
+        <v>-34371</v>
       </c>
       <c r="AR83" s="17">
-        <v>-7758</v>
+        <v>0</v>
       </c>
       <c r="AS83" s="17">
-        <v>-34371</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="17">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AU83" s="17">
         <v>0</v>
       </c>
       <c r="AV83" s="17">
-        <v>-1606</v>
+        <v>0</v>
       </c>
       <c r="AW83" s="17">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="AX83" s="17">
         <v>0</v>
       </c>
       <c r="AY83" s="17">
-        <v>0</v>
+        <v>-4380</v>
       </c>
       <c r="AZ83" s="17">
         <v>0</v>
       </c>
       <c r="BA83" s="17">
-        <v>-4380</v>
+        <v>-4272</v>
       </c>
       <c r="BB83" s="17">
-        <v>0</v>
+        <v>-1731</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>83</v>
       </c>
@@ -11537,7 +11537,7 @@
       <c r="BA84" s="9"/>
       <c r="BB84" s="9"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>84</v>
       </c>
@@ -11599,261 +11599,261 @@
       <c r="V85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X85" s="11" t="s">
-        <v>57</v>
+      <c r="W85" s="11">
+        <v>-99965</v>
+      </c>
+      <c r="X85" s="11">
+        <v>-63046</v>
       </c>
       <c r="Y85" s="11">
-        <v>-99965</v>
+        <v>-121319</v>
       </c>
       <c r="Z85" s="11">
-        <v>-63046</v>
+        <v>-104481</v>
       </c>
       <c r="AA85" s="11">
-        <v>-121319</v>
+        <v>-33470</v>
       </c>
       <c r="AB85" s="11">
-        <v>-104481</v>
+        <v>-108786</v>
       </c>
       <c r="AC85" s="11">
-        <v>-33470</v>
+        <v>-194709</v>
       </c>
       <c r="AD85" s="11">
-        <v>-108786</v>
+        <v>-160422</v>
       </c>
       <c r="AE85" s="11">
-        <v>-194709</v>
+        <v>-147739</v>
       </c>
       <c r="AF85" s="11">
-        <v>-160422</v>
+        <v>-82901</v>
       </c>
       <c r="AG85" s="11">
-        <v>-147739</v>
+        <v>-70815</v>
       </c>
       <c r="AH85" s="11">
-        <v>-82901</v>
+        <v>-55936</v>
       </c>
       <c r="AI85" s="11">
-        <v>-70815</v>
+        <v>-166034</v>
       </c>
       <c r="AJ85" s="11">
-        <v>-55936</v>
+        <v>-162714</v>
       </c>
       <c r="AK85" s="11">
-        <v>-166034</v>
+        <v>-146494</v>
       </c>
       <c r="AL85" s="11">
-        <v>-162714</v>
+        <v>-107065</v>
       </c>
       <c r="AM85" s="11">
-        <v>-146494</v>
+        <v>-178470</v>
       </c>
       <c r="AN85" s="11">
-        <v>-107065</v>
+        <v>-99431</v>
       </c>
       <c r="AO85" s="11">
-        <v>-178470</v>
+        <v>-117236</v>
       </c>
       <c r="AP85" s="11">
-        <v>-99431</v>
+        <v>-72470</v>
       </c>
       <c r="AQ85" s="11">
-        <v>-117236</v>
+        <v>-98358</v>
       </c>
       <c r="AR85" s="11">
-        <v>-72470</v>
+        <v>-36205</v>
       </c>
       <c r="AS85" s="11">
-        <v>-98358</v>
+        <v>-46431</v>
       </c>
       <c r="AT85" s="11">
-        <v>-36205</v>
+        <v>-24993</v>
       </c>
       <c r="AU85" s="11">
-        <v>-46431</v>
+        <v>-16300</v>
       </c>
       <c r="AV85" s="11">
-        <v>-24993</v>
+        <v>-18418</v>
       </c>
       <c r="AW85" s="11">
-        <v>-16300</v>
+        <v>-838864</v>
       </c>
       <c r="AX85" s="11">
-        <v>-18418</v>
+        <v>-263408</v>
       </c>
       <c r="AY85" s="11">
-        <v>-838864</v>
+        <v>-281259</v>
       </c>
       <c r="AZ85" s="11">
-        <v>-263408</v>
+        <v>-751621</v>
       </c>
       <c r="BA85" s="11">
-        <v>-281255</v>
+        <v>-362776</v>
       </c>
       <c r="BB85" s="11">
-        <v>-751621</v>
+        <v>-392345</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19">
-        <v>3108974</v>
+        <v>3031225</v>
       </c>
       <c r="F86" s="19">
-        <v>2756875</v>
+        <v>2922329</v>
       </c>
       <c r="G86" s="19">
-        <v>3031225</v>
+        <v>3994550</v>
       </c>
       <c r="H86" s="19">
-        <v>2922329</v>
+        <v>2825957</v>
       </c>
       <c r="I86" s="19">
-        <v>3994550</v>
+        <v>4798068</v>
       </c>
       <c r="J86" s="19">
-        <v>2825957</v>
+        <v>4797480</v>
       </c>
       <c r="K86" s="19">
-        <v>4798068</v>
+        <v>4193075</v>
       </c>
       <c r="L86" s="19">
-        <v>4797480</v>
+        <v>4174126</v>
       </c>
       <c r="M86" s="19">
-        <v>4193075</v>
+        <v>4068991</v>
       </c>
       <c r="N86" s="19">
-        <v>4174126</v>
+        <v>3067641</v>
       </c>
       <c r="O86" s="19">
-        <v>4068991</v>
+        <v>2789386</v>
       </c>
       <c r="P86" s="19">
-        <v>3067641</v>
+        <v>4216161</v>
       </c>
       <c r="Q86" s="19">
-        <v>2789386</v>
+        <v>3429154</v>
       </c>
       <c r="R86" s="19">
-        <v>4216161</v>
+        <v>4906137</v>
       </c>
       <c r="S86" s="19">
-        <v>3429154</v>
+        <v>4139696</v>
       </c>
       <c r="T86" s="19">
-        <v>4906137</v>
+        <v>1494399</v>
       </c>
       <c r="U86" s="19">
-        <v>4139696</v>
+        <v>3040057</v>
       </c>
       <c r="V86" s="19">
-        <v>1494399</v>
+        <v>4533388</v>
       </c>
       <c r="W86" s="19">
-        <v>3040057</v>
+        <v>5003773</v>
       </c>
       <c r="X86" s="19">
-        <v>4533388</v>
+        <v>4814533</v>
       </c>
       <c r="Y86" s="19">
-        <v>5003773</v>
+        <v>5848132</v>
       </c>
       <c r="Z86" s="19">
-        <v>4814533</v>
+        <v>7320115</v>
       </c>
       <c r="AA86" s="19">
-        <v>5848132</v>
+        <v>6783459</v>
       </c>
       <c r="AB86" s="19">
-        <v>7320115</v>
+        <v>7913054</v>
       </c>
       <c r="AC86" s="19">
-        <v>6783459</v>
+        <v>8710611</v>
       </c>
       <c r="AD86" s="19">
-        <v>7913054</v>
+        <v>8289115</v>
       </c>
       <c r="AE86" s="19">
-        <v>8710611</v>
+        <v>8303574</v>
       </c>
       <c r="AF86" s="19">
-        <v>8289115</v>
+        <v>7468775</v>
       </c>
       <c r="AG86" s="19">
-        <v>8303574</v>
+        <v>9506819</v>
       </c>
       <c r="AH86" s="19">
-        <v>7468775</v>
+        <v>11028015</v>
       </c>
       <c r="AI86" s="19">
-        <v>9506819</v>
+        <v>9942922</v>
       </c>
       <c r="AJ86" s="19">
-        <v>11028015</v>
+        <v>11916444</v>
       </c>
       <c r="AK86" s="19">
-        <v>9942922</v>
+        <v>15484920</v>
       </c>
       <c r="AL86" s="19">
-        <v>11916444</v>
+        <v>11674012</v>
       </c>
       <c r="AM86" s="19">
-        <v>15484920</v>
+        <v>10875125</v>
       </c>
       <c r="AN86" s="19">
-        <v>11674012</v>
+        <v>12011104</v>
       </c>
       <c r="AO86" s="19">
-        <v>10875125</v>
+        <v>10354889</v>
       </c>
       <c r="AP86" s="19">
-        <v>12011104</v>
+        <v>11797608</v>
       </c>
       <c r="AQ86" s="19">
-        <v>10354889</v>
+        <v>10888591</v>
       </c>
       <c r="AR86" s="19">
-        <v>11108418</v>
+        <v>8635868</v>
       </c>
       <c r="AS86" s="19">
-        <v>10888591</v>
+        <v>15751129</v>
       </c>
       <c r="AT86" s="19">
-        <v>8635868</v>
+        <v>20819333</v>
       </c>
       <c r="AU86" s="19">
-        <v>15751129</v>
+        <v>18601102</v>
       </c>
       <c r="AV86" s="19">
-        <v>20819333</v>
+        <v>16410446</v>
       </c>
       <c r="AW86" s="19">
-        <v>18602346</v>
+        <v>15297080</v>
       </c>
       <c r="AX86" s="19">
-        <v>16410446</v>
+        <v>11774920</v>
       </c>
       <c r="AY86" s="19">
-        <v>15297080</v>
+        <v>14597743</v>
       </c>
       <c r="AZ86" s="19">
-        <v>11774920</v>
+        <v>13718005</v>
       </c>
       <c r="BA86" s="19">
-        <v>14597743</v>
+        <v>15665652</v>
       </c>
       <c r="BB86" s="19">
-        <v>13718005</v>
+        <v>16476796</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11908,7 +11908,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -11963,7 +11963,7 @@
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -12018,7 +12018,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>85</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12230,7 +12230,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>86</v>
       </c>
@@ -12287,7 +12287,7 @@
       <c r="BA92" s="9"/>
       <c r="BB92" s="9"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>55</v>
       </c>
@@ -12313,104 +12313,104 @@
       <c r="J93" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K93" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L93" s="11" t="s">
-        <v>57</v>
+      <c r="K93" s="11">
+        <v>126529412</v>
+      </c>
+      <c r="L93" s="11">
+        <v>115623902</v>
       </c>
       <c r="M93" s="11">
-        <v>126529412</v>
+        <v>120493671</v>
       </c>
       <c r="N93" s="11">
-        <v>115623902</v>
+        <v>110111111</v>
       </c>
       <c r="O93" s="11">
-        <v>120493671</v>
+        <v>95853968</v>
       </c>
       <c r="P93" s="11">
-        <v>110111111</v>
+        <v>106678571</v>
       </c>
       <c r="Q93" s="11">
-        <v>95853968</v>
+        <v>85170455</v>
       </c>
       <c r="R93" s="11">
-        <v>106678571</v>
+        <v>118800000</v>
       </c>
       <c r="S93" s="11">
-        <v>85170455</v>
+        <v>117592593</v>
       </c>
       <c r="T93" s="11">
-        <v>118800000</v>
+        <v>113333333</v>
       </c>
       <c r="U93" s="11">
-        <v>117592593</v>
+        <v>115875000</v>
       </c>
       <c r="V93" s="11">
-        <v>113333333</v>
+        <v>135000000</v>
       </c>
       <c r="W93" s="11">
-        <v>115875000</v>
+        <v>106593750</v>
       </c>
       <c r="X93" s="11">
-        <v>135000000</v>
+        <v>210288462</v>
       </c>
       <c r="Y93" s="11">
-        <v>106593750</v>
+        <v>159056926</v>
       </c>
       <c r="Z93" s="11">
-        <v>210288462</v>
+        <v>217086705</v>
       </c>
       <c r="AA93" s="11">
-        <v>159056926</v>
+        <v>212571429</v>
       </c>
       <c r="AB93" s="11">
-        <v>217086705</v>
+        <v>219928270</v>
       </c>
       <c r="AC93" s="11">
-        <v>212571429</v>
+        <v>216153153</v>
       </c>
       <c r="AD93" s="11">
-        <v>219928270</v>
+        <v>238640000</v>
       </c>
       <c r="AE93" s="11">
-        <v>216153153</v>
+        <v>140000000</v>
       </c>
       <c r="AF93" s="11">
-        <v>238640000</v>
+        <v>196833333</v>
       </c>
       <c r="AG93" s="11">
-        <v>140000000</v>
+        <v>214030303</v>
       </c>
       <c r="AH93" s="11">
-        <v>196833333</v>
+        <v>204100000</v>
       </c>
       <c r="AI93" s="11">
-        <v>214030303</v>
+        <v>335222222</v>
       </c>
       <c r="AJ93" s="11">
-        <v>204100000</v>
+        <v>353613793</v>
       </c>
       <c r="AK93" s="11">
-        <v>335222222</v>
+        <v>363110912</v>
       </c>
       <c r="AL93" s="11">
-        <v>353613793</v>
+        <v>333688716</v>
       </c>
       <c r="AM93" s="11">
-        <v>363110912</v>
+        <v>377737226</v>
       </c>
       <c r="AN93" s="11">
-        <v>333688716</v>
+        <v>385072727</v>
       </c>
       <c r="AO93" s="11">
-        <v>377737226</v>
+        <v>387150000</v>
       </c>
       <c r="AP93" s="11">
-        <v>385072727</v>
-      </c>
-      <c r="AQ93" s="11">
-        <v>387150000</v>
+        <v>392647059</v>
+      </c>
+      <c r="AQ93" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR93" s="11" t="s">
         <v>57</v>
@@ -12446,7 +12446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>58</v>
       </c>
@@ -12455,92 +12455,92 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>67636832</v>
+        <v>65181249</v>
       </c>
       <c r="F94" s="13">
-        <v>67719772</v>
+        <v>67646419</v>
       </c>
       <c r="G94" s="13">
-        <v>65181249</v>
+        <v>65193664</v>
       </c>
       <c r="H94" s="13">
-        <v>67646419</v>
+        <v>69116024</v>
       </c>
       <c r="I94" s="13">
-        <v>65193664</v>
+        <v>77350915</v>
       </c>
       <c r="J94" s="13">
-        <v>69116024</v>
+        <v>83111146</v>
       </c>
       <c r="K94" s="13">
-        <v>77350915</v>
+        <v>61702237</v>
       </c>
       <c r="L94" s="13">
-        <v>83111146</v>
+        <v>57578887</v>
       </c>
       <c r="M94" s="13">
-        <v>61702237</v>
+        <v>56261485</v>
       </c>
       <c r="N94" s="13">
-        <v>57578887</v>
+        <v>58672025</v>
       </c>
       <c r="O94" s="13">
-        <v>56261485</v>
+        <v>54102649</v>
       </c>
       <c r="P94" s="13">
-        <v>58672025</v>
+        <v>61916745</v>
       </c>
       <c r="Q94" s="13">
-        <v>54102649</v>
+        <v>55738971</v>
       </c>
       <c r="R94" s="13">
-        <v>61916745</v>
+        <v>63818938</v>
       </c>
       <c r="S94" s="13">
-        <v>55738971</v>
+        <v>68006772</v>
       </c>
       <c r="T94" s="13">
-        <v>63818938</v>
+        <v>65033794</v>
       </c>
       <c r="U94" s="13">
-        <v>68006772</v>
+        <v>51287822</v>
       </c>
       <c r="V94" s="13">
-        <v>65033794</v>
+        <v>60287077</v>
       </c>
       <c r="W94" s="13">
-        <v>51287822</v>
+        <v>78769288</v>
       </c>
       <c r="X94" s="13">
-        <v>60287077</v>
+        <v>85344239</v>
       </c>
       <c r="Y94" s="13">
-        <v>78769288</v>
+        <v>89206083</v>
       </c>
       <c r="Z94" s="13">
-        <v>85344239</v>
+        <v>108677842</v>
       </c>
       <c r="AA94" s="13">
-        <v>89206083</v>
+        <v>128428711</v>
       </c>
       <c r="AB94" s="13">
-        <v>108677842</v>
+        <v>143048476</v>
       </c>
       <c r="AC94" s="13">
-        <v>128428711</v>
+        <v>128566459</v>
       </c>
       <c r="AD94" s="13">
-        <v>143048476</v>
+        <v>153864621</v>
       </c>
       <c r="AE94" s="13">
-        <v>128566459</v>
-      </c>
-      <c r="AF94" s="13">
-        <v>153864621</v>
-      </c>
-      <c r="AG94" s="13">
         <v>154647428</v>
       </c>
+      <c r="AF94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG94" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH94" s="13" t="s">
         <v>57</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>59</v>
       </c>
@@ -12694,77 +12694,77 @@
       <c r="AE95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF95" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG95" s="11" t="s">
-        <v>57</v>
+      <c r="AF95" s="11">
+        <v>184400438</v>
+      </c>
+      <c r="AG95" s="11">
+        <v>199986839</v>
       </c>
       <c r="AH95" s="11">
-        <v>184400438</v>
+        <v>208858972</v>
       </c>
       <c r="AI95" s="11">
-        <v>199986839</v>
+        <v>210713467</v>
       </c>
       <c r="AJ95" s="11">
-        <v>208858972</v>
+        <v>216125356</v>
       </c>
       <c r="AK95" s="11">
-        <v>210713467</v>
+        <v>220843415</v>
       </c>
       <c r="AL95" s="11">
-        <v>216125356</v>
+        <v>227544237</v>
       </c>
       <c r="AM95" s="11">
-        <v>220843415</v>
+        <v>221598440</v>
       </c>
       <c r="AN95" s="11">
-        <v>227544237</v>
+        <v>214763396</v>
       </c>
       <c r="AO95" s="11">
-        <v>221598440</v>
+        <v>213494651</v>
       </c>
       <c r="AP95" s="11">
-        <v>214763396</v>
+        <v>209133194</v>
       </c>
       <c r="AQ95" s="11">
-        <v>213494651</v>
+        <v>207735906</v>
       </c>
       <c r="AR95" s="11">
-        <v>209329828</v>
+        <v>278141629</v>
       </c>
       <c r="AS95" s="11">
-        <v>207735906</v>
+        <v>259401327</v>
       </c>
       <c r="AT95" s="11">
-        <v>278141629</v>
+        <v>268276167</v>
       </c>
       <c r="AU95" s="11">
-        <v>259401327</v>
+        <v>299006480</v>
       </c>
       <c r="AV95" s="11">
-        <v>268276167</v>
+        <v>305100230</v>
       </c>
       <c r="AW95" s="11">
-        <v>299006480</v>
+        <v>267570489</v>
       </c>
       <c r="AX95" s="11">
-        <v>305100230</v>
+        <v>264291296</v>
       </c>
       <c r="AY95" s="11">
-        <v>267570489</v>
+        <v>270733530</v>
       </c>
       <c r="AZ95" s="11">
-        <v>264291296</v>
+        <v>251083470</v>
       </c>
       <c r="BA95" s="11">
-        <v>270733479</v>
+        <v>293285888</v>
       </c>
       <c r="BB95" s="11">
-        <v>251083470</v>
+        <v>310347851</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>60</v>
       </c>
@@ -12853,77 +12853,77 @@
       <c r="AE96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF96" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG96" s="13" t="s">
-        <v>57</v>
+      <c r="AF96" s="13">
+        <v>138200192</v>
+      </c>
+      <c r="AG96" s="13">
+        <v>129418367</v>
       </c>
       <c r="AH96" s="13">
-        <v>138200192</v>
+        <v>143336772</v>
       </c>
       <c r="AI96" s="13">
-        <v>129418367</v>
+        <v>160583137</v>
       </c>
       <c r="AJ96" s="13">
-        <v>143336772</v>
+        <v>166863549</v>
       </c>
       <c r="AK96" s="13">
-        <v>160583137</v>
+        <v>175064703</v>
       </c>
       <c r="AL96" s="13">
-        <v>166863549</v>
+        <v>193072005</v>
       </c>
       <c r="AM96" s="13">
-        <v>175064703</v>
+        <v>215745962</v>
       </c>
       <c r="AN96" s="13">
-        <v>193072005</v>
+        <v>233302883</v>
       </c>
       <c r="AO96" s="13">
-        <v>215745962</v>
+        <v>253872686</v>
       </c>
       <c r="AP96" s="13">
-        <v>233302883</v>
+        <v>223226066</v>
       </c>
       <c r="AQ96" s="13">
-        <v>253872686</v>
+        <v>251307692</v>
       </c>
       <c r="AR96" s="13">
-        <v>223226066</v>
+        <v>307728261</v>
       </c>
       <c r="AS96" s="13">
-        <v>251307692</v>
+        <v>275125741</v>
       </c>
       <c r="AT96" s="13">
-        <v>307728261</v>
+        <v>299840622</v>
       </c>
       <c r="AU96" s="13">
-        <v>275125741</v>
+        <v>317597087</v>
       </c>
       <c r="AV96" s="13">
-        <v>299840622</v>
+        <v>307855586</v>
       </c>
       <c r="AW96" s="13">
-        <v>317597087</v>
+        <v>228333333</v>
       </c>
       <c r="AX96" s="13">
-        <v>307855586</v>
+        <v>218574378</v>
       </c>
       <c r="AY96" s="13">
-        <v>228333333</v>
+        <v>225835142</v>
       </c>
       <c r="AZ96" s="13">
-        <v>218574378</v>
+        <v>229348348</v>
       </c>
       <c r="BA96" s="13">
-        <v>225833786</v>
+        <v>297035537</v>
       </c>
       <c r="BB96" s="13">
-        <v>229348348</v>
+        <v>224606380</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>61</v>
       </c>
@@ -12949,140 +12949,140 @@
       <c r="J97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K97" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L97" s="11" t="s">
-        <v>57</v>
+      <c r="K97" s="11">
+        <v>101285714</v>
+      </c>
+      <c r="L97" s="11">
+        <v>99608696</v>
       </c>
       <c r="M97" s="11">
-        <v>101285714</v>
+        <v>101276923</v>
       </c>
       <c r="N97" s="11">
-        <v>99608696</v>
+        <v>105605634</v>
       </c>
       <c r="O97" s="11">
-        <v>101276923</v>
+        <v>111939394</v>
       </c>
       <c r="P97" s="11">
-        <v>105605634</v>
+        <v>105676056</v>
       </c>
       <c r="Q97" s="11">
-        <v>111939394</v>
+        <v>101560976</v>
       </c>
       <c r="R97" s="11">
-        <v>105676056</v>
+        <v>103636364</v>
       </c>
       <c r="S97" s="11">
-        <v>101560976</v>
+        <v>100672727</v>
       </c>
       <c r="T97" s="11">
-        <v>103636364</v>
+        <v>105444444</v>
       </c>
       <c r="U97" s="11">
-        <v>100672727</v>
+        <v>107016260</v>
       </c>
       <c r="V97" s="11">
-        <v>105444444</v>
+        <v>103711111</v>
       </c>
       <c r="W97" s="11">
-        <v>107016260</v>
+        <v>97031746</v>
       </c>
       <c r="X97" s="11">
-        <v>103711111</v>
+        <v>130444444</v>
       </c>
       <c r="Y97" s="11">
-        <v>97031746</v>
+        <v>106924528</v>
       </c>
       <c r="Z97" s="11">
-        <v>130444444</v>
+        <v>121257576</v>
       </c>
       <c r="AA97" s="11">
-        <v>106924528</v>
+        <v>157200000</v>
       </c>
       <c r="AB97" s="11">
-        <v>121257576</v>
+        <v>218152174</v>
       </c>
       <c r="AC97" s="11">
-        <v>157200000</v>
+        <v>218187500</v>
       </c>
       <c r="AD97" s="11">
-        <v>218152174</v>
+        <v>205285714</v>
       </c>
       <c r="AE97" s="11">
-        <v>218187500</v>
+        <v>193833333</v>
       </c>
       <c r="AF97" s="11">
-        <v>205285714</v>
+        <v>181500000</v>
       </c>
       <c r="AG97" s="11">
-        <v>193833333</v>
+        <v>220610390</v>
       </c>
       <c r="AH97" s="11">
-        <v>181500000</v>
+        <v>221066667</v>
       </c>
       <c r="AI97" s="11">
-        <v>220610390</v>
+        <v>226454545</v>
       </c>
       <c r="AJ97" s="11">
-        <v>221066667</v>
+        <v>230384615</v>
       </c>
       <c r="AK97" s="11">
-        <v>226454545</v>
-      </c>
-      <c r="AL97" s="11">
-        <v>230384615</v>
-      </c>
-      <c r="AM97" s="11">
         <v>205000000</v>
       </c>
-      <c r="AN97" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO97" s="11" t="s">
-        <v>57</v>
+      <c r="AL97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN97" s="11">
+        <v>275387097</v>
+      </c>
+      <c r="AO97" s="11">
+        <v>268475000</v>
       </c>
       <c r="AP97" s="11">
-        <v>275387097</v>
+        <v>267373333</v>
       </c>
       <c r="AQ97" s="11">
-        <v>268475000</v>
+        <v>274655462</v>
       </c>
       <c r="AR97" s="11">
-        <v>267373333</v>
+        <v>390571429</v>
       </c>
       <c r="AS97" s="11">
-        <v>274655462</v>
+        <v>404843137</v>
       </c>
       <c r="AT97" s="11">
-        <v>390571429</v>
+        <v>501500000</v>
       </c>
       <c r="AU97" s="11">
-        <v>404843137</v>
+        <v>373500000</v>
       </c>
       <c r="AV97" s="11">
-        <v>501500000</v>
-      </c>
-      <c r="AW97" s="11">
-        <v>373500000</v>
+        <v>714500000</v>
+      </c>
+      <c r="AW97" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX97" s="11">
-        <v>714500000</v>
-      </c>
-      <c r="AY97" s="11" t="s">
-        <v>57</v>
+        <v>362176471</v>
+      </c>
+      <c r="AY97" s="11">
+        <v>367812500</v>
       </c>
       <c r="AZ97" s="11">
-        <v>362176471</v>
+        <v>508354167</v>
       </c>
       <c r="BA97" s="11">
-        <v>367812500</v>
+        <v>547609756</v>
       </c>
       <c r="BB97" s="11">
-        <v>508354167</v>
+        <v>469543478</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>62</v>
       </c>
@@ -13208,40 +13208,40 @@
         <v>57</v>
       </c>
       <c r="AR98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS98" s="13" t="s">
-        <v>57</v>
+        <v>385800000</v>
+      </c>
+      <c r="AS98" s="13">
+        <v>349584615</v>
       </c>
       <c r="AT98" s="13">
-        <v>385800000</v>
+        <v>457268519</v>
       </c>
       <c r="AU98" s="13">
-        <v>349584615</v>
+        <v>545109375</v>
       </c>
       <c r="AV98" s="13">
-        <v>457268519</v>
+        <v>596875000</v>
       </c>
       <c r="AW98" s="13">
-        <v>545109375</v>
+        <v>332695652</v>
       </c>
       <c r="AX98" s="13">
-        <v>596875000</v>
+        <v>444629630</v>
       </c>
       <c r="AY98" s="13">
-        <v>332695652</v>
+        <v>413677419</v>
       </c>
       <c r="AZ98" s="13">
-        <v>444629630</v>
+        <v>374224490</v>
       </c>
       <c r="BA98" s="13">
-        <v>413661290</v>
+        <v>318011494</v>
       </c>
       <c r="BB98" s="13">
-        <v>374224490</v>
+        <v>329975000</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>63</v>
       </c>
@@ -13250,28 +13250,28 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>47238747</v>
+        <v>38575515</v>
       </c>
       <c r="F99" s="11">
-        <v>44835622</v>
+        <v>33089273</v>
       </c>
       <c r="G99" s="11">
-        <v>38575515</v>
+        <v>48698922</v>
       </c>
       <c r="H99" s="11">
-        <v>33089273</v>
+        <v>41716553</v>
       </c>
       <c r="I99" s="11">
-        <v>48698922</v>
+        <v>47468288</v>
       </c>
       <c r="J99" s="11">
-        <v>41716553</v>
+        <v>53022171</v>
       </c>
       <c r="K99" s="11">
-        <v>47468288</v>
+        <v>0</v>
       </c>
       <c r="L99" s="11">
-        <v>53022171</v>
+        <v>0</v>
       </c>
       <c r="M99" s="11">
         <v>0</v>
@@ -13294,20 +13294,20 @@
       <c r="S99" s="11">
         <v>0</v>
       </c>
-      <c r="T99" s="11">
-        <v>0</v>
-      </c>
-      <c r="U99" s="11">
-        <v>0</v>
-      </c>
-      <c r="V99" s="11" t="s">
-        <v>57</v>
+      <c r="T99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V99" s="11">
+        <v>64685185</v>
       </c>
       <c r="W99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X99" s="11">
-        <v>64685185</v>
+      <c r="X99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Y99" s="11" t="s">
         <v>57</v>
@@ -13400,7 +13400,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>64</v>
       </c>
@@ -13489,77 +13489,77 @@
       <c r="AE100" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF100" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG100" s="13" t="s">
-        <v>57</v>
+      <c r="AF100" s="13">
+        <v>133847769</v>
+      </c>
+      <c r="AG100" s="13">
+        <v>139861677</v>
       </c>
       <c r="AH100" s="13">
-        <v>133847769</v>
+        <v>139252250</v>
       </c>
       <c r="AI100" s="13">
-        <v>139861677</v>
+        <v>163596586</v>
       </c>
       <c r="AJ100" s="13">
-        <v>139252250</v>
+        <v>174963969</v>
       </c>
       <c r="AK100" s="13">
-        <v>163596586</v>
+        <v>204416175</v>
       </c>
       <c r="AL100" s="13">
-        <v>174963969</v>
+        <v>223082783</v>
       </c>
       <c r="AM100" s="13">
-        <v>204416175</v>
+        <v>246831373</v>
       </c>
       <c r="AN100" s="13">
-        <v>223082783</v>
+        <v>248136951</v>
       </c>
       <c r="AO100" s="13">
-        <v>246831373</v>
+        <v>247478121</v>
       </c>
       <c r="AP100" s="13">
-        <v>248136951</v>
+        <v>265229630</v>
       </c>
       <c r="AQ100" s="13">
-        <v>247478121</v>
+        <v>243267758</v>
       </c>
       <c r="AR100" s="13">
-        <v>265229630</v>
+        <v>307451249</v>
       </c>
       <c r="AS100" s="13">
-        <v>243267758</v>
+        <v>288667078</v>
       </c>
       <c r="AT100" s="13">
-        <v>307451249</v>
+        <v>270942200</v>
       </c>
       <c r="AU100" s="13">
-        <v>288667078</v>
+        <v>275363329</v>
       </c>
       <c r="AV100" s="13">
-        <v>270942200</v>
+        <v>284998147</v>
       </c>
       <c r="AW100" s="13">
-        <v>275363329</v>
+        <v>246500756</v>
       </c>
       <c r="AX100" s="13">
-        <v>284998147</v>
+        <v>243683435</v>
       </c>
       <c r="AY100" s="13">
-        <v>246500756</v>
+        <v>267870709</v>
       </c>
       <c r="AZ100" s="13">
-        <v>243683435</v>
+        <v>246461020</v>
       </c>
       <c r="BA100" s="13">
-        <v>267870709</v>
+        <v>297503717</v>
       </c>
       <c r="BB100" s="13">
-        <v>246461020</v>
+        <v>280190629</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>65</v>
       </c>
@@ -13585,75 +13585,75 @@
       <c r="J101" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K101" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L101" s="11" t="s">
-        <v>57</v>
+      <c r="K101" s="11">
+        <v>74725435</v>
+      </c>
+      <c r="L101" s="11">
+        <v>68674340</v>
       </c>
       <c r="M101" s="11">
-        <v>74725435</v>
+        <v>65965901</v>
       </c>
       <c r="N101" s="11">
-        <v>68674340</v>
+        <v>62445774</v>
       </c>
       <c r="O101" s="11">
-        <v>65965901</v>
+        <v>49258885</v>
       </c>
       <c r="P101" s="11">
-        <v>62445774</v>
+        <v>49554476</v>
       </c>
       <c r="Q101" s="11">
-        <v>49258885</v>
+        <v>54462591</v>
       </c>
       <c r="R101" s="11">
-        <v>49554476</v>
+        <v>58363208</v>
       </c>
       <c r="S101" s="11">
-        <v>54462591</v>
+        <v>62641088</v>
       </c>
       <c r="T101" s="11">
-        <v>58363208</v>
+        <v>64395105</v>
       </c>
       <c r="U101" s="11">
-        <v>62641088</v>
+        <v>59552676</v>
       </c>
       <c r="V101" s="11">
-        <v>64395105</v>
+        <v>55397690</v>
       </c>
       <c r="W101" s="11">
-        <v>59552676</v>
+        <v>64214918</v>
       </c>
       <c r="X101" s="11">
-        <v>55397690</v>
+        <v>82249892</v>
       </c>
       <c r="Y101" s="11">
-        <v>64214918</v>
+        <v>102296971</v>
       </c>
       <c r="Z101" s="11">
-        <v>82249892</v>
+        <v>129022143</v>
       </c>
       <c r="AA101" s="11">
-        <v>102296971</v>
+        <v>130099107</v>
       </c>
       <c r="AB101" s="11">
-        <v>129022143</v>
+        <v>126418108</v>
       </c>
       <c r="AC101" s="11">
-        <v>130099107</v>
+        <v>134436423</v>
       </c>
       <c r="AD101" s="11">
-        <v>126418108</v>
+        <v>138004488</v>
       </c>
       <c r="AE101" s="11">
-        <v>134436423</v>
-      </c>
-      <c r="AF101" s="11">
-        <v>138004488</v>
-      </c>
-      <c r="AG101" s="11">
         <v>137958618</v>
       </c>
+      <c r="AF101" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG101" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH101" s="11" t="s">
         <v>57</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>66</v>
       </c>
@@ -13807,77 +13807,77 @@
       <c r="AE102" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF102" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG102" s="13" t="s">
-        <v>57</v>
+      <c r="AF102" s="13">
+        <v>194038712</v>
+      </c>
+      <c r="AG102" s="13">
+        <v>185844002</v>
       </c>
       <c r="AH102" s="13">
-        <v>194038712</v>
+        <v>191633662</v>
       </c>
       <c r="AI102" s="13">
-        <v>185844002</v>
+        <v>207034572</v>
       </c>
       <c r="AJ102" s="13">
-        <v>191633662</v>
+        <v>266557542</v>
       </c>
       <c r="AK102" s="13">
-        <v>207034572</v>
+        <v>276804803</v>
       </c>
       <c r="AL102" s="13">
-        <v>266557542</v>
+        <v>283648710</v>
       </c>
       <c r="AM102" s="13">
-        <v>276804803</v>
+        <v>278359126</v>
       </c>
       <c r="AN102" s="13">
-        <v>283648710</v>
+        <v>298338299</v>
       </c>
       <c r="AO102" s="13">
-        <v>278359126</v>
+        <v>284492266</v>
       </c>
       <c r="AP102" s="13">
-        <v>298338299</v>
+        <v>275051853</v>
       </c>
       <c r="AQ102" s="13">
-        <v>284492266</v>
+        <v>287511997</v>
       </c>
       <c r="AR102" s="13">
-        <v>275051853</v>
+        <v>307232082</v>
       </c>
       <c r="AS102" s="13">
-        <v>287511997</v>
+        <v>297846133</v>
       </c>
       <c r="AT102" s="13">
-        <v>307232082</v>
+        <v>327208696</v>
       </c>
       <c r="AU102" s="13">
-        <v>297846133</v>
+        <v>349345660</v>
       </c>
       <c r="AV102" s="13">
-        <v>327208696</v>
+        <v>363048614</v>
       </c>
       <c r="AW102" s="13">
-        <v>349345660</v>
+        <v>351261072</v>
       </c>
       <c r="AX102" s="13">
-        <v>363048614</v>
+        <v>351354511</v>
       </c>
       <c r="AY102" s="13">
-        <v>351261072</v>
+        <v>350523468</v>
       </c>
       <c r="AZ102" s="13">
-        <v>351354511</v>
+        <v>350967768</v>
       </c>
       <c r="BA102" s="13">
-        <v>350523468</v>
+        <v>352385049</v>
       </c>
       <c r="BB102" s="13">
-        <v>350967768</v>
+        <v>362374964</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>67</v>
       </c>
@@ -13966,77 +13966,77 @@
       <c r="AE103" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF103" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG103" s="11" t="s">
-        <v>57</v>
+      <c r="AF103" s="11">
+        <v>231933333</v>
+      </c>
+      <c r="AG103" s="11">
+        <v>225449200</v>
       </c>
       <c r="AH103" s="11">
-        <v>231933333</v>
+        <v>241518872</v>
       </c>
       <c r="AI103" s="11">
-        <v>225449200</v>
+        <v>271007274</v>
       </c>
       <c r="AJ103" s="11">
-        <v>241518872</v>
+        <v>344920866</v>
       </c>
       <c r="AK103" s="11">
-        <v>271007274</v>
+        <v>329560702</v>
       </c>
       <c r="AL103" s="11">
-        <v>344920866</v>
+        <v>374212121</v>
       </c>
       <c r="AM103" s="11">
-        <v>329560702</v>
+        <v>345847731</v>
       </c>
       <c r="AN103" s="11">
-        <v>374212121</v>
+        <v>352599464</v>
       </c>
       <c r="AO103" s="11">
-        <v>345847731</v>
+        <v>384870778</v>
       </c>
       <c r="AP103" s="11">
-        <v>352599464</v>
+        <v>347291606</v>
       </c>
       <c r="AQ103" s="11">
-        <v>384870778</v>
+        <v>380364995</v>
       </c>
       <c r="AR103" s="11">
-        <v>347291606</v>
+        <v>410766879</v>
       </c>
       <c r="AS103" s="11">
-        <v>380364995</v>
+        <v>432674669</v>
       </c>
       <c r="AT103" s="11">
-        <v>410766879</v>
+        <v>466940386</v>
       </c>
       <c r="AU103" s="11">
-        <v>432674669</v>
+        <v>530194170</v>
       </c>
       <c r="AV103" s="11">
-        <v>466940386</v>
+        <v>516463242</v>
       </c>
       <c r="AW103" s="11">
-        <v>530194170</v>
+        <v>486885197</v>
       </c>
       <c r="AX103" s="11">
-        <v>516463242</v>
+        <v>452367180</v>
       </c>
       <c r="AY103" s="11">
-        <v>486885197</v>
+        <v>428940490</v>
       </c>
       <c r="AZ103" s="11">
-        <v>452367180</v>
+        <v>381226618</v>
       </c>
       <c r="BA103" s="11">
-        <v>428940490</v>
+        <v>460761375</v>
       </c>
       <c r="BB103" s="11">
-        <v>381226618</v>
+        <v>468456100</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>68</v>
       </c>
@@ -14125,77 +14125,77 @@
       <c r="AE104" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF104" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG104" s="13" t="s">
-        <v>57</v>
+      <c r="AF104" s="13">
+        <v>243934706</v>
+      </c>
+      <c r="AG104" s="13">
+        <v>253634622</v>
       </c>
       <c r="AH104" s="13">
-        <v>243934706</v>
+        <v>257646915</v>
       </c>
       <c r="AI104" s="13">
-        <v>253634622</v>
+        <v>263179549</v>
       </c>
       <c r="AJ104" s="13">
-        <v>257646915</v>
+        <v>264720839</v>
       </c>
       <c r="AK104" s="13">
-        <v>263179549</v>
+        <v>280414199</v>
       </c>
       <c r="AL104" s="13">
-        <v>264720839</v>
+        <v>275922260</v>
       </c>
       <c r="AM104" s="13">
-        <v>280414199</v>
+        <v>323774706</v>
       </c>
       <c r="AN104" s="13">
-        <v>275922260</v>
+        <v>352261117</v>
       </c>
       <c r="AO104" s="13">
-        <v>323774706</v>
+        <v>325539741</v>
       </c>
       <c r="AP104" s="13">
-        <v>352261117</v>
+        <v>330793454</v>
       </c>
       <c r="AQ104" s="13">
-        <v>325539741</v>
+        <v>342526555</v>
       </c>
       <c r="AR104" s="13">
-        <v>330793454</v>
+        <v>376531754</v>
       </c>
       <c r="AS104" s="13">
-        <v>342526555</v>
+        <v>419756695</v>
       </c>
       <c r="AT104" s="13">
-        <v>376531754</v>
+        <v>425361890</v>
       </c>
       <c r="AU104" s="13">
-        <v>419756695</v>
+        <v>407796855</v>
       </c>
       <c r="AV104" s="13">
-        <v>425361890</v>
+        <v>416055066</v>
       </c>
       <c r="AW104" s="13">
-        <v>407796855</v>
+        <v>433681204</v>
       </c>
       <c r="AX104" s="13">
-        <v>416055066</v>
+        <v>415119911</v>
       </c>
       <c r="AY104" s="13">
-        <v>433681204</v>
+        <v>419146804</v>
       </c>
       <c r="AZ104" s="13">
-        <v>415119911</v>
+        <v>382127772</v>
       </c>
       <c r="BA104" s="13">
-        <v>419146804</v>
+        <v>351186433</v>
       </c>
       <c r="BB104" s="13">
-        <v>382127772</v>
+        <v>368817123</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>69</v>
       </c>
@@ -14284,77 +14284,77 @@
       <c r="AE105" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF105" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG105" s="11" t="s">
-        <v>57</v>
+      <c r="AF105" s="11">
+        <v>245346835</v>
+      </c>
+      <c r="AG105" s="11">
+        <v>253357562</v>
       </c>
       <c r="AH105" s="11">
-        <v>245346835</v>
+        <v>307887776</v>
       </c>
       <c r="AI105" s="11">
-        <v>253357562</v>
+        <v>309535797</v>
       </c>
       <c r="AJ105" s="11">
-        <v>307887776</v>
+        <v>318991304</v>
       </c>
       <c r="AK105" s="11">
-        <v>309535797</v>
+        <v>299095519</v>
       </c>
       <c r="AL105" s="11">
-        <v>318991304</v>
+        <v>369393220</v>
       </c>
       <c r="AM105" s="11">
-        <v>299095519</v>
+        <v>386710345</v>
       </c>
       <c r="AN105" s="11">
-        <v>369393220</v>
+        <v>379030637</v>
       </c>
       <c r="AO105" s="11">
-        <v>386710345</v>
+        <v>358500990</v>
       </c>
       <c r="AP105" s="11">
-        <v>379030637</v>
+        <v>319500867</v>
       </c>
       <c r="AQ105" s="11">
-        <v>358500990</v>
+        <v>374261023</v>
       </c>
       <c r="AR105" s="11">
-        <v>319500867</v>
+        <v>474303828</v>
       </c>
       <c r="AS105" s="11">
-        <v>374261023</v>
+        <v>435325843</v>
       </c>
       <c r="AT105" s="11">
-        <v>474303828</v>
+        <v>445188377</v>
       </c>
       <c r="AU105" s="11">
-        <v>435325843</v>
+        <v>543872832</v>
       </c>
       <c r="AV105" s="11">
-        <v>445188377</v>
+        <v>607760300</v>
       </c>
       <c r="AW105" s="11">
-        <v>543872832</v>
+        <v>470963415</v>
       </c>
       <c r="AX105" s="11">
-        <v>607760300</v>
+        <v>458327434</v>
       </c>
       <c r="AY105" s="11">
-        <v>470963415</v>
+        <v>470227684</v>
       </c>
       <c r="AZ105" s="11">
-        <v>458327434</v>
+        <v>426730277</v>
       </c>
       <c r="BA105" s="11">
-        <v>470227684</v>
+        <v>458887850</v>
       </c>
       <c r="BB105" s="11">
-        <v>426730277</v>
+        <v>463007884</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>70</v>
       </c>
@@ -14443,77 +14443,77 @@
       <c r="AE106" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF106" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG106" s="13" t="s">
-        <v>57</v>
+      <c r="AF106" s="13">
+        <v>67280908</v>
+      </c>
+      <c r="AG106" s="13">
+        <v>68297687</v>
       </c>
       <c r="AH106" s="13">
-        <v>67280908</v>
+        <v>68402693</v>
       </c>
       <c r="AI106" s="13">
-        <v>68297687</v>
+        <v>75298658</v>
       </c>
       <c r="AJ106" s="13">
-        <v>68402693</v>
+        <v>74633083</v>
       </c>
       <c r="AK106" s="13">
-        <v>75298658</v>
+        <v>83458331</v>
       </c>
       <c r="AL106" s="13">
-        <v>74633083</v>
+        <v>94604423</v>
       </c>
       <c r="AM106" s="13">
-        <v>83458331</v>
+        <v>90682401</v>
       </c>
       <c r="AN106" s="13">
-        <v>94604423</v>
+        <v>92319085</v>
       </c>
       <c r="AO106" s="13">
-        <v>90682401</v>
+        <v>98020666</v>
       </c>
       <c r="AP106" s="13">
-        <v>92319085</v>
+        <v>106057062</v>
       </c>
       <c r="AQ106" s="13">
-        <v>98020666</v>
+        <v>114310582</v>
       </c>
       <c r="AR106" s="13">
-        <v>106175638</v>
+        <v>149330616</v>
       </c>
       <c r="AS106" s="13">
-        <v>114310582</v>
+        <v>139444686</v>
       </c>
       <c r="AT106" s="13">
-        <v>149330616</v>
+        <v>140482949</v>
       </c>
       <c r="AU106" s="13">
-        <v>139444686</v>
+        <v>121533933</v>
       </c>
       <c r="AV106" s="13">
-        <v>140482949</v>
+        <v>117806593</v>
       </c>
       <c r="AW106" s="13">
-        <v>121533933</v>
+        <v>92033746</v>
       </c>
       <c r="AX106" s="13">
-        <v>117806593</v>
+        <v>92857414</v>
       </c>
       <c r="AY106" s="13">
-        <v>92033746</v>
+        <v>92180523</v>
       </c>
       <c r="AZ106" s="13">
-        <v>92857414</v>
+        <v>85554434</v>
       </c>
       <c r="BA106" s="13">
-        <v>92180523</v>
+        <v>104274680</v>
       </c>
       <c r="BB106" s="13">
-        <v>85554434</v>
+        <v>116383534</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>71</v>
       </c>
@@ -14608,18 +14608,18 @@
       <c r="AG107" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH107" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI107" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ107" s="11">
+      <c r="AH107" s="11">
         <v>130085828</v>
       </c>
-      <c r="AK107" s="11">
+      <c r="AI107" s="11">
         <v>129865424</v>
       </c>
+      <c r="AJ107" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK107" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AL107" s="11" t="s">
         <v>57</v>
       </c>
@@ -14638,8 +14638,8 @@
       <c r="AQ107" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR107" s="11">
-        <v>0</v>
+      <c r="AR107" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS107" s="11" t="s">
         <v>57</v>

--- a/database/industries/ravankar/shaspa/product/monthly.xlsx
+++ b/database/industries/ravankar/shaspa/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="88">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3260,65 +3260,65 @@
       <c r="H11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>57</v>
+      <c r="I11" s="13" t="n">
+        <v>562</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>562</v>
+        <v>182</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="L11" s="13" t="n">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M11" s="13" t="n">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="N11" s="13" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O11" s="13" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P11" s="13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="R11" s="13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="S11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>382</v>
+        <v>541</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>541</v>
+        <v>113</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="13" t="n">
         <v>0</v>
@@ -3327,37 +3327,37 @@
         <v>0</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>208</v>
+        <v>617</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>617</v>
+        <v>134</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>351</v>
+        <v>122</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>56</v>
-      </c>
-      <c r="AO11" s="13" t="n">
         <v>47</v>
+      </c>
+      <c r="AO11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP11" s="13" t="s">
         <v>57</v>
@@ -3408,82 +3408,82 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
-        <v>23992</v>
+        <v>29749</v>
       </c>
       <c r="F12" s="15" t="n">
-        <v>29749</v>
+        <v>37254</v>
       </c>
       <c r="G12" s="15" t="n">
-        <v>37254</v>
+        <v>35057</v>
       </c>
       <c r="H12" s="15" t="n">
-        <v>35057</v>
+        <v>37423</v>
       </c>
       <c r="I12" s="15" t="n">
-        <v>37423</v>
+        <v>59285</v>
       </c>
       <c r="J12" s="15" t="n">
-        <v>59285</v>
+        <v>54904</v>
       </c>
       <c r="K12" s="15" t="n">
-        <v>54904</v>
+        <v>58824</v>
       </c>
       <c r="L12" s="15" t="n">
-        <v>58824</v>
+        <v>58142</v>
       </c>
       <c r="M12" s="15" t="n">
-        <v>58142</v>
+        <v>57003</v>
       </c>
       <c r="N12" s="15" t="n">
-        <v>57003</v>
+        <v>51182</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>51182</v>
+        <v>61196</v>
       </c>
       <c r="P12" s="15" t="n">
-        <v>61196</v>
+        <v>51984</v>
       </c>
       <c r="Q12" s="15" t="n">
-        <v>51984</v>
+        <v>51670</v>
       </c>
       <c r="R12" s="15" t="n">
-        <v>51670</v>
+        <v>56834</v>
       </c>
       <c r="S12" s="15" t="n">
-        <v>56834</v>
+        <v>51261</v>
       </c>
       <c r="T12" s="15" t="n">
-        <v>51261</v>
+        <v>56769</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>56769</v>
+        <v>40145</v>
       </c>
       <c r="V12" s="15" t="n">
-        <v>40145</v>
+        <v>61948</v>
       </c>
       <c r="W12" s="15" t="n">
-        <v>61948</v>
+        <v>52547</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>52547</v>
+        <v>65310</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>65310</v>
+        <v>58240</v>
       </c>
       <c r="Z12" s="15" t="n">
-        <v>58240</v>
+        <v>55875</v>
       </c>
       <c r="AA12" s="15" t="n">
-        <v>55875</v>
+        <v>48926</v>
       </c>
       <c r="AB12" s="15" t="n">
-        <v>48926</v>
+        <v>52008</v>
       </c>
       <c r="AC12" s="15" t="n">
-        <v>52008</v>
-      </c>
-      <c r="AD12" s="15" t="n">
         <v>46515</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE12" s="16" t="s">
         <v>57</v>
@@ -3641,80 +3641,80 @@
       <c r="AC13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD13" s="13" t="s">
-        <v>57</v>
+      <c r="AD13" s="13" t="n">
+        <v>25684</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>25684</v>
+        <v>22010</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>22010</v>
+        <v>22668</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>22668</v>
+        <v>31693</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>31693</v>
+        <v>23360</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>23360</v>
+        <v>24932</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>24932</v>
+        <v>24847</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>24847</v>
+        <v>34431</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>34431</v>
+        <v>23879</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>23879</v>
+        <v>23374</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>23374</v>
+        <v>27249</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>27249</v>
+        <v>23229</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>23229</v>
+        <v>28726</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>28726</v>
+        <v>27131</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>27131</v>
+        <v>23761</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>23761</v>
+        <v>29220</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>29220</v>
+        <v>18706</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>18706</v>
+        <v>15211</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>15211</v>
+        <v>23593</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>23593</v>
+        <v>19495</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>19495</v>
+        <v>19336</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>19336</v>
+        <v>16301</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>16301</v>
+        <v>13797</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>13797</v>
+        <v>21111</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>21111</v>
+        <v>26653</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3800,80 +3800,80 @@
       <c r="AC14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD14" s="16" t="s">
-        <v>57</v>
+      <c r="AD14" s="16" t="n">
+        <v>2881</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>2881</v>
+        <v>1600</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>1600</v>
+        <v>2149</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>2149</v>
+        <v>2279</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>2279</v>
+        <v>2201</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>2201</v>
+        <v>2521</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>2521</v>
+        <v>1335</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>1335</v>
+        <v>2020</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>2020</v>
+        <v>2975</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>2975</v>
+        <v>805</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>805</v>
+        <v>862</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>862</v>
+        <v>1028</v>
       </c>
       <c r="AP14" s="16" t="n">
+        <v>774</v>
+      </c>
+      <c r="AQ14" s="16" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AR14" s="16" t="n">
         <v>1028</v>
       </c>
-      <c r="AQ14" s="16" t="n">
-        <v>774</v>
-      </c>
-      <c r="AR14" s="16" t="n">
-        <v>1700</v>
-      </c>
       <c r="AS14" s="16" t="n">
-        <v>1028</v>
+        <v>837</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>837</v>
+        <v>1143</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>1143</v>
+        <v>3936</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>3936</v>
+        <v>6250</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>6250</v>
+        <v>3295</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>3295</v>
+        <v>4352</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>4352</v>
+        <v>987</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>987</v>
+        <v>1893</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>1893</v>
+        <v>4890</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>4890</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,35 +3896,35 @@
       <c r="H15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>57</v>
+      <c r="I15" s="13" t="n">
+        <v>68</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="L15" s="13" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N15" s="13" t="n">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O15" s="13" t="n">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="P15" s="13" t="n">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q15" s="13" t="n">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="R15" s="13" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="S15" s="13" t="n">
         <v>0</v>
@@ -3939,100 +3939,100 @@
         <v>0</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AD15" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>144</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>148</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>147</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>86</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX15" s="13" t="n">
         <v>136</v>
       </c>
-      <c r="AE15" s="13" t="n">
-        <v>52</v>
-      </c>
-      <c r="AF15" s="13" t="n">
-        <v>144</v>
-      </c>
-      <c r="AG15" s="13" t="n">
-        <v>148</v>
-      </c>
-      <c r="AH15" s="13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="13" t="n">
-        <v>62</v>
-      </c>
-      <c r="AN15" s="13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO15" s="13" t="n">
-        <v>147</v>
-      </c>
-      <c r="AP15" s="13" t="n">
-        <v>86</v>
-      </c>
-      <c r="AQ15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX15" s="13" t="n">
-        <v>48</v>
-      </c>
       <c r="AY15" s="13" t="n">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>195</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,47 +4151,47 @@
       <c r="AN16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO16" s="16" t="s">
-        <v>57</v>
+      <c r="AO16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,19 +4203,19 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="n">
-        <v>24948</v>
+        <v>23462</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>23462</v>
+        <v>29484</v>
       </c>
       <c r="G17" s="13" t="n">
-        <v>29484</v>
+        <v>19449</v>
       </c>
       <c r="H17" s="13" t="n">
-        <v>19449</v>
+        <v>24556</v>
       </c>
       <c r="I17" s="13" t="n">
-        <v>24556</v>
+        <v>0</v>
       </c>
       <c r="J17" s="13" t="n">
         <v>0</v>
@@ -4241,8 +4241,8 @@
       <c r="Q17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="13" t="n">
-        <v>0</v>
+      <c r="R17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S17" s="13" t="s">
         <v>57</v>
@@ -4436,80 +4436,80 @@
       <c r="AC18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="16" t="s">
-        <v>57</v>
+      <c r="AD18" s="16" t="n">
+        <v>2515</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>2515</v>
+        <v>4031</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>4031</v>
+        <v>3735</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>3735</v>
+        <v>3730</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>3730</v>
+        <v>3549</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>3549</v>
+        <v>2789</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>2789</v>
+        <v>4285</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>4285</v>
+        <v>3439</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>3439</v>
+        <v>2684</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>2684</v>
+        <v>4166</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>4166</v>
+        <v>4302</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>4302</v>
+        <v>3517</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>3517</v>
+        <v>5317</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>5317</v>
+        <v>4504</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>4504</v>
+        <v>4506</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>4506</v>
+        <v>2283</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>2283</v>
+        <v>3342</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>3342</v>
+        <v>1068</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>1068</v>
+        <v>230</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>230</v>
+        <v>2349</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>2349</v>
+        <v>536</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>536</v>
+        <v>4721</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>4721</v>
+        <v>3666</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>3666</v>
+        <v>114</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>114</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,71 +4532,71 @@
       <c r="H19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>57</v>
+      <c r="I19" s="13" t="n">
+        <v>6065</v>
       </c>
       <c r="J19" s="13" t="n">
-        <v>6065</v>
+        <v>6287</v>
       </c>
       <c r="K19" s="13" t="n">
-        <v>6287</v>
+        <v>5387</v>
       </c>
       <c r="L19" s="13" t="n">
-        <v>5387</v>
+        <v>5916</v>
       </c>
       <c r="M19" s="13" t="n">
-        <v>5916</v>
+        <v>6225</v>
       </c>
       <c r="N19" s="13" t="n">
-        <v>6225</v>
+        <v>6322</v>
       </c>
       <c r="O19" s="13" t="n">
-        <v>6322</v>
+        <v>5947</v>
       </c>
       <c r="P19" s="13" t="n">
-        <v>5947</v>
+        <v>4950</v>
       </c>
       <c r="Q19" s="13" t="n">
-        <v>4950</v>
+        <v>5307</v>
       </c>
       <c r="R19" s="13" t="n">
-        <v>5307</v>
+        <v>6024</v>
       </c>
       <c r="S19" s="13" t="n">
-        <v>6024</v>
+        <v>5101</v>
       </c>
       <c r="T19" s="13" t="n">
-        <v>5101</v>
+        <v>5042</v>
       </c>
       <c r="U19" s="13" t="n">
-        <v>5042</v>
+        <v>4890</v>
       </c>
       <c r="V19" s="13" t="n">
-        <v>4890</v>
+        <v>5561</v>
       </c>
       <c r="W19" s="13" t="n">
-        <v>5561</v>
+        <v>5547</v>
       </c>
       <c r="X19" s="13" t="n">
-        <v>5547</v>
+        <v>5524</v>
       </c>
       <c r="Y19" s="13" t="n">
-        <v>5524</v>
+        <v>5333</v>
       </c>
       <c r="Z19" s="13" t="n">
-        <v>5333</v>
+        <v>5062</v>
       </c>
       <c r="AA19" s="13" t="n">
-        <v>5062</v>
+        <v>6513</v>
       </c>
       <c r="AB19" s="13" t="n">
-        <v>6513</v>
+        <v>4245</v>
       </c>
       <c r="AC19" s="13" t="n">
-        <v>4245</v>
-      </c>
-      <c r="AD19" s="13" t="n">
         <v>5222</v>
+      </c>
+      <c r="AD19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE19" s="13" t="s">
         <v>57</v>
@@ -4754,80 +4754,80 @@
       <c r="AC20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD20" s="16" t="s">
-        <v>57</v>
+      <c r="AD20" s="16" t="n">
+        <v>6782</v>
       </c>
       <c r="AE20" s="16" t="n">
-        <v>6782</v>
+        <v>3941</v>
       </c>
       <c r="AF20" s="16" t="n">
-        <v>3941</v>
+        <v>7096</v>
       </c>
       <c r="AG20" s="16" t="n">
-        <v>7096</v>
+        <v>10629</v>
       </c>
       <c r="AH20" s="16" t="n">
-        <v>10629</v>
+        <v>7746</v>
       </c>
       <c r="AI20" s="16" t="n">
-        <v>7746</v>
+        <v>5883</v>
       </c>
       <c r="AJ20" s="16" t="n">
-        <v>5883</v>
+        <v>5093</v>
       </c>
       <c r="AK20" s="16" t="n">
-        <v>5093</v>
+        <v>5885</v>
       </c>
       <c r="AL20" s="16" t="n">
-        <v>5885</v>
+        <v>6347</v>
       </c>
       <c r="AM20" s="16" t="n">
-        <v>6347</v>
+        <v>3833</v>
       </c>
       <c r="AN20" s="16" t="n">
-        <v>3833</v>
+        <v>3509</v>
       </c>
       <c r="AO20" s="16" t="n">
-        <v>3509</v>
+        <v>3382</v>
       </c>
       <c r="AP20" s="16" t="n">
-        <v>3382</v>
+        <v>3741</v>
       </c>
       <c r="AQ20" s="16" t="n">
-        <v>3741</v>
+        <v>2390</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>2390</v>
+        <v>6031</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>6031</v>
+        <v>4816</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>4816</v>
+        <v>6863</v>
       </c>
       <c r="AU20" s="16" t="n">
-        <v>6863</v>
+        <v>9155</v>
       </c>
       <c r="AV20" s="16" t="n">
-        <v>9155</v>
+        <v>3954</v>
       </c>
       <c r="AW20" s="16" t="n">
-        <v>3954</v>
+        <v>2339</v>
       </c>
       <c r="AX20" s="16" t="n">
-        <v>2339</v>
+        <v>4804</v>
       </c>
       <c r="AY20" s="16" t="n">
-        <v>4804</v>
+        <v>7060</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>7060</v>
+        <v>8564</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>8564</v>
+        <v>5068</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>5068</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,80 +4913,80 @@
       <c r="AC21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="13" t="s">
-        <v>57</v>
+      <c r="AD21" s="13" t="n">
+        <v>9454</v>
       </c>
       <c r="AE21" s="13" t="n">
-        <v>9454</v>
+        <v>2089</v>
       </c>
       <c r="AF21" s="13" t="n">
-        <v>2089</v>
+        <v>5252</v>
       </c>
       <c r="AG21" s="13" t="n">
-        <v>5252</v>
+        <v>6498</v>
       </c>
       <c r="AH21" s="13" t="n">
-        <v>6498</v>
+        <v>7632</v>
       </c>
       <c r="AI21" s="13" t="n">
-        <v>7632</v>
+        <v>3730</v>
       </c>
       <c r="AJ21" s="13" t="n">
-        <v>3730</v>
+        <v>5787</v>
       </c>
       <c r="AK21" s="13" t="n">
-        <v>5787</v>
+        <v>5118</v>
       </c>
       <c r="AL21" s="13" t="n">
-        <v>5118</v>
+        <v>3478</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>3478</v>
+        <v>6376</v>
       </c>
       <c r="AN21" s="13" t="n">
-        <v>6376</v>
+        <v>5315</v>
       </c>
       <c r="AO21" s="13" t="n">
-        <v>5315</v>
+        <v>3802</v>
       </c>
       <c r="AP21" s="13" t="n">
-        <v>3802</v>
+        <v>2714</v>
       </c>
       <c r="AQ21" s="13" t="n">
-        <v>2714</v>
+        <v>4387</v>
       </c>
       <c r="AR21" s="13" t="n">
-        <v>4387</v>
+        <v>3295</v>
       </c>
       <c r="AS21" s="13" t="n">
-        <v>3295</v>
+        <v>2728</v>
       </c>
       <c r="AT21" s="13" t="n">
-        <v>2728</v>
+        <v>6783</v>
       </c>
       <c r="AU21" s="13" t="n">
-        <v>6783</v>
+        <v>6788</v>
       </c>
       <c r="AV21" s="13" t="n">
-        <v>6788</v>
+        <v>7551</v>
       </c>
       <c r="AW21" s="13" t="n">
-        <v>7551</v>
+        <v>9744</v>
       </c>
       <c r="AX21" s="13" t="n">
-        <v>9744</v>
+        <v>8680</v>
       </c>
       <c r="AY21" s="13" t="n">
-        <v>8680</v>
+        <v>7919</v>
       </c>
       <c r="AZ21" s="13" t="n">
-        <v>7919</v>
+        <v>8340</v>
       </c>
       <c r="BA21" s="13" t="n">
-        <v>8340</v>
+        <v>6402</v>
       </c>
       <c r="BB21" s="13" t="n">
-        <v>6402</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,80 +5072,80 @@
       <c r="AC22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD22" s="16" t="s">
-        <v>57</v>
+      <c r="AD22" s="16" t="n">
+        <v>2541</v>
       </c>
       <c r="AE22" s="16" t="n">
-        <v>2541</v>
+        <v>2391</v>
       </c>
       <c r="AF22" s="16" t="n">
-        <v>2391</v>
+        <v>1973</v>
       </c>
       <c r="AG22" s="16" t="n">
-        <v>1973</v>
+        <v>3224</v>
       </c>
       <c r="AH22" s="16" t="n">
-        <v>3224</v>
+        <v>2955</v>
       </c>
       <c r="AI22" s="16" t="n">
-        <v>2955</v>
+        <v>2139</v>
       </c>
       <c r="AJ22" s="16" t="n">
-        <v>2139</v>
+        <v>2824</v>
       </c>
       <c r="AK22" s="16" t="n">
-        <v>2824</v>
+        <v>1766</v>
       </c>
       <c r="AL22" s="16" t="n">
-        <v>1766</v>
+        <v>1844</v>
       </c>
       <c r="AM22" s="16" t="n">
-        <v>1844</v>
+        <v>1222</v>
       </c>
       <c r="AN22" s="16" t="n">
-        <v>1222</v>
+        <v>2697</v>
       </c>
       <c r="AO22" s="16" t="n">
-        <v>2697</v>
+        <v>810</v>
       </c>
       <c r="AP22" s="16" t="n">
-        <v>810</v>
+        <v>1503</v>
       </c>
       <c r="AQ22" s="16" t="n">
-        <v>1503</v>
+        <v>2330</v>
       </c>
       <c r="AR22" s="16" t="n">
-        <v>2330</v>
+        <v>2315</v>
       </c>
       <c r="AS22" s="16" t="n">
-        <v>2315</v>
+        <v>1504</v>
       </c>
       <c r="AT22" s="16" t="n">
-        <v>1504</v>
+        <v>1543</v>
       </c>
       <c r="AU22" s="16" t="n">
-        <v>1543</v>
+        <v>1818</v>
       </c>
       <c r="AV22" s="16" t="n">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="AW22" s="16" t="n">
-        <v>1796</v>
+        <v>1693</v>
       </c>
       <c r="AX22" s="16" t="n">
-        <v>1693</v>
+        <v>2122</v>
       </c>
       <c r="AY22" s="16" t="n">
-        <v>2122</v>
+        <v>4746</v>
       </c>
       <c r="AZ22" s="16" t="n">
-        <v>4746</v>
+        <v>5749</v>
       </c>
       <c r="BA22" s="16" t="n">
-        <v>5749</v>
+        <v>1332</v>
       </c>
       <c r="BB22" s="16" t="n">
-        <v>1332</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,80 +5231,80 @@
       <c r="AC23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD23" s="13" t="s">
-        <v>57</v>
+      <c r="AD23" s="13" t="n">
+        <v>1048</v>
       </c>
       <c r="AE23" s="13" t="n">
-        <v>1048</v>
+        <v>490</v>
       </c>
       <c r="AF23" s="13" t="n">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="AG23" s="13" t="n">
-        <v>461</v>
+        <v>1127</v>
       </c>
       <c r="AH23" s="13" t="n">
+        <v>1322</v>
+      </c>
+      <c r="AI23" s="13" t="n">
+        <v>592</v>
+      </c>
+      <c r="AJ23" s="13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AK23" s="13" t="n">
+        <v>696</v>
+      </c>
+      <c r="AL23" s="13" t="n">
+        <v>692</v>
+      </c>
+      <c r="AM23" s="13" t="n">
+        <v>616</v>
+      </c>
+      <c r="AN23" s="13" t="n">
+        <v>541</v>
+      </c>
+      <c r="AO23" s="13" t="n">
+        <v>397</v>
+      </c>
+      <c r="AP23" s="13" t="n">
+        <v>778</v>
+      </c>
+      <c r="AQ23" s="13" t="n">
+        <v>888</v>
+      </c>
+      <c r="AR23" s="13" t="n">
+        <v>1604</v>
+      </c>
+      <c r="AS23" s="13" t="n">
+        <v>204</v>
+      </c>
+      <c r="AT23" s="13" t="n">
+        <v>129</v>
+      </c>
+      <c r="AU23" s="13" t="n">
+        <v>178</v>
+      </c>
+      <c r="AV23" s="13" t="n">
+        <v>1466</v>
+      </c>
+      <c r="AW23" s="13" t="n">
+        <v>699</v>
+      </c>
+      <c r="AX23" s="13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AY23" s="13" t="n">
         <v>1127</v>
       </c>
-      <c r="AI23" s="13" t="n">
-        <v>1322</v>
-      </c>
-      <c r="AJ23" s="13" t="n">
-        <v>592</v>
-      </c>
-      <c r="AK23" s="13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL23" s="13" t="n">
-        <v>696</v>
-      </c>
-      <c r="AM23" s="13" t="n">
-        <v>692</v>
-      </c>
-      <c r="AN23" s="13" t="n">
-        <v>616</v>
-      </c>
-      <c r="AO23" s="13" t="n">
+      <c r="AZ23" s="13" t="n">
+        <v>299</v>
+      </c>
+      <c r="BA23" s="13" t="n">
         <v>541</v>
       </c>
-      <c r="AP23" s="13" t="n">
-        <v>397</v>
-      </c>
-      <c r="AQ23" s="13" t="n">
-        <v>778</v>
-      </c>
-      <c r="AR23" s="13" t="n">
-        <v>888</v>
-      </c>
-      <c r="AS23" s="13" t="n">
-        <v>1604</v>
-      </c>
-      <c r="AT23" s="13" t="n">
-        <v>204</v>
-      </c>
-      <c r="AU23" s="13" t="n">
-        <v>129</v>
-      </c>
-      <c r="AV23" s="13" t="n">
-        <v>178</v>
-      </c>
-      <c r="AW23" s="13" t="n">
-        <v>1466</v>
-      </c>
-      <c r="AX23" s="13" t="n">
-        <v>699</v>
-      </c>
-      <c r="AY23" s="13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AZ23" s="13" t="n">
-        <v>1127</v>
-      </c>
-      <c r="BA23" s="13" t="n">
-        <v>299</v>
-      </c>
       <c r="BB23" s="13" t="n">
-        <v>541</v>
+        <v>935</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5390,80 +5390,80 @@
       <c r="AC24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD24" s="16" t="s">
-        <v>57</v>
+      <c r="AD24" s="16" t="n">
+        <v>22872</v>
       </c>
       <c r="AE24" s="16" t="n">
-        <v>22872</v>
+        <v>10000</v>
       </c>
       <c r="AF24" s="16" t="n">
-        <v>10000</v>
+        <v>21265</v>
       </c>
       <c r="AG24" s="16" t="n">
-        <v>21265</v>
+        <v>19437</v>
       </c>
       <c r="AH24" s="16" t="n">
-        <v>19437</v>
+        <v>20285</v>
       </c>
       <c r="AI24" s="16" t="n">
-        <v>20285</v>
+        <v>20340</v>
       </c>
       <c r="AJ24" s="16" t="n">
-        <v>20340</v>
+        <v>30556</v>
       </c>
       <c r="AK24" s="16" t="n">
-        <v>30556</v>
+        <v>17675</v>
       </c>
       <c r="AL24" s="16" t="n">
-        <v>17675</v>
+        <v>15533</v>
       </c>
       <c r="AM24" s="16" t="n">
-        <v>15533</v>
+        <v>14536</v>
       </c>
       <c r="AN24" s="16" t="n">
-        <v>14536</v>
+        <v>20160</v>
       </c>
       <c r="AO24" s="16" t="n">
-        <v>20160</v>
+        <v>16766</v>
       </c>
       <c r="AP24" s="16" t="n">
-        <v>16766</v>
+        <v>17060</v>
       </c>
       <c r="AQ24" s="16" t="n">
-        <v>17060</v>
+        <v>17046</v>
       </c>
       <c r="AR24" s="16" t="n">
-        <v>17046</v>
+        <v>17828</v>
       </c>
       <c r="AS24" s="16" t="n">
-        <v>17828</v>
+        <v>15504</v>
       </c>
       <c r="AT24" s="16" t="n">
-        <v>15504</v>
+        <v>18180</v>
       </c>
       <c r="AU24" s="16" t="n">
-        <v>18180</v>
+        <v>17149</v>
       </c>
       <c r="AV24" s="16" t="n">
-        <v>17149</v>
+        <v>19684</v>
       </c>
       <c r="AW24" s="16" t="n">
-        <v>19684</v>
+        <v>21613</v>
       </c>
       <c r="AX24" s="16" t="n">
-        <v>21613</v>
+        <v>21621</v>
       </c>
       <c r="AY24" s="16" t="n">
-        <v>21621</v>
+        <v>18698</v>
       </c>
       <c r="AZ24" s="16" t="n">
-        <v>18698</v>
+        <v>20626</v>
       </c>
       <c r="BA24" s="16" t="n">
-        <v>20626</v>
+        <v>16738</v>
       </c>
       <c r="BB24" s="16" t="n">
-        <v>16738</v>
+        <v>19222</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,35 +5549,35 @@
       <c r="AC25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD25" s="13" t="s">
-        <v>57</v>
+      <c r="AD25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE25" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AF25" s="13" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AG25" s="13" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="13" t="n">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="AI25" s="13" t="n">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="13" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="AK25" s="13" t="n">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="13" t="n">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AM25" s="13" t="n">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="13" t="n">
         <v>0</v>
@@ -5585,8 +5585,8 @@
       <c r="AO25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP25" s="13" t="n">
-        <v>0</v>
+      <c r="AP25" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ25" s="13" t="s">
         <v>57</v>
@@ -5736,8 +5736,8 @@
       <c r="T27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="20" t="s">
-        <v>57</v>
+      <c r="U27" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V27" s="20" t="n">
         <v>0</v>
@@ -5846,154 +5846,154 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="n">
-        <v>48940</v>
+        <v>53211</v>
       </c>
       <c r="F28" s="22" t="n">
-        <v>53211</v>
+        <v>66738</v>
       </c>
       <c r="G28" s="22" t="n">
-        <v>66738</v>
+        <v>54506</v>
       </c>
       <c r="H28" s="22" t="n">
-        <v>54506</v>
+        <v>61979</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>61979</v>
+        <v>65980</v>
       </c>
       <c r="J28" s="22" t="n">
-        <v>65980</v>
+        <v>61466</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>61466</v>
+        <v>64371</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>64371</v>
+        <v>64207</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>64207</v>
+        <v>63265</v>
       </c>
       <c r="N28" s="22" t="n">
-        <v>63265</v>
+        <v>57705</v>
       </c>
       <c r="O28" s="22" t="n">
-        <v>57705</v>
+        <v>67304</v>
       </c>
       <c r="P28" s="22" t="n">
-        <v>67304</v>
+        <v>57121</v>
       </c>
       <c r="Q28" s="22" t="n">
-        <v>57121</v>
+        <v>57055</v>
       </c>
       <c r="R28" s="22" t="n">
-        <v>57055</v>
+        <v>62858</v>
       </c>
       <c r="S28" s="22" t="n">
-        <v>62858</v>
+        <v>56362</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>56362</v>
+        <v>61832</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>61832</v>
+        <v>45059</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>45059</v>
+        <v>67699</v>
       </c>
       <c r="W28" s="22" t="n">
-        <v>67699</v>
+        <v>58702</v>
       </c>
       <c r="X28" s="22" t="n">
-        <v>58702</v>
+        <v>71228</v>
       </c>
       <c r="Y28" s="22" t="n">
-        <v>71228</v>
+        <v>64114</v>
       </c>
       <c r="Z28" s="22" t="n">
-        <v>64114</v>
+        <v>61117</v>
       </c>
       <c r="AA28" s="22" t="n">
-        <v>61117</v>
+        <v>55616</v>
       </c>
       <c r="AB28" s="22" t="n">
-        <v>55616</v>
+        <v>56253</v>
       </c>
       <c r="AC28" s="22" t="n">
-        <v>56253</v>
+        <v>51873</v>
       </c>
       <c r="AD28" s="22" t="n">
-        <v>51873</v>
+        <v>73829</v>
       </c>
       <c r="AE28" s="22" t="n">
-        <v>73829</v>
+        <v>46703</v>
       </c>
       <c r="AF28" s="22" t="n">
-        <v>46703</v>
+        <v>65575</v>
       </c>
       <c r="AG28" s="22" t="n">
-        <v>65575</v>
+        <v>78770</v>
       </c>
       <c r="AH28" s="22" t="n">
-        <v>78770</v>
+        <v>70292</v>
       </c>
       <c r="AI28" s="22" t="n">
-        <v>70292</v>
+        <v>63543</v>
       </c>
       <c r="AJ28" s="22" t="n">
-        <v>63543</v>
+        <v>75687</v>
       </c>
       <c r="AK28" s="22" t="n">
-        <v>75687</v>
+        <v>71381</v>
       </c>
       <c r="AL28" s="22" t="n">
-        <v>71381</v>
+        <v>58110</v>
       </c>
       <c r="AM28" s="22" t="n">
-        <v>58110</v>
+        <v>55054</v>
       </c>
       <c r="AN28" s="22" t="n">
-        <v>55054</v>
+        <v>64829</v>
       </c>
       <c r="AO28" s="22" t="n">
-        <v>64829</v>
+        <v>53017</v>
       </c>
       <c r="AP28" s="22" t="n">
-        <v>53017</v>
+        <v>60635</v>
       </c>
       <c r="AQ28" s="22" t="n">
-        <v>60635</v>
+        <v>60376</v>
       </c>
       <c r="AR28" s="22" t="n">
-        <v>60376</v>
+        <v>60491</v>
       </c>
       <c r="AS28" s="22" t="n">
-        <v>60491</v>
+        <v>57441</v>
       </c>
       <c r="AT28" s="22" t="n">
-        <v>57441</v>
+        <v>56804</v>
       </c>
       <c r="AU28" s="22" t="n">
-        <v>56804</v>
+        <v>55304</v>
       </c>
       <c r="AV28" s="22" t="n">
-        <v>55304</v>
+        <v>64595</v>
       </c>
       <c r="AW28" s="22" t="n">
-        <v>64595</v>
+        <v>61322</v>
       </c>
       <c r="AX28" s="22" t="n">
-        <v>61322</v>
+        <v>62595</v>
       </c>
       <c r="AY28" s="22" t="n">
-        <v>62595</v>
+        <v>61711</v>
       </c>
       <c r="AZ28" s="22" t="n">
-        <v>61711</v>
+        <v>63215</v>
       </c>
       <c r="BA28" s="22" t="n">
-        <v>63215</v>
+        <v>56503</v>
       </c>
       <c r="BB28" s="22" t="n">
-        <v>56503</v>
+        <v>61328</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6450,104 +6450,104 @@
       <c r="H35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>57</v>
+      <c r="I35" s="13" t="n">
+        <v>17</v>
       </c>
       <c r="J35" s="13" t="n">
-        <v>17</v>
+        <v>569</v>
       </c>
       <c r="K35" s="13" t="n">
-        <v>569</v>
+        <v>158</v>
       </c>
       <c r="L35" s="13" t="n">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="M35" s="13" t="n">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="N35" s="13" t="n">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="O35" s="13" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="P35" s="13" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="13" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="R35" s="13" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="S35" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="T35" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U35" s="13" t="n">
+        <v>32</v>
+      </c>
+      <c r="V35" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="W35" s="13" t="n">
+        <v>527</v>
+      </c>
+      <c r="X35" s="13" t="n">
+        <v>346</v>
+      </c>
+      <c r="Y35" s="13" t="n">
+        <v>399</v>
+      </c>
+      <c r="Z35" s="13" t="n">
+        <v>237</v>
+      </c>
+      <c r="AA35" s="13" t="n">
+        <v>111</v>
+      </c>
+      <c r="AB35" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC35" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="T35" s="13" t="n">
-        <v>16</v>
-      </c>
-      <c r="U35" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V35" s="13" t="n">
-        <v>32</v>
-      </c>
-      <c r="W35" s="13" t="n">
-        <v>104</v>
-      </c>
-      <c r="X35" s="13" t="n">
-        <v>527</v>
-      </c>
-      <c r="Y35" s="13" t="n">
-        <v>346</v>
-      </c>
-      <c r="Z35" s="13" t="n">
-        <v>399</v>
-      </c>
-      <c r="AA35" s="13" t="n">
-        <v>237</v>
-      </c>
-      <c r="AB35" s="13" t="n">
-        <v>111</v>
-      </c>
-      <c r="AC35" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD35" s="13" t="n">
-        <v>1</v>
-      </c>
       <c r="AE35" s="13" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>145</v>
+        <v>559</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>559</v>
+        <v>257</v>
       </c>
       <c r="AK35" s="13" t="n">
-        <v>257</v>
+        <v>411</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="AM35" s="13" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN35" s="13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO35" s="13" t="n">
         <v>51</v>
+      </c>
+      <c r="AO35" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP35" s="13" t="s">
         <v>57</v>
@@ -6598,82 +6598,82 @@
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16" t="n">
-        <v>29880</v>
+        <v>48450</v>
       </c>
       <c r="F36" s="16" t="n">
-        <v>48450</v>
+        <v>31571</v>
       </c>
       <c r="G36" s="16" t="n">
-        <v>31571</v>
+        <v>43133</v>
       </c>
       <c r="H36" s="16" t="n">
-        <v>43133</v>
+        <v>44401</v>
       </c>
       <c r="I36" s="16" t="n">
-        <v>44401</v>
+        <v>60125</v>
       </c>
       <c r="J36" s="16" t="n">
-        <v>60125</v>
+        <v>65987</v>
       </c>
       <c r="K36" s="16" t="n">
-        <v>65987</v>
+        <v>65128</v>
       </c>
       <c r="L36" s="16" t="n">
-        <v>65128</v>
+        <v>47967</v>
       </c>
       <c r="M36" s="16" t="n">
-        <v>47967</v>
+        <v>46781</v>
       </c>
       <c r="N36" s="16" t="n">
-        <v>46781</v>
+        <v>62771</v>
       </c>
       <c r="O36" s="16" t="n">
-        <v>62771</v>
+        <v>51818</v>
       </c>
       <c r="P36" s="16" t="n">
-        <v>51818</v>
+        <v>67441</v>
       </c>
       <c r="Q36" s="16" t="n">
-        <v>67441</v>
+        <v>56113</v>
       </c>
       <c r="R36" s="16" t="n">
-        <v>56113</v>
+        <v>22075</v>
       </c>
       <c r="S36" s="16" t="n">
-        <v>22075</v>
+        <v>55576</v>
       </c>
       <c r="T36" s="16" t="n">
-        <v>55576</v>
+        <v>67616</v>
       </c>
       <c r="U36" s="16" t="n">
-        <v>67616</v>
+        <v>59104</v>
       </c>
       <c r="V36" s="16" t="n">
-        <v>59104</v>
+        <v>50189</v>
       </c>
       <c r="W36" s="16" t="n">
-        <v>50189</v>
+        <v>59049</v>
       </c>
       <c r="X36" s="16" t="n">
-        <v>59049</v>
+        <v>61923</v>
       </c>
       <c r="Y36" s="16" t="n">
-        <v>61923</v>
+        <v>47981</v>
       </c>
       <c r="Z36" s="16" t="n">
-        <v>47981</v>
+        <v>51056</v>
       </c>
       <c r="AA36" s="16" t="n">
-        <v>51056</v>
+        <v>62926</v>
       </c>
       <c r="AB36" s="16" t="n">
-        <v>62926</v>
+        <v>47452</v>
       </c>
       <c r="AC36" s="16" t="n">
-        <v>47452</v>
-      </c>
-      <c r="AD36" s="16" t="n">
         <v>50713</v>
+      </c>
+      <c r="AD36" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE36" s="16" t="s">
         <v>57</v>
@@ -6831,80 +6831,80 @@
       <c r="AC37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD37" s="13" t="s">
-        <v>57</v>
+      <c r="AD37" s="13" t="n">
+        <v>17366</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>17366</v>
+        <v>18843</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>18843</v>
+        <v>21712</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>21712</v>
+        <v>21802</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>21802</v>
+        <v>24929</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>24929</v>
+        <v>39065</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>39065</v>
+        <v>20379</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>20379</v>
+        <v>16279</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>16279</v>
+        <v>21593</v>
       </c>
       <c r="AM37" s="13" t="n">
-        <v>21593</v>
+        <v>20190</v>
       </c>
       <c r="AN37" s="13" t="n">
-        <v>20190</v>
+        <v>22426</v>
       </c>
       <c r="AO37" s="13" t="n">
-        <v>22426</v>
+        <v>26998</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>26998</v>
+        <v>7908</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>7908</v>
+        <v>27135</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>27135</v>
+        <v>42181</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>42181</v>
+        <v>34412</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>34412</v>
+        <v>25621</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>25621</v>
+        <v>22812</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>22812</v>
+        <v>16430</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>16430</v>
+        <v>19627</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>19627</v>
+        <v>19456</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>19456</v>
+        <v>18049</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>18049</v>
+        <v>14236</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>14236</v>
+        <v>17268</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>17268</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6990,80 +6990,80 @@
       <c r="AC38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD38" s="16" t="s">
-        <v>57</v>
+      <c r="AD38" s="16" t="n">
+        <v>1039</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>1039</v>
+        <v>2156</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>2156</v>
+        <v>1939</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>1939</v>
+        <v>2550</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>2550</v>
+        <v>2609</v>
       </c>
       <c r="AI38" s="16" t="n">
-        <v>2609</v>
+        <v>1901</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>1901</v>
+        <v>1611</v>
       </c>
       <c r="AK38" s="16" t="n">
-        <v>1611</v>
+        <v>1362</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>1362</v>
+        <v>2463</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>2463</v>
+        <v>1783</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>1783</v>
+        <v>1243</v>
       </c>
       <c r="AO38" s="16" t="n">
-        <v>1243</v>
+        <v>962</v>
       </c>
       <c r="AP38" s="16" t="n">
-        <v>962</v>
+        <v>736</v>
       </c>
       <c r="AQ38" s="16" t="n">
-        <v>736</v>
+        <v>1686</v>
       </c>
       <c r="AR38" s="16" t="n">
-        <v>1686</v>
+        <v>1029</v>
       </c>
       <c r="AS38" s="16" t="n">
-        <v>1029</v>
+        <v>824</v>
       </c>
       <c r="AT38" s="16" t="n">
-        <v>824</v>
+        <v>367</v>
       </c>
       <c r="AU38" s="16" t="n">
-        <v>367</v>
+        <v>720</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>720</v>
+        <v>1889</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>1889</v>
+        <v>1474</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>1474</v>
+        <v>2331</v>
       </c>
       <c r="AY38" s="16" t="n">
-        <v>2331</v>
+        <v>1210</v>
       </c>
       <c r="AZ38" s="16" t="n">
-        <v>1210</v>
+        <v>3135</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>3135</v>
+        <v>3270</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>3270</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7086,143 +7086,143 @@
       <c r="H39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>57</v>
+      <c r="I39" s="13" t="n">
+        <v>42</v>
       </c>
       <c r="J39" s="13" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K39" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="L39" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="M39" s="13" t="n">
+        <v>33</v>
+      </c>
+      <c r="N39" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="O39" s="13" t="n">
+        <v>41</v>
+      </c>
+      <c r="P39" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q39" s="13" t="n">
+        <v>55</v>
+      </c>
+      <c r="R39" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="S39" s="13" t="n">
+        <v>123</v>
+      </c>
+      <c r="T39" s="13" t="n">
+        <v>90</v>
+      </c>
+      <c r="U39" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="V39" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="W39" s="13" t="n">
+        <v>159</v>
+      </c>
+      <c r="X39" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="Y39" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z39" s="13" t="n">
         <v>46</v>
       </c>
-      <c r="L39" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="M39" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="N39" s="13" t="n">
-        <v>33</v>
-      </c>
-      <c r="O39" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="P39" s="13" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="13" t="n">
-        <v>44</v>
-      </c>
-      <c r="R39" s="13" t="n">
-        <v>55</v>
-      </c>
-      <c r="S39" s="13" t="n">
-        <v>27</v>
-      </c>
-      <c r="T39" s="13" t="n">
-        <v>123</v>
-      </c>
-      <c r="U39" s="13" t="n">
-        <v>90</v>
-      </c>
-      <c r="V39" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="W39" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="X39" s="13" t="n">
-        <v>159</v>
-      </c>
-      <c r="Y39" s="13" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z39" s="13" t="n">
-        <v>10</v>
-      </c>
       <c r="AA39" s="13" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AD39" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="AE39" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="AF39" s="13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG39" s="13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH39" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI39" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM39" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN39" s="13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO39" s="13" t="n">
+        <v>119</v>
+      </c>
+      <c r="AP39" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ39" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR39" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="AE39" s="13" t="n">
-        <v>106</v>
-      </c>
-      <c r="AF39" s="13" t="n">
-        <v>77</v>
-      </c>
-      <c r="AG39" s="13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH39" s="13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI39" s="13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ39" s="13" t="n">
+      <c r="AS39" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT39" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AK39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="AN39" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO39" s="13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AP39" s="13" t="n">
-        <v>119</v>
-      </c>
-      <c r="AQ39" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR39" s="13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS39" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT39" s="13" t="n">
-        <v>4</v>
-      </c>
       <c r="AU39" s="13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>165</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,47 +7341,47 @@
       <c r="AN40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO40" s="16" t="s">
-        <v>57</v>
+      <c r="AO40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP40" s="16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="AT40" s="16" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,19 +7393,19 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="n">
-        <v>27231</v>
+        <v>17165</v>
       </c>
       <c r="F41" s="13" t="n">
-        <v>17165</v>
+        <v>15435</v>
       </c>
       <c r="G41" s="13" t="n">
-        <v>15435</v>
+        <v>30793</v>
       </c>
       <c r="H41" s="13" t="n">
-        <v>30793</v>
+        <v>20883</v>
       </c>
       <c r="I41" s="13" t="n">
-        <v>20883</v>
+        <v>0</v>
       </c>
       <c r="J41" s="13" t="n">
         <v>0</v>
@@ -7431,17 +7431,17 @@
       <c r="Q41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>57</v>
+      <c r="R41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" s="13" t="n">
         <v>-54</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V41" s="13" t="s">
         <v>57</v>
@@ -7626,80 +7626,80 @@
       <c r="AC42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD42" s="16" t="s">
-        <v>57</v>
+      <c r="AD42" s="16" t="n">
+        <v>1524</v>
       </c>
       <c r="AE42" s="16" t="n">
-        <v>1524</v>
+        <v>3781</v>
       </c>
       <c r="AF42" s="16" t="n">
-        <v>3781</v>
+        <v>4111</v>
       </c>
       <c r="AG42" s="16" t="n">
-        <v>4111</v>
+        <v>2226</v>
       </c>
       <c r="AH42" s="16" t="n">
-        <v>2226</v>
+        <v>3719</v>
       </c>
       <c r="AI42" s="16" t="n">
-        <v>3719</v>
+        <v>4068</v>
       </c>
       <c r="AJ42" s="16" t="n">
-        <v>4068</v>
+        <v>2573</v>
       </c>
       <c r="AK42" s="16" t="n">
-        <v>2573</v>
+        <v>3825</v>
       </c>
       <c r="AL42" s="16" t="n">
-        <v>3825</v>
+        <v>4257</v>
       </c>
       <c r="AM42" s="16" t="n">
-        <v>4257</v>
+        <v>3108</v>
       </c>
       <c r="AN42" s="16" t="n">
-        <v>3108</v>
+        <v>4455</v>
       </c>
       <c r="AO42" s="16" t="n">
-        <v>4455</v>
+        <v>2689</v>
       </c>
       <c r="AP42" s="16" t="n">
-        <v>2689</v>
+        <v>2482</v>
       </c>
       <c r="AQ42" s="16" t="n">
-        <v>2482</v>
+        <v>4052</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>4052</v>
+        <v>3564</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>3564</v>
+        <v>4134</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>4134</v>
+        <v>4857</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>4857</v>
+        <v>3305</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>3305</v>
+        <v>2783</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>2783</v>
+        <v>2243</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>2243</v>
+        <v>2078</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>2078</v>
+        <v>1076</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>1076</v>
+        <v>3116</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>3116</v>
+        <v>4339</v>
       </c>
       <c r="BB42" s="16" t="n">
-        <v>4339</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7722,71 +7722,71 @@
       <c r="H43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>57</v>
+      <c r="I43" s="13" t="n">
+        <v>6381</v>
       </c>
       <c r="J43" s="13" t="n">
-        <v>6381</v>
+        <v>4431</v>
       </c>
       <c r="K43" s="13" t="n">
-        <v>4431</v>
+        <v>5748</v>
       </c>
       <c r="L43" s="13" t="n">
-        <v>5748</v>
+        <v>3762</v>
       </c>
       <c r="M43" s="13" t="n">
-        <v>3762</v>
+        <v>4558</v>
       </c>
       <c r="N43" s="13" t="n">
-        <v>4558</v>
+        <v>6379</v>
       </c>
       <c r="O43" s="13" t="n">
-        <v>6379</v>
+        <v>9717</v>
       </c>
       <c r="P43" s="13" t="n">
-        <v>9717</v>
+        <v>10198</v>
       </c>
       <c r="Q43" s="13" t="n">
-        <v>10198</v>
+        <v>4926</v>
       </c>
       <c r="R43" s="13" t="n">
-        <v>4926</v>
+        <v>858</v>
       </c>
       <c r="S43" s="13" t="n">
-        <v>858</v>
+        <v>2933</v>
       </c>
       <c r="T43" s="13" t="n">
-        <v>2933</v>
+        <v>8137</v>
       </c>
       <c r="U43" s="13" t="n">
-        <v>8137</v>
+        <v>6891</v>
       </c>
       <c r="V43" s="13" t="n">
-        <v>6891</v>
+        <v>6931</v>
       </c>
       <c r="W43" s="13" t="n">
-        <v>6931</v>
+        <v>5876</v>
       </c>
       <c r="X43" s="13" t="n">
-        <v>5876</v>
+        <v>4742</v>
       </c>
       <c r="Y43" s="13" t="n">
-        <v>4742</v>
+        <v>4369</v>
       </c>
       <c r="Z43" s="13" t="n">
-        <v>4369</v>
+        <v>5202</v>
       </c>
       <c r="AA43" s="13" t="n">
-        <v>5202</v>
+        <v>5859</v>
       </c>
       <c r="AB43" s="13" t="n">
-        <v>5859</v>
+        <v>8245</v>
       </c>
       <c r="AC43" s="13" t="n">
-        <v>8245</v>
-      </c>
-      <c r="AD43" s="13" t="n">
         <v>4398</v>
+      </c>
+      <c r="AD43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE43" s="13" t="s">
         <v>57</v>
@@ -7944,80 +7944,80 @@
       <c r="AC44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD44" s="16" t="s">
-        <v>57</v>
+      <c r="AD44" s="16" t="n">
+        <v>5218</v>
       </c>
       <c r="AE44" s="16" t="n">
-        <v>5218</v>
+        <v>6577</v>
       </c>
       <c r="AF44" s="16" t="n">
-        <v>6577</v>
+        <v>8009</v>
       </c>
       <c r="AG44" s="16" t="n">
-        <v>8009</v>
+        <v>6566</v>
       </c>
       <c r="AH44" s="16" t="n">
-        <v>6566</v>
+        <v>5648</v>
       </c>
       <c r="AI44" s="16" t="n">
-        <v>5648</v>
+        <v>6537</v>
       </c>
       <c r="AJ44" s="16" t="n">
-        <v>6537</v>
+        <v>4808</v>
       </c>
       <c r="AK44" s="16" t="n">
-        <v>4808</v>
+        <v>4575</v>
       </c>
       <c r="AL44" s="16" t="n">
-        <v>4575</v>
+        <v>4833</v>
       </c>
       <c r="AM44" s="16" t="n">
-        <v>4833</v>
+        <v>4784</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>4784</v>
+        <v>4532</v>
       </c>
       <c r="AO44" s="16" t="n">
-        <v>4532</v>
+        <v>5168</v>
       </c>
       <c r="AP44" s="16" t="n">
-        <v>5168</v>
+        <v>2051</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>2051</v>
+        <v>3620</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>3620</v>
+        <v>6670</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>6670</v>
+        <v>4597</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>4597</v>
+        <v>5554</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>5554</v>
+        <v>6887</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>6887</v>
+        <v>4722</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>4722</v>
+        <v>5156</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>5156</v>
+        <v>4933</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>4933</v>
+        <v>6568</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>6568</v>
+        <v>6902</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>6902</v>
+        <v>5499</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>5499</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8103,80 +8103,80 @@
       <c r="AC45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD45" s="13" t="s">
-        <v>57</v>
+      <c r="AD45" s="13" t="n">
+        <v>5280</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>5280</v>
+        <v>5935</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>5935</v>
+        <v>6597</v>
       </c>
       <c r="AG45" s="13" t="n">
-        <v>6597</v>
+        <v>3712</v>
       </c>
       <c r="AH45" s="13" t="n">
-        <v>3712</v>
+        <v>5080</v>
       </c>
       <c r="AI45" s="13" t="n">
-        <v>5080</v>
+        <v>5354</v>
       </c>
       <c r="AJ45" s="13" t="n">
-        <v>5354</v>
+        <v>4224</v>
       </c>
       <c r="AK45" s="13" t="n">
-        <v>4224</v>
+        <v>5510</v>
       </c>
       <c r="AL45" s="13" t="n">
-        <v>5510</v>
+        <v>5595</v>
       </c>
       <c r="AM45" s="13" t="n">
-        <v>5595</v>
+        <v>5092</v>
       </c>
       <c r="AN45" s="13" t="n">
-        <v>5092</v>
+        <v>5504</v>
       </c>
       <c r="AO45" s="13" t="n">
-        <v>5504</v>
+        <v>4685</v>
       </c>
       <c r="AP45" s="13" t="n">
-        <v>4685</v>
+        <v>2355</v>
       </c>
       <c r="AQ45" s="13" t="n">
-        <v>2355</v>
+        <v>4082</v>
       </c>
       <c r="AR45" s="13" t="n">
-        <v>4082</v>
+        <v>4764</v>
       </c>
       <c r="AS45" s="13" t="n">
-        <v>4764</v>
+        <v>4254</v>
       </c>
       <c r="AT45" s="13" t="n">
-        <v>4254</v>
+        <v>4516</v>
       </c>
       <c r="AU45" s="13" t="n">
-        <v>4516</v>
+        <v>7012</v>
       </c>
       <c r="AV45" s="13" t="n">
-        <v>7012</v>
+        <v>5515</v>
       </c>
       <c r="AW45" s="13" t="n">
-        <v>5515</v>
+        <v>7797</v>
       </c>
       <c r="AX45" s="13" t="n">
-        <v>7797</v>
+        <v>10414</v>
       </c>
       <c r="AY45" s="13" t="n">
-        <v>10414</v>
+        <v>7187</v>
       </c>
       <c r="AZ45" s="13" t="n">
-        <v>7187</v>
+        <v>7893</v>
       </c>
       <c r="BA45" s="13" t="n">
-        <v>7893</v>
+        <v>6926</v>
       </c>
       <c r="BB45" s="13" t="n">
-        <v>6926</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8262,80 +8262,80 @@
       <c r="AC46" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD46" s="16" t="s">
-        <v>57</v>
+      <c r="AD46" s="16" t="n">
+        <v>1700</v>
       </c>
       <c r="AE46" s="16" t="n">
-        <v>1700</v>
+        <v>2767</v>
       </c>
       <c r="AF46" s="16" t="n">
-        <v>2767</v>
+        <v>2447</v>
       </c>
       <c r="AG46" s="16" t="n">
-        <v>2447</v>
+        <v>2083</v>
       </c>
       <c r="AH46" s="16" t="n">
-        <v>2083</v>
+        <v>1526</v>
       </c>
       <c r="AI46" s="16" t="n">
-        <v>1526</v>
+        <v>2803</v>
       </c>
       <c r="AJ46" s="16" t="n">
-        <v>2803</v>
+        <v>2354</v>
       </c>
       <c r="AK46" s="16" t="n">
-        <v>2354</v>
+        <v>1953</v>
       </c>
       <c r="AL46" s="16" t="n">
-        <v>1953</v>
+        <v>1754</v>
       </c>
       <c r="AM46" s="16" t="n">
-        <v>1754</v>
+        <v>1623</v>
       </c>
       <c r="AN46" s="16" t="n">
-        <v>1623</v>
+        <v>1772</v>
       </c>
       <c r="AO46" s="16" t="n">
-        <v>1772</v>
+        <v>2203</v>
       </c>
       <c r="AP46" s="16" t="n">
+        <v>1055</v>
+      </c>
+      <c r="AQ46" s="16" t="n">
         <v>2203</v>
       </c>
-      <c r="AQ46" s="16" t="n">
-        <v>1055</v>
-      </c>
       <c r="AR46" s="16" t="n">
-        <v>2203</v>
+        <v>2498</v>
       </c>
       <c r="AS46" s="16" t="n">
-        <v>2498</v>
+        <v>1590</v>
       </c>
       <c r="AT46" s="16" t="n">
-        <v>1590</v>
+        <v>1816</v>
       </c>
       <c r="AU46" s="16" t="n">
-        <v>1816</v>
+        <v>1628</v>
       </c>
       <c r="AV46" s="16" t="n">
-        <v>1628</v>
+        <v>1351</v>
       </c>
       <c r="AW46" s="16" t="n">
-        <v>1351</v>
+        <v>1846</v>
       </c>
       <c r="AX46" s="16" t="n">
-        <v>1846</v>
+        <v>2074</v>
       </c>
       <c r="AY46" s="16" t="n">
-        <v>2074</v>
+        <v>4570</v>
       </c>
       <c r="AZ46" s="16" t="n">
-        <v>4570</v>
+        <v>5408</v>
       </c>
       <c r="BA46" s="16" t="n">
-        <v>5408</v>
+        <v>2017</v>
       </c>
       <c r="BB46" s="16" t="n">
-        <v>2017</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8421,80 +8421,80 @@
       <c r="AC47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD47" s="13" t="s">
-        <v>57</v>
+      <c r="AD47" s="13" t="n">
+        <v>790</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>790</v>
+        <v>853</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>853</v>
+        <v>998</v>
       </c>
       <c r="AG47" s="13" t="n">
+        <v>433</v>
+      </c>
+      <c r="AH47" s="13" t="n">
+        <v>575</v>
+      </c>
+      <c r="AI47" s="13" t="n">
+        <v>848</v>
+      </c>
+      <c r="AJ47" s="13" t="n">
+        <v>590</v>
+      </c>
+      <c r="AK47" s="13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AL47" s="13" t="n">
+        <v>816</v>
+      </c>
+      <c r="AM47" s="13" t="n">
+        <v>505</v>
+      </c>
+      <c r="AN47" s="13" t="n">
+        <v>577</v>
+      </c>
+      <c r="AO47" s="13" t="n">
+        <v>567</v>
+      </c>
+      <c r="AP47" s="13" t="n">
+        <v>418</v>
+      </c>
+      <c r="AQ47" s="13" t="n">
+        <v>979</v>
+      </c>
+      <c r="AR47" s="13" t="n">
         <v>998</v>
       </c>
-      <c r="AH47" s="13" t="n">
-        <v>433</v>
-      </c>
-      <c r="AI47" s="13" t="n">
-        <v>575</v>
-      </c>
-      <c r="AJ47" s="13" t="n">
-        <v>848</v>
-      </c>
-      <c r="AK47" s="13" t="n">
-        <v>590</v>
-      </c>
-      <c r="AL47" s="13" t="n">
-        <v>580</v>
-      </c>
-      <c r="AM47" s="13" t="n">
-        <v>816</v>
-      </c>
-      <c r="AN47" s="13" t="n">
-        <v>505</v>
-      </c>
-      <c r="AO47" s="13" t="n">
-        <v>577</v>
-      </c>
-      <c r="AP47" s="13" t="n">
-        <v>567</v>
-      </c>
-      <c r="AQ47" s="13" t="n">
-        <v>418</v>
-      </c>
-      <c r="AR47" s="13" t="n">
-        <v>979</v>
-      </c>
       <c r="AS47" s="13" t="n">
-        <v>998</v>
+        <v>346</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>267</v>
+        <v>984</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>984</v>
+        <v>565</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>565</v>
+        <v>773</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>773</v>
+        <v>938</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>938</v>
+        <v>749</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>761</v>
+        <v>537</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>537</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8580,80 +8580,80 @@
       <c r="AC48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD48" s="16" t="s">
-        <v>57</v>
+      <c r="AD48" s="16" t="n">
+        <v>16881</v>
       </c>
       <c r="AE48" s="16" t="n">
-        <v>16881</v>
+        <v>21966</v>
       </c>
       <c r="AF48" s="16" t="n">
-        <v>21966</v>
+        <v>22429</v>
       </c>
       <c r="AG48" s="16" t="n">
-        <v>22429</v>
+        <v>21091</v>
       </c>
       <c r="AH48" s="16" t="n">
-        <v>21091</v>
+        <v>22858</v>
       </c>
       <c r="AI48" s="16" t="n">
-        <v>22858</v>
+        <v>16523</v>
       </c>
       <c r="AJ48" s="16" t="n">
-        <v>16523</v>
+        <v>25004</v>
       </c>
       <c r="AK48" s="16" t="n">
-        <v>25004</v>
+        <v>22245</v>
       </c>
       <c r="AL48" s="16" t="n">
-        <v>22245</v>
+        <v>15745</v>
       </c>
       <c r="AM48" s="16" t="n">
-        <v>15745</v>
+        <v>8855</v>
       </c>
       <c r="AN48" s="16" t="n">
-        <v>8855</v>
+        <v>16596</v>
       </c>
       <c r="AO48" s="16" t="n">
-        <v>16596</v>
+        <v>2183</v>
       </c>
       <c r="AP48" s="16" t="n">
-        <v>2183</v>
+        <v>21956</v>
       </c>
       <c r="AQ48" s="16" t="n">
-        <v>21956</v>
+        <v>20700</v>
       </c>
       <c r="AR48" s="16" t="n">
-        <v>20700</v>
+        <v>16275</v>
       </c>
       <c r="AS48" s="16" t="n">
-        <v>16275</v>
+        <v>16901</v>
       </c>
       <c r="AT48" s="16" t="n">
-        <v>16901</v>
+        <v>14865</v>
       </c>
       <c r="AU48" s="16" t="n">
-        <v>14865</v>
+        <v>22195</v>
       </c>
       <c r="AV48" s="16" t="n">
-        <v>22195</v>
+        <v>17372</v>
       </c>
       <c r="AW48" s="16" t="n">
-        <v>17372</v>
+        <v>25055</v>
       </c>
       <c r="AX48" s="16" t="n">
-        <v>25055</v>
+        <v>18426</v>
       </c>
       <c r="AY48" s="16" t="n">
-        <v>18426</v>
+        <v>23136</v>
       </c>
       <c r="AZ48" s="16" t="n">
-        <v>23136</v>
+        <v>19422</v>
       </c>
       <c r="BA48" s="16" t="n">
-        <v>19422</v>
+        <v>21913</v>
       </c>
       <c r="BB48" s="16" t="n">
-        <v>21913</v>
+        <v>7691</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8739,20 +8739,20 @@
       <c r="AC49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD49" s="13" t="s">
-        <v>57</v>
+      <c r="AD49" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE49" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AF49" s="13" t="n">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="AG49" s="13" t="n">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="AH49" s="13" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="13" t="n">
         <v>0</v>
@@ -8775,8 +8775,8 @@
       <c r="AO49" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP49" s="13" t="n">
-        <v>0</v>
+      <c r="AP49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ49" s="13" t="s">
         <v>57</v>
@@ -8926,8 +8926,8 @@
       <c r="T51" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U51" s="20" t="s">
-        <v>57</v>
+      <c r="U51" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V51" s="20" t="n">
         <v>0</v>
@@ -9172,53 +9172,53 @@
       <c r="AD53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AE53" s="13" t="s">
-        <v>57</v>
+      <c r="AE53" s="13" t="n">
+        <v>-4</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>-6</v>
-      </c>
-      <c r="AH53" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="AI53" s="13" t="s">
-        <v>57</v>
+      <c r="AH53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI53" s="13" t="n">
+        <v>-4581</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>-4581</v>
-      </c>
-      <c r="AK53" s="13" t="n">
         <v>-15</v>
       </c>
-      <c r="AL53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM53" s="13" t="n">
+      <c r="AK53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL53" s="13" t="n">
         <v>-9</v>
       </c>
-      <c r="AN53" s="13" t="s">
-        <v>57</v>
+      <c r="AM53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN53" s="13" t="n">
+        <v>-43</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>-43</v>
-      </c>
-      <c r="AP53" s="13" t="n">
         <v>-75</v>
       </c>
+      <c r="AP53" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR53" s="13" t="s">
-        <v>57</v>
+      <c r="AR53" s="13" t="n">
+        <v>-5</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AT53" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU53" s="13" t="s">
         <v>57</v>
@@ -9226,23 +9226,23 @@
       <c r="AV53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW53" s="13" t="s">
-        <v>57</v>
+      <c r="AW53" s="13" t="n">
+        <v>-7</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>-3</v>
-      </c>
-      <c r="BB53" s="13" t="n">
         <v>-24</v>
+      </c>
+      <c r="BB53" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9301,14 +9301,14 @@
       <c r="T54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>57</v>
+      <c r="U54" s="16" t="n">
+        <v>-20</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X54" s="16" t="n">
         <v>0</v>
@@ -9317,19 +9317,19 @@
         <v>0</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AD54" s="16" t="n">
         <v>-8</v>
+      </c>
+      <c r="AD54" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE54" s="16" t="s">
         <v>57</v>
@@ -9458,107 +9458,107 @@
       <c r="T55" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="20" t="s">
-        <v>57</v>
+      <c r="U55" s="20" t="n">
+        <v>-20</v>
       </c>
       <c r="V55" s="20" t="n">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="W55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="20" t="n">
+        <v>-21</v>
+      </c>
+      <c r="AA55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="20" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AC55" s="20" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AD55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AF55" s="20" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AG55" s="20" t="n">
         <v>-1</v>
       </c>
-      <c r="X55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="20" t="n">
-        <v>-21</v>
-      </c>
-      <c r="AB55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="20" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AD55" s="20" t="n">
+      <c r="AH55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="20" t="n">
+        <v>-4581</v>
+      </c>
+      <c r="AJ55" s="20" t="n">
+        <v>-15</v>
+      </c>
+      <c r="AK55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="20" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AM55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="20" t="n">
+        <v>-43</v>
+      </c>
+      <c r="AO55" s="20" t="n">
+        <v>-75</v>
+      </c>
+      <c r="AP55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="20" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AS55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="20" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AX55" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" s="20" t="n">
         <v>-8</v>
       </c>
-      <c r="AE55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="20" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AG55" s="20" t="n">
-        <v>-6</v>
-      </c>
-      <c r="AH55" s="20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AI55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="20" t="n">
-        <v>-4581</v>
-      </c>
-      <c r="AK55" s="20" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AL55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" s="20" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AN55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO55" s="20" t="n">
-        <v>-43</v>
-      </c>
-      <c r="AP55" s="20" t="n">
-        <v>-75</v>
-      </c>
-      <c r="AQ55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS55" s="20" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AT55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX55" s="20" t="n">
-        <v>-7</v>
-      </c>
-      <c r="AY55" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ55" s="20" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="BA55" s="20" t="n">
-        <v>-3</v>
+        <v>-24</v>
       </c>
       <c r="BB55" s="20" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9568,154 +9568,154 @@
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22" t="n">
-        <v>57111</v>
+        <v>65615</v>
       </c>
       <c r="F56" s="22" t="n">
-        <v>65615</v>
+        <v>47006</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>47006</v>
+        <v>73926</v>
       </c>
       <c r="H56" s="22" t="n">
-        <v>73926</v>
+        <v>65284</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>65284</v>
+        <v>66565</v>
       </c>
       <c r="J56" s="22" t="n">
-        <v>66565</v>
+        <v>71033</v>
       </c>
       <c r="K56" s="22" t="n">
-        <v>71033</v>
+        <v>71099</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>71099</v>
+        <v>51899</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>51899</v>
+        <v>51687</v>
       </c>
       <c r="N56" s="22" t="n">
-        <v>51687</v>
+        <v>69277</v>
       </c>
       <c r="O56" s="22" t="n">
-        <v>69277</v>
+        <v>61664</v>
       </c>
       <c r="P56" s="22" t="n">
-        <v>61664</v>
+        <v>77703</v>
       </c>
       <c r="Q56" s="22" t="n">
-        <v>77703</v>
+        <v>61175</v>
       </c>
       <c r="R56" s="22" t="n">
-        <v>61175</v>
+        <v>22966</v>
       </c>
       <c r="S56" s="22" t="n">
-        <v>22966</v>
+        <v>58648</v>
       </c>
       <c r="T56" s="22" t="n">
-        <v>58648</v>
+        <v>75792</v>
       </c>
       <c r="U56" s="22" t="n">
-        <v>75792</v>
+        <v>66070</v>
       </c>
       <c r="V56" s="22" t="n">
-        <v>66070</v>
+        <v>57241</v>
       </c>
       <c r="W56" s="22" t="n">
-        <v>57241</v>
+        <v>65611</v>
       </c>
       <c r="X56" s="22" t="n">
-        <v>65611</v>
+        <v>67077</v>
       </c>
       <c r="Y56" s="22" t="n">
-        <v>67077</v>
+        <v>52759</v>
       </c>
       <c r="Z56" s="22" t="n">
-        <v>52759</v>
+        <v>56520</v>
       </c>
       <c r="AA56" s="22" t="n">
-        <v>56520</v>
+        <v>68912</v>
       </c>
       <c r="AB56" s="22" t="n">
-        <v>68912</v>
+        <v>55727</v>
       </c>
       <c r="AC56" s="22" t="n">
-        <v>55727</v>
+        <v>55116</v>
       </c>
       <c r="AD56" s="22" t="n">
-        <v>55116</v>
+        <v>49910</v>
       </c>
       <c r="AE56" s="22" t="n">
-        <v>49910</v>
+        <v>62984</v>
       </c>
       <c r="AF56" s="22" t="n">
-        <v>62984</v>
+        <v>68897</v>
       </c>
       <c r="AG56" s="22" t="n">
-        <v>68897</v>
+        <v>61109</v>
       </c>
       <c r="AH56" s="22" t="n">
-        <v>61109</v>
+        <v>67102</v>
       </c>
       <c r="AI56" s="22" t="n">
-        <v>67102</v>
+        <v>73079</v>
       </c>
       <c r="AJ56" s="22" t="n">
-        <v>73079</v>
+        <v>61785</v>
       </c>
       <c r="AK56" s="22" t="n">
-        <v>61785</v>
+        <v>56740</v>
       </c>
       <c r="AL56" s="22" t="n">
-        <v>56740</v>
+        <v>57188</v>
       </c>
       <c r="AM56" s="22" t="n">
+        <v>46060</v>
+      </c>
+      <c r="AN56" s="22" t="n">
         <v>57188</v>
       </c>
-      <c r="AN56" s="22" t="n">
-        <v>46060</v>
-      </c>
       <c r="AO56" s="22" t="n">
-        <v>57188</v>
+        <v>45499</v>
       </c>
       <c r="AP56" s="22" t="n">
-        <v>45499</v>
+        <v>38990</v>
       </c>
       <c r="AQ56" s="22" t="n">
-        <v>38990</v>
+        <v>64573</v>
       </c>
       <c r="AR56" s="22" t="n">
-        <v>64573</v>
+        <v>78094</v>
       </c>
       <c r="AS56" s="22" t="n">
-        <v>78094</v>
+        <v>67382</v>
       </c>
       <c r="AT56" s="22" t="n">
-        <v>67382</v>
+        <v>58025</v>
       </c>
       <c r="AU56" s="22" t="n">
-        <v>58025</v>
+        <v>65566</v>
       </c>
       <c r="AV56" s="22" t="n">
-        <v>65566</v>
+        <v>50671</v>
       </c>
       <c r="AW56" s="22" t="n">
-        <v>50671</v>
+        <v>64058</v>
       </c>
       <c r="AX56" s="22" t="n">
-        <v>64058</v>
+        <v>60795</v>
       </c>
       <c r="AY56" s="22" t="n">
-        <v>60795</v>
+        <v>62706</v>
       </c>
       <c r="AZ56" s="22" t="n">
-        <v>62706</v>
+        <v>61042</v>
       </c>
       <c r="BA56" s="22" t="n">
-        <v>61042</v>
+        <v>62031</v>
       </c>
       <c r="BB56" s="22" t="n">
-        <v>62031</v>
+        <v>29666</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10172,104 +10172,104 @@
       <c r="H63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>57</v>
+      <c r="I63" s="13" t="n">
+        <v>2151</v>
       </c>
       <c r="J63" s="13" t="n">
-        <v>2151</v>
+        <v>65790</v>
       </c>
       <c r="K63" s="13" t="n">
-        <v>65790</v>
+        <v>19038</v>
       </c>
       <c r="L63" s="13" t="n">
-        <v>19038</v>
+        <v>10901</v>
       </c>
       <c r="M63" s="13" t="n">
-        <v>10901</v>
+        <v>30194</v>
       </c>
       <c r="N63" s="13" t="n">
-        <v>30194</v>
+        <v>5974</v>
       </c>
       <c r="O63" s="13" t="n">
-        <v>5974</v>
+        <v>7495</v>
       </c>
       <c r="P63" s="13" t="n">
-        <v>7495</v>
+        <v>2376</v>
       </c>
       <c r="Q63" s="13" t="n">
-        <v>2376</v>
+        <v>9525</v>
       </c>
       <c r="R63" s="13" t="n">
-        <v>9525</v>
+        <v>680</v>
       </c>
       <c r="S63" s="13" t="n">
-        <v>680</v>
+        <v>1854</v>
       </c>
       <c r="T63" s="13" t="n">
-        <v>1854</v>
+        <v>405</v>
       </c>
       <c r="U63" s="13" t="n">
-        <v>405</v>
+        <v>3411</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>3411</v>
+        <v>21870</v>
       </c>
       <c r="W63" s="13" t="n">
-        <v>21870</v>
+        <v>83823</v>
       </c>
       <c r="X63" s="13" t="n">
-        <v>83823</v>
+        <v>75112</v>
       </c>
       <c r="Y63" s="13" t="n">
-        <v>75112</v>
+        <v>84816</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>84816</v>
+        <v>52123</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>52123</v>
+        <v>23993</v>
       </c>
       <c r="AB63" s="13" t="n">
-        <v>23993</v>
+        <v>5966</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>5966</v>
+        <v>140</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>140</v>
+        <v>1181</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>1181</v>
+        <v>7063</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>7063</v>
+        <v>2041</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>2041</v>
+        <v>18102</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>18102</v>
+        <v>51274</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>51274</v>
+        <v>202979</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>202979</v>
+        <v>85758</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>85758</v>
+        <v>155250</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>155250</v>
+        <v>42358</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>42358</v>
+        <v>30972</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>30972</v>
-      </c>
-      <c r="AO63" s="13" t="n">
         <v>20025</v>
+      </c>
+      <c r="AO63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP63" s="13" t="s">
         <v>57</v>
@@ -10320,82 +10320,82 @@
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16" t="n">
-        <v>2021275</v>
+        <v>3158633</v>
       </c>
       <c r="F64" s="16" t="n">
-        <v>3158633</v>
+        <v>2182062</v>
       </c>
       <c r="G64" s="16" t="n">
-        <v>2182062</v>
+        <v>3336377</v>
       </c>
       <c r="H64" s="16" t="n">
-        <v>3336377</v>
+        <v>3690218</v>
       </c>
       <c r="I64" s="16" t="n">
-        <v>3690218</v>
+        <v>3709847</v>
       </c>
       <c r="J64" s="16" t="n">
-        <v>3709847</v>
+        <v>3799458</v>
       </c>
       <c r="K64" s="16" t="n">
-        <v>3799458</v>
+        <v>3664198</v>
       </c>
       <c r="L64" s="16" t="n">
-        <v>3664198</v>
+        <v>2814321</v>
       </c>
       <c r="M64" s="16" t="n">
-        <v>2814321</v>
+        <v>2530976</v>
       </c>
       <c r="N64" s="16" t="n">
-        <v>2530976</v>
+        <v>3886576</v>
       </c>
       <c r="O64" s="16" t="n">
-        <v>3886576</v>
+        <v>2888282</v>
       </c>
       <c r="P64" s="16" t="n">
-        <v>2888282</v>
+        <v>4304013</v>
       </c>
       <c r="Q64" s="16" t="n">
-        <v>4304013</v>
+        <v>3816064</v>
       </c>
       <c r="R64" s="16" t="n">
-        <v>3816064</v>
+        <v>1435621</v>
       </c>
       <c r="S64" s="16" t="n">
-        <v>1435621</v>
+        <v>2850372</v>
       </c>
       <c r="T64" s="16" t="n">
-        <v>2850372</v>
+        <v>4076371</v>
       </c>
       <c r="U64" s="16" t="n">
-        <v>4076371</v>
+        <v>4655580</v>
       </c>
       <c r="V64" s="16" t="n">
-        <v>4655580</v>
+        <v>4283342</v>
       </c>
       <c r="W64" s="16" t="n">
-        <v>4283342</v>
+        <v>5267530</v>
       </c>
       <c r="X64" s="16" t="n">
-        <v>5267530</v>
+        <v>6729658</v>
       </c>
       <c r="Y64" s="16" t="n">
-        <v>6729658</v>
+        <v>6162138</v>
       </c>
       <c r="Z64" s="16" t="n">
-        <v>6162138</v>
+        <v>7303483</v>
       </c>
       <c r="AA64" s="16" t="n">
-        <v>7303483</v>
+        <v>8090173</v>
       </c>
       <c r="AB64" s="16" t="n">
-        <v>8090173</v>
+        <v>7301184</v>
       </c>
       <c r="AC64" s="16" t="n">
-        <v>7301184</v>
-      </c>
-      <c r="AD64" s="16" t="n">
         <v>7842635</v>
+      </c>
+      <c r="AD64" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE64" s="16" t="s">
         <v>57</v>
@@ -10553,80 +10553,80 @@
       <c r="AC65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD65" s="13" t="s">
-        <v>57</v>
+      <c r="AD65" s="13" t="n">
+        <v>3202298</v>
       </c>
       <c r="AE65" s="13" t="n">
-        <v>3202298</v>
+        <v>3768352</v>
       </c>
       <c r="AF65" s="13" t="n">
-        <v>3768352</v>
+        <v>4534746</v>
       </c>
       <c r="AG65" s="13" t="n">
-        <v>4534746</v>
+        <v>4593975</v>
       </c>
       <c r="AH65" s="13" t="n">
-        <v>4593975</v>
+        <v>5387789</v>
       </c>
       <c r="AI65" s="13" t="n">
-        <v>5387789</v>
+        <v>8627248</v>
       </c>
       <c r="AJ65" s="13" t="n">
-        <v>8627248</v>
+        <v>4637124</v>
       </c>
       <c r="AK65" s="13" t="n">
-        <v>4637124</v>
+        <v>3607401</v>
       </c>
       <c r="AL65" s="13" t="n">
-        <v>3607401</v>
+        <v>4637386</v>
       </c>
       <c r="AM65" s="13" t="n">
-        <v>4637386</v>
+        <v>4310457</v>
       </c>
       <c r="AN65" s="13" t="n">
-        <v>4310457</v>
+        <v>4690021</v>
       </c>
       <c r="AO65" s="13" t="n">
-        <v>4690021</v>
+        <v>5608454</v>
       </c>
       <c r="AP65" s="13" t="n">
-        <v>5608454</v>
+        <v>2199544</v>
       </c>
       <c r="AQ65" s="13" t="n">
-        <v>2199544</v>
+        <v>7038855</v>
       </c>
       <c r="AR65" s="13" t="n">
-        <v>7038855</v>
+        <v>11316157</v>
       </c>
       <c r="AS65" s="13" t="n">
-        <v>11316157</v>
+        <v>10289411</v>
       </c>
       <c r="AT65" s="13" t="n">
-        <v>10289411</v>
+        <v>7816973</v>
       </c>
       <c r="AU65" s="13" t="n">
-        <v>7816973</v>
+        <v>6103818</v>
       </c>
       <c r="AV65" s="13" t="n">
-        <v>6103818</v>
+        <v>4342306</v>
       </c>
       <c r="AW65" s="13" t="n">
-        <v>4342306</v>
+        <v>5313687</v>
       </c>
       <c r="AX65" s="13" t="n">
-        <v>5313687</v>
+        <v>4885080</v>
       </c>
       <c r="AY65" s="13" t="n">
-        <v>4885080</v>
+        <v>5293517</v>
       </c>
       <c r="AZ65" s="13" t="n">
-        <v>5293517</v>
+        <v>4418112</v>
       </c>
       <c r="BA65" s="13" t="n">
-        <v>4418112</v>
+        <v>6274657</v>
       </c>
       <c r="BB65" s="13" t="n">
-        <v>6274657</v>
+        <v>2769933</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10712,80 +10712,80 @@
       <c r="AC66" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD66" s="16" t="s">
-        <v>57</v>
+      <c r="AD66" s="16" t="n">
+        <v>143590</v>
       </c>
       <c r="AE66" s="16" t="n">
-        <v>143590</v>
+        <v>279026</v>
       </c>
       <c r="AF66" s="16" t="n">
-        <v>279026</v>
+        <v>277930</v>
       </c>
       <c r="AG66" s="16" t="n">
-        <v>277930</v>
+        <v>409487</v>
       </c>
       <c r="AH66" s="16" t="n">
-        <v>409487</v>
+        <v>435347</v>
       </c>
       <c r="AI66" s="16" t="n">
-        <v>435347</v>
+        <v>332798</v>
       </c>
       <c r="AJ66" s="16" t="n">
-        <v>332798</v>
+        <v>311039</v>
       </c>
       <c r="AK66" s="16" t="n">
-        <v>311039</v>
+        <v>293846</v>
       </c>
       <c r="AL66" s="16" t="n">
-        <v>293846</v>
+        <v>574625</v>
       </c>
       <c r="AM66" s="16" t="n">
-        <v>574625</v>
+        <v>452655</v>
       </c>
       <c r="AN66" s="16" t="n">
-        <v>452655</v>
+        <v>277470</v>
       </c>
       <c r="AO66" s="16" t="n">
-        <v>277470</v>
+        <v>241758</v>
       </c>
       <c r="AP66" s="16" t="n">
-        <v>241758</v>
+        <v>226488</v>
       </c>
       <c r="AQ66" s="16" t="n">
-        <v>226488</v>
+        <v>463862</v>
       </c>
       <c r="AR66" s="16" t="n">
-        <v>463862</v>
+        <v>308536</v>
       </c>
       <c r="AS66" s="16" t="n">
-        <v>308536</v>
+        <v>261700</v>
       </c>
       <c r="AT66" s="16" t="n">
-        <v>261700</v>
+        <v>112983</v>
       </c>
       <c r="AU66" s="16" t="n">
-        <v>112983</v>
+        <v>164400</v>
       </c>
       <c r="AV66" s="16" t="n">
-        <v>164400</v>
+        <v>412887</v>
       </c>
       <c r="AW66" s="16" t="n">
-        <v>412887</v>
+        <v>332881</v>
       </c>
       <c r="AX66" s="16" t="n">
-        <v>332881</v>
+        <v>534611</v>
       </c>
       <c r="AY66" s="16" t="n">
-        <v>534611</v>
+        <v>359413</v>
       </c>
       <c r="AZ66" s="16" t="n">
-        <v>359413</v>
+        <v>704141</v>
       </c>
       <c r="BA66" s="16" t="n">
-        <v>704141</v>
+        <v>779256</v>
       </c>
       <c r="BB66" s="16" t="n">
-        <v>779256</v>
+        <v>916448</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10808,143 +10808,143 @@
       <c r="H67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="13" t="s">
-        <v>57</v>
+      <c r="I67" s="13" t="n">
+        <v>4254</v>
       </c>
       <c r="J67" s="13" t="n">
-        <v>4254</v>
+        <v>4582</v>
       </c>
       <c r="K67" s="13" t="n">
-        <v>4582</v>
+        <v>6583</v>
       </c>
       <c r="L67" s="13" t="n">
-        <v>6583</v>
+        <v>7498</v>
       </c>
       <c r="M67" s="13" t="n">
-        <v>7498</v>
+        <v>3694</v>
       </c>
       <c r="N67" s="13" t="n">
-        <v>3694</v>
+        <v>7503</v>
       </c>
       <c r="O67" s="13" t="n">
-        <v>7503</v>
+        <v>4164</v>
       </c>
       <c r="P67" s="13" t="n">
-        <v>4164</v>
+        <v>4560</v>
       </c>
       <c r="Q67" s="13" t="n">
-        <v>4560</v>
+        <v>5537</v>
       </c>
       <c r="R67" s="13" t="n">
-        <v>5537</v>
+        <v>2847</v>
       </c>
       <c r="S67" s="13" t="n">
-        <v>2847</v>
+        <v>13163</v>
       </c>
       <c r="T67" s="13" t="n">
-        <v>13163</v>
+        <v>9334</v>
       </c>
       <c r="U67" s="13" t="n">
-        <v>9334</v>
+        <v>6113</v>
       </c>
       <c r="V67" s="13" t="n">
-        <v>6113</v>
+        <v>2348</v>
       </c>
       <c r="W67" s="13" t="n">
-        <v>2348</v>
+        <v>17001</v>
       </c>
       <c r="X67" s="13" t="n">
-        <v>17001</v>
+        <v>8003</v>
       </c>
       <c r="Y67" s="13" t="n">
-        <v>8003</v>
+        <v>1572</v>
       </c>
       <c r="Z67" s="13" t="n">
-        <v>1572</v>
+        <v>10035</v>
       </c>
       <c r="AA67" s="13" t="n">
-        <v>10035</v>
+        <v>3491</v>
       </c>
       <c r="AB67" s="13" t="n">
-        <v>3491</v>
+        <v>5748</v>
       </c>
       <c r="AC67" s="13" t="n">
-        <v>5748</v>
+        <v>2326</v>
       </c>
       <c r="AD67" s="13" t="n">
-        <v>2326</v>
+        <v>19239</v>
       </c>
       <c r="AE67" s="13" t="n">
-        <v>19239</v>
+        <v>16987</v>
       </c>
       <c r="AF67" s="13" t="n">
-        <v>16987</v>
+        <v>33160</v>
       </c>
       <c r="AG67" s="13" t="n">
-        <v>33160</v>
+        <v>24910</v>
       </c>
       <c r="AH67" s="13" t="n">
-        <v>24910</v>
+        <v>2995</v>
       </c>
       <c r="AI67" s="13" t="n">
-        <v>2995</v>
+        <v>410</v>
       </c>
       <c r="AJ67" s="13" t="n">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AL67" s="13" t="n">
-        <v>0</v>
+        <v>8537</v>
       </c>
       <c r="AM67" s="13" t="n">
-        <v>8537</v>
+        <v>10739</v>
       </c>
       <c r="AN67" s="13" t="n">
-        <v>10739</v>
+        <v>20053</v>
       </c>
       <c r="AO67" s="13" t="n">
-        <v>20053</v>
+        <v>32684</v>
       </c>
       <c r="AP67" s="13" t="n">
-        <v>32684</v>
+        <v>5468</v>
       </c>
       <c r="AQ67" s="13" t="n">
-        <v>5468</v>
+        <v>20647</v>
       </c>
       <c r="AR67" s="13" t="n">
-        <v>20647</v>
+        <v>6018</v>
       </c>
       <c r="AS67" s="13" t="n">
-        <v>6018</v>
+        <v>1494</v>
       </c>
       <c r="AT67" s="13" t="n">
-        <v>1494</v>
+        <v>1429</v>
       </c>
       <c r="AU67" s="13" t="n">
-        <v>1429</v>
+        <v>65</v>
       </c>
       <c r="AV67" s="13" t="n">
-        <v>65</v>
+        <v>6157</v>
       </c>
       <c r="AW67" s="13" t="n">
-        <v>6157</v>
+        <v>11770</v>
       </c>
       <c r="AX67" s="13" t="n">
-        <v>11770</v>
+        <v>48802</v>
       </c>
       <c r="AY67" s="13" t="n">
-        <v>48802</v>
+        <v>44904</v>
       </c>
       <c r="AZ67" s="13" t="n">
-        <v>44904</v>
+        <v>43198</v>
       </c>
       <c r="BA67" s="13" t="n">
-        <v>43198</v>
+        <v>79603</v>
       </c>
       <c r="BB67" s="13" t="n">
-        <v>79603</v>
+        <v>32645</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11063,47 +11063,47 @@
       <c r="AN68" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO68" s="16" t="s">
-        <v>57</v>
+      <c r="AO68" s="16" t="n">
+        <v>73</v>
       </c>
       <c r="AP68" s="16" t="n">
-        <v>73</v>
+        <v>5787</v>
       </c>
       <c r="AQ68" s="16" t="n">
-        <v>5787</v>
+        <v>22723</v>
       </c>
       <c r="AR68" s="16" t="n">
-        <v>22723</v>
+        <v>49385</v>
       </c>
       <c r="AS68" s="16" t="n">
-        <v>49385</v>
+        <v>174435</v>
       </c>
       <c r="AT68" s="16" t="n">
-        <v>174435</v>
+        <v>95500</v>
       </c>
       <c r="AU68" s="16" t="n">
-        <v>95500</v>
+        <v>7652</v>
       </c>
       <c r="AV68" s="16" t="n">
-        <v>7652</v>
+        <v>12005</v>
       </c>
       <c r="AW68" s="16" t="n">
-        <v>12005</v>
+        <v>25648</v>
       </c>
       <c r="AX68" s="16" t="n">
-        <v>25648</v>
+        <v>18337</v>
       </c>
       <c r="AY68" s="16" t="n">
-        <v>18337</v>
+        <v>27667</v>
       </c>
       <c r="AZ68" s="16" t="n">
-        <v>27667</v>
+        <v>26398</v>
       </c>
       <c r="BA68" s="16" t="n">
-        <v>26398</v>
+        <v>39817</v>
       </c>
       <c r="BB68" s="16" t="n">
-        <v>39817</v>
+        <v>35172</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11115,19 +11115,19 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="n">
-        <v>901054</v>
+        <v>835917</v>
       </c>
       <c r="F69" s="13" t="n">
-        <v>835917</v>
+        <v>643895</v>
       </c>
       <c r="G69" s="13" t="n">
-        <v>643895</v>
+        <v>1461691</v>
       </c>
       <c r="H69" s="13" t="n">
-        <v>1461691</v>
+        <v>1107262</v>
       </c>
       <c r="I69" s="13" t="n">
-        <v>1107262</v>
+        <v>0</v>
       </c>
       <c r="J69" s="13" t="n">
         <v>0</v>
@@ -11153,17 +11153,17 @@
       <c r="Q69" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R69" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" s="13" t="s">
-        <v>57</v>
+      <c r="R69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S69" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T69" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" s="13" t="n">
         <v>-3493</v>
+      </c>
+      <c r="U69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V69" s="13" t="s">
         <v>57</v>
@@ -11348,80 +11348,80 @@
       <c r="AC70" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD70" s="16" t="s">
-        <v>57</v>
+      <c r="AD70" s="16" t="n">
+        <v>203984</v>
       </c>
       <c r="AE70" s="16" t="n">
-        <v>203984</v>
+        <v>528817</v>
       </c>
       <c r="AF70" s="16" t="n">
-        <v>528817</v>
+        <v>572466</v>
       </c>
       <c r="AG70" s="16" t="n">
-        <v>572466</v>
+        <v>364166</v>
       </c>
       <c r="AH70" s="16" t="n">
-        <v>364166</v>
+        <v>650691</v>
       </c>
       <c r="AI70" s="16" t="n">
-        <v>650691</v>
+        <v>831565</v>
       </c>
       <c r="AJ70" s="16" t="n">
-        <v>831565</v>
+        <v>573992</v>
       </c>
       <c r="AK70" s="16" t="n">
-        <v>573992</v>
+        <v>944130</v>
       </c>
       <c r="AL70" s="16" t="n">
-        <v>944130</v>
+        <v>1056319</v>
       </c>
       <c r="AM70" s="16" t="n">
-        <v>1056319</v>
+        <v>769162</v>
       </c>
       <c r="AN70" s="16" t="n">
-        <v>769162</v>
+        <v>1181598</v>
       </c>
       <c r="AO70" s="16" t="n">
-        <v>1181598</v>
+        <v>654147</v>
       </c>
       <c r="AP70" s="16" t="n">
-        <v>654147</v>
+        <v>763094</v>
       </c>
       <c r="AQ70" s="16" t="n">
-        <v>763094</v>
+        <v>1169679</v>
       </c>
       <c r="AR70" s="16" t="n">
-        <v>1169679</v>
+        <v>965638</v>
       </c>
       <c r="AS70" s="16" t="n">
-        <v>965638</v>
+        <v>1138352</v>
       </c>
       <c r="AT70" s="16" t="n">
-        <v>1138352</v>
+        <v>1384236</v>
       </c>
       <c r="AU70" s="16" t="n">
-        <v>1384236</v>
+        <v>814685</v>
       </c>
       <c r="AV70" s="16" t="n">
-        <v>814685</v>
+        <v>678171</v>
       </c>
       <c r="AW70" s="16" t="n">
-        <v>678171</v>
+        <v>600834</v>
       </c>
       <c r="AX70" s="16" t="n">
-        <v>600834</v>
+        <v>512146</v>
       </c>
       <c r="AY70" s="16" t="n">
-        <v>512146</v>
+        <v>320114</v>
       </c>
       <c r="AZ70" s="16" t="n">
-        <v>320114</v>
+        <v>873074</v>
       </c>
       <c r="BA70" s="16" t="n">
-        <v>873074</v>
+        <v>1318304</v>
       </c>
       <c r="BB70" s="16" t="n">
-        <v>1318304</v>
+        <v>163251</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11444,71 +11444,71 @@
       <c r="H71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I71" s="13" t="s">
-        <v>57</v>
+      <c r="I71" s="13" t="n">
+        <v>476823</v>
       </c>
       <c r="J71" s="13" t="n">
-        <v>476823</v>
+        <v>304296</v>
       </c>
       <c r="K71" s="13" t="n">
-        <v>304296</v>
+        <v>379172</v>
       </c>
       <c r="L71" s="13" t="n">
-        <v>379172</v>
+        <v>234921</v>
       </c>
       <c r="M71" s="13" t="n">
-        <v>234921</v>
+        <v>224522</v>
       </c>
       <c r="N71" s="13" t="n">
-        <v>224522</v>
+        <v>316108</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>316108</v>
+        <v>529213</v>
       </c>
       <c r="P71" s="13" t="n">
-        <v>529213</v>
+        <v>595188</v>
       </c>
       <c r="Q71" s="13" t="n">
-        <v>595188</v>
+        <v>308570</v>
       </c>
       <c r="R71" s="13" t="n">
-        <v>308570</v>
+        <v>55251</v>
       </c>
       <c r="S71" s="13" t="n">
-        <v>55251</v>
+        <v>174668</v>
       </c>
       <c r="T71" s="13" t="n">
-        <v>174668</v>
+        <v>450771</v>
       </c>
       <c r="U71" s="13" t="n">
-        <v>450771</v>
+        <v>442505</v>
       </c>
       <c r="V71" s="13" t="n">
-        <v>442505</v>
+        <v>570074</v>
       </c>
       <c r="W71" s="13" t="n">
-        <v>570074</v>
+        <v>601097</v>
       </c>
       <c r="X71" s="13" t="n">
-        <v>601097</v>
+        <v>611823</v>
       </c>
       <c r="Y71" s="13" t="n">
-        <v>611823</v>
+        <v>568403</v>
       </c>
       <c r="Z71" s="13" t="n">
-        <v>568403</v>
+        <v>657627</v>
       </c>
       <c r="AA71" s="13" t="n">
-        <v>657627</v>
+        <v>787663</v>
       </c>
       <c r="AB71" s="13" t="n">
-        <v>787663</v>
+        <v>1137847</v>
       </c>
       <c r="AC71" s="13" t="n">
-        <v>1137847</v>
-      </c>
-      <c r="AD71" s="13" t="n">
         <v>606742</v>
+      </c>
+      <c r="AD71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE71" s="13" t="s">
         <v>57</v>
@@ -11666,80 +11666,80 @@
       <c r="AC72" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD72" s="16" t="s">
-        <v>57</v>
+      <c r="AD72" s="16" t="n">
+        <v>1012494</v>
       </c>
       <c r="AE72" s="16" t="n">
-        <v>1012494</v>
+        <v>1222296</v>
       </c>
       <c r="AF72" s="16" t="n">
-        <v>1222296</v>
+        <v>1534794</v>
       </c>
       <c r="AG72" s="16" t="n">
-        <v>1534794</v>
+        <v>1359389</v>
       </c>
       <c r="AH72" s="16" t="n">
-        <v>1359389</v>
+        <v>1505517</v>
       </c>
       <c r="AI72" s="16" t="n">
-        <v>1505517</v>
+        <v>1809473</v>
       </c>
       <c r="AJ72" s="16" t="n">
-        <v>1809473</v>
+        <v>1363783</v>
       </c>
       <c r="AK72" s="16" t="n">
-        <v>1363783</v>
+        <v>1273493</v>
       </c>
       <c r="AL72" s="16" t="n">
-        <v>1273493</v>
+        <v>1441869</v>
       </c>
       <c r="AM72" s="16" t="n">
-        <v>1441869</v>
+        <v>1361011</v>
       </c>
       <c r="AN72" s="16" t="n">
-        <v>1361011</v>
+        <v>1246535</v>
       </c>
       <c r="AO72" s="16" t="n">
-        <v>1246535</v>
+        <v>1485862</v>
       </c>
       <c r="AP72" s="16" t="n">
-        <v>1485862</v>
+        <v>630133</v>
       </c>
       <c r="AQ72" s="16" t="n">
-        <v>630133</v>
+        <v>1078203</v>
       </c>
       <c r="AR72" s="16" t="n">
-        <v>1078203</v>
+        <v>2182482</v>
       </c>
       <c r="AS72" s="16" t="n">
-        <v>2182482</v>
+        <v>1605942</v>
       </c>
       <c r="AT72" s="16" t="n">
-        <v>1605942</v>
+        <v>2016372</v>
       </c>
       <c r="AU72" s="16" t="n">
-        <v>2016372</v>
+        <v>2419135</v>
       </c>
       <c r="AV72" s="16" t="n">
-        <v>2419135</v>
+        <v>1659096</v>
       </c>
       <c r="AW72" s="16" t="n">
-        <v>1659096</v>
+        <v>1807299</v>
       </c>
       <c r="AX72" s="16" t="n">
-        <v>1807299</v>
+        <v>1731324</v>
       </c>
       <c r="AY72" s="16" t="n">
-        <v>1731324</v>
+        <v>2314465</v>
       </c>
       <c r="AZ72" s="16" t="n">
-        <v>2314465</v>
+        <v>2501112</v>
       </c>
       <c r="BA72" s="16" t="n">
-        <v>2501112</v>
+        <v>2018450</v>
       </c>
       <c r="BB72" s="16" t="n">
-        <v>2018450</v>
+        <v>1020240</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11825,80 +11825,80 @@
       <c r="AC73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD73" s="13" t="s">
-        <v>57</v>
+      <c r="AD73" s="13" t="n">
+        <v>1224608</v>
       </c>
       <c r="AE73" s="13" t="n">
-        <v>1224608</v>
+        <v>1338041</v>
       </c>
       <c r="AF73" s="13" t="n">
-        <v>1338041</v>
+        <v>1593300</v>
       </c>
       <c r="AG73" s="13" t="n">
-        <v>1593300</v>
+        <v>1005979</v>
       </c>
       <c r="AH73" s="13" t="n">
-        <v>1005979</v>
+        <v>1752198</v>
       </c>
       <c r="AI73" s="13" t="n">
-        <v>1752198</v>
+        <v>1764468</v>
       </c>
       <c r="AJ73" s="13" t="n">
-        <v>1764468</v>
+        <v>1580672</v>
       </c>
       <c r="AK73" s="13" t="n">
-        <v>1580672</v>
+        <v>1905621</v>
       </c>
       <c r="AL73" s="13" t="n">
-        <v>1905621</v>
+        <v>1972794</v>
       </c>
       <c r="AM73" s="13" t="n">
-        <v>1972794</v>
+        <v>1959762</v>
       </c>
       <c r="AN73" s="13" t="n">
-        <v>1959762</v>
+        <v>1911493</v>
       </c>
       <c r="AO73" s="13" t="n">
-        <v>1911493</v>
+        <v>1782010</v>
       </c>
       <c r="AP73" s="13" t="n">
-        <v>1782010</v>
+        <v>967356</v>
       </c>
       <c r="AQ73" s="13" t="n">
-        <v>967356</v>
+        <v>1766178</v>
       </c>
       <c r="AR73" s="13" t="n">
-        <v>1766178</v>
+        <v>2224504</v>
       </c>
       <c r="AS73" s="13" t="n">
-        <v>2224504</v>
+        <v>2255446</v>
       </c>
       <c r="AT73" s="13" t="n">
-        <v>2255446</v>
+        <v>2332348</v>
       </c>
       <c r="AU73" s="13" t="n">
-        <v>2332348</v>
+        <v>3414039</v>
       </c>
       <c r="AV73" s="13" t="n">
-        <v>3414039</v>
+        <v>2494805</v>
       </c>
       <c r="AW73" s="13" t="n">
-        <v>2494805</v>
+        <v>3344449</v>
       </c>
       <c r="AX73" s="13" t="n">
-        <v>3344449</v>
+        <v>3970094</v>
       </c>
       <c r="AY73" s="13" t="n">
-        <v>3970094</v>
+        <v>3311492</v>
       </c>
       <c r="AZ73" s="13" t="n">
-        <v>3311492</v>
+        <v>3697524</v>
       </c>
       <c r="BA73" s="13" t="n">
-        <v>3697524</v>
+        <v>3358255</v>
       </c>
       <c r="BB73" s="13" t="n">
-        <v>3358255</v>
+        <v>2315709</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11984,80 +11984,80 @@
       <c r="AC74" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD74" s="16" t="s">
-        <v>57</v>
+      <c r="AD74" s="16" t="n">
+        <v>414689</v>
       </c>
       <c r="AE74" s="16" t="n">
-        <v>414689</v>
+        <v>701807</v>
       </c>
       <c r="AF74" s="16" t="n">
-        <v>701807</v>
+        <v>630462</v>
       </c>
       <c r="AG74" s="16" t="n">
-        <v>630462</v>
+        <v>548203</v>
       </c>
       <c r="AH74" s="16" t="n">
-        <v>548203</v>
+        <v>403964</v>
       </c>
       <c r="AI74" s="16" t="n">
-        <v>403964</v>
+        <v>786001</v>
       </c>
       <c r="AJ74" s="16" t="n">
-        <v>786001</v>
+        <v>649521</v>
       </c>
       <c r="AK74" s="16" t="n">
-        <v>649521</v>
+        <v>632332</v>
       </c>
       <c r="AL74" s="16" t="n">
-        <v>632332</v>
+        <v>617866</v>
       </c>
       <c r="AM74" s="16" t="n">
-        <v>617866</v>
+        <v>528351</v>
       </c>
       <c r="AN74" s="16" t="n">
-        <v>528351</v>
+        <v>586166</v>
       </c>
       <c r="AO74" s="16" t="n">
-        <v>586166</v>
+        <v>754586</v>
       </c>
       <c r="AP74" s="16" t="n">
-        <v>754586</v>
+        <v>397241</v>
       </c>
       <c r="AQ74" s="16" t="n">
-        <v>397241</v>
+        <v>924724</v>
       </c>
       <c r="AR74" s="16" t="n">
-        <v>924724</v>
+        <v>1062554</v>
       </c>
       <c r="AS74" s="16" t="n">
-        <v>1062554</v>
+        <v>648397</v>
       </c>
       <c r="AT74" s="16" t="n">
-        <v>648397</v>
+        <v>755556</v>
       </c>
       <c r="AU74" s="16" t="n">
-        <v>755556</v>
+        <v>706033</v>
       </c>
       <c r="AV74" s="16" t="n">
-        <v>706033</v>
+        <v>560827</v>
       </c>
       <c r="AW74" s="16" t="n">
-        <v>560827</v>
+        <v>773745</v>
       </c>
       <c r="AX74" s="16" t="n">
-        <v>773745</v>
+        <v>792533</v>
       </c>
       <c r="AY74" s="16" t="n">
-        <v>792533</v>
+        <v>1604922</v>
       </c>
       <c r="AZ74" s="16" t="n">
-        <v>1604922</v>
+        <v>1994563</v>
       </c>
       <c r="BA74" s="16" t="n">
-        <v>1994563</v>
+        <v>823377</v>
       </c>
       <c r="BB74" s="16" t="n">
-        <v>823377</v>
+        <v>709785</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12143,80 +12143,80 @@
       <c r="AC75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD75" s="13" t="s">
-        <v>57</v>
+      <c r="AD75" s="13" t="n">
+        <v>193824</v>
       </c>
       <c r="AE75" s="13" t="n">
-        <v>193824</v>
+        <v>216114</v>
       </c>
       <c r="AF75" s="13" t="n">
-        <v>216114</v>
+        <v>307272</v>
       </c>
       <c r="AG75" s="13" t="n">
-        <v>307272</v>
+        <v>134029</v>
       </c>
       <c r="AH75" s="13" t="n">
-        <v>134029</v>
+        <v>183420</v>
       </c>
       <c r="AI75" s="13" t="n">
-        <v>183420</v>
+        <v>253633</v>
       </c>
       <c r="AJ75" s="13" t="n">
-        <v>253633</v>
+        <v>217942</v>
       </c>
       <c r="AK75" s="13" t="n">
-        <v>217942</v>
+        <v>224292</v>
       </c>
       <c r="AL75" s="13" t="n">
-        <v>224292</v>
+        <v>309289</v>
       </c>
       <c r="AM75" s="13" t="n">
-        <v>309289</v>
+        <v>181043</v>
       </c>
       <c r="AN75" s="13" t="n">
-        <v>181043</v>
+        <v>184352</v>
       </c>
       <c r="AO75" s="13" t="n">
-        <v>184352</v>
+        <v>212206</v>
       </c>
       <c r="AP75" s="13" t="n">
-        <v>212206</v>
+        <v>198259</v>
       </c>
       <c r="AQ75" s="13" t="n">
-        <v>198259</v>
+        <v>426184</v>
       </c>
       <c r="AR75" s="13" t="n">
-        <v>426184</v>
+        <v>444298</v>
       </c>
       <c r="AS75" s="13" t="n">
-        <v>444298</v>
+        <v>188180</v>
       </c>
       <c r="AT75" s="13" t="n">
-        <v>188180</v>
+        <v>162272</v>
       </c>
       <c r="AU75" s="13" t="n">
-        <v>162272</v>
+        <v>463428</v>
       </c>
       <c r="AV75" s="13" t="n">
-        <v>463428</v>
+        <v>258955</v>
       </c>
       <c r="AW75" s="13" t="n">
-        <v>258955</v>
+        <v>363486</v>
       </c>
       <c r="AX75" s="13" t="n">
-        <v>363486</v>
+        <v>400273</v>
       </c>
       <c r="AY75" s="13" t="n">
-        <v>400273</v>
+        <v>343707</v>
       </c>
       <c r="AZ75" s="13" t="n">
-        <v>343707</v>
+        <v>352349</v>
       </c>
       <c r="BA75" s="13" t="n">
-        <v>352349</v>
+        <v>254627</v>
       </c>
       <c r="BB75" s="13" t="n">
-        <v>254627</v>
+        <v>279607</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12302,80 +12302,80 @@
       <c r="AC76" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD76" s="16" t="s">
-        <v>57</v>
+      <c r="AD76" s="16" t="n">
+        <v>1135769</v>
       </c>
       <c r="AE76" s="16" t="n">
-        <v>1135769</v>
+        <v>1500227</v>
       </c>
       <c r="AF76" s="16" t="n">
-        <v>1500227</v>
+        <v>1534204</v>
       </c>
       <c r="AG76" s="16" t="n">
-        <v>1534204</v>
+        <v>1588124</v>
       </c>
       <c r="AH76" s="16" t="n">
-        <v>1588124</v>
+        <v>1705963</v>
       </c>
       <c r="AI76" s="16" t="n">
-        <v>1705963</v>
+        <v>1378982</v>
       </c>
       <c r="AJ76" s="16" t="n">
-        <v>1378982</v>
+        <v>2365489</v>
       </c>
       <c r="AK76" s="16" t="n">
-        <v>2365489</v>
+        <v>2017230</v>
       </c>
       <c r="AL76" s="16" t="n">
-        <v>2017230</v>
+        <v>1453564</v>
       </c>
       <c r="AM76" s="16" t="n">
-        <v>1453564</v>
+        <v>867973</v>
       </c>
       <c r="AN76" s="16" t="n">
-        <v>867973</v>
+        <v>1760123</v>
       </c>
       <c r="AO76" s="16" t="n">
-        <v>1760123</v>
+        <v>249540</v>
       </c>
       <c r="AP76" s="16" t="n">
-        <v>249540</v>
+        <v>3278703</v>
       </c>
       <c r="AQ76" s="16" t="n">
-        <v>3278703</v>
+        <v>2886505</v>
       </c>
       <c r="AR76" s="16" t="n">
-        <v>2886505</v>
+        <v>2286360</v>
       </c>
       <c r="AS76" s="16" t="n">
-        <v>2286360</v>
+        <v>2054045</v>
       </c>
       <c r="AT76" s="16" t="n">
-        <v>2054045</v>
+        <v>1751195</v>
       </c>
       <c r="AU76" s="16" t="n">
-        <v>1751195</v>
+        <v>2042689</v>
       </c>
       <c r="AV76" s="16" t="n">
-        <v>2042689</v>
+        <v>1613119</v>
       </c>
       <c r="AW76" s="16" t="n">
-        <v>1613119</v>
+        <v>2309583</v>
       </c>
       <c r="AX76" s="16" t="n">
-        <v>2309583</v>
+        <v>1576426</v>
       </c>
       <c r="AY76" s="16" t="n">
-        <v>1576426</v>
+        <v>2412499</v>
       </c>
       <c r="AZ76" s="16" t="n">
-        <v>2412499</v>
+        <v>2260401</v>
       </c>
       <c r="BA76" s="16" t="n">
-        <v>2260401</v>
+        <v>2554710</v>
       </c>
       <c r="BB76" s="16" t="n">
-        <v>2554710</v>
+        <v>1040604</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12461,20 +12461,20 @@
       <c r="AC77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD77" s="13" t="s">
-        <v>57</v>
+      <c r="AD77" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE77" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>0</v>
+        <v>65173</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>65173</v>
+        <v>62725</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>62725</v>
+        <v>0</v>
       </c>
       <c r="AI77" s="13" t="n">
         <v>0</v>
@@ -12497,8 +12497,8 @@
       <c r="AO77" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP77" s="13" t="n">
-        <v>0</v>
+      <c r="AP77" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ77" s="13" t="s">
         <v>57</v>
@@ -12650,8 +12650,8 @@
       <c r="T79" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U79" s="20" t="s">
-        <v>57</v>
+      <c r="U79" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V79" s="23" t="n">
         <v>0</v>
@@ -12896,50 +12896,50 @@
       <c r="AD81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AE81" s="13" t="s">
-        <v>57</v>
+      <c r="AE81" s="13" t="n">
+        <v>-1096</v>
       </c>
       <c r="AF81" s="13" t="n">
-        <v>-1096</v>
+        <v>-1597</v>
       </c>
       <c r="AG81" s="13" t="n">
-        <v>-1597</v>
+        <v>-133</v>
       </c>
       <c r="AH81" s="13" t="n">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AI81" s="13" t="n">
-        <v>0</v>
+        <v>-356143</v>
       </c>
       <c r="AJ81" s="13" t="n">
-        <v>-356143</v>
+        <v>-4243</v>
       </c>
       <c r="AK81" s="13" t="n">
-        <v>-4243</v>
+        <v>0</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>0</v>
+        <v>-4072</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>-4072</v>
+        <v>0</v>
       </c>
       <c r="AN81" s="13" t="n">
-        <v>0</v>
+        <v>-7758</v>
       </c>
       <c r="AO81" s="13" t="n">
-        <v>-7758</v>
-      </c>
-      <c r="AP81" s="13" t="n">
         <v>-34371</v>
       </c>
-      <c r="AQ81" s="13" t="s">
-        <v>57</v>
+      <c r="AP81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ81" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AR81" s="13" t="n">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AS81" s="13" t="n">
-        <v>-1606</v>
+        <v>0</v>
       </c>
       <c r="AT81" s="13" t="n">
         <v>0</v>
@@ -12951,22 +12951,22 @@
         <v>0</v>
       </c>
       <c r="AW81" s="13" t="n">
-        <v>0</v>
+        <v>-4380</v>
       </c>
       <c r="AX81" s="13" t="n">
-        <v>-4380</v>
+        <v>0</v>
       </c>
       <c r="AY81" s="13" t="n">
-        <v>0</v>
+        <v>-4272</v>
       </c>
       <c r="AZ81" s="13" t="n">
-        <v>-4272</v>
+        <v>-1731</v>
       </c>
       <c r="BA81" s="13" t="n">
-        <v>-1731</v>
-      </c>
-      <c r="BB81" s="13" t="n">
         <v>-8797</v>
+      </c>
+      <c r="BB81" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13025,14 +13025,14 @@
       <c r="T82" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>57</v>
+      <c r="U82" s="16" t="n">
+        <v>-3871</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>-3871</v>
+        <v>-55</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="X82" s="16" t="n">
         <v>0</v>
@@ -13041,19 +13041,19 @@
         <v>0</v>
       </c>
       <c r="Z82" s="16" t="n">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>0</v>
+        <v>-1208</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>-1208</v>
-      </c>
-      <c r="AD82" s="16" t="n">
         <v>-530</v>
+      </c>
+      <c r="AD82" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE82" s="16" t="s">
         <v>57</v>
@@ -13184,14 +13184,14 @@
       <c r="T83" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U83" s="20" t="s">
-        <v>57</v>
+      <c r="U83" s="23" t="n">
+        <v>-3871</v>
       </c>
       <c r="V83" s="23" t="n">
-        <v>-3871</v>
+        <v>-55</v>
       </c>
       <c r="W83" s="23" t="n">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="X83" s="23" t="n">
         <v>0</v>
@@ -13200,64 +13200,64 @@
         <v>0</v>
       </c>
       <c r="Z83" s="23" t="n">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AA83" s="23" t="n">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="23" t="n">
-        <v>0</v>
+        <v>-1208</v>
       </c>
       <c r="AC83" s="23" t="n">
-        <v>-1208</v>
+        <v>-530</v>
       </c>
       <c r="AD83" s="23" t="n">
-        <v>-530</v>
+        <v>0</v>
       </c>
       <c r="AE83" s="23" t="n">
-        <v>0</v>
+        <v>-1096</v>
       </c>
       <c r="AF83" s="23" t="n">
-        <v>-1096</v>
+        <v>-1597</v>
       </c>
       <c r="AG83" s="23" t="n">
-        <v>-1597</v>
+        <v>-133</v>
       </c>
       <c r="AH83" s="23" t="n">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AI83" s="23" t="n">
-        <v>0</v>
+        <v>-356143</v>
       </c>
       <c r="AJ83" s="23" t="n">
-        <v>-356143</v>
+        <v>-4243</v>
       </c>
       <c r="AK83" s="23" t="n">
-        <v>-4243</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="23" t="n">
-        <v>0</v>
+        <v>-4072</v>
       </c>
       <c r="AM83" s="23" t="n">
-        <v>-4072</v>
+        <v>0</v>
       </c>
       <c r="AN83" s="23" t="n">
-        <v>0</v>
+        <v>-7758</v>
       </c>
       <c r="AO83" s="23" t="n">
-        <v>-7758</v>
+        <v>-34371</v>
       </c>
       <c r="AP83" s="23" t="n">
-        <v>-34371</v>
+        <v>0</v>
       </c>
       <c r="AQ83" s="23" t="n">
         <v>0</v>
       </c>
       <c r="AR83" s="23" t="n">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AS83" s="23" t="n">
-        <v>-1606</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="23" t="n">
         <v>0</v>
@@ -13269,22 +13269,22 @@
         <v>0</v>
       </c>
       <c r="AW83" s="23" t="n">
-        <v>0</v>
+        <v>-4380</v>
       </c>
       <c r="AX83" s="23" t="n">
-        <v>-4380</v>
+        <v>0</v>
       </c>
       <c r="AY83" s="23" t="n">
-        <v>0</v>
+        <v>-4272</v>
       </c>
       <c r="AZ83" s="23" t="n">
-        <v>-4272</v>
+        <v>-1731</v>
       </c>
       <c r="BA83" s="23" t="n">
-        <v>-1731</v>
+        <v>-8797</v>
       </c>
       <c r="BB83" s="23" t="n">
-        <v>-8797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13400,107 +13400,107 @@
       <c r="T85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U85" s="13" t="s">
-        <v>57</v>
+      <c r="U85" s="13" t="n">
+        <v>-99965</v>
       </c>
       <c r="V85" s="13" t="n">
-        <v>-99965</v>
+        <v>-63046</v>
       </c>
       <c r="W85" s="13" t="n">
-        <v>-63046</v>
+        <v>-121319</v>
       </c>
       <c r="X85" s="13" t="n">
-        <v>-121319</v>
+        <v>-104481</v>
       </c>
       <c r="Y85" s="13" t="n">
-        <v>-104481</v>
+        <v>-33470</v>
       </c>
       <c r="Z85" s="13" t="n">
-        <v>-33470</v>
+        <v>-108786</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>-108786</v>
+        <v>-194709</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>-194709</v>
+        <v>-160422</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>-160422</v>
+        <v>-147739</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>-147739</v>
+        <v>-82901</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>-82901</v>
+        <v>-70815</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>-70815</v>
+        <v>-55936</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>-55936</v>
+        <v>-166034</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>-166034</v>
+        <v>-162714</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>-162714</v>
+        <v>-146494</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>-146494</v>
+        <v>-107065</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>-107065</v>
+        <v>-178470</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>-178470</v>
+        <v>-99431</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>-99431</v>
+        <v>-117236</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>-117236</v>
+        <v>-72470</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>-72470</v>
+        <v>-98358</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>-98358</v>
+        <v>-36205</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>-36205</v>
+        <v>-46431</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>-46431</v>
+        <v>-24993</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>-24993</v>
+        <v>-16300</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>-16300</v>
+        <v>-18418</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>-18418</v>
+        <v>-838864</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>-838864</v>
+        <v>-263408</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>-263408</v>
+        <v>-281259</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>-281259</v>
+        <v>-751621</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>-751621</v>
+        <v>-362776</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>-362776</v>
+        <v>-392345</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>-392345</v>
+        <v>-386563</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>-386563</v>
+        <v>-213598</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13510,154 +13510,154 @@
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
       <c r="E86" s="22" t="n">
-        <v>2922329</v>
+        <v>3994550</v>
       </c>
       <c r="F86" s="22" t="n">
-        <v>3994550</v>
+        <v>2825957</v>
       </c>
       <c r="G86" s="22" t="n">
-        <v>2825957</v>
+        <v>4798068</v>
       </c>
       <c r="H86" s="22" t="n">
-        <v>4798068</v>
+        <v>4797480</v>
       </c>
       <c r="I86" s="22" t="n">
-        <v>4797480</v>
+        <v>4193075</v>
       </c>
       <c r="J86" s="22" t="n">
-        <v>4193075</v>
+        <v>4174126</v>
       </c>
       <c r="K86" s="22" t="n">
-        <v>4174126</v>
+        <v>4068991</v>
       </c>
       <c r="L86" s="22" t="n">
-        <v>4068991</v>
+        <v>3067641</v>
       </c>
       <c r="M86" s="22" t="n">
-        <v>3067641</v>
+        <v>2789386</v>
       </c>
       <c r="N86" s="22" t="n">
-        <v>2789386</v>
+        <v>4216161</v>
       </c>
       <c r="O86" s="22" t="n">
-        <v>4216161</v>
+        <v>3429154</v>
       </c>
       <c r="P86" s="22" t="n">
-        <v>3429154</v>
+        <v>4906137</v>
       </c>
       <c r="Q86" s="22" t="n">
-        <v>4906137</v>
+        <v>4139696</v>
       </c>
       <c r="R86" s="22" t="n">
-        <v>4139696</v>
+        <v>1494399</v>
       </c>
       <c r="S86" s="22" t="n">
-        <v>1494399</v>
+        <v>3040057</v>
       </c>
       <c r="T86" s="22" t="n">
-        <v>3040057</v>
+        <v>4533388</v>
       </c>
       <c r="U86" s="22" t="n">
-        <v>4533388</v>
+        <v>5003773</v>
       </c>
       <c r="V86" s="22" t="n">
-        <v>5003773</v>
+        <v>4814533</v>
       </c>
       <c r="W86" s="22" t="n">
-        <v>4814533</v>
+        <v>5848132</v>
       </c>
       <c r="X86" s="22" t="n">
-        <v>5848132</v>
+        <v>7320115</v>
       </c>
       <c r="Y86" s="22" t="n">
-        <v>7320115</v>
+        <v>6783459</v>
       </c>
       <c r="Z86" s="22" t="n">
-        <v>6783459</v>
+        <v>7913054</v>
       </c>
       <c r="AA86" s="22" t="n">
-        <v>7913054</v>
+        <v>8710611</v>
       </c>
       <c r="AB86" s="22" t="n">
-        <v>8710611</v>
+        <v>8289115</v>
       </c>
       <c r="AC86" s="22" t="n">
-        <v>8289115</v>
+        <v>8303574</v>
       </c>
       <c r="AD86" s="22" t="n">
-        <v>8303574</v>
+        <v>7468775</v>
       </c>
       <c r="AE86" s="22" t="n">
-        <v>7468775</v>
+        <v>9506819</v>
       </c>
       <c r="AF86" s="22" t="n">
-        <v>9506819</v>
+        <v>11028015</v>
       </c>
       <c r="AG86" s="22" t="n">
-        <v>11028015</v>
+        <v>9942922</v>
       </c>
       <c r="AH86" s="22" t="n">
-        <v>9942922</v>
+        <v>11916444</v>
       </c>
       <c r="AI86" s="22" t="n">
-        <v>11916444</v>
+        <v>15484920</v>
       </c>
       <c r="AJ86" s="22" t="n">
-        <v>15484920</v>
+        <v>11674012</v>
       </c>
       <c r="AK86" s="22" t="n">
-        <v>11674012</v>
+        <v>10875125</v>
       </c>
       <c r="AL86" s="22" t="n">
-        <v>10875125</v>
+        <v>12011104</v>
       </c>
       <c r="AM86" s="22" t="n">
-        <v>12011104</v>
+        <v>10354889</v>
       </c>
       <c r="AN86" s="22" t="n">
-        <v>10354889</v>
+        <v>11797608</v>
       </c>
       <c r="AO86" s="22" t="n">
-        <v>11797608</v>
+        <v>10888591</v>
       </c>
       <c r="AP86" s="22" t="n">
-        <v>10888591</v>
+        <v>8635868</v>
       </c>
       <c r="AQ86" s="22" t="n">
-        <v>8635868</v>
+        <v>15751129</v>
       </c>
       <c r="AR86" s="22" t="n">
-        <v>15751129</v>
+        <v>20819333</v>
       </c>
       <c r="AS86" s="22" t="n">
-        <v>20819333</v>
+        <v>18601102</v>
       </c>
       <c r="AT86" s="22" t="n">
-        <v>18601102</v>
+        <v>16410446</v>
       </c>
       <c r="AU86" s="22" t="n">
-        <v>16410446</v>
+        <v>15297080</v>
       </c>
       <c r="AV86" s="22" t="n">
-        <v>15297080</v>
+        <v>11774920</v>
       </c>
       <c r="AW86" s="22" t="n">
-        <v>11774920</v>
+        <v>14597743</v>
       </c>
       <c r="AX86" s="22" t="n">
-        <v>14597743</v>
+        <v>13718005</v>
       </c>
       <c r="AY86" s="22" t="n">
-        <v>13718005</v>
+        <v>15665652</v>
       </c>
       <c r="AZ86" s="22" t="n">
-        <v>15665652</v>
+        <v>16476796</v>
       </c>
       <c r="BA86" s="22" t="n">
-        <v>16476796</v>
+        <v>17105696</v>
       </c>
       <c r="BB86" s="22" t="n">
-        <v>17105696</v>
+        <v>9069796</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14114,104 +14114,104 @@
       <c r="H93" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I93" s="13" t="s">
-        <v>57</v>
+      <c r="I93" s="13" t="n">
+        <v>126529412</v>
       </c>
       <c r="J93" s="13" t="n">
-        <v>126529412</v>
+        <v>115623902</v>
       </c>
       <c r="K93" s="13" t="n">
-        <v>115623902</v>
+        <v>120493671</v>
       </c>
       <c r="L93" s="13" t="n">
-        <v>120493671</v>
+        <v>110111111</v>
       </c>
       <c r="M93" s="13" t="n">
-        <v>110111111</v>
+        <v>95853968</v>
       </c>
       <c r="N93" s="13" t="n">
-        <v>95853968</v>
+        <v>106678571</v>
       </c>
       <c r="O93" s="13" t="n">
-        <v>106678571</v>
+        <v>85170455</v>
       </c>
       <c r="P93" s="13" t="n">
-        <v>85170455</v>
+        <v>118800000</v>
       </c>
       <c r="Q93" s="13" t="n">
-        <v>118800000</v>
+        <v>117592593</v>
       </c>
       <c r="R93" s="13" t="n">
-        <v>117592593</v>
+        <v>113333333</v>
       </c>
       <c r="S93" s="13" t="n">
-        <v>113333333</v>
+        <v>115875000</v>
       </c>
       <c r="T93" s="13" t="n">
-        <v>115875000</v>
+        <v>135000000</v>
       </c>
       <c r="U93" s="13" t="n">
-        <v>135000000</v>
+        <v>106593750</v>
       </c>
       <c r="V93" s="13" t="n">
-        <v>106593750</v>
+        <v>210288462</v>
       </c>
       <c r="W93" s="13" t="n">
-        <v>210288462</v>
+        <v>159056926</v>
       </c>
       <c r="X93" s="13" t="n">
-        <v>159056926</v>
+        <v>217086705</v>
       </c>
       <c r="Y93" s="13" t="n">
-        <v>217086705</v>
+        <v>212571429</v>
       </c>
       <c r="Z93" s="13" t="n">
-        <v>212571429</v>
+        <v>219928270</v>
       </c>
       <c r="AA93" s="13" t="n">
-        <v>219928270</v>
+        <v>216153153</v>
       </c>
       <c r="AB93" s="13" t="n">
-        <v>216153153</v>
+        <v>238640000</v>
       </c>
       <c r="AC93" s="13" t="n">
-        <v>238640000</v>
+        <v>140000000</v>
       </c>
       <c r="AD93" s="13" t="n">
-        <v>140000000</v>
+        <v>196833333</v>
       </c>
       <c r="AE93" s="13" t="n">
-        <v>196833333</v>
+        <v>214030303</v>
       </c>
       <c r="AF93" s="13" t="n">
-        <v>214030303</v>
+        <v>204100000</v>
       </c>
       <c r="AG93" s="13" t="n">
-        <v>204100000</v>
+        <v>335222222</v>
       </c>
       <c r="AH93" s="13" t="n">
-        <v>335222222</v>
+        <v>353613793</v>
       </c>
       <c r="AI93" s="13" t="n">
-        <v>353613793</v>
+        <v>363110912</v>
       </c>
       <c r="AJ93" s="13" t="n">
-        <v>363110912</v>
+        <v>333688716</v>
       </c>
       <c r="AK93" s="13" t="n">
-        <v>333688716</v>
+        <v>377737226</v>
       </c>
       <c r="AL93" s="13" t="n">
-        <v>377737226</v>
+        <v>385072727</v>
       </c>
       <c r="AM93" s="13" t="n">
-        <v>385072727</v>
+        <v>387150000</v>
       </c>
       <c r="AN93" s="13" t="n">
-        <v>387150000</v>
-      </c>
-      <c r="AO93" s="13" t="n">
         <v>392647059</v>
+      </c>
+      <c r="AO93" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP93" s="13" t="s">
         <v>57</v>
@@ -14262,82 +14262,82 @@
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16" t="n">
-        <v>67646419</v>
+        <v>65193664</v>
       </c>
       <c r="F94" s="16" t="n">
-        <v>65193664</v>
+        <v>69116024</v>
       </c>
       <c r="G94" s="16" t="n">
-        <v>69116024</v>
+        <v>77350915</v>
       </c>
       <c r="H94" s="16" t="n">
-        <v>77350915</v>
+        <v>83111146</v>
       </c>
       <c r="I94" s="16" t="n">
-        <v>83111146</v>
+        <v>61702237</v>
       </c>
       <c r="J94" s="16" t="n">
-        <v>61702237</v>
+        <v>57578887</v>
       </c>
       <c r="K94" s="16" t="n">
-        <v>57578887</v>
+        <v>56261485</v>
       </c>
       <c r="L94" s="16" t="n">
-        <v>56261485</v>
+        <v>58672025</v>
       </c>
       <c r="M94" s="16" t="n">
-        <v>58672025</v>
+        <v>54102649</v>
       </c>
       <c r="N94" s="16" t="n">
-        <v>54102649</v>
+        <v>61916745</v>
       </c>
       <c r="O94" s="16" t="n">
-        <v>61916745</v>
+        <v>55738971</v>
       </c>
       <c r="P94" s="16" t="n">
-        <v>55738971</v>
+        <v>63818938</v>
       </c>
       <c r="Q94" s="16" t="n">
-        <v>63818938</v>
+        <v>68006772</v>
       </c>
       <c r="R94" s="16" t="n">
-        <v>68006772</v>
+        <v>65033794</v>
       </c>
       <c r="S94" s="16" t="n">
-        <v>65033794</v>
+        <v>51287822</v>
       </c>
       <c r="T94" s="16" t="n">
-        <v>51287822</v>
+        <v>60287077</v>
       </c>
       <c r="U94" s="16" t="n">
-        <v>60287077</v>
+        <v>78769288</v>
       </c>
       <c r="V94" s="16" t="n">
-        <v>78769288</v>
+        <v>85344239</v>
       </c>
       <c r="W94" s="16" t="n">
-        <v>85344239</v>
+        <v>89206083</v>
       </c>
       <c r="X94" s="16" t="n">
-        <v>89206083</v>
+        <v>108677842</v>
       </c>
       <c r="Y94" s="16" t="n">
-        <v>108677842</v>
+        <v>128428711</v>
       </c>
       <c r="Z94" s="16" t="n">
-        <v>128428711</v>
+        <v>143048476</v>
       </c>
       <c r="AA94" s="16" t="n">
-        <v>143048476</v>
+        <v>128566459</v>
       </c>
       <c r="AB94" s="16" t="n">
-        <v>128566459</v>
+        <v>153864621</v>
       </c>
       <c r="AC94" s="16" t="n">
-        <v>153864621</v>
-      </c>
-      <c r="AD94" s="16" t="n">
         <v>154647428</v>
+      </c>
+      <c r="AD94" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE94" s="16" t="s">
         <v>57</v>
@@ -14495,80 +14495,80 @@
       <c r="AC95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD95" s="13" t="s">
-        <v>57</v>
+      <c r="AD95" s="13" t="n">
+        <v>184400438</v>
       </c>
       <c r="AE95" s="13" t="n">
-        <v>184400438</v>
+        <v>199986839</v>
       </c>
       <c r="AF95" s="13" t="n">
-        <v>199986839</v>
+        <v>208858972</v>
       </c>
       <c r="AG95" s="13" t="n">
-        <v>208858972</v>
+        <v>210713467</v>
       </c>
       <c r="AH95" s="13" t="n">
-        <v>210713467</v>
+        <v>216125356</v>
       </c>
       <c r="AI95" s="13" t="n">
-        <v>216125356</v>
+        <v>220843415</v>
       </c>
       <c r="AJ95" s="13" t="n">
-        <v>220843415</v>
+        <v>227544237</v>
       </c>
       <c r="AK95" s="13" t="n">
-        <v>227544237</v>
+        <v>221598440</v>
       </c>
       <c r="AL95" s="13" t="n">
-        <v>221598440</v>
+        <v>214763396</v>
       </c>
       <c r="AM95" s="13" t="n">
-        <v>214763396</v>
+        <v>213494651</v>
       </c>
       <c r="AN95" s="13" t="n">
-        <v>213494651</v>
+        <v>209133194</v>
       </c>
       <c r="AO95" s="13" t="n">
-        <v>209133194</v>
+        <v>207735906</v>
       </c>
       <c r="AP95" s="13" t="n">
-        <v>207735906</v>
+        <v>278141629</v>
       </c>
       <c r="AQ95" s="13" t="n">
-        <v>278141629</v>
+        <v>259401327</v>
       </c>
       <c r="AR95" s="13" t="n">
-        <v>259401327</v>
+        <v>268276167</v>
       </c>
       <c r="AS95" s="13" t="n">
-        <v>268276167</v>
+        <v>299006480</v>
       </c>
       <c r="AT95" s="13" t="n">
-        <v>299006480</v>
+        <v>305100230</v>
       </c>
       <c r="AU95" s="13" t="n">
-        <v>305100230</v>
+        <v>267570489</v>
       </c>
       <c r="AV95" s="13" t="n">
-        <v>267570489</v>
+        <v>264291296</v>
       </c>
       <c r="AW95" s="13" t="n">
-        <v>264291296</v>
+        <v>270733530</v>
       </c>
       <c r="AX95" s="13" t="n">
-        <v>270733530</v>
+        <v>251083470</v>
       </c>
       <c r="AY95" s="13" t="n">
-        <v>251083470</v>
+        <v>293285888</v>
       </c>
       <c r="AZ95" s="13" t="n">
-        <v>293285888</v>
+        <v>310347851</v>
       </c>
       <c r="BA95" s="13" t="n">
-        <v>310347851</v>
+        <v>363369064</v>
       </c>
       <c r="BB95" s="13" t="n">
-        <v>363369064</v>
+        <v>356720283</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14654,80 +14654,80 @@
       <c r="AC96" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD96" s="16" t="s">
-        <v>57</v>
+      <c r="AD96" s="16" t="n">
+        <v>138200192</v>
       </c>
       <c r="AE96" s="16" t="n">
-        <v>138200192</v>
+        <v>129418367</v>
       </c>
       <c r="AF96" s="16" t="n">
-        <v>129418367</v>
+        <v>143336772</v>
       </c>
       <c r="AG96" s="16" t="n">
-        <v>143336772</v>
+        <v>160583137</v>
       </c>
       <c r="AH96" s="16" t="n">
-        <v>160583137</v>
+        <v>166863549</v>
       </c>
       <c r="AI96" s="16" t="n">
-        <v>166863549</v>
+        <v>175064703</v>
       </c>
       <c r="AJ96" s="16" t="n">
-        <v>175064703</v>
+        <v>193072005</v>
       </c>
       <c r="AK96" s="16" t="n">
-        <v>193072005</v>
+        <v>215745962</v>
       </c>
       <c r="AL96" s="16" t="n">
-        <v>215745962</v>
+        <v>233302883</v>
       </c>
       <c r="AM96" s="16" t="n">
-        <v>233302883</v>
+        <v>253872686</v>
       </c>
       <c r="AN96" s="16" t="n">
-        <v>253872686</v>
+        <v>223226066</v>
       </c>
       <c r="AO96" s="16" t="n">
-        <v>223226066</v>
+        <v>251307692</v>
       </c>
       <c r="AP96" s="16" t="n">
-        <v>251307692</v>
+        <v>307728261</v>
       </c>
       <c r="AQ96" s="16" t="n">
-        <v>307728261</v>
+        <v>275125741</v>
       </c>
       <c r="AR96" s="16" t="n">
-        <v>275125741</v>
+        <v>299840622</v>
       </c>
       <c r="AS96" s="16" t="n">
-        <v>299840622</v>
+        <v>317597087</v>
       </c>
       <c r="AT96" s="16" t="n">
-        <v>317597087</v>
+        <v>307855586</v>
       </c>
       <c r="AU96" s="16" t="n">
-        <v>307855586</v>
+        <v>228333333</v>
       </c>
       <c r="AV96" s="16" t="n">
-        <v>228333333</v>
+        <v>218574378</v>
       </c>
       <c r="AW96" s="16" t="n">
-        <v>218574378</v>
+        <v>225835142</v>
       </c>
       <c r="AX96" s="16" t="n">
-        <v>225835142</v>
+        <v>229348348</v>
       </c>
       <c r="AY96" s="16" t="n">
-        <v>229348348</v>
+        <v>297035537</v>
       </c>
       <c r="AZ96" s="16" t="n">
-        <v>297035537</v>
+        <v>224606380</v>
       </c>
       <c r="BA96" s="16" t="n">
-        <v>224606380</v>
+        <v>238304587</v>
       </c>
       <c r="BB96" s="16" t="n">
-        <v>238304587</v>
+        <v>251702280</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14750,143 +14750,143 @@
       <c r="H97" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I97" s="13" t="s">
-        <v>57</v>
+      <c r="I97" s="13" t="n">
+        <v>101285714</v>
       </c>
       <c r="J97" s="13" t="n">
-        <v>101285714</v>
+        <v>99608696</v>
       </c>
       <c r="K97" s="13" t="n">
-        <v>99608696</v>
+        <v>101276923</v>
       </c>
       <c r="L97" s="13" t="n">
-        <v>101276923</v>
+        <v>105605634</v>
       </c>
       <c r="M97" s="13" t="n">
-        <v>105605634</v>
+        <v>111939394</v>
       </c>
       <c r="N97" s="13" t="n">
-        <v>111939394</v>
+        <v>105676056</v>
       </c>
       <c r="O97" s="13" t="n">
-        <v>105676056</v>
+        <v>101560976</v>
       </c>
       <c r="P97" s="13" t="n">
-        <v>101560976</v>
+        <v>103636364</v>
       </c>
       <c r="Q97" s="13" t="n">
-        <v>103636364</v>
+        <v>100672727</v>
       </c>
       <c r="R97" s="13" t="n">
-        <v>100672727</v>
+        <v>105444444</v>
       </c>
       <c r="S97" s="13" t="n">
-        <v>105444444</v>
+        <v>107016260</v>
       </c>
       <c r="T97" s="13" t="n">
-        <v>107016260</v>
+        <v>103711111</v>
       </c>
       <c r="U97" s="13" t="n">
-        <v>103711111</v>
+        <v>97031746</v>
       </c>
       <c r="V97" s="13" t="n">
-        <v>97031746</v>
+        <v>130444444</v>
       </c>
       <c r="W97" s="13" t="n">
-        <v>130444444</v>
+        <v>106924528</v>
       </c>
       <c r="X97" s="13" t="n">
-        <v>106924528</v>
+        <v>121257576</v>
       </c>
       <c r="Y97" s="13" t="n">
-        <v>121257576</v>
+        <v>157200000</v>
       </c>
       <c r="Z97" s="13" t="n">
-        <v>157200000</v>
+        <v>218152174</v>
       </c>
       <c r="AA97" s="13" t="n">
-        <v>218152174</v>
+        <v>218187500</v>
       </c>
       <c r="AB97" s="13" t="n">
-        <v>218187500</v>
+        <v>205285714</v>
       </c>
       <c r="AC97" s="13" t="n">
-        <v>205285714</v>
+        <v>193833333</v>
       </c>
       <c r="AD97" s="13" t="n">
-        <v>193833333</v>
+        <v>181500000</v>
       </c>
       <c r="AE97" s="13" t="n">
-        <v>181500000</v>
+        <v>220610390</v>
       </c>
       <c r="AF97" s="13" t="n">
-        <v>220610390</v>
+        <v>221066667</v>
       </c>
       <c r="AG97" s="13" t="n">
-        <v>221066667</v>
+        <v>226454545</v>
       </c>
       <c r="AH97" s="13" t="n">
-        <v>226454545</v>
+        <v>230384615</v>
       </c>
       <c r="AI97" s="13" t="n">
-        <v>230384615</v>
-      </c>
-      <c r="AJ97" s="13" t="n">
         <v>205000000</v>
       </c>
+      <c r="AJ97" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AK97" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL97" s="13" t="s">
-        <v>57</v>
+      <c r="AL97" s="13" t="n">
+        <v>275387097</v>
       </c>
       <c r="AM97" s="13" t="n">
-        <v>275387097</v>
+        <v>268475000</v>
       </c>
       <c r="AN97" s="13" t="n">
-        <v>268475000</v>
+        <v>267373333</v>
       </c>
       <c r="AO97" s="13" t="n">
-        <v>267373333</v>
+        <v>274655462</v>
       </c>
       <c r="AP97" s="13" t="n">
-        <v>274655462</v>
+        <v>390571429</v>
       </c>
       <c r="AQ97" s="13" t="n">
-        <v>390571429</v>
+        <v>404843137</v>
       </c>
       <c r="AR97" s="13" t="n">
-        <v>404843137</v>
+        <v>501500000</v>
       </c>
       <c r="AS97" s="13" t="n">
-        <v>501500000</v>
+        <v>373500000</v>
       </c>
       <c r="AT97" s="13" t="n">
-        <v>373500000</v>
-      </c>
-      <c r="AU97" s="13" t="n">
         <v>714500000</v>
       </c>
-      <c r="AV97" s="13" t="s">
-        <v>57</v>
+      <c r="AU97" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV97" s="13" t="n">
+        <v>362176471</v>
       </c>
       <c r="AW97" s="13" t="n">
-        <v>362176471</v>
+        <v>367812500</v>
       </c>
       <c r="AX97" s="13" t="n">
-        <v>367812500</v>
+        <v>508354167</v>
       </c>
       <c r="AY97" s="13" t="n">
-        <v>508354167</v>
+        <v>547609756</v>
       </c>
       <c r="AZ97" s="13" t="n">
-        <v>547609756</v>
+        <v>469543478</v>
       </c>
       <c r="BA97" s="13" t="n">
-        <v>469543478</v>
+        <v>482442424</v>
       </c>
       <c r="BB97" s="13" t="n">
-        <v>482442424</v>
+        <v>473115942</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15008,44 +15008,44 @@
       <c r="AO98" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP98" s="16" t="s">
-        <v>57</v>
+      <c r="AP98" s="16" t="n">
+        <v>385800000</v>
       </c>
       <c r="AQ98" s="16" t="n">
-        <v>385800000</v>
+        <v>349584615</v>
       </c>
       <c r="AR98" s="16" t="n">
-        <v>349584615</v>
+        <v>457268519</v>
       </c>
       <c r="AS98" s="16" t="n">
-        <v>457268519</v>
+        <v>545109375</v>
       </c>
       <c r="AT98" s="16" t="n">
-        <v>545109375</v>
+        <v>596875000</v>
       </c>
       <c r="AU98" s="16" t="n">
-        <v>596875000</v>
+        <v>332695652</v>
       </c>
       <c r="AV98" s="16" t="n">
-        <v>332695652</v>
+        <v>444629630</v>
       </c>
       <c r="AW98" s="16" t="n">
-        <v>444629630</v>
+        <v>413677419</v>
       </c>
       <c r="AX98" s="16" t="n">
-        <v>413677419</v>
+        <v>374224490</v>
       </c>
       <c r="AY98" s="16" t="n">
-        <v>374224490</v>
+        <v>318011494</v>
       </c>
       <c r="AZ98" s="16" t="n">
-        <v>318011494</v>
+        <v>329975000</v>
       </c>
       <c r="BA98" s="16" t="n">
-        <v>329975000</v>
+        <v>329066116</v>
       </c>
       <c r="BB98" s="16" t="n">
-        <v>329066116</v>
+        <v>351720000</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15057,19 +15057,19 @@
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="n">
-        <v>33089273</v>
+        <v>48698922</v>
       </c>
       <c r="F99" s="13" t="n">
-        <v>48698922</v>
+        <v>41716553</v>
       </c>
       <c r="G99" s="13" t="n">
-        <v>41716553</v>
+        <v>47468288</v>
       </c>
       <c r="H99" s="13" t="n">
-        <v>47468288</v>
+        <v>53022171</v>
       </c>
       <c r="I99" s="13" t="n">
-        <v>53022171</v>
+        <v>0</v>
       </c>
       <c r="J99" s="13" t="n">
         <v>0</v>
@@ -15095,17 +15095,17 @@
       <c r="Q99" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R99" s="13" t="n">
-        <v>0</v>
+      <c r="R99" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S99" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T99" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U99" s="13" t="n">
+      <c r="T99" s="13" t="n">
         <v>64685185</v>
+      </c>
+      <c r="U99" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V99" s="13" t="s">
         <v>57</v>
@@ -15290,80 +15290,80 @@
       <c r="AC100" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD100" s="16" t="s">
-        <v>57</v>
+      <c r="AD100" s="16" t="n">
+        <v>133847769</v>
       </c>
       <c r="AE100" s="16" t="n">
-        <v>133847769</v>
+        <v>139861677</v>
       </c>
       <c r="AF100" s="16" t="n">
-        <v>139861677</v>
+        <v>139252250</v>
       </c>
       <c r="AG100" s="16" t="n">
-        <v>139252250</v>
+        <v>163596586</v>
       </c>
       <c r="AH100" s="16" t="n">
-        <v>163596586</v>
+        <v>174963969</v>
       </c>
       <c r="AI100" s="16" t="n">
-        <v>174963969</v>
+        <v>204416175</v>
       </c>
       <c r="AJ100" s="16" t="n">
-        <v>204416175</v>
+        <v>223082783</v>
       </c>
       <c r="AK100" s="16" t="n">
-        <v>223082783</v>
+        <v>246831373</v>
       </c>
       <c r="AL100" s="16" t="n">
-        <v>246831373</v>
+        <v>248136951</v>
       </c>
       <c r="AM100" s="16" t="n">
-        <v>248136951</v>
+        <v>247478121</v>
       </c>
       <c r="AN100" s="16" t="n">
-        <v>247478121</v>
+        <v>265229630</v>
       </c>
       <c r="AO100" s="16" t="n">
-        <v>265229630</v>
+        <v>243267758</v>
       </c>
       <c r="AP100" s="16" t="n">
-        <v>243267758</v>
+        <v>307451249</v>
       </c>
       <c r="AQ100" s="16" t="n">
-        <v>307451249</v>
+        <v>288667078</v>
       </c>
       <c r="AR100" s="16" t="n">
-        <v>288667078</v>
+        <v>270942200</v>
       </c>
       <c r="AS100" s="16" t="n">
-        <v>270942200</v>
+        <v>275363329</v>
       </c>
       <c r="AT100" s="16" t="n">
-        <v>275363329</v>
+        <v>284998147</v>
       </c>
       <c r="AU100" s="16" t="n">
-        <v>284998147</v>
+        <v>246500756</v>
       </c>
       <c r="AV100" s="16" t="n">
-        <v>246500756</v>
+        <v>243683435</v>
       </c>
       <c r="AW100" s="16" t="n">
-        <v>243683435</v>
+        <v>267870709</v>
       </c>
       <c r="AX100" s="16" t="n">
-        <v>267870709</v>
+        <v>246461020</v>
       </c>
       <c r="AY100" s="16" t="n">
-        <v>246461020</v>
+        <v>297503717</v>
       </c>
       <c r="AZ100" s="16" t="n">
-        <v>297503717</v>
+        <v>280190629</v>
       </c>
       <c r="BA100" s="16" t="n">
-        <v>280190629</v>
+        <v>303826688</v>
       </c>
       <c r="BB100" s="16" t="n">
-        <v>303826688</v>
+        <v>311547710</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15386,71 +15386,71 @@
       <c r="H101" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I101" s="13" t="s">
-        <v>57</v>
+      <c r="I101" s="13" t="n">
+        <v>74725435</v>
       </c>
       <c r="J101" s="13" t="n">
-        <v>74725435</v>
+        <v>68674340</v>
       </c>
       <c r="K101" s="13" t="n">
-        <v>68674340</v>
+        <v>65965901</v>
       </c>
       <c r="L101" s="13" t="n">
-        <v>65965901</v>
+        <v>62445774</v>
       </c>
       <c r="M101" s="13" t="n">
-        <v>62445774</v>
+        <v>49258885</v>
       </c>
       <c r="N101" s="13" t="n">
-        <v>49258885</v>
+        <v>49554476</v>
       </c>
       <c r="O101" s="13" t="n">
-        <v>49554476</v>
+        <v>54462591</v>
       </c>
       <c r="P101" s="13" t="n">
-        <v>54462591</v>
+        <v>58363208</v>
       </c>
       <c r="Q101" s="13" t="n">
-        <v>58363208</v>
+        <v>62641088</v>
       </c>
       <c r="R101" s="13" t="n">
-        <v>62641088</v>
+        <v>64395105</v>
       </c>
       <c r="S101" s="13" t="n">
-        <v>64395105</v>
+        <v>59552676</v>
       </c>
       <c r="T101" s="13" t="n">
-        <v>59552676</v>
+        <v>55397690</v>
       </c>
       <c r="U101" s="13" t="n">
-        <v>55397690</v>
+        <v>64214918</v>
       </c>
       <c r="V101" s="13" t="n">
-        <v>64214918</v>
+        <v>82249892</v>
       </c>
       <c r="W101" s="13" t="n">
-        <v>82249892</v>
+        <v>102296971</v>
       </c>
       <c r="X101" s="13" t="n">
-        <v>102296971</v>
+        <v>129022143</v>
       </c>
       <c r="Y101" s="13" t="n">
-        <v>129022143</v>
+        <v>130099107</v>
       </c>
       <c r="Z101" s="13" t="n">
-        <v>130099107</v>
+        <v>126418108</v>
       </c>
       <c r="AA101" s="13" t="n">
-        <v>126418108</v>
+        <v>134436423</v>
       </c>
       <c r="AB101" s="13" t="n">
-        <v>134436423</v>
+        <v>138004488</v>
       </c>
       <c r="AC101" s="13" t="n">
-        <v>138004488</v>
-      </c>
-      <c r="AD101" s="13" t="n">
         <v>137958618</v>
+      </c>
+      <c r="AD101" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE101" s="13" t="s">
         <v>57</v>
@@ -15608,80 +15608,80 @@
       <c r="AC102" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD102" s="16" t="s">
-        <v>57</v>
+      <c r="AD102" s="16" t="n">
+        <v>194038712</v>
       </c>
       <c r="AE102" s="16" t="n">
-        <v>194038712</v>
+        <v>185844002</v>
       </c>
       <c r="AF102" s="16" t="n">
-        <v>185844002</v>
+        <v>191633662</v>
       </c>
       <c r="AG102" s="16" t="n">
-        <v>191633662</v>
+        <v>207034572</v>
       </c>
       <c r="AH102" s="16" t="n">
-        <v>207034572</v>
+        <v>266557542</v>
       </c>
       <c r="AI102" s="16" t="n">
-        <v>266557542</v>
+        <v>276804803</v>
       </c>
       <c r="AJ102" s="16" t="n">
-        <v>276804803</v>
+        <v>283648710</v>
       </c>
       <c r="AK102" s="16" t="n">
-        <v>283648710</v>
+        <v>278359126</v>
       </c>
       <c r="AL102" s="16" t="n">
-        <v>278359126</v>
+        <v>298338299</v>
       </c>
       <c r="AM102" s="16" t="n">
-        <v>298338299</v>
+        <v>284492266</v>
       </c>
       <c r="AN102" s="16" t="n">
-        <v>284492266</v>
+        <v>275051853</v>
       </c>
       <c r="AO102" s="16" t="n">
-        <v>275051853</v>
+        <v>287511997</v>
       </c>
       <c r="AP102" s="16" t="n">
-        <v>287511997</v>
+        <v>307232082</v>
       </c>
       <c r="AQ102" s="16" t="n">
-        <v>307232082</v>
+        <v>297846133</v>
       </c>
       <c r="AR102" s="16" t="n">
-        <v>297846133</v>
+        <v>327208696</v>
       </c>
       <c r="AS102" s="16" t="n">
-        <v>327208696</v>
+        <v>349345660</v>
       </c>
       <c r="AT102" s="16" t="n">
-        <v>349345660</v>
+        <v>363048614</v>
       </c>
       <c r="AU102" s="16" t="n">
-        <v>363048614</v>
+        <v>351261072</v>
       </c>
       <c r="AV102" s="16" t="n">
-        <v>351261072</v>
+        <v>351354511</v>
       </c>
       <c r="AW102" s="16" t="n">
-        <v>351354511</v>
+        <v>350523468</v>
       </c>
       <c r="AX102" s="16" t="n">
-        <v>350523468</v>
+        <v>350967768</v>
       </c>
       <c r="AY102" s="16" t="n">
-        <v>350967768</v>
+        <v>352385049</v>
       </c>
       <c r="AZ102" s="16" t="n">
-        <v>352385049</v>
+        <v>362374964</v>
       </c>
       <c r="BA102" s="16" t="n">
-        <v>362374964</v>
+        <v>367057647</v>
       </c>
       <c r="BB102" s="16" t="n">
-        <v>367057647</v>
+        <v>379130435</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15767,80 +15767,80 @@
       <c r="AC103" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD103" s="13" t="s">
-        <v>57</v>
+      <c r="AD103" s="13" t="n">
+        <v>231933333</v>
       </c>
       <c r="AE103" s="13" t="n">
-        <v>231933333</v>
+        <v>225449200</v>
       </c>
       <c r="AF103" s="13" t="n">
-        <v>225449200</v>
+        <v>241518872</v>
       </c>
       <c r="AG103" s="13" t="n">
-        <v>241518872</v>
+        <v>271007274</v>
       </c>
       <c r="AH103" s="13" t="n">
-        <v>271007274</v>
+        <v>344920866</v>
       </c>
       <c r="AI103" s="13" t="n">
-        <v>344920866</v>
+        <v>329560702</v>
       </c>
       <c r="AJ103" s="13" t="n">
-        <v>329560702</v>
+        <v>374212121</v>
       </c>
       <c r="AK103" s="13" t="n">
-        <v>374212121</v>
+        <v>345847731</v>
       </c>
       <c r="AL103" s="13" t="n">
-        <v>345847731</v>
+        <v>352599464</v>
       </c>
       <c r="AM103" s="13" t="n">
-        <v>352599464</v>
+        <v>384870778</v>
       </c>
       <c r="AN103" s="13" t="n">
-        <v>384870778</v>
+        <v>347291606</v>
       </c>
       <c r="AO103" s="13" t="n">
-        <v>347291606</v>
+        <v>380364995</v>
       </c>
       <c r="AP103" s="13" t="n">
-        <v>380364995</v>
+        <v>410766879</v>
       </c>
       <c r="AQ103" s="13" t="n">
-        <v>410766879</v>
+        <v>432674669</v>
       </c>
       <c r="AR103" s="13" t="n">
-        <v>432674669</v>
+        <v>466940386</v>
       </c>
       <c r="AS103" s="13" t="n">
-        <v>466940386</v>
+        <v>530194170</v>
       </c>
       <c r="AT103" s="13" t="n">
-        <v>530194170</v>
+        <v>516463242</v>
       </c>
       <c r="AU103" s="13" t="n">
-        <v>516463242</v>
+        <v>486885197</v>
       </c>
       <c r="AV103" s="13" t="n">
-        <v>486885197</v>
+        <v>452367180</v>
       </c>
       <c r="AW103" s="13" t="n">
-        <v>452367180</v>
+        <v>428940490</v>
       </c>
       <c r="AX103" s="13" t="n">
-        <v>428940490</v>
+        <v>381226618</v>
       </c>
       <c r="AY103" s="13" t="n">
-        <v>381226618</v>
+        <v>460761375</v>
       </c>
       <c r="AZ103" s="13" t="n">
-        <v>460761375</v>
+        <v>468456100</v>
       </c>
       <c r="BA103" s="13" t="n">
-        <v>468456100</v>
+        <v>484876552</v>
       </c>
       <c r="BB103" s="13" t="n">
-        <v>484876552</v>
+        <v>467725510</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15926,80 +15926,80 @@
       <c r="AC104" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD104" s="16" t="s">
-        <v>57</v>
+      <c r="AD104" s="16" t="n">
+        <v>243934706</v>
       </c>
       <c r="AE104" s="16" t="n">
-        <v>243934706</v>
+        <v>253634622</v>
       </c>
       <c r="AF104" s="16" t="n">
-        <v>253634622</v>
+        <v>257646915</v>
       </c>
       <c r="AG104" s="16" t="n">
-        <v>257646915</v>
+        <v>263179549</v>
       </c>
       <c r="AH104" s="16" t="n">
-        <v>263179549</v>
+        <v>264720839</v>
       </c>
       <c r="AI104" s="16" t="n">
-        <v>264720839</v>
+        <v>280414199</v>
       </c>
       <c r="AJ104" s="16" t="n">
-        <v>280414199</v>
+        <v>275922260</v>
       </c>
       <c r="AK104" s="16" t="n">
-        <v>275922260</v>
+        <v>323774706</v>
       </c>
       <c r="AL104" s="16" t="n">
-        <v>323774706</v>
+        <v>352261117</v>
       </c>
       <c r="AM104" s="16" t="n">
-        <v>352261117</v>
+        <v>325539741</v>
       </c>
       <c r="AN104" s="16" t="n">
-        <v>325539741</v>
+        <v>330793454</v>
       </c>
       <c r="AO104" s="16" t="n">
-        <v>330793454</v>
+        <v>342526555</v>
       </c>
       <c r="AP104" s="16" t="n">
-        <v>342526555</v>
+        <v>376531754</v>
       </c>
       <c r="AQ104" s="16" t="n">
-        <v>376531754</v>
+        <v>419756695</v>
       </c>
       <c r="AR104" s="16" t="n">
-        <v>419756695</v>
+        <v>425361890</v>
       </c>
       <c r="AS104" s="16" t="n">
-        <v>425361890</v>
+        <v>407796855</v>
       </c>
       <c r="AT104" s="16" t="n">
-        <v>407796855</v>
+        <v>416055066</v>
       </c>
       <c r="AU104" s="16" t="n">
-        <v>416055066</v>
+        <v>433681204</v>
       </c>
       <c r="AV104" s="16" t="n">
-        <v>433681204</v>
+        <v>415119911</v>
       </c>
       <c r="AW104" s="16" t="n">
-        <v>415119911</v>
+        <v>419146804</v>
       </c>
       <c r="AX104" s="16" t="n">
-        <v>419146804</v>
+        <v>382127772</v>
       </c>
       <c r="AY104" s="16" t="n">
-        <v>382127772</v>
+        <v>351186433</v>
       </c>
       <c r="AZ104" s="16" t="n">
-        <v>351186433</v>
+        <v>368817123</v>
       </c>
       <c r="BA104" s="16" t="n">
-        <v>368817123</v>
+        <v>408218642</v>
       </c>
       <c r="BB104" s="16" t="n">
-        <v>408218642</v>
+        <v>439223391</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16085,80 +16085,80 @@
       <c r="AC105" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD105" s="13" t="s">
-        <v>57</v>
+      <c r="AD105" s="13" t="n">
+        <v>245346835</v>
       </c>
       <c r="AE105" s="13" t="n">
-        <v>245346835</v>
+        <v>253357562</v>
       </c>
       <c r="AF105" s="13" t="n">
-        <v>253357562</v>
+        <v>307887776</v>
       </c>
       <c r="AG105" s="13" t="n">
-        <v>307887776</v>
+        <v>309535797</v>
       </c>
       <c r="AH105" s="13" t="n">
-        <v>309535797</v>
+        <v>318991304</v>
       </c>
       <c r="AI105" s="13" t="n">
-        <v>318991304</v>
+        <v>299095519</v>
       </c>
       <c r="AJ105" s="13" t="n">
-        <v>299095519</v>
+        <v>369393220</v>
       </c>
       <c r="AK105" s="13" t="n">
-        <v>369393220</v>
+        <v>386710345</v>
       </c>
       <c r="AL105" s="13" t="n">
-        <v>386710345</v>
+        <v>379030637</v>
       </c>
       <c r="AM105" s="13" t="n">
-        <v>379030637</v>
+        <v>358500990</v>
       </c>
       <c r="AN105" s="13" t="n">
-        <v>358500990</v>
+        <v>319500867</v>
       </c>
       <c r="AO105" s="13" t="n">
-        <v>319500867</v>
+        <v>374261023</v>
       </c>
       <c r="AP105" s="13" t="n">
-        <v>374261023</v>
+        <v>474303828</v>
       </c>
       <c r="AQ105" s="13" t="n">
-        <v>474303828</v>
+        <v>435325843</v>
       </c>
       <c r="AR105" s="13" t="n">
-        <v>435325843</v>
+        <v>445188377</v>
       </c>
       <c r="AS105" s="13" t="n">
-        <v>445188377</v>
+        <v>543872832</v>
       </c>
       <c r="AT105" s="13" t="n">
-        <v>543872832</v>
+        <v>607760300</v>
       </c>
       <c r="AU105" s="13" t="n">
-        <v>607760300</v>
+        <v>470963415</v>
       </c>
       <c r="AV105" s="13" t="n">
-        <v>470963415</v>
+        <v>458327434</v>
       </c>
       <c r="AW105" s="13" t="n">
-        <v>458327434</v>
+        <v>470227684</v>
       </c>
       <c r="AX105" s="13" t="n">
-        <v>470227684</v>
+        <v>426730277</v>
       </c>
       <c r="AY105" s="13" t="n">
-        <v>426730277</v>
+        <v>458887850</v>
       </c>
       <c r="AZ105" s="13" t="n">
-        <v>458887850</v>
+        <v>463007884</v>
       </c>
       <c r="BA105" s="13" t="n">
-        <v>463007884</v>
+        <v>474165736</v>
       </c>
       <c r="BB105" s="13" t="n">
-        <v>474165736</v>
+        <v>452438511</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16244,80 +16244,80 @@
       <c r="AC106" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD106" s="16" t="s">
-        <v>57</v>
+      <c r="AD106" s="16" t="n">
+        <v>67280908</v>
       </c>
       <c r="AE106" s="16" t="n">
-        <v>67280908</v>
+        <v>68297687</v>
       </c>
       <c r="AF106" s="16" t="n">
-        <v>68297687</v>
+        <v>68402693</v>
       </c>
       <c r="AG106" s="16" t="n">
-        <v>68402693</v>
+        <v>75298658</v>
       </c>
       <c r="AH106" s="16" t="n">
-        <v>75298658</v>
+        <v>74633083</v>
       </c>
       <c r="AI106" s="16" t="n">
-        <v>74633083</v>
+        <v>83458331</v>
       </c>
       <c r="AJ106" s="16" t="n">
-        <v>83458331</v>
+        <v>94604423</v>
       </c>
       <c r="AK106" s="16" t="n">
-        <v>94604423</v>
+        <v>90682401</v>
       </c>
       <c r="AL106" s="16" t="n">
-        <v>90682401</v>
+        <v>92319085</v>
       </c>
       <c r="AM106" s="16" t="n">
-        <v>92319085</v>
+        <v>98020666</v>
       </c>
       <c r="AN106" s="16" t="n">
-        <v>98020666</v>
+        <v>106057062</v>
       </c>
       <c r="AO106" s="16" t="n">
-        <v>106057062</v>
+        <v>114310582</v>
       </c>
       <c r="AP106" s="16" t="n">
-        <v>114310582</v>
+        <v>149330616</v>
       </c>
       <c r="AQ106" s="16" t="n">
-        <v>149330616</v>
+        <v>139444686</v>
       </c>
       <c r="AR106" s="16" t="n">
-        <v>139444686</v>
+        <v>140482949</v>
       </c>
       <c r="AS106" s="16" t="n">
-        <v>140482949</v>
+        <v>121533933</v>
       </c>
       <c r="AT106" s="16" t="n">
-        <v>121533933</v>
+        <v>117806593</v>
       </c>
       <c r="AU106" s="16" t="n">
-        <v>117806593</v>
+        <v>92033746</v>
       </c>
       <c r="AV106" s="16" t="n">
-        <v>92033746</v>
+        <v>92857414</v>
       </c>
       <c r="AW106" s="16" t="n">
-        <v>92857414</v>
+        <v>92180523</v>
       </c>
       <c r="AX106" s="16" t="n">
-        <v>92180523</v>
+        <v>85554434</v>
       </c>
       <c r="AY106" s="16" t="n">
-        <v>85554434</v>
+        <v>104274680</v>
       </c>
       <c r="AZ106" s="16" t="n">
-        <v>104274680</v>
+        <v>116383534</v>
       </c>
       <c r="BA106" s="16" t="n">
-        <v>116383534</v>
+        <v>116584219</v>
       </c>
       <c r="BB106" s="16" t="n">
-        <v>116584219</v>
+        <v>135301521</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16409,14 +16409,14 @@
       <c r="AE107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF107" s="13" t="s">
-        <v>57</v>
+      <c r="AF107" s="13" t="n">
+        <v>130085828</v>
       </c>
       <c r="AG107" s="13" t="n">
-        <v>130085828</v>
-      </c>
-      <c r="AH107" s="13" t="n">
         <v>129865424</v>
+      </c>
+      <c r="AH107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI107" s="13" t="s">
         <v>57</v>
